--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\ZoopSynth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\ZoopSynth\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="381">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -325,9 +325,6 @@
   </si>
   <si>
     <t>Unid rotifer</t>
-  </si>
-  <si>
-    <t>Monogononta</t>
   </si>
   <si>
     <t>Ploima</t>
@@ -1032,9 +1029,6 @@
   </si>
   <si>
     <t>Leptodora</t>
-  </si>
-  <si>
-    <t>Brachiopoda</t>
   </si>
   <si>
     <t>Leptodoridae</t>
@@ -2052,16 +2046,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>206</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -2076,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,12 +2089,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,12 +2111,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2140,23 +2134,23 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2171,17 +2165,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2195,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2214,12 +2208,12 @@
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2233,32 +2227,32 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -2267,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,11 +2362,11 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="17"/>
       <c r="D26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2380,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,7 +2394,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2414,7 +2408,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>31</v>
@@ -2423,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,7 +2433,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>34</v>
@@ -2448,12 +2442,12 @@
         <v>34</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>35</v>
@@ -2462,22 +2456,22 @@
         <v>35</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>36</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>37</v>
@@ -2497,22 +2491,22 @@
         <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>38</v>
@@ -2523,7 +2517,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>39</v>
@@ -2532,7 +2526,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,12 +2537,12 @@
         <v>73</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>40</v>
@@ -2557,12 +2551,12 @@
         <v>40</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>41</v>
@@ -2571,7 +2565,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,21 +2587,21 @@
         <v>75</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="15"/>
       <c r="D45" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>44</v>
@@ -2629,7 +2623,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
@@ -2638,22 +2632,22 @@
         <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>48</v>
@@ -2673,12 +2667,12 @@
         <v>49</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>51</v>
@@ -2687,12 +2681,12 @@
         <v>51</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>52</v>
@@ -2701,27 +2695,27 @@
         <v>52</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,12 +2729,12 @@
         <v>53</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>55</v>
@@ -2749,12 +2743,12 @@
         <v>55</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>56</v>
@@ -2763,7 +2757,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,7 +2786,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>59</v>
@@ -2801,12 +2795,12 @@
         <v>59</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>60</v>
@@ -2815,7 +2809,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,7 +2825,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>61</v>
@@ -2840,7 +2834,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,7 +2848,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,7 +2862,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,7 +2919,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2938,8 +2932,8 @@
   <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2969,25 +2963,25 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>82</v>
@@ -3008,28 +3002,28 @@
         <v>87</v>
       </c>
       <c r="N1" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="Q1" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="R1" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="S1" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="T1" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="U1" s="78" t="s">
         <v>380</v>
-      </c>
-      <c r="T1" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="U1" s="78" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3040,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>1</v>
@@ -3058,16 +3052,16 @@
         <v>93</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>1</v>
@@ -3097,10 +3091,10 @@
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>86</v>
@@ -3109,16 +3103,16 @@
         <v>93</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="M3" s="37"/>
       <c r="O3" s="80">
@@ -3135,14 +3129,14 @@
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>86</v>
@@ -3151,16 +3145,16 @@
         <v>93</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M4" s="60"/>
       <c r="S4" s="81">
@@ -3175,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>4</v>
@@ -3190,10 +3184,10 @@
         <v>93</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5" s="42" t="s">
         <v>4</v>
@@ -3215,13 +3209,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>6</v>
@@ -3233,16 +3227,16 @@
         <v>93</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>6</v>
@@ -3261,16 +3255,16 @@
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>87</v>
@@ -3279,19 +3273,19 @@
         <v>93</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S7" s="81">
         <v>1995</v>
@@ -3301,14 +3295,14 @@
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>84</v>
@@ -3317,10 +3311,10 @@
         <v>93</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
@@ -3337,16 +3331,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>84</v>
@@ -3355,10 +3349,10 @@
         <v>93</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
@@ -3377,14 +3371,14 @@
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>86</v>
@@ -3393,16 +3387,16 @@
         <v>93</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="81">
@@ -3420,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>10</v>
@@ -3438,16 +3432,16 @@
         <v>93</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>10</v>
@@ -3479,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>12</v>
@@ -3491,16 +3485,16 @@
         <v>93</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="39" t="s">
         <v>12</v>
@@ -3521,14 +3515,14 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="C13" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>87</v>
@@ -3537,19 +3531,19 @@
         <v>93</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3560,13 +3554,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>14</v>
@@ -3578,16 +3572,16 @@
         <v>93</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M14" s="39" t="s">
         <v>14</v>
@@ -3609,16 +3603,16 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>87</v>
@@ -3627,33 +3621,33 @@
         <v>93</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>87</v>
@@ -3662,19 +3656,19 @@
         <v>93</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N16" s="80">
         <v>1993</v>
@@ -3694,14 +3688,14 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>86</v>
@@ -3710,16 +3704,16 @@
         <v>93</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M17" s="46"/>
       <c r="N17" s="80">
@@ -3743,13 +3737,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>17</v>
@@ -3761,16 +3755,16 @@
         <v>93</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>106</v>
       </c>
       <c r="M18" s="39" t="s">
         <v>17</v>
@@ -3805,10 +3799,10 @@
         <v>80</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>86</v>
@@ -3817,16 +3811,16 @@
         <v>93</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="80">
@@ -3851,7 +3845,7 @@
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>20</v>
@@ -3863,16 +3857,16 @@
         <v>93</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M20" s="49" t="s">
         <v>20</v>
@@ -3902,7 +3896,7 @@
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="49" t="s">
         <v>22</v>
@@ -3914,16 +3908,16 @@
         <v>93</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M21" s="49" t="s">
         <v>22</v>
@@ -3953,7 +3947,7 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>24</v>
@@ -3965,16 +3959,16 @@
         <v>93</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M22" s="49" t="s">
         <v>24</v>
@@ -4004,7 +3998,7 @@
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>26</v>
@@ -4016,16 +4010,16 @@
         <v>93</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M23" s="49" t="s">
         <v>26</v>
@@ -4051,10 +4045,10 @@
         <v>81</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>86</v>
@@ -4063,16 +4057,16 @@
         <v>93</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="42"/>
       <c r="O24" s="81">
@@ -4085,16 +4079,16 @@
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="C25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>84</v>
@@ -4103,10 +4097,10 @@
         <v>93</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
@@ -4120,14 +4114,14 @@
         <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>84</v>
@@ -4136,10 +4130,10 @@
         <v>93</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
@@ -4162,16 +4156,16 @@
         <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>134</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>84</v>
@@ -4180,10 +4174,10 @@
         <v>93</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
@@ -4203,16 +4197,16 @@
         <v>71</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>84</v>
@@ -4221,10 +4215,10 @@
         <v>93</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
@@ -4247,13 +4241,13 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>6</v>
@@ -4265,16 +4259,16 @@
         <v>93</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M29" s="39" t="s">
         <v>6</v>
@@ -4298,10 +4292,10 @@
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>84</v>
@@ -4310,10 +4304,10 @@
         <v>93</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
@@ -4333,16 +4327,16 @@
         <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>86</v>
@@ -4351,16 +4345,16 @@
         <v>93</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M31" s="37"/>
       <c r="N31" s="81">
@@ -4384,16 +4378,16 @@
         <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>86</v>
@@ -4402,16 +4396,16 @@
         <v>93</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" s="37"/>
       <c r="N32" s="81">
@@ -4431,14 +4425,14 @@
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>86</v>
@@ -4447,16 +4441,16 @@
         <v>93</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="84">
@@ -4474,10 +4468,10 @@
         <v>36</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -4489,16 +4483,16 @@
         <v>93</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>1</v>
@@ -4521,14 +4515,14 @@
         <v>37</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>86</v>
@@ -4537,16 +4531,16 @@
         <v>93</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J35" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="M35" s="37"/>
       <c r="O35" s="81">
@@ -4563,14 +4557,14 @@
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>86</v>
@@ -4579,16 +4573,16 @@
         <v>93</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K36" s="37" t="s">
         <v>4</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M36" s="42"/>
       <c r="S36" s="81">
@@ -4603,10 +4597,10 @@
         <v>38</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>4</v>
@@ -4618,10 +4612,10 @@
         <v>93</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K37" s="42" t="s">
         <v>4</v>
@@ -4643,16 +4637,16 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>86</v>
@@ -4661,16 +4655,16 @@
         <v>93</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38" s="42"/>
       <c r="N38" s="80">
@@ -4691,16 +4685,16 @@
         <v>73</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="39" t="s">
         <v>104</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>105</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>84</v>
@@ -4709,10 +4703,10 @@
         <v>93</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
@@ -4735,14 +4729,14 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="69"/>
       <c r="E40" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>86</v>
@@ -4751,16 +4745,16 @@
         <v>93</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M40" s="37"/>
       <c r="N40" s="80">
@@ -4784,14 +4778,14 @@
         <v>41</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>86</v>
@@ -4800,16 +4794,16 @@
         <v>93</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M41" s="37"/>
       <c r="O41" s="81">
@@ -4831,10 +4825,10 @@
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" s="48" t="s">
         <v>84</v>
@@ -4843,10 +4837,10 @@
         <v>93</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J42" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
@@ -4864,23 +4858,23 @@
         <v>75</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>93</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J43" s="60"/>
       <c r="K43" s="60"/>
@@ -4899,16 +4893,16 @@
     <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="C44" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>86</v>
@@ -4917,16 +4911,16 @@
         <v>93</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L44" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M44" s="37"/>
       <c r="S44" s="81">
@@ -4942,7 +4936,7 @@
       </c>
       <c r="D45" s="69"/>
       <c r="E45" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>6</v>
@@ -4954,16 +4948,16 @@
         <v>93</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M45" s="49" t="s">
         <v>6</v>
@@ -4983,22 +4977,22 @@
         <v>45</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>93</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J46" s="60"/>
       <c r="K46" s="60"/>
@@ -5019,16 +5013,16 @@
         <v>47</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G47" s="48" t="s">
         <v>86</v>
@@ -5037,16 +5031,16 @@
         <v>93</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K47" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M47" s="37"/>
       <c r="N47" s="81">
@@ -5066,14 +5060,14 @@
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>86</v>
@@ -5082,16 +5076,16 @@
         <v>93</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K48" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M48" s="37"/>
       <c r="N48" s="81">
@@ -5109,10 +5103,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>14</v>
@@ -5124,16 +5118,16 @@
         <v>93</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K49" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M49" s="49" t="s">
         <v>14</v>
@@ -5156,13 +5150,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>50</v>
@@ -5174,16 +5168,16 @@
         <v>93</v>
       </c>
       <c r="I50" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="J50" s="46" t="s">
-        <v>137</v>
-      </c>
       <c r="K50" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>50</v>
@@ -5206,16 +5200,16 @@
         <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>86</v>
@@ -5224,16 +5218,16 @@
         <v>93</v>
       </c>
       <c r="I51" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="K51" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="L51" s="37" t="s">
         <v>137</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L51" s="37" t="s">
-        <v>138</v>
       </c>
       <c r="M51" s="42"/>
       <c r="N51" s="81">
@@ -5257,16 +5251,16 @@
         <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>86</v>
@@ -5275,16 +5269,16 @@
         <v>93</v>
       </c>
       <c r="I52" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J52" s="37" t="s">
-        <v>137</v>
-      </c>
       <c r="K52" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L52" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M52" s="42"/>
       <c r="O52" s="81">
@@ -5301,16 +5295,16 @@
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>86</v>
@@ -5319,16 +5313,16 @@
         <v>93</v>
       </c>
       <c r="I53" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="37" t="s">
-        <v>137</v>
-      </c>
       <c r="K53" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M53" s="42"/>
       <c r="S53" s="81">
@@ -5339,16 +5333,16 @@
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>84</v>
@@ -5357,10 +5351,10 @@
         <v>93</v>
       </c>
       <c r="I54" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J54" s="46" t="s">
         <v>136</v>
-      </c>
-      <c r="J54" s="46" t="s">
-        <v>137</v>
       </c>
       <c r="K54" s="60"/>
       <c r="L54" s="60"/>
@@ -5377,14 +5371,14 @@
         <v>53</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="69"/>
       <c r="E55" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" s="40" t="s">
         <v>84</v>
@@ -5393,10 +5387,10 @@
         <v>93</v>
       </c>
       <c r="I55" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" s="46" t="s">
         <v>136</v>
-      </c>
-      <c r="J55" s="46" t="s">
-        <v>137</v>
       </c>
       <c r="K55" s="60"/>
       <c r="L55" s="60"/>
@@ -5419,16 +5413,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="48" t="s">
         <v>86</v>
@@ -5437,16 +5431,16 @@
         <v>91</v>
       </c>
       <c r="I56" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J56" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J56" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K56" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M56" s="42"/>
       <c r="O56" s="81">
@@ -5464,16 +5458,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G57" s="48" t="s">
         <v>86</v>
@@ -5482,16 +5476,16 @@
         <v>91</v>
       </c>
       <c r="I57" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J57" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K57" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M57" s="42"/>
       <c r="O57" s="81">
@@ -5509,7 +5503,7 @@
       </c>
       <c r="D58" s="69"/>
       <c r="E58" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>91</v>
@@ -5537,10 +5531,10 @@
         <v>90</v>
       </c>
       <c r="D59" s="68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>91</v>
@@ -5574,16 +5568,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G60" s="48" t="s">
         <v>86</v>
@@ -5592,16 +5586,16 @@
         <v>91</v>
       </c>
       <c r="I60" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J60" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J60" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K60" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L60" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M60" s="42"/>
       <c r="O60" s="80">
@@ -5619,16 +5613,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G61" s="48" t="s">
         <v>86</v>
@@ -5637,16 +5631,16 @@
         <v>91</v>
       </c>
       <c r="I61" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J61" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J61" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K61" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L61" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="L61" s="37" t="s">
-        <v>156</v>
       </c>
       <c r="M61" s="42"/>
       <c r="O61" s="80">
@@ -5665,7 +5659,7 @@
       </c>
       <c r="D62" s="69"/>
       <c r="E62" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F62" s="49" t="s">
         <v>78</v>
@@ -5677,16 +5671,16 @@
         <v>91</v>
       </c>
       <c r="I62" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J62" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K62" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L62" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="L62" s="37" t="s">
-        <v>156</v>
       </c>
       <c r="M62" s="49" t="s">
         <v>78</v>
@@ -5704,14 +5698,14 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="69"/>
       <c r="E63" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G63" s="48" t="s">
         <v>86</v>
@@ -5720,16 +5714,16 @@
         <v>91</v>
       </c>
       <c r="I63" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J63" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="J63" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="K63" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L63" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M63" s="42"/>
       <c r="O63" s="80">
@@ -5747,25 +5741,25 @@
         <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="68" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E64" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="F64" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>212</v>
-      </c>
       <c r="I64" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J64" s="60"/>
       <c r="K64" s="60"/>
@@ -5789,26 +5783,26 @@
         <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" s="69"/>
       <c r="E65" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G65" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H65" s="37" t="s">
         <v>93</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K65" s="60"/>
       <c r="L65" s="60"/>
@@ -5825,7 +5819,7 @@
     </row>
     <row r="66" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>67</v>
@@ -5834,10 +5828,10 @@
         <v>67</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G66" s="43" t="s">
         <v>83</v>
@@ -5846,7 +5840,7 @@
         <v>93</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J66" s="60"/>
       <c r="K66" s="60"/>
@@ -5870,10 +5864,10 @@
         <v>69</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>84</v>
@@ -5882,10 +5876,10 @@
         <v>93</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K67" s="60"/>
       <c r="L67" s="60"/>
@@ -5908,7 +5902,7 @@
       </c>
       <c r="D68" s="70"/>
       <c r="E68" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F68" s="54" t="s">
         <v>89</v>
@@ -5938,10 +5932,10 @@
         <v>92</v>
       </c>
       <c r="D69" s="71" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E69" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F69" s="54" t="s">
         <v>95</v>
@@ -5956,7 +5950,7 @@
         <v>94</v>
       </c>
       <c r="J69" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K69" s="54" t="s">
         <v>95</v>
@@ -5977,10 +5971,10 @@
         <v>96</v>
       </c>
       <c r="D70" s="71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" s="54" t="s">
         <v>94</v>
@@ -6007,14 +6001,14 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C71" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="69"/>
       <c r="E71" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G71" s="56" t="s">
         <v>87</v>
@@ -6023,19 +6017,19 @@
         <v>93</v>
       </c>
       <c r="I71" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J71" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="K71" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="K71" s="55" t="s">
+      <c r="L71" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="L71" s="64" t="s">
-        <v>224</v>
-      </c>
       <c r="M71" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N71" s="81">
         <v>1992</v>
@@ -6043,14 +6037,14 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" s="69"/>
       <c r="E72" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G72" s="65" t="s">
         <v>86</v>
@@ -6059,16 +6053,16 @@
         <v>93</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J72" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="K72" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="K72" s="64" t="s">
-        <v>227</v>
-      </c>
       <c r="L72" s="64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N72" s="81">
         <v>1986</v>
@@ -6076,10 +6070,10 @@
     </row>
     <row r="73" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="71" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E73" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F73" s="71" t="s">
         <v>94</v>
@@ -6100,13 +6094,13 @@
     </row>
     <row r="74" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E74" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F74" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>85</v>
@@ -6118,23 +6112,23 @@
         <v>94</v>
       </c>
       <c r="J74" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K74" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L74" s="74"/>
       <c r="M74" s="74"/>
     </row>
     <row r="75" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F75" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>85</v>
@@ -6146,23 +6140,23 @@
         <v>94</v>
       </c>
       <c r="J75" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="K75" s="74" t="s">
         <v>230</v>
-      </c>
-      <c r="K75" s="74" t="s">
-        <v>231</v>
       </c>
       <c r="L75" s="74"/>
       <c r="M75" s="74"/>
     </row>
     <row r="76" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" s="71" t="s">
         <v>232</v>
-      </c>
-      <c r="E76" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="71" t="s">
-        <v>233</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>84</v>
@@ -6171,10 +6165,10 @@
         <v>93</v>
       </c>
       <c r="I76" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J76" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K76" s="74"/>
       <c r="L76" s="74"/>
@@ -6182,13 +6176,13 @@
     </row>
     <row r="77" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" t="s">
         <v>234</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" t="s">
-        <v>235</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>84</v>
@@ -6197,21 +6191,21 @@
         <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>85</v>
@@ -6223,21 +6217,21 @@
         <v>94</v>
       </c>
       <c r="J78" t="s">
+        <v>236</v>
+      </c>
+      <c r="K78" t="s">
         <v>237</v>
-      </c>
-      <c r="K78" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
         <v>239</v>
-      </c>
-      <c r="E79" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" t="s">
-        <v>240</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>84</v>
@@ -6249,18 +6243,18 @@
         <v>94</v>
       </c>
       <c r="J79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E80" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>85</v>
@@ -6272,21 +6266,21 @@
         <v>94</v>
       </c>
       <c r="J80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G81" s="27" t="s">
         <v>86</v>
@@ -6295,59 +6289,59 @@
         <v>91</v>
       </c>
       <c r="I81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E82" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F82" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>87</v>
       </c>
       <c r="H82" t="s">
+        <v>244</v>
+      </c>
+      <c r="I82" t="s">
         <v>245</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>246</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>247</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>248</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>249</v>
-      </c>
-      <c r="M82" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="83" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E83" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>85</v>
@@ -6356,24 +6350,24 @@
         <v>93</v>
       </c>
       <c r="I83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J83" t="s">
+        <v>225</v>
+      </c>
+      <c r="K83" t="s">
         <v>226</v>
-      </c>
-      <c r="K83" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="84" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E84" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>85</v>
@@ -6385,21 +6379,21 @@
         <v>94</v>
       </c>
       <c r="J84" t="s">
+        <v>250</v>
+      </c>
+      <c r="K84" t="s">
         <v>251</v>
-      </c>
-      <c r="K84" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="85" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E85" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>86</v>
@@ -6408,27 +6402,27 @@
         <v>93</v>
       </c>
       <c r="I85" t="s">
+        <v>135</v>
+      </c>
+      <c r="J85" t="s">
         <v>136</v>
       </c>
-      <c r="J85" t="s">
-        <v>137</v>
-      </c>
       <c r="K85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" t="s">
         <v>254</v>
-      </c>
-      <c r="E86" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F86" t="s">
-        <v>255</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>83</v>
@@ -6437,18 +6431,18 @@
         <v>89</v>
       </c>
       <c r="I86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E87" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F87" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>86</v>
@@ -6457,44 +6451,44 @@
         <v>93</v>
       </c>
       <c r="I87" t="s">
+        <v>135</v>
+      </c>
+      <c r="J87" t="s">
         <v>136</v>
       </c>
-      <c r="J87" t="s">
-        <v>137</v>
-      </c>
       <c r="K87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" t="s">
         <v>257</v>
-      </c>
-      <c r="E88" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" t="s">
-        <v>258</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E89" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>84</v>
@@ -6506,18 +6500,18 @@
         <v>94</v>
       </c>
       <c r="J89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E90" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>84</v>
@@ -6529,18 +6523,18 @@
         <v>94</v>
       </c>
       <c r="J90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E91" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>84</v>
@@ -6552,18 +6546,18 @@
         <v>94</v>
       </c>
       <c r="J91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E92" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F92" s="68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>87</v>
@@ -6572,30 +6566,30 @@
         <v>93</v>
       </c>
       <c r="I92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K92" t="s">
+        <v>259</v>
+      </c>
+      <c r="L92" t="s">
+        <v>258</v>
+      </c>
+      <c r="M92" t="s">
         <v>260</v>
-      </c>
-      <c r="L92" t="s">
-        <v>259</v>
-      </c>
-      <c r="M92" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="93" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E93" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>86</v>
@@ -6604,27 +6598,27 @@
         <v>93</v>
       </c>
       <c r="I93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E94" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F94" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>86</v>
@@ -6633,56 +6627,56 @@
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E95" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F95" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H95" t="s">
+        <v>265</v>
+      </c>
+      <c r="I95" t="s">
         <v>266</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>267</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>268</v>
       </c>
-      <c r="K95" t="s">
-        <v>269</v>
-      </c>
       <c r="L95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E96" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G96" s="27" t="s">
         <v>87</v>
@@ -6691,30 +6685,30 @@
         <v>93</v>
       </c>
       <c r="I96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J96" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" t="s">
         <v>270</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>271</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>272</v>
-      </c>
-      <c r="M96" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="97" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E97" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>85</v>
@@ -6726,21 +6720,21 @@
         <v>94</v>
       </c>
       <c r="J97" t="s">
+        <v>273</v>
+      </c>
+      <c r="K97" t="s">
         <v>274</v>
-      </c>
-      <c r="K97" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="98" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E98" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F98" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G98" s="27" t="s">
         <v>86</v>
@@ -6749,27 +6743,27 @@
         <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="68" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E99" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>85</v>
@@ -6781,21 +6775,21 @@
         <v>94</v>
       </c>
       <c r="J99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E100" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G100" s="27" t="s">
         <v>85</v>
@@ -6807,21 +6801,21 @@
         <v>94</v>
       </c>
       <c r="J100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="68" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E101" s="75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>85</v>
@@ -6830,24 +6824,24 @@
         <v>93</v>
       </c>
       <c r="I101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E102" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F102" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>87</v>
@@ -6856,30 +6850,30 @@
         <v>93</v>
       </c>
       <c r="I102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="68" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E103" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G103" s="27" t="s">
         <v>84</v>
@@ -6891,18 +6885,18 @@
         <v>94</v>
       </c>
       <c r="J103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E104" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" s="68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G104" s="27" t="s">
         <v>86</v>
@@ -6911,27 +6905,27 @@
         <v>93</v>
       </c>
       <c r="I104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K104" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="E105" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" t="s">
         <v>283</v>
-      </c>
-      <c r="E105" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F105" t="s">
-        <v>284</v>
       </c>
       <c r="G105" s="27" t="s">
         <v>83</v>
@@ -6940,18 +6934,18 @@
         <v>89</v>
       </c>
       <c r="I105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E106" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>84</v>
@@ -6963,18 +6957,18 @@
         <v>94</v>
       </c>
       <c r="J106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E107" s="75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>84</v>
@@ -6986,50 +6980,50 @@
         <v>94</v>
       </c>
       <c r="J107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E108" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>87</v>
       </c>
       <c r="H108" t="s">
+        <v>286</v>
+      </c>
+      <c r="I108" t="s">
         <v>287</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>288</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>289</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>290</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>291</v>
-      </c>
-      <c r="M108" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="109" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>85</v>
@@ -7038,24 +7032,24 @@
         <v>93</v>
       </c>
       <c r="I109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J109" t="s">
         <v>136</v>
       </c>
-      <c r="J109" t="s">
-        <v>137</v>
-      </c>
       <c r="K109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E110" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>84</v>
@@ -7064,50 +7058,50 @@
         <v>93</v>
       </c>
       <c r="I110" t="s">
+        <v>294</v>
+      </c>
+      <c r="J110" t="s">
         <v>295</v>
-      </c>
-      <c r="J110" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="111" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H111" t="s">
+        <v>244</v>
+      </c>
+      <c r="I111" t="s">
         <v>245</v>
       </c>
-      <c r="I111" t="s">
-        <v>246</v>
-      </c>
       <c r="J111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F112" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G112" s="27" t="s">
         <v>83</v>
@@ -7116,18 +7110,18 @@
         <v>93</v>
       </c>
       <c r="I112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="68" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E113" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G113" s="27" t="s">
         <v>85</v>
@@ -7136,21 +7130,21 @@
         <v>93</v>
       </c>
       <c r="I113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="68" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E114" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
         <v>89</v>
@@ -7164,13 +7158,13 @@
     </row>
     <row r="115" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E115" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G115" s="27" t="s">
         <v>84</v>
@@ -7179,21 +7173,21 @@
         <v>93</v>
       </c>
       <c r="I115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E116" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>84</v>
@@ -7205,18 +7199,18 @@
         <v>94</v>
       </c>
       <c r="J116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="E117" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" t="s">
         <v>301</v>
-      </c>
-      <c r="E117" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F117" t="s">
-        <v>302</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>84</v>
@@ -7225,21 +7219,21 @@
         <v>93</v>
       </c>
       <c r="I117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E118" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F118" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>86</v>
@@ -7248,27 +7242,27 @@
         <v>93</v>
       </c>
       <c r="I118" t="s">
+        <v>135</v>
+      </c>
+      <c r="J118" t="s">
         <v>136</v>
       </c>
-      <c r="J118" t="s">
-        <v>137</v>
-      </c>
       <c r="K118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E119" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>84</v>
@@ -7277,21 +7271,21 @@
         <v>93</v>
       </c>
       <c r="I119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F120" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>86</v>
@@ -7300,27 +7294,27 @@
         <v>93</v>
       </c>
       <c r="I120" t="s">
+        <v>135</v>
+      </c>
+      <c r="J120" t="s">
         <v>136</v>
       </c>
-      <c r="J120" t="s">
-        <v>137</v>
-      </c>
       <c r="K120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E121" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>86</v>
@@ -7329,27 +7323,27 @@
         <v>93</v>
       </c>
       <c r="I121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K121" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L121" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E122" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F122" s="68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>86</v>
@@ -7358,67 +7352,67 @@
         <v>93</v>
       </c>
       <c r="I122" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="J122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K122" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L122" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E123" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G123" s="27" t="s">
         <v>83</v>
       </c>
       <c r="H123" t="s">
+        <v>244</v>
+      </c>
+      <c r="I123" t="s">
         <v>245</v>
-      </c>
-      <c r="I123" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="124" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E124" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F124" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>83</v>
       </c>
       <c r="H124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I124" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E125" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F125" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>86</v>
@@ -7427,27 +7421,27 @@
         <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J125" t="s">
+        <v>225</v>
+      </c>
+      <c r="K125" t="s">
         <v>226</v>
       </c>
-      <c r="K125" t="s">
-        <v>227</v>
-      </c>
       <c r="L125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E126" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F126" s="68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>86</v>
@@ -7456,27 +7450,27 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
+        <v>135</v>
+      </c>
+      <c r="J126" t="s">
         <v>136</v>
       </c>
-      <c r="J126" t="s">
-        <v>137</v>
-      </c>
       <c r="K126" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="68" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E127" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F127" s="68" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>86</v>
@@ -7485,27 +7479,27 @@
         <v>93</v>
       </c>
       <c r="I127" t="s">
+        <v>135</v>
+      </c>
+      <c r="J127" t="s">
         <v>136</v>
       </c>
-      <c r="J127" t="s">
-        <v>137</v>
-      </c>
       <c r="K127" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E128" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F128" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>85</v>
@@ -7514,24 +7508,24 @@
         <v>89</v>
       </c>
       <c r="I128" t="s">
+        <v>314</v>
+      </c>
+      <c r="J128" t="s">
+        <v>315</v>
+      </c>
+      <c r="K128" t="s">
         <v>316</v>
-      </c>
-      <c r="J128" t="s">
-        <v>317</v>
-      </c>
-      <c r="K128" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E129" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F129" s="68" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>86</v>
@@ -7540,76 +7534,76 @@
         <v>93</v>
       </c>
       <c r="I129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K129" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E130" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F130" s="68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H130" t="s">
+        <v>244</v>
+      </c>
+      <c r="I130" t="s">
         <v>245</v>
       </c>
-      <c r="I130" t="s">
-        <v>246</v>
-      </c>
       <c r="J130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K130" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L130" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E131" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>83</v>
       </c>
       <c r="H131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E132" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F132" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>86</v>
@@ -7618,47 +7612,47 @@
         <v>93</v>
       </c>
       <c r="I132" t="s">
+        <v>135</v>
+      </c>
+      <c r="J132" t="s">
         <v>136</v>
       </c>
-      <c r="J132" t="s">
-        <v>137</v>
-      </c>
       <c r="K132" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L132" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" t="s">
         <v>324</v>
-      </c>
-      <c r="E133" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F133" t="s">
-        <v>326</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>83</v>
       </c>
       <c r="H133" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E134" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F134" s="68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G134" s="27" t="s">
         <v>86</v>
@@ -7667,44 +7661,44 @@
         <v>93</v>
       </c>
       <c r="I134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L134" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E135" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G135" s="27" t="s">
         <v>82</v>
       </c>
       <c r="H135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E136" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F136" s="68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G136" s="27" t="s">
         <v>86</v>
@@ -7712,28 +7706,28 @@
       <c r="H136" t="s">
         <v>91</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J136" t="s">
         <v>98</v>
       </c>
-      <c r="J136" t="s">
-        <v>99</v>
-      </c>
       <c r="K136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L136" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E137" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F137" s="68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>86</v>
@@ -7742,27 +7736,27 @@
         <v>93</v>
       </c>
       <c r="I137" t="s">
+        <v>135</v>
+      </c>
+      <c r="J137" t="s">
         <v>136</v>
       </c>
-      <c r="J137" t="s">
-        <v>137</v>
-      </c>
       <c r="K137" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L137" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E138" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G138" s="27" t="s">
         <v>87</v>
@@ -7771,30 +7765,30 @@
         <v>93</v>
       </c>
       <c r="I138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K138" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L138" t="s">
+        <v>331</v>
+      </c>
+      <c r="M138" t="s">
         <v>333</v>
-      </c>
-      <c r="M138" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E139" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F139" s="68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="4:13" x14ac:dyDescent="0.25">

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LCD" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="500">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -1251,6 +1251,363 @@
   </si>
   <si>
     <t>twentymmstart2</t>
+  </si>
+  <si>
+    <t>Yolo</t>
+  </si>
+  <si>
+    <t>Acanthocyclops vernalis NA</t>
+  </si>
+  <si>
+    <t>Cyclopoida NA</t>
+  </si>
+  <si>
+    <t>Copepoda nauplius</t>
+  </si>
+  <si>
+    <t>Cyclopoida copepodid</t>
+  </si>
+  <si>
+    <t>Bosmina longirostris NA</t>
+  </si>
+  <si>
+    <t>Cladocera NA</t>
+  </si>
+  <si>
+    <t>Rotifera NA</t>
+  </si>
+  <si>
+    <t>Annelida NA</t>
+  </si>
+  <si>
+    <t>Chironomidae larva</t>
+  </si>
+  <si>
+    <t>Ostracoda NA</t>
+  </si>
+  <si>
+    <t>Calanoida copepodid</t>
+  </si>
+  <si>
+    <t>Harpacticoida NA</t>
+  </si>
+  <si>
+    <t>Insecta larva</t>
+  </si>
+  <si>
+    <t>Osphranticum labronectum NA</t>
+  </si>
+  <si>
+    <t>Sinocalanus doerrii NA</t>
+  </si>
+  <si>
+    <t>Cirripedia NA</t>
+  </si>
+  <si>
+    <t>Calanoida NA</t>
+  </si>
+  <si>
+    <t>Cyclopoida adult</t>
+  </si>
+  <si>
+    <t>Limnothoina tetraspina NA</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus forbesi adult</t>
+  </si>
+  <si>
+    <t>Sinocalanus doerrii copepodid</t>
+  </si>
+  <si>
+    <t>Eurytemora affinis copepodid</t>
+  </si>
+  <si>
+    <t>Eurytemora affinis adult</t>
+  </si>
+  <si>
+    <t>Acartiella sinensis NA</t>
+  </si>
+  <si>
+    <t>Diacyclops thomasi NA</t>
+  </si>
+  <si>
+    <t>Calanoida adult</t>
+  </si>
+  <si>
+    <t>Acanthocyclops vernalis adult</t>
+  </si>
+  <si>
+    <t>Sinocalanus doerrii adult</t>
+  </si>
+  <si>
+    <t>Acanthocyclops vernalis copepodid</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus forbesi copepodid</t>
+  </si>
+  <si>
+    <t>Arthropoda nauplius</t>
+  </si>
+  <si>
+    <t>Cladocera nauplius</t>
+  </si>
+  <si>
+    <t>Unidentified NA</t>
+  </si>
+  <si>
+    <t>Mollusca NA</t>
+  </si>
+  <si>
+    <t>Crustacea NA</t>
+  </si>
+  <si>
+    <t>Skistodiaptomus pallidus adult</t>
+  </si>
+  <si>
+    <t>Leptodiaptomus siciloides NA</t>
+  </si>
+  <si>
+    <t>Microcyclops rubellus NA</t>
+  </si>
+  <si>
+    <t>Eucyclops prionophorus NA</t>
+  </si>
+  <si>
+    <t>Monospilus dispar NA</t>
+  </si>
+  <si>
+    <t>Eucyclops elegans NA</t>
+  </si>
+  <si>
+    <t>Mesocyclops edax NA</t>
+  </si>
+  <si>
+    <t>Arctodiaptomus dorsalis NA</t>
+  </si>
+  <si>
+    <t>Eucyclops phaleratus NA</t>
+  </si>
+  <si>
+    <t>Eucyclops pectinifer NA</t>
+  </si>
+  <si>
+    <t>Pseudochydorus globosus NA</t>
+  </si>
+  <si>
+    <t>Ectocyclops phaleratus copepodid</t>
+  </si>
+  <si>
+    <t>Hesperodiaptomus franciscanus NA</t>
+  </si>
+  <si>
+    <t>Paracyclops chiltoni NA</t>
+  </si>
+  <si>
+    <t>Paracyclops fimbriatus NA</t>
+  </si>
+  <si>
+    <t>Ectocyclops phaleratus NA</t>
+  </si>
+  <si>
+    <t>Paracyclops poppei NA</t>
+  </si>
+  <si>
+    <t>Eucyclops agilis NA</t>
+  </si>
+  <si>
+    <t>Hesperodiaptomus cf. californiensis NA</t>
+  </si>
+  <si>
+    <t>Macrocyclops albidus NA</t>
+  </si>
+  <si>
+    <t>Diaptomus dorsalis NA</t>
+  </si>
+  <si>
+    <t>Diaptomus siciloides NA</t>
+  </si>
+  <si>
+    <t>Tropocyclops prasinus NA</t>
+  </si>
+  <si>
+    <t>Crustacea</t>
+  </si>
+  <si>
+    <t>Skistodiaptomus pallidus</t>
+  </si>
+  <si>
+    <t>Leptodiaptomus siciloides</t>
+  </si>
+  <si>
+    <t>Microcyclops rubellus</t>
+  </si>
+  <si>
+    <t>Eucyclops prionophorus</t>
+  </si>
+  <si>
+    <t>Monospilus dispar</t>
+  </si>
+  <si>
+    <t>Eucyclops elegans</t>
+  </si>
+  <si>
+    <t>Mesocyclops edax</t>
+  </si>
+  <si>
+    <t>Arctodiaptomus dorsalis</t>
+  </si>
+  <si>
+    <t>Eucyclops phaleratus</t>
+  </si>
+  <si>
+    <t>Eucyclops pectinifer</t>
+  </si>
+  <si>
+    <t>Pseudochydorus globosus</t>
+  </si>
+  <si>
+    <t>Ectocyclops phaleratus</t>
+  </si>
+  <si>
+    <t>Hesperodiaptomus franciscanus</t>
+  </si>
+  <si>
+    <t>Paracyclops chiltoni</t>
+  </si>
+  <si>
+    <t>Paracyclops fimbriatus</t>
+  </si>
+  <si>
+    <t>Paracyclops poppei</t>
+  </si>
+  <si>
+    <t>Eucyclops agilis</t>
+  </si>
+  <si>
+    <t>Hesperodiaptomus cf. californiensis</t>
+  </si>
+  <si>
+    <t>Macrocyclops albidus</t>
+  </si>
+  <si>
+    <t>Diaptomus dorsalis</t>
+  </si>
+  <si>
+    <t>Diaptomus siciloides</t>
+  </si>
+  <si>
+    <t>Tropocyclops prasinus</t>
+  </si>
+  <si>
+    <t>Subphylum</t>
+  </si>
+  <si>
+    <t>Skistodiaptomus</t>
+  </si>
+  <si>
+    <t>pallidus</t>
+  </si>
+  <si>
+    <t>Leptodiaptomus</t>
+  </si>
+  <si>
+    <t>Microcyclops</t>
+  </si>
+  <si>
+    <t>Monospilus</t>
+  </si>
+  <si>
+    <t>Mesocyclops</t>
+  </si>
+  <si>
+    <t>Arctodiaptomus</t>
+  </si>
+  <si>
+    <t>Pseudochydorus</t>
+  </si>
+  <si>
+    <t>Ectocyclops</t>
+  </si>
+  <si>
+    <t>Hesperodiaptomus</t>
+  </si>
+  <si>
+    <t>Macrocyclops</t>
+  </si>
+  <si>
+    <t>Tropocyclops</t>
+  </si>
+  <si>
+    <t>siciloides</t>
+  </si>
+  <si>
+    <t>rubellus</t>
+  </si>
+  <si>
+    <t>prionophorus</t>
+  </si>
+  <si>
+    <t>dispar</t>
+  </si>
+  <si>
+    <t>elegans</t>
+  </si>
+  <si>
+    <t>edax</t>
+  </si>
+  <si>
+    <t>dorsalis</t>
+  </si>
+  <si>
+    <t>phaleratus</t>
+  </si>
+  <si>
+    <t>pectinifer</t>
+  </si>
+  <si>
+    <t>globosus</t>
+  </si>
+  <si>
+    <t>franciscanus</t>
+  </si>
+  <si>
+    <t>chiltoni</t>
+  </si>
+  <si>
+    <t>fimbriatus</t>
+  </si>
+  <si>
+    <t>poppei</t>
+  </si>
+  <si>
+    <t>agilis</t>
+  </si>
+  <si>
+    <t>albidus</t>
+  </si>
+  <si>
+    <t>prasinus</t>
+  </si>
+  <si>
+    <t>cf. californiensis</t>
+  </si>
+  <si>
+    <t>Acartia spp_</t>
+  </si>
+  <si>
+    <t>Diaptomus spp_</t>
+  </si>
+  <si>
+    <t>Eurytemora spp_</t>
+  </si>
+  <si>
+    <t>Pseudodiaptomus spp_</t>
+  </si>
+  <si>
+    <t>Limnoithona spp_</t>
+  </si>
+  <si>
+    <t>Oithona spp_</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1947,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,6 +2101,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -2031,7 +2399,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,11 +3297,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U140"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2942,26 +3310,27 @@
     <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="67" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="81" customWidth="1"/>
-    <col min="15" max="15" width="16" style="81" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="81" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="81" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="81" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="81" customWidth="1"/>
-    <col min="20" max="20" width="13" style="81" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="81" customWidth="1"/>
+    <col min="16" max="16" width="16" style="81" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="81" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="81" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="81" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="81" customWidth="1"/>
+    <col min="21" max="21" width="13" style="81" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>162</v>
       </c>
@@ -2974,59 +3343,62 @@
       <c r="D1" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="O1" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="P1" s="79" t="s">
         <v>374</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="Q1" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="R1" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="S1" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="T1" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="U1" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="V1" s="78" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -3039,47 +3411,50 @@
       <c r="D2" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="E2" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I2" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="N2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="80">
+      <c r="O2" s="80">
         <v>1993</v>
       </c>
-      <c r="O2" s="80">
+      <c r="P2" s="80">
         <v>1994</v>
       </c>
-      <c r="Q2" s="80">
+      <c r="R2" s="80">
         <v>1994</v>
       </c>
-      <c r="S2" s="81">
+      <c r="T2" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -3087,81 +3462,83 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="D3" s="69"/>
-      <c r="E3" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I3" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="O3" s="80">
+      <c r="N3" s="37"/>
+      <c r="P3" s="80">
         <v>1972</v>
       </c>
-      <c r="Q3" s="80">
+      <c r="R3" s="80">
         <v>1972</v>
       </c>
-      <c r="S3" s="81">
+      <c r="T3" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>111</v>
+        <v>495</v>
       </c>
       <c r="D4" s="69"/>
-      <c r="E4" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="H4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="L4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="S4" s="81">
+      <c r="N4" s="60"/>
+      <c r="T4" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -3171,37 +3548,38 @@
       <c r="D5" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="H5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="L5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="60"/>
       <c r="M5" s="60"/>
-      <c r="O5" s="81">
+      <c r="N5" s="60"/>
+      <c r="P5" s="81">
         <v>1972</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="R5" s="81">
         <v>1972</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3209,49 +3587,52 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>496</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="H6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="K6" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="L6" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="81">
+      <c r="P6" s="81">
         <v>1972</v>
       </c>
-      <c r="Q6" s="81">
+      <c r="R6" s="81">
         <v>1972</v>
       </c>
-      <c r="S6" s="81">
+      <c r="T6" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
@@ -3260,70 +3641,76 @@
       <c r="D7" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="H7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="K7" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="L7" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="M7" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="N7" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="S7" s="81">
+      <c r="T7" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D8" s="69"/>
-      <c r="E8" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="44" t="s">
+      <c r="E8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="H8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="S8" s="81">
+      <c r="N8" s="60"/>
+      <c r="T8" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -3336,77 +3723,81 @@
       <c r="D9" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="H9" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="K9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="O9" s="81">
+      <c r="N9" s="60"/>
+      <c r="P9" s="81">
         <v>1972</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="R9" s="81">
         <v>1972</v>
       </c>
-      <c r="S9" s="81">
+      <c r="T9" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>113</v>
+        <v>497</v>
       </c>
       <c r="D10" s="69"/>
-      <c r="E10" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="69"/>
+      <c r="F10" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="H10" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="K10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="L10" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="81">
+      <c r="N10" s="37"/>
+      <c r="O10" s="81">
         <v>1986</v>
       </c>
-      <c r="S10" s="81">
+      <c r="T10" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
@@ -3419,47 +3810,50 @@
       <c r="D11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="K11" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="L11" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="N11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="80">
+      <c r="O11" s="80">
         <v>1987</v>
       </c>
-      <c r="O11" s="81">
+      <c r="P11" s="81">
         <v>1988</v>
       </c>
-      <c r="Q11" s="81">
+      <c r="R11" s="81">
         <v>1988</v>
       </c>
-      <c r="S11" s="81">
+      <c r="T11" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
@@ -3472,81 +3866,83 @@
       <c r="D12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="H12" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="K12" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="L12" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="M12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="80">
+      <c r="O12" s="80">
         <v>1986</v>
       </c>
-      <c r="O12" s="81">
+      <c r="P12" s="81">
         <v>1988</v>
       </c>
-      <c r="Q12" s="81">
+      <c r="R12" s="81">
         <v>1988</v>
       </c>
-      <c r="S12" s="81">
+      <c r="T12" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="C13" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="69"/>
-      <c r="E13" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="H13" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="L13" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="M13" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="N13" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3559,4245 +3955,5304 @@
       <c r="D14" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="I14" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="K14" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="L14" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="M14" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="N14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="80">
+      <c r="O14" s="80">
         <v>1978</v>
       </c>
-      <c r="O14" s="81">
+      <c r="P14" s="81">
         <v>1978</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="R14" s="81">
         <v>1978</v>
       </c>
-      <c r="S14" s="81">
+      <c r="T14" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="80"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="44" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="H17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="37" t="s">
+      <c r="I17" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="L17" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="M17" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="N17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="N16" s="80">
+      <c r="O17" s="80">
         <v>1993</v>
       </c>
-      <c r="S16" s="81">
+      <c r="T17" s="81">
         <v>2006</v>
       </c>
-      <c r="T16" s="81">
+      <c r="U17" s="81">
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="39" t="s">
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="H18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="37" t="s">
+      <c r="I18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="K18" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="L18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="M18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="80">
+      <c r="N18" s="46"/>
+      <c r="O18" s="80">
         <v>1993</v>
       </c>
-      <c r="O17" s="81">
+      <c r="P18" s="81">
         <v>1994</v>
       </c>
-      <c r="Q17" s="81">
+      <c r="R18" s="81">
         <v>1994</v>
       </c>
-      <c r="S17" s="81">
+      <c r="T18" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D19" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="E19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="H19" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="37" t="s">
+      <c r="I19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="K19" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="L19" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="M19" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="N19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="81">
+      <c r="P19" s="81">
         <v>1972</v>
       </c>
-      <c r="Q18" s="81">
+      <c r="R19" s="81">
         <v>1972</v>
       </c>
-      <c r="S18" s="81">
+      <c r="T19" s="81">
         <v>1995</v>
       </c>
-      <c r="T18" s="81">
+      <c r="U19" s="81">
         <v>2010</v>
       </c>
-      <c r="U18">
+      <c r="V19">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="68"/>
+      <c r="E20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="87"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="49" t="s">
+      <c r="E21" s="85"/>
+      <c r="F21" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="H21" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="37" t="s">
+      <c r="I21" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="K21" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="L21" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="M21" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="80">
+      <c r="N21" s="37"/>
+      <c r="O21" s="80">
         <v>1979</v>
       </c>
-      <c r="O19" s="81">
+      <c r="P21" s="81">
         <v>1979</v>
       </c>
-      <c r="Q19" s="81">
+      <c r="R21" s="81">
         <v>1979</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="49" t="s">
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="H22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="37" t="s">
+      <c r="I22" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="K22" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="L22" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="M22" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="N22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="80">
+      <c r="O22" s="80">
         <v>1979</v>
       </c>
-      <c r="O20" s="81">
+      <c r="P22" s="81">
         <v>2007</v>
       </c>
-      <c r="Q20" s="81">
+      <c r="R22" s="81">
         <v>2007</v>
       </c>
-      <c r="S20" s="81">
+      <c r="T22" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="49" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="H23" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="37" t="s">
+      <c r="I23" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="K23" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="L23" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="M23" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="N23" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="80">
+      <c r="O23" s="80">
         <v>1993</v>
       </c>
-      <c r="O21" s="81">
+      <c r="P23" s="81">
         <v>2007</v>
       </c>
-      <c r="Q21" s="81">
+      <c r="R23" s="81">
         <v>2007</v>
       </c>
-      <c r="S21" s="81">
+      <c r="T23" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="49" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="H24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="37" t="s">
+      <c r="I24" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="K24" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="L24" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="M24" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="N24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="82">
+      <c r="O24" s="82">
         <v>1963</v>
       </c>
-      <c r="O22" s="81">
+      <c r="P24" s="81">
         <v>1980</v>
       </c>
-      <c r="Q22" s="81">
+      <c r="R24" s="81">
         <v>1980</v>
       </c>
-      <c r="S22" s="81">
+      <c r="T24" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="49" t="s">
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="H25" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="37" t="s">
+      <c r="I25" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="K25" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="L25" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="M25" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="N25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="81">
+      <c r="P25" s="81">
         <v>1980</v>
       </c>
-      <c r="Q23" s="81">
+      <c r="R25" s="81">
         <v>1980</v>
       </c>
-      <c r="S23" s="81">
+      <c r="T25" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="26" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" s="49" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="H26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="37" t="s">
+      <c r="I26" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="K26" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="L26" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="M26" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="O24" s="81">
+      <c r="N26" s="42"/>
+      <c r="P26" s="81">
         <v>2007</v>
       </c>
-      <c r="S24" s="81">
+      <c r="T26" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="C25" s="7" t="s">
+    <row r="27" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D27" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="44" t="s">
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H27" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="37" t="s">
+      <c r="I27" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="K27" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="42"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="49" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="H28" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="37" t="s">
+      <c r="I28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="K28" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="42"/>
-      <c r="O26" s="81">
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="42"/>
+      <c r="P28" s="81">
         <v>1972</v>
       </c>
-      <c r="Q26" s="81">
+      <c r="R28" s="81">
         <v>1972</v>
       </c>
-      <c r="S26" s="81">
+      <c r="T28" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+    <row r="29" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D29" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E29" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="G29" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="H29" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="37" t="s">
+      <c r="I29" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="K29" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="42"/>
-      <c r="O27" s="81">
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="42"/>
+      <c r="P29" s="81">
         <v>1972</v>
       </c>
-      <c r="Q27" s="81">
+      <c r="R29" s="81">
         <v>1972</v>
       </c>
-      <c r="S27" s="81">
+      <c r="T29" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D30" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E30" s="85"/>
+      <c r="F30" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="G30" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="H30" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="37" t="s">
+      <c r="I30" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="K30" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="42"/>
-      <c r="O28" s="81">
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="42"/>
+      <c r="P30" s="81">
         <v>1972</v>
       </c>
-      <c r="P28" s="81">
+      <c r="Q30" s="81">
         <v>1988</v>
       </c>
-      <c r="S28" s="81">
+      <c r="T30" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D31" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E31" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="F31" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="G31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="H31" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="37" t="s">
+      <c r="I31" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="K31" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="L31" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="M31" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="N31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O29" s="81">
+      <c r="P31" s="81">
         <v>1989</v>
       </c>
-      <c r="Q29" s="83">
+      <c r="R31" s="83">
         <v>1989</v>
       </c>
-      <c r="S29" s="81">
+      <c r="T31" s="81">
         <v>1998</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="58" t="s">
+      <c r="D32" s="69"/>
+      <c r="E32" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="G32" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="H32" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="37" t="s">
+      <c r="I32" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="K32" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="42"/>
-      <c r="O30" s="81">
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="42"/>
+      <c r="P32" s="81">
         <v>1989</v>
       </c>
-      <c r="Q30" s="83">
+      <c r="R32" s="83">
         <v>1989</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="33" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D33" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E33" s="85"/>
+      <c r="F33" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="G33" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="H33" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="37" t="s">
+      <c r="I33" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="K33" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="L33" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="M33" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="81">
+      <c r="N33" s="37"/>
+      <c r="O33" s="81">
         <v>1986</v>
       </c>
-      <c r="O31" s="81">
+      <c r="P33" s="81">
         <v>1990</v>
       </c>
-      <c r="Q31" s="83">
+      <c r="R33" s="83">
         <v>1990</v>
       </c>
-      <c r="S31" s="81">
+      <c r="T33" s="81">
         <v>1998</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D34" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E34" s="85"/>
+      <c r="F34" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="G34" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="H34" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="37" t="s">
+      <c r="I34" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="K34" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="L34" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="M34" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="81">
+      <c r="N34" s="37"/>
+      <c r="O34" s="81">
         <v>1978</v>
       </c>
-      <c r="O32" s="81">
+      <c r="P34" s="81">
         <v>1989</v>
       </c>
-      <c r="Q32" s="83">
+      <c r="R34" s="83">
         <v>1989</v>
       </c>
-      <c r="S32" s="81">
+      <c r="T34" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="58" t="s">
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="G35" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="H35" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="37" t="s">
+      <c r="I35" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="K35" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="L35" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="M35" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="84">
+      <c r="N35" s="41"/>
+      <c r="O35" s="84">
         <v>1993</v>
       </c>
-      <c r="S33" s="81">
+      <c r="T35" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="36" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D36" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E36" s="85"/>
+      <c r="F36" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="G36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="H36" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="37" t="s">
+      <c r="I36" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="K36" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="L36" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L34" s="37" t="s">
+      <c r="M36" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="N36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="81">
+      <c r="O36" s="81">
         <v>1993</v>
       </c>
-      <c r="O34" s="81">
+      <c r="P36" s="81">
         <v>2006</v>
       </c>
-      <c r="Q34" s="81">
+      <c r="R36" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="58" t="s">
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="G37" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="H37" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="37" t="s">
+      <c r="I37" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="K37" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K35" s="37" t="s">
+      <c r="L37" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="M37" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="O35" s="81">
+      <c r="N37" s="37"/>
+      <c r="P37" s="81">
         <v>2006</v>
       </c>
-      <c r="Q35" s="81">
+      <c r="R37" s="81">
         <v>2006</v>
       </c>
-      <c r="S35" s="81">
+      <c r="T37" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="7" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="58" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="G38" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="H38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="37" t="s">
+      <c r="I38" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="K38" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="L38" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="M38" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M36" s="42"/>
-      <c r="S36" s="81">
+      <c r="N38" s="42"/>
+      <c r="T38" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="39" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D39" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E39" s="85"/>
+      <c r="F39" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="G39" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="H39" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="37" t="s">
+      <c r="I39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="K39" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="L39" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="42"/>
-      <c r="O37" s="81">
+      <c r="M39" s="60"/>
+      <c r="N39" s="42"/>
+      <c r="P39" s="81">
         <v>2006</v>
       </c>
-      <c r="Q37" s="81">
+      <c r="R39" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="40" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D40" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E40" s="85"/>
+      <c r="F40" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="G40" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="H40" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I38" s="37" t="s">
+      <c r="I40" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="K40" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="L40" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="M40" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M38" s="42"/>
-      <c r="N38" s="80">
+      <c r="N40" s="42"/>
+      <c r="O40" s="80">
         <v>1993</v>
       </c>
-      <c r="O38" s="81">
+      <c r="P40" s="81">
         <v>2006</v>
       </c>
-      <c r="Q38" s="81">
+      <c r="R40" s="81">
         <v>2006</v>
       </c>
-      <c r="S38" s="81">
+      <c r="T40" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D41" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E41" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="G41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="H41" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="37" t="s">
+      <c r="I41" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="K41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="42"/>
-      <c r="O39" s="81">
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="42"/>
+      <c r="P41" s="81">
         <v>1972</v>
       </c>
-      <c r="P39" s="81">
+      <c r="Q41" s="81">
         <v>1994</v>
       </c>
-      <c r="S39" s="81">
+      <c r="T41" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="58" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="G42" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="H42" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="37" t="s">
+      <c r="I42" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="37" t="s">
+      <c r="K42" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="L42" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="M42" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="80">
+      <c r="N42" s="37"/>
+      <c r="O42" s="80">
         <v>1979</v>
       </c>
-      <c r="O40" s="81">
+      <c r="P42" s="81">
         <v>1995</v>
       </c>
-      <c r="Q40" s="81">
+      <c r="R42" s="81">
         <v>1995</v>
       </c>
-      <c r="S40" s="81">
+      <c r="T42" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="58" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="G43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="H43" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="37" t="s">
+      <c r="I43" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="K43" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K41" s="46" t="s">
+      <c r="L43" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="M43" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="M41" s="37"/>
-      <c r="O41" s="81">
+      <c r="N43" s="37"/>
+      <c r="P43" s="81">
         <v>1995</v>
       </c>
-      <c r="Q41" s="81">
+      <c r="R43" s="81">
         <v>1995</v>
       </c>
-      <c r="S41" s="81">
+      <c r="T43" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="58" t="s">
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="G44" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="H44" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="37" t="s">
+      <c r="I44" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="49" t="s">
+      <c r="K44" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="81">
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="81">
         <v>1995</v>
       </c>
-      <c r="Q42" s="81">
+      <c r="R44" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="D45" s="69"/>
+      <c r="E45" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="80"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="80"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="D47" s="69"/>
+      <c r="E47" t="s">
+        <v>411</v>
+      </c>
+      <c r="F47" s="58"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="80"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="58" t="s">
+      <c r="D48" s="69"/>
+      <c r="E48" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="G48" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="H48" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="37" t="s">
+      <c r="I48" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="42"/>
-      <c r="O43" s="81">
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="42"/>
+      <c r="P48" s="81">
         <v>1972</v>
       </c>
-      <c r="P43" s="81">
+      <c r="Q48" s="81">
         <v>1988</v>
       </c>
-      <c r="S43" s="81">
+      <c r="T48" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="C44" s="7" t="s">
+    <row r="49" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D49" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E49" s="85"/>
+      <c r="F49" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="G49" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="H49" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" s="37" t="s">
+      <c r="I49" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="K49" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K44" s="37" t="s">
+      <c r="L49" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="M49" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="S44" s="81">
+      <c r="N49" s="37"/>
+      <c r="T49" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="58" t="s">
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="G50" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="H50" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="I50" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="K50" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K45" s="37" t="s">
+      <c r="L50" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="M50" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="M45" s="49" t="s">
+      <c r="N50" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="81">
+      <c r="P50" s="81">
         <v>1989</v>
       </c>
-      <c r="Q45" s="83">
+      <c r="R50" s="83">
         <v>1989</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="51" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D51" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E51" s="85"/>
+      <c r="F51" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="G51" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="H51" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="H46" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" s="37" t="s">
+      <c r="I51" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="42"/>
-      <c r="O46" s="81">
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="42"/>
+      <c r="P51" s="81">
         <v>1989</v>
       </c>
-      <c r="Q46" s="83">
+      <c r="R51" s="83">
         <v>1989</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="52" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D52" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E52" s="85"/>
+      <c r="F52" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="G52" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="H52" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="37" t="s">
+      <c r="I52" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="K52" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="L52" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="M52" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="81">
+      <c r="N52" s="37"/>
+      <c r="O52" s="81">
         <v>1986</v>
       </c>
-      <c r="O47" s="81">
+      <c r="P52" s="81">
         <v>2000</v>
       </c>
-      <c r="Q47" s="83">
+      <c r="R52" s="83">
         <v>2000</v>
       </c>
-      <c r="S47" s="81">
+      <c r="T52" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="L48" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="81">
-        <v>1978</v>
-      </c>
-      <c r="S48" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M49" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="N49" s="81">
-        <v>1978</v>
-      </c>
-      <c r="O49" s="81">
-        <v>1989</v>
-      </c>
-      <c r="Q49" s="83">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="O50" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q50" s="83">
-        <v>1972</v>
-      </c>
-      <c r="S50" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="L51" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="M51" s="42"/>
-      <c r="N51" s="81">
-        <v>1972</v>
-      </c>
-      <c r="O51" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q51" s="83">
-        <v>1972</v>
-      </c>
-      <c r="S51" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="K52" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="42"/>
-      <c r="O52" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q52" s="83">
-        <v>1972</v>
-      </c>
-      <c r="S52" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L53" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="37"/>
+      <c r="O53" s="81">
+        <v>1978</v>
+      </c>
+      <c r="T53" s="81">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="85"/>
+      <c r="F54" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M54" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" s="81">
+        <v>1978</v>
+      </c>
+      <c r="P54" s="81">
+        <v>1989</v>
+      </c>
+      <c r="R54" s="83">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="D55" s="68"/>
+      <c r="E55" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55" s="58"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="49"/>
+      <c r="R55" s="83"/>
+    </row>
+    <row r="56" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="D56" s="68"/>
+      <c r="E56" t="s">
+        <v>413</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="49"/>
+      <c r="R56" s="83"/>
+    </row>
+    <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K57" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L57" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="81">
+        <v>1972</v>
+      </c>
+      <c r="R57" s="83">
+        <v>1972</v>
+      </c>
+      <c r="T57" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="85"/>
+      <c r="F58" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" s="42"/>
+      <c r="O58" s="81">
+        <v>1972</v>
+      </c>
+      <c r="P58" s="81">
+        <v>1972</v>
+      </c>
+      <c r="R58" s="83">
+        <v>1972</v>
+      </c>
+      <c r="T58" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="85"/>
+      <c r="F59" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K59" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59" s="42"/>
+      <c r="P59" s="81">
+        <v>1972</v>
+      </c>
+      <c r="R59" s="83">
+        <v>1972</v>
+      </c>
+      <c r="T59" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D60" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="44" t="s">
+      <c r="E60" s="85"/>
+      <c r="F60" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="H60" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I53" s="37" t="s">
+      <c r="I60" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="37" t="s">
+      <c r="K60" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="K53" s="37" t="s">
+      <c r="L60" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="37" t="s">
+      <c r="M60" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M53" s="42"/>
-      <c r="S53" s="81">
+      <c r="N60" s="42"/>
+      <c r="T60" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="7" t="s">
+    <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D61" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="44" t="s">
+      <c r="E61" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="H61" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H54" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I54" s="41" t="s">
+      <c r="I61" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="46" t="s">
+      <c r="K61" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="42"/>
-      <c r="S54" s="81">
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="42"/>
+      <c r="T61" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="44" t="s">
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="H62" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I55" s="41" t="s">
+      <c r="I62" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="J55" s="46" t="s">
+      <c r="K62" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="42"/>
-      <c r="O55" s="81">
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="42"/>
+      <c r="P62" s="81">
         <v>1972</v>
       </c>
-      <c r="Q55" s="81">
+      <c r="R62" s="81">
         <v>1972</v>
       </c>
-      <c r="S55" s="81">
+      <c r="T62" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="63" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D63" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="49" t="s">
+      <c r="E63" s="85"/>
+      <c r="F63" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="H63" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="I63" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="37" t="s">
+      <c r="J63" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="K63" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K56" s="37" t="s">
+      <c r="L63" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="L56" s="37" t="s">
+      <c r="M63" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M56" s="42"/>
-      <c r="O56" s="81">
+      <c r="N63" s="42"/>
+      <c r="P63" s="81">
         <v>1972</v>
       </c>
-      <c r="Q56" s="81">
+      <c r="R63" s="81">
         <v>1972</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="64" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D64" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="49" t="s">
+      <c r="E64" s="85"/>
+      <c r="F64" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="H64" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="I64" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="37" t="s">
+      <c r="J64" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="J57" s="37" t="s">
+      <c r="K64" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K57" s="37" t="s">
+      <c r="L64" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="L57" s="37" t="s">
+      <c r="M64" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="M57" s="42"/>
-      <c r="O57" s="81">
+      <c r="N64" s="42"/>
+      <c r="P64" s="81">
         <v>1972</v>
       </c>
-      <c r="Q57" s="81">
+      <c r="R64" s="81">
         <v>1972</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="7" t="s">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="44" t="s">
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="H65" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="I65" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="42"/>
-    </row>
-    <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="E59" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="42"/>
-      <c r="O59" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q59" s="80">
-        <v>1972</v>
-      </c>
-      <c r="S59" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K60" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="L60" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="M60" s="42"/>
-      <c r="O60" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q60" s="80">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K61" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="L61" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="M61" s="42"/>
-      <c r="O61" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q61" s="80">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="69"/>
-      <c r="E62" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K62" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="L62" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="M62" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="O62" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q62" s="80"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="K63" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="L63" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="M63" s="42"/>
-      <c r="O63" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q63" s="80">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>344</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="42"/>
-      <c r="O64" s="80">
-        <v>1972</v>
-      </c>
-      <c r="Q64" s="80">
-        <v>1972</v>
-      </c>
-      <c r="S64" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>144</v>
-      </c>
+      <c r="J65" s="60"/>
       <c r="K65" s="60"/>
       <c r="L65" s="60"/>
-      <c r="M65" s="42"/>
-      <c r="O65" s="80">
-        <v>1976</v>
-      </c>
-      <c r="Q65" s="80">
-        <v>1976</v>
-      </c>
-      <c r="S65" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="61" t="s">
-        <v>213</v>
+      <c r="M65" s="60"/>
+      <c r="N65" s="42"/>
+    </row>
+    <row r="66" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>93</v>
+        <v>343</v>
+      </c>
+      <c r="E66" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="J66" s="60"/>
       <c r="K66" s="60"/>
       <c r="L66" s="60"/>
-      <c r="M66" s="42"/>
-      <c r="Q66" s="80">
+      <c r="M66" s="60"/>
+      <c r="N66" s="42"/>
+      <c r="P66" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R66" s="80">
+        <v>1972</v>
+      </c>
+      <c r="T66" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="85"/>
+      <c r="F67" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K67" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N67" s="42"/>
+      <c r="P67" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R67" s="80">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="85"/>
+      <c r="F68" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K68" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M68" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="N68" s="42"/>
+      <c r="P68" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R68" s="80">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="N69" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R69" s="80"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K70" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L70" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="N70" s="42"/>
+      <c r="P70" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R70" s="80">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71" s="85" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H71" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="42"/>
+      <c r="P71" s="80">
+        <v>1972</v>
+      </c>
+      <c r="R71" s="80">
+        <v>1972</v>
+      </c>
+      <c r="T71" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="42"/>
+      <c r="P72" s="80">
+        <v>1976</v>
+      </c>
+      <c r="R72" s="80">
+        <v>1976</v>
+      </c>
+      <c r="T72" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="F73" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="42"/>
+      <c r="R73" s="80">
         <v>2002</v>
       </c>
-      <c r="S66" s="81">
+      <c r="T73" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="18" t="s">
+    <row r="74" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D74" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="37" t="s">
+      <c r="E74" s="85"/>
+      <c r="F74" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="H74" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H67" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I67" s="37" t="s">
+      <c r="I74" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J67" s="37" t="s">
+      <c r="K74" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="42"/>
-      <c r="Q67" s="80">
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="42"/>
+      <c r="R74" s="80">
         <v>2001</v>
       </c>
-      <c r="S67" s="81">
+      <c r="T74" s="81">
         <v>1995</v>
       </c>
-      <c r="T67" s="81">
+      <c r="U74" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="20" t="s">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="54" t="s">
+      <c r="D75" s="70"/>
+      <c r="E75" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="H75" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="I75" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="42"/>
-      <c r="S68" s="81">
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="42"/>
+      <c r="T75" s="81">
         <v>1995</v>
       </c>
-      <c r="T68" s="81">
+      <c r="U75" s="81">
         <v>2005</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="20" t="s">
+    <row r="76" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D76" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E76" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="G76" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="H76" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="H69" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I69" s="54" t="s">
+      <c r="I76" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J69" s="54" t="s">
+      <c r="K76" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="K69" s="54" t="s">
+      <c r="L76" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="L69" s="60"/>
-      <c r="M69" s="42"/>
-      <c r="S69" s="81">
+      <c r="M76" s="60"/>
+      <c r="N76" s="42"/>
+      <c r="T76" s="81">
         <v>1995</v>
       </c>
-      <c r="T69" s="81">
+      <c r="U76" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="20" t="s">
+    <row r="77" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D77" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E77" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="G77" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="56" t="s">
+      <c r="H77" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I70" s="54" t="s">
+      <c r="I77" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J77" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="42"/>
-      <c r="S70" s="81">
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="42"/>
+      <c r="T77" s="81">
         <v>1995</v>
       </c>
-      <c r="T70" s="81">
+      <c r="U77" s="81">
         <v>1999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="21" t="s">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C78" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="57" t="s">
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="G71" s="56" t="s">
+      <c r="H78" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H71" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I71" s="63" t="s">
+      <c r="I78" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J78" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="J71" s="55" t="s">
+      <c r="K78" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="K71" s="55" t="s">
+      <c r="L78" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="L71" s="64" t="s">
+      <c r="M78" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="M71" s="57" t="s">
+      <c r="N78" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="N71" s="81">
+      <c r="O78" s="81">
         <v>1992</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="6" t="s">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="69"/>
-      <c r="E72" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="H79" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" s="63" t="s">
+      <c r="I79" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J79" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="J72" s="64" t="s">
+      <c r="K79" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="K72" s="64" t="s">
+      <c r="L79" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="L72" s="64" t="s">
+      <c r="M79" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="N72" s="81">
+      <c r="O79" s="81">
         <v>1986</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="71" t="s">
+    <row r="80" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="E73" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="71" t="s">
+      <c r="E80" s="86"/>
+      <c r="F80" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="H80" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="74" t="s">
+      <c r="I80" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="J80" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-    </row>
-    <row r="74" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="71" t="s">
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+    </row>
+    <row r="81" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="71" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="H81" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H74" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="I74" s="74" t="s">
+      <c r="I81" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="74" t="s">
+      <c r="K81" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="K74" s="74" t="s">
+      <c r="L81" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
-    </row>
-    <row r="75" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="71" t="s">
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+    </row>
+    <row r="82" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="71" t="s">
+      <c r="E82" s="86"/>
+      <c r="F82" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="G75" s="27" t="s">
+      <c r="H82" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H75" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="I75" s="74" t="s">
+      <c r="I82" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="J82" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="74" t="s">
+      <c r="K82" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="K75" s="74" t="s">
+      <c r="L82" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="L75" s="74"/>
-      <c r="M75" s="74"/>
-    </row>
-    <row r="76" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="71" t="s">
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+    </row>
+    <row r="83" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F76" s="71" t="s">
+      <c r="E83" s="86"/>
+      <c r="F83" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="H83" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H76" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="I76" s="74" t="s">
+      <c r="I83" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J83" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="J76" s="74" t="s">
+      <c r="K83" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-    </row>
-    <row r="77" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="68" t="s">
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+    </row>
+    <row r="84" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="E77" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E84" s="85"/>
+      <c r="F84" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" t="s">
         <v>234</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="H84" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="I84" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" t="s">
         <v>102</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K84" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="68" t="s">
+    <row r="85" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="E78" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E85" s="85"/>
+      <c r="F85" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="H85" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="I85" t="s">
+        <v>93</v>
+      </c>
+      <c r="J85" t="s">
         <v>94</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K85" t="s">
         <v>236</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L85" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="68" t="s">
+    <row r="86" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="E79" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E86" s="85"/>
+      <c r="F86" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" t="s">
         <v>239</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="H86" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="I86" t="s">
+        <v>93</v>
+      </c>
+      <c r="J86" t="s">
         <v>94</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K86" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="68" t="s">
+    <row r="87" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="E80" s="75" t="s">
+      <c r="E87" s="85"/>
+      <c r="F87" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G87" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="H87" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="I87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" t="s">
         <v>94</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K87" t="s">
         <v>199</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L87" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="68" t="s">
+    <row r="88" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E88" s="85"/>
+      <c r="F88" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" t="s">
         <v>241</v>
       </c>
-      <c r="G81" s="27" t="s">
+      <c r="H88" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I88" t="s">
         <v>91</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J88" t="s">
         <v>242</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K88" t="s">
         <v>98</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L88" t="s">
         <v>157</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M88" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="68" t="s">
+    <row r="89" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="68" t="s">
         <v>372</v>
       </c>
-      <c r="E82" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F82" s="68" t="s">
+      <c r="E89" s="85"/>
+      <c r="F89" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="H89" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I89" t="s">
         <v>244</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J89" t="s">
         <v>245</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K89" t="s">
         <v>246</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L89" t="s">
         <v>247</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M89" t="s">
         <v>248</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N89" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="68" t="s">
+    <row r="90" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E90" s="85"/>
+      <c r="F90" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G90" t="s">
         <v>226</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="H90" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H83" t="s">
-        <v>93</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="I90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J90" t="s">
         <v>102</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K90" t="s">
         <v>225</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L90" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="68" t="s">
+    <row r="91" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="E84" s="76" t="s">
+      <c r="E91" s="85"/>
+      <c r="F91" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G91" t="s">
         <v>251</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="H91" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H84" t="s">
-        <v>93</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="I91" t="s">
+        <v>93</v>
+      </c>
+      <c r="J91" t="s">
         <v>94</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K91" t="s">
         <v>250</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L91" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="68" t="s">
+    <row r="92" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="E85" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E92" s="85"/>
+      <c r="F92" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" t="s">
         <v>252</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="H92" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H85" t="s">
-        <v>93</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="I92" t="s">
+        <v>93</v>
+      </c>
+      <c r="J92" t="s">
         <v>135</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K92" t="s">
         <v>136</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L92" t="s">
         <v>200</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M92" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="68" t="s">
+    <row r="93" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="E86" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E93" s="85"/>
+      <c r="F93" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" t="s">
         <v>254</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="H93" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I93" t="s">
         <v>89</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J93" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="68" t="s">
+    <row r="94" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="E87" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87" s="68" t="s">
+      <c r="E94" s="85"/>
+      <c r="F94" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="H94" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H87" t="s">
-        <v>93</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="I94" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s">
         <v>135</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K94" t="s">
         <v>136</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L94" t="s">
         <v>201</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M94" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="68" t="s">
+    <row r="95" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E88" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E95" s="85"/>
+      <c r="F95" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" t="s">
         <v>257</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="H95" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I95" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="68" t="s">
+    <row r="96" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="E89" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E96" s="85"/>
+      <c r="F96" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" t="s">
         <v>199</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="H96" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H89" t="s">
-        <v>93</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="I96" t="s">
+        <v>93</v>
+      </c>
+      <c r="J96" t="s">
         <v>94</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K96" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="68" t="s">
+    <row r="97" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="E90" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E97" s="85"/>
+      <c r="F97" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" t="s">
         <v>236</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="H97" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H90" t="s">
-        <v>93</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="I97" t="s">
+        <v>93</v>
+      </c>
+      <c r="J97" t="s">
         <v>94</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K97" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="68" t="s">
+    <row r="98" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="E91" s="75" t="s">
+      <c r="E98" s="85"/>
+      <c r="F98" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G98" t="s">
         <v>250</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="H98" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H91" t="s">
-        <v>93</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="I98" t="s">
+        <v>93</v>
+      </c>
+      <c r="J98" t="s">
         <v>94</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K98" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="68" t="s">
+    <row r="99" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="E92" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="68" t="s">
+      <c r="E99" s="85"/>
+      <c r="F99" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="H99" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H92" t="s">
-        <v>93</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="I99" t="s">
+        <v>93</v>
+      </c>
+      <c r="J99" t="s">
         <v>102</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K99" t="s">
         <v>232</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L99" t="s">
         <v>259</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M99" t="s">
         <v>258</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N99" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="68" t="s">
+    <row r="100" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="E93" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="68" t="s">
+      <c r="E100" s="85"/>
+      <c r="F100" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="H100" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H93" t="s">
-        <v>93</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="I100" t="s">
+        <v>93</v>
+      </c>
+      <c r="J100" t="s">
         <v>101</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K100" t="s">
         <v>104</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L100" t="s">
         <v>193</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M100" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="68" t="s">
+    <row r="101" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="E94" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F94" s="68" t="s">
+      <c r="E101" s="85"/>
+      <c r="F101" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="H101" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H94" t="s">
-        <v>93</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="I101" t="s">
+        <v>93</v>
+      </c>
+      <c r="J101" t="s">
         <v>102</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K101" t="s">
         <v>225</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L101" t="s">
         <v>263</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M101" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="68" t="s">
+    <row r="102" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="E95" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" s="68" t="s">
+      <c r="E102" s="85"/>
+      <c r="F102" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="H102" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I102" t="s">
         <v>265</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J102" t="s">
         <v>266</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K102" t="s">
         <v>267</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L102" t="s">
         <v>268</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M102" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="68" t="s">
+    <row r="103" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="E96" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F96" s="68" t="s">
+      <c r="E103" s="85"/>
+      <c r="F103" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="H103" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H96" t="s">
-        <v>93</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="I103" t="s">
+        <v>93</v>
+      </c>
+      <c r="J103" t="s">
         <v>102</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K103" t="s">
         <v>269</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L103" t="s">
         <v>270</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M103" t="s">
         <v>271</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N103" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="68" t="s">
+    <row r="104" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="E97" s="75" t="s">
+      <c r="E104" s="85"/>
+      <c r="F104" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G104" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="H104" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H97" t="s">
-        <v>93</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="I104" t="s">
+        <v>93</v>
+      </c>
+      <c r="J104" t="s">
         <v>94</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K104" t="s">
         <v>273</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L104" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="68" t="s">
+    <row r="105" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="E98" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="68" t="s">
+      <c r="E105" s="85"/>
+      <c r="F105" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="H105" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I105" t="s">
         <v>91</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J105" t="s">
         <v>242</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K105" t="s">
         <v>98</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L105" t="s">
         <v>157</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M105" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="68" t="s">
+    <row r="106" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="75" t="s">
+      <c r="E106" s="85"/>
+      <c r="F106" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G106" t="s">
         <v>276</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="H106" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H99" t="s">
-        <v>93</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="I106" t="s">
+        <v>93</v>
+      </c>
+      <c r="J106" t="s">
         <v>94</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K106" t="s">
         <v>229</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L106" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="68" t="s">
+    <row r="107" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="E100" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E107" s="85"/>
+      <c r="F107" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" t="s">
         <v>276</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="H107" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H100" t="s">
-        <v>93</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="I107" t="s">
+        <v>93</v>
+      </c>
+      <c r="J107" t="s">
         <v>94</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K107" t="s">
         <v>229</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L107" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="68" t="s">
+    <row r="108" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="E101" s="75" t="s">
+      <c r="E108" s="85"/>
+      <c r="F108" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G108" t="s">
         <v>277</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="H108" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H101" t="s">
-        <v>93</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="I108" t="s">
+        <v>93</v>
+      </c>
+      <c r="J108" t="s">
         <v>102</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K108" t="s">
         <v>225</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L108" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="68" t="s">
+    <row r="109" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="E102" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F102" s="68" t="s">
+      <c r="E109" s="85"/>
+      <c r="F109" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G109" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="H109" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H102" t="s">
-        <v>93</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="I109" t="s">
+        <v>93</v>
+      </c>
+      <c r="J109" t="s">
         <v>102</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K109" t="s">
         <v>269</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L109" t="s">
         <v>222</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M109" t="s">
         <v>271</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N109" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="68" t="s">
+    <row r="110" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="68" t="s">
         <v>360</v>
       </c>
-      <c r="E103" s="75" t="s">
+      <c r="E110" s="85"/>
+      <c r="F110" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G110" t="s">
         <v>279</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="H110" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H103" t="s">
-        <v>93</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="I110" t="s">
+        <v>93</v>
+      </c>
+      <c r="J110" t="s">
         <v>94</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K110" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="68" t="s">
+    <row r="111" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="E104" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F104" s="68" t="s">
+      <c r="E111" s="85"/>
+      <c r="F111" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="H111" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H104" t="s">
-        <v>93</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="I111" t="s">
+        <v>93</v>
+      </c>
+      <c r="J111" t="s">
         <v>102</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K111" t="s">
         <v>225</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L111" t="s">
         <v>281</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M111" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="68" t="s">
+    <row r="112" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="E105" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E112" s="85"/>
+      <c r="F112" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G112" t="s">
         <v>283</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="H112" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I112" t="s">
         <v>89</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J112" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="68" t="s">
+    <row r="113" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="E106" s="75" t="s">
+      <c r="E113" s="85"/>
+      <c r="F113" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G113" t="s">
         <v>284</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="H113" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H106" t="s">
-        <v>93</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="I113" t="s">
+        <v>93</v>
+      </c>
+      <c r="J113" t="s">
         <v>94</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K113" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="68" t="s">
+    <row r="114" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="E107" s="75" t="s">
+      <c r="E114" s="85"/>
+      <c r="F114" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G114" t="s">
         <v>199</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="H114" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H107" t="s">
-        <v>93</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="I114" t="s">
+        <v>93</v>
+      </c>
+      <c r="J114" t="s">
         <v>94</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K114" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="68" t="s">
+    <row r="115" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="E108" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F108" s="68" t="s">
+      <c r="E115" s="85"/>
+      <c r="F115" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="H115" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I115" t="s">
         <v>286</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J115" t="s">
         <v>287</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K115" t="s">
         <v>288</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L115" t="s">
         <v>289</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M115" t="s">
         <v>290</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N115" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="68" t="s">
+    <row r="116" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="E109" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E116" s="85"/>
+      <c r="F116" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G116" t="s">
         <v>292</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="H116" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H109" t="s">
-        <v>93</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="I116" t="s">
+        <v>93</v>
+      </c>
+      <c r="J116" t="s">
         <v>135</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K116" t="s">
         <v>136</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L116" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="68" t="s">
+    <row r="117" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E110" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E117" s="85"/>
+      <c r="F117" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" t="s">
         <v>295</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="H117" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H110" t="s">
-        <v>93</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="I117" t="s">
+        <v>93</v>
+      </c>
+      <c r="J117" t="s">
         <v>294</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K117" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="68" t="s">
+    <row r="118" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="E111" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E118" s="85"/>
+      <c r="F118" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G118" t="s">
         <v>296</v>
       </c>
-      <c r="G111" s="27" t="s">
+      <c r="H118" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I118" t="s">
         <v>244</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J118" t="s">
         <v>245</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K118" t="s">
         <v>270</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L118" t="s">
         <v>297</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M118" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="68" t="s">
+    <row r="119" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="E112" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F112" s="68" t="s">
+      <c r="E119" s="85"/>
+      <c r="F119" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G119" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="H119" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H112" t="s">
-        <v>93</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="I119" t="s">
+        <v>93</v>
+      </c>
+      <c r="J119" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="68" t="s">
+    <row r="120" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="68" t="s">
         <v>363</v>
       </c>
-      <c r="E113" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E120" s="85"/>
+      <c r="F120" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G120" t="s">
         <v>277</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="H120" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H113" t="s">
-        <v>93</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="I120" t="s">
+        <v>93</v>
+      </c>
+      <c r="J120" t="s">
         <v>102</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K120" t="s">
         <v>225</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L120" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="68" t="s">
+    <row r="121" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="E114" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E121" s="85"/>
+      <c r="F121" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" t="s">
         <v>89</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="H121" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I121" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="68" t="s">
+    <row r="122" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="E115" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E122" s="85"/>
+      <c r="F122" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" t="s">
         <v>225</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="H122" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H115" t="s">
-        <v>93</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="I122" t="s">
+        <v>93</v>
+      </c>
+      <c r="J122" t="s">
         <v>102</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K122" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="68" t="s">
+    <row r="123" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="E116" s="77" t="s">
+      <c r="E123" s="85"/>
+      <c r="F123" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G123" t="s">
         <v>199</v>
       </c>
-      <c r="G116" s="27" t="s">
+      <c r="H123" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H116" t="s">
-        <v>93</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="I123" t="s">
+        <v>93</v>
+      </c>
+      <c r="J123" t="s">
         <v>94</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K123" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="68" t="s">
+    <row r="124" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="E117" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E124" s="85"/>
+      <c r="F124" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G124" t="s">
         <v>301</v>
       </c>
-      <c r="G117" s="27" t="s">
+      <c r="H124" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H117" t="s">
-        <v>93</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="I124" t="s">
+        <v>93</v>
+      </c>
+      <c r="J124" t="s">
         <v>294</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K124" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="68" t="s">
+    <row r="125" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="E118" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F118" s="68" t="s">
+      <c r="E125" s="85"/>
+      <c r="F125" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G125" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="H125" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H118" t="s">
-        <v>93</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="I125" t="s">
+        <v>93</v>
+      </c>
+      <c r="J125" t="s">
         <v>135</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K125" t="s">
         <v>136</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L125" t="s">
         <v>201</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M125" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="68" t="s">
+    <row r="126" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="E119" s="77" t="s">
+      <c r="E126" s="85"/>
+      <c r="F126" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G126" t="s">
         <v>225</v>
       </c>
-      <c r="G119" s="27" t="s">
+      <c r="H126" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H119" t="s">
-        <v>93</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="I126" t="s">
+        <v>93</v>
+      </c>
+      <c r="J126" t="s">
         <v>102</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K126" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="68" t="s">
+    <row r="127" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="E120" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F120" s="68" t="s">
+      <c r="E127" s="85"/>
+      <c r="F127" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G127" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="H127" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H120" t="s">
-        <v>93</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="I127" t="s">
+        <v>93</v>
+      </c>
+      <c r="J127" t="s">
         <v>135</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K127" t="s">
         <v>136</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L127" t="s">
         <v>304</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M127" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="68" t="s">
+    <row r="128" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="E121" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F121" s="68" t="s">
+      <c r="E128" s="85"/>
+      <c r="F128" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G128" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="H128" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H121" t="s">
-        <v>93</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="I128" t="s">
+        <v>93</v>
+      </c>
+      <c r="J128" t="s">
         <v>101</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K128" t="s">
         <v>104</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L128" t="s">
         <v>193</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M128" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="122" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="E122" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F122" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="G122" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H122" t="s">
-        <v>93</v>
-      </c>
-      <c r="I122" t="s">
-        <v>135</v>
-      </c>
-      <c r="J122" t="s">
-        <v>136</v>
-      </c>
-      <c r="K122" t="s">
-        <v>307</v>
-      </c>
-      <c r="L122" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="E123" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F123" t="s">
-        <v>245</v>
-      </c>
-      <c r="G123" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H123" t="s">
-        <v>244</v>
-      </c>
-      <c r="I123" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E124" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F124" t="s">
-        <v>308</v>
-      </c>
-      <c r="G124" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H124" t="s">
-        <v>244</v>
-      </c>
-      <c r="I124" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="125" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="E125" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F125" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H125" t="s">
-        <v>93</v>
-      </c>
-      <c r="I125" t="s">
-        <v>102</v>
-      </c>
-      <c r="J125" t="s">
-        <v>225</v>
-      </c>
-      <c r="K125" t="s">
-        <v>226</v>
-      </c>
-      <c r="L125" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="E126" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F126" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="G126" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H126" t="s">
-        <v>93</v>
-      </c>
-      <c r="I126" t="s">
-        <v>135</v>
-      </c>
-      <c r="J126" t="s">
-        <v>136</v>
-      </c>
-      <c r="K126" t="s">
-        <v>310</v>
-      </c>
-      <c r="L126" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="E127" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F127" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H127" t="s">
-        <v>93</v>
-      </c>
-      <c r="I127" t="s">
-        <v>135</v>
-      </c>
-      <c r="J127" t="s">
-        <v>136</v>
-      </c>
-      <c r="K127" t="s">
-        <v>312</v>
-      </c>
-      <c r="L127" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="128" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="E128" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F128" t="s">
-        <v>316</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H128" t="s">
-        <v>89</v>
-      </c>
-      <c r="I128" t="s">
-        <v>314</v>
-      </c>
-      <c r="J128" t="s">
-        <v>315</v>
-      </c>
-      <c r="K128" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="E129" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F129" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="G129" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="E129" s="85"/>
+      <c r="F129" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G129" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="H129" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H129" t="s">
-        <v>93</v>
-      </c>
       <c r="I129" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J129" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="K129" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="L129" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="M129" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="E130" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F130" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H130" t="s">
+        <v>368</v>
+      </c>
+      <c r="E130" s="85"/>
+      <c r="F130" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" t="s">
+        <v>245</v>
+      </c>
+      <c r="H130" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I130" t="s">
         <v>244</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>245</v>
-      </c>
-      <c r="J130" t="s">
-        <v>270</v>
-      </c>
-      <c r="K130" t="s">
-        <v>320</v>
-      </c>
-      <c r="L130" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="131" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="E131" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F131" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131" s="85"/>
+      <c r="F131" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" t="s">
         <v>308</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="H131" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>244</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="132" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="68" t="s">
-        <v>321</v>
-      </c>
-      <c r="E132" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F132" t="s">
-        <v>321</v>
-      </c>
-      <c r="G132" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" s="85"/>
+      <c r="F132" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G132" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H132" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H132" t="s">
-        <v>93</v>
-      </c>
       <c r="I132" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J132" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="K132" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L132" t="s">
-        <v>321</v>
+        <v>226</v>
+      </c>
+      <c r="M132" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="68" t="s">
-        <v>322</v>
-      </c>
-      <c r="E133" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F133" t="s">
-        <v>324</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H133" t="s">
-        <v>323</v>
+        <v>309</v>
+      </c>
+      <c r="E133" s="85"/>
+      <c r="F133" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G133" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="H133" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="I133" t="s">
-        <v>324</v>
+        <v>93</v>
+      </c>
+      <c r="J133" t="s">
+        <v>135</v>
+      </c>
+      <c r="K133" t="s">
+        <v>136</v>
+      </c>
+      <c r="L133" t="s">
+        <v>310</v>
+      </c>
+      <c r="M133" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="E134" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F134" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="G134" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E134" s="85"/>
+      <c r="F134" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G134" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="H134" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H134" t="s">
-        <v>93</v>
-      </c>
       <c r="I134" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J134" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="K134" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="L134" t="s">
-        <v>325</v>
+        <v>312</v>
+      </c>
+      <c r="M134" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="E135" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F135" t="s">
-        <v>327</v>
-      </c>
-      <c r="G135" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H135" t="s">
-        <v>327</v>
+        <v>313</v>
+      </c>
+      <c r="E135" s="85"/>
+      <c r="F135" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" t="s">
+        <v>316</v>
+      </c>
+      <c r="H135" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135" t="s">
+        <v>89</v>
+      </c>
+      <c r="J135" t="s">
+        <v>314</v>
+      </c>
+      <c r="K135" t="s">
+        <v>315</v>
+      </c>
+      <c r="L135" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="E136" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F136" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="G136" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E136" s="85"/>
+      <c r="F136" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="H136" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H136" t="s">
-        <v>91</v>
-      </c>
-      <c r="I136" s="37" t="s">
-        <v>242</v>
+      <c r="I136" t="s">
+        <v>93</v>
       </c>
       <c r="J136" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K136" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="L136" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="M136" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="E137" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F137" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="G137" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E137" s="85"/>
+      <c r="F137" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G137" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="H137" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H137" t="s">
-        <v>93</v>
-      </c>
       <c r="I137" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="J137" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="K137" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="L137" t="s">
-        <v>329</v>
+        <v>320</v>
+      </c>
+      <c r="M137" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="E138" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F138" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="G138" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H138" t="s">
-        <v>93</v>
+        <v>370</v>
+      </c>
+      <c r="E138" s="85"/>
+      <c r="F138" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="G138" t="s">
+        <v>308</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="I138" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="J138" t="s">
-        <v>104</v>
-      </c>
-      <c r="K138" t="s">
-        <v>332</v>
-      </c>
-      <c r="L138" t="s">
-        <v>331</v>
-      </c>
-      <c r="M138" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="E139" s="85"/>
+      <c r="F139" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G139" t="s">
+        <v>321</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I139" t="s">
+        <v>93</v>
+      </c>
+      <c r="J139" t="s">
+        <v>135</v>
+      </c>
+      <c r="K139" t="s">
+        <v>136</v>
+      </c>
+      <c r="L139" t="s">
+        <v>200</v>
+      </c>
+      <c r="M139" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="E140" s="85"/>
+      <c r="F140" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G140" t="s">
+        <v>324</v>
+      </c>
+      <c r="H140" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I140" t="s">
+        <v>323</v>
+      </c>
+      <c r="J140" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E141" s="85"/>
+      <c r="F141" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G141" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="H141" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I141" t="s">
+        <v>93</v>
+      </c>
+      <c r="J141" t="s">
+        <v>101</v>
+      </c>
+      <c r="K141" t="s">
+        <v>104</v>
+      </c>
+      <c r="L141" t="s">
+        <v>193</v>
+      </c>
+      <c r="M141" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="E142" s="85"/>
+      <c r="F142" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G142" t="s">
+        <v>327</v>
+      </c>
+      <c r="H142" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="E143" s="85"/>
+      <c r="F143" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G143" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="H143" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I143" t="s">
+        <v>91</v>
+      </c>
+      <c r="J143" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K143" t="s">
+        <v>98</v>
+      </c>
+      <c r="L143" t="s">
+        <v>157</v>
+      </c>
+      <c r="M143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="E144" s="85"/>
+      <c r="F144" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G144" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H144" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I144" t="s">
+        <v>93</v>
+      </c>
+      <c r="J144" t="s">
+        <v>135</v>
+      </c>
+      <c r="K144" t="s">
+        <v>136</v>
+      </c>
+      <c r="L144" t="s">
+        <v>330</v>
+      </c>
+      <c r="M144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="F145" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G145" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="H145" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I145" t="s">
+        <v>93</v>
+      </c>
+      <c r="J145" t="s">
+        <v>101</v>
+      </c>
+      <c r="K145" t="s">
+        <v>104</v>
+      </c>
+      <c r="L145" t="s">
+        <v>332</v>
+      </c>
+      <c r="M145" t="s">
+        <v>331</v>
+      </c>
+      <c r="N145" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="E139" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F139" s="68" t="s">
+      <c r="E146" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="F146" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" s="68" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E140" s="77"/>
-      <c r="G140" s="27"/>
+    <row r="147" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>415</v>
+      </c>
+      <c r="F147" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G147" t="s">
+        <v>244</v>
+      </c>
+      <c r="H147" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I147" s="89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>416</v>
+      </c>
+      <c r="F148" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G148" t="s">
+        <v>440</v>
+      </c>
+      <c r="H148" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="I148" s="89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G149" t="s">
+        <v>441</v>
+      </c>
+      <c r="H149" t="s">
+        <v>87</v>
+      </c>
+      <c r="I149" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J149" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K149" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L149" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M149" t="s">
+        <v>464</v>
+      </c>
+      <c r="N149" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>418</v>
+      </c>
+      <c r="F150" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H150" t="s">
+        <v>87</v>
+      </c>
+      <c r="I150" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J150" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K150" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L150" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M150" t="s">
+        <v>466</v>
+      </c>
+      <c r="N150" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>419</v>
+      </c>
+      <c r="F151" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G151" t="s">
+        <v>443</v>
+      </c>
+      <c r="H151" t="s">
+        <v>87</v>
+      </c>
+      <c r="I151" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J151" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K151" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L151" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M151" t="s">
+        <v>467</v>
+      </c>
+      <c r="N151" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>420</v>
+      </c>
+      <c r="F152" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" t="s">
+        <v>444</v>
+      </c>
+      <c r="H152" t="s">
+        <v>87</v>
+      </c>
+      <c r="I152" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J152" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K152" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L152" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M152" t="s">
+        <v>305</v>
+      </c>
+      <c r="N152" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>421</v>
+      </c>
+      <c r="F153" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G153" t="s">
+        <v>445</v>
+      </c>
+      <c r="H153" t="s">
+        <v>87</v>
+      </c>
+      <c r="I153" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J153" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K153" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="L153" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="M153" t="s">
+        <v>468</v>
+      </c>
+      <c r="N153" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>422</v>
+      </c>
+      <c r="F154" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G154" t="s">
+        <v>446</v>
+      </c>
+      <c r="H154" t="s">
+        <v>87</v>
+      </c>
+      <c r="I154" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J154" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K154" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L154" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M154" t="s">
+        <v>305</v>
+      </c>
+      <c r="N154" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>423</v>
+      </c>
+      <c r="F155" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G155" t="s">
+        <v>447</v>
+      </c>
+      <c r="H155" t="s">
+        <v>87</v>
+      </c>
+      <c r="I155" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J155" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K155" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L155" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M155" t="s">
+        <v>469</v>
+      </c>
+      <c r="N155" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>424</v>
+      </c>
+      <c r="F156" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G156" t="s">
+        <v>448</v>
+      </c>
+      <c r="H156" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J156" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K156" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L156" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M156" t="s">
+        <v>470</v>
+      </c>
+      <c r="N156" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>425</v>
+      </c>
+      <c r="F157" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G157" t="s">
+        <v>449</v>
+      </c>
+      <c r="H157" t="s">
+        <v>87</v>
+      </c>
+      <c r="I157" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J157" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K157" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L157" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M157" t="s">
+        <v>305</v>
+      </c>
+      <c r="N157" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>426</v>
+      </c>
+      <c r="F158" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G158" t="s">
+        <v>450</v>
+      </c>
+      <c r="H158" t="s">
+        <v>87</v>
+      </c>
+      <c r="I158" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J158" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K158" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L158" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M158" t="s">
+        <v>305</v>
+      </c>
+      <c r="N158" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>427</v>
+      </c>
+      <c r="F159" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G159" t="s">
+        <v>451</v>
+      </c>
+      <c r="H159" t="s">
+        <v>87</v>
+      </c>
+      <c r="I159" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J159" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K159" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="L159" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="M159" t="s">
+        <v>471</v>
+      </c>
+      <c r="N159" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>428</v>
+      </c>
+      <c r="F160" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="G160" t="s">
+        <v>452</v>
+      </c>
+      <c r="H160" t="s">
+        <v>87</v>
+      </c>
+      <c r="I160" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J160" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K160" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L160" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M160" t="s">
+        <v>472</v>
+      </c>
+      <c r="N160" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>429</v>
+      </c>
+      <c r="F161" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G161" t="s">
+        <v>453</v>
+      </c>
+      <c r="H161" t="s">
+        <v>87</v>
+      </c>
+      <c r="I161" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J161" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K161" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L161" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M161" t="s">
+        <v>473</v>
+      </c>
+      <c r="N161" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>430</v>
+      </c>
+      <c r="F162" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G162" t="s">
+        <v>454</v>
+      </c>
+      <c r="H162" t="s">
+        <v>87</v>
+      </c>
+      <c r="I162" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J162" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K162" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L162" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M162" t="s">
+        <v>261</v>
+      </c>
+      <c r="N162" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>431</v>
+      </c>
+      <c r="F163" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G163" t="s">
+        <v>455</v>
+      </c>
+      <c r="H163" t="s">
+        <v>87</v>
+      </c>
+      <c r="I163" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J163" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K163" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L163" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M163" t="s">
+        <v>261</v>
+      </c>
+      <c r="N163" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>432</v>
+      </c>
+      <c r="F164" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G164" t="s">
+        <v>452</v>
+      </c>
+      <c r="H164" t="s">
+        <v>87</v>
+      </c>
+      <c r="I164" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J164" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K164" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L164" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M164" t="s">
+        <v>472</v>
+      </c>
+      <c r="N164" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>433</v>
+      </c>
+      <c r="F165" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G165" t="s">
+        <v>456</v>
+      </c>
+      <c r="H165" t="s">
+        <v>87</v>
+      </c>
+      <c r="I165" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K165" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L165" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M165" t="s">
+        <v>261</v>
+      </c>
+      <c r="N165" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>434</v>
+      </c>
+      <c r="F166" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G166" t="s">
+        <v>457</v>
+      </c>
+      <c r="H166" t="s">
+        <v>87</v>
+      </c>
+      <c r="I166" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K166" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L166" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M166" t="s">
+        <v>305</v>
+      </c>
+      <c r="N166" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>435</v>
+      </c>
+      <c r="F167" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G167" t="s">
+        <v>458</v>
+      </c>
+      <c r="H167" t="s">
+        <v>87</v>
+      </c>
+      <c r="I167" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J167" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K167" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L167" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M167" t="s">
+        <v>473</v>
+      </c>
+      <c r="N167" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>436</v>
+      </c>
+      <c r="F168" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G168" t="s">
+        <v>459</v>
+      </c>
+      <c r="H168" t="s">
+        <v>87</v>
+      </c>
+      <c r="I168" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J168" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K168" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L168" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M168" t="s">
+        <v>474</v>
+      </c>
+      <c r="N168" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="169" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>437</v>
+      </c>
+      <c r="F169" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G169" t="s">
+        <v>460</v>
+      </c>
+      <c r="H169" t="s">
+        <v>87</v>
+      </c>
+      <c r="I169" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J169" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K169" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L169" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M169" t="s">
+        <v>112</v>
+      </c>
+      <c r="N169" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="170" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>438</v>
+      </c>
+      <c r="F170" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G170" t="s">
+        <v>461</v>
+      </c>
+      <c r="H170" t="s">
+        <v>87</v>
+      </c>
+      <c r="I170" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J170" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K170" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L170" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M170" t="s">
+        <v>112</v>
+      </c>
+      <c r="N170" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="171" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>439</v>
+      </c>
+      <c r="F171" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G171" t="s">
+        <v>462</v>
+      </c>
+      <c r="H171" t="s">
+        <v>87</v>
+      </c>
+      <c r="I171" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J171" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="K171" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L171" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="M171" t="s">
+        <v>475</v>
+      </c>
+      <c r="N171" t="s">
+        <v>492</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
+    <hyperlink ref="L19" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -15,7 +15,7 @@
     <sheet name="LCD" sheetId="4" r:id="rId1"/>
     <sheet name="Hierarchy2" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="500">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Juvenile</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Larvae</t>
   </si>
   <si>
@@ -1253,9 +1250,6 @@
     <t>twentymmstart2</t>
   </si>
   <si>
-    <t>Yolo</t>
-  </si>
-  <si>
     <t>Acanthocyclops vernalis NA</t>
   </si>
   <si>
@@ -1608,6 +1602,12 @@
   </si>
   <si>
     <t>Oithona spp_</t>
+  </si>
+  <si>
+    <t>YBFMP</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1947,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2107,10 +2107,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -3300,8 +3296,8 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3341,13 +3337,13 @@
         <v>205</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>381</v>
+        <v>498</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>204</v>
@@ -3374,28 +3370,28 @@
         <v>87</v>
       </c>
       <c r="O1" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="P1" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="Q1" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="R1" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="S1" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="T1" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="U1" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="V1" s="78" t="s">
         <v>379</v>
-      </c>
-      <c r="V1" s="78" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3408,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>207</v>
@@ -3462,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
@@ -3505,7 +3501,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -3546,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="58" t="s">
@@ -3587,13 +3583,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>207</v>
@@ -3642,7 +3638,7 @@
         <v>118</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>207</v>
@@ -3683,7 +3679,7 @@
       </c>
       <c r="D8" s="69"/>
       <c r="E8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F8" s="58" t="s">
         <v>207</v>
@@ -3721,10 +3717,10 @@
         <v>130</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>207</v>
@@ -3761,7 +3757,7 @@
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
@@ -3811,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>207</v>
@@ -3956,7 +3952,7 @@
         <v>117</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F14" s="58" t="s">
         <v>207</v>
@@ -4004,17 +4000,35 @@
       <c r="C15" s="7"/>
       <c r="D15" s="68"/>
       <c r="E15" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="39"/>
+        <v>407</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>14</v>
+      </c>
       <c r="O15" s="80"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4164,7 +4178,7 @@
         <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F19" s="58" t="s">
         <v>207</v>
@@ -4215,17 +4229,35 @@
       <c r="C20" s="7"/>
       <c r="D20" s="68"/>
       <c r="E20" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="87"/>
+        <v>406</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -4235,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D21" s="68" t="s">
         <v>80</v>
@@ -4245,7 +4277,7 @@
         <v>207</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" s="48" t="s">
         <v>86</v>
@@ -4263,7 +4295,7 @@
         <v>194</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="80">
@@ -4310,7 +4342,7 @@
         <v>194</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N22" s="49" t="s">
         <v>20</v>
@@ -4340,7 +4372,7 @@
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F23" s="58" t="s">
         <v>207</v>
@@ -4364,7 +4396,7 @@
         <v>194</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N23" s="49" t="s">
         <v>22</v>
@@ -4488,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>81</v>
@@ -4532,10 +4564,10 @@
         <v>107</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F27" s="58" t="s">
         <v>207</v>
@@ -4571,7 +4603,7 @@
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>207</v>
@@ -4618,10 +4650,10 @@
         <v>132</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>209</v>
+        <v>499</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>133</v>
@@ -4656,10 +4688,10 @@
         <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="58" t="s">
@@ -4707,7 +4739,7 @@
         <v>122</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F31" s="58" t="s">
         <v>208</v>
@@ -4755,7 +4787,7 @@
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F32" s="58" t="s">
         <v>208</v>
@@ -5162,10 +5194,10 @@
         <v>103</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F41" s="58" t="s">
         <v>208</v>
@@ -5214,7 +5246,7 @@
         <v>208</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H42" s="40" t="s">
         <v>86</v>
@@ -5232,7 +5264,7 @@
         <v>194</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N42" s="37"/>
       <c r="O42" s="80">
@@ -5338,17 +5370,35 @@
       <c r="B45" s="10"/>
       <c r="D45" s="69"/>
       <c r="E45" t="s">
-        <v>410</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="42"/>
+        <v>408</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>17</v>
+      </c>
       <c r="O45" s="80"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -5356,17 +5406,35 @@
       <c r="B46" s="10"/>
       <c r="D46" s="69"/>
       <c r="E46" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="42"/>
+        <v>400</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>14</v>
+      </c>
       <c r="O46" s="80"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -5374,17 +5442,35 @@
       <c r="B47" s="10"/>
       <c r="D47" s="69"/>
       <c r="E47" t="s">
-        <v>411</v>
-      </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="42"/>
+        <v>409</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>10</v>
+      </c>
       <c r="O47" s="80"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -5396,10 +5482,10 @@
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F48" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G48" s="49" t="s">
         <v>101</v>
@@ -5437,7 +5523,7 @@
       </c>
       <c r="E49" s="85"/>
       <c r="F49" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G49" s="44" t="s">
         <v>116</v>
@@ -5475,7 +5561,7 @@
       <c r="D50" s="69"/>
       <c r="E50" s="69"/>
       <c r="F50" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G50" s="49" t="s">
         <v>6</v>
@@ -5516,11 +5602,11 @@
         <v>45</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E51" s="85"/>
       <c r="F51" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G51" s="49" t="s">
         <v>101</v>
@@ -5560,7 +5646,7 @@
       </c>
       <c r="E52" s="85"/>
       <c r="F52" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G52" s="49" t="s">
         <v>114</v>
@@ -5606,7 +5692,7 @@
       <c r="D53" s="69"/>
       <c r="E53" s="69"/>
       <c r="F53" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G53" s="44" t="s">
         <v>117</v>
@@ -5649,7 +5735,7 @@
       </c>
       <c r="E54" s="85"/>
       <c r="F54" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" s="49" t="s">
         <v>14</v>
@@ -5690,12 +5776,20 @@
       <c r="B55" s="10"/>
       <c r="D55" s="68"/>
       <c r="E55" t="s">
-        <v>412</v>
-      </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="41"/>
+        <v>410</v>
+      </c>
+      <c r="F55" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="J55" s="41"/>
       <c r="K55" s="46"/>
       <c r="L55" s="45"/>
@@ -5708,14 +5802,26 @@
       <c r="B56" s="10"/>
       <c r="D56" s="68"/>
       <c r="E56" t="s">
-        <v>413</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="46"/>
+        <v>411</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K56" s="46" t="s">
+        <v>136</v>
+      </c>
       <c r="L56" s="45"/>
       <c r="M56" s="42"/>
       <c r="N56" s="49"/>
@@ -5735,7 +5841,7 @@
         <v>134</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F57" s="58" t="s">
         <v>207</v>
@@ -5924,7 +6030,7 @@
         <v>136</v>
       </c>
       <c r="E61" s="85" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F61" s="58" t="s">
         <v>207</v>
@@ -6021,7 +6127,7 @@
         <v>91</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K63" s="37" t="s">
         <v>98</v>
@@ -6067,7 +6173,7 @@
         <v>91</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K64" s="37" t="s">
         <v>98</v>
@@ -6123,10 +6229,10 @@
         <v>90</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F66" s="58" t="s">
         <v>207</v>
@@ -6182,7 +6288,7 @@
         <v>91</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K67" s="37" t="s">
         <v>98</v>
@@ -6219,7 +6325,7 @@
         <v>207</v>
       </c>
       <c r="G68" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H68" s="48" t="s">
         <v>86</v>
@@ -6228,7 +6334,7 @@
         <v>91</v>
       </c>
       <c r="J68" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K68" s="37" t="s">
         <v>98</v>
@@ -6269,7 +6375,7 @@
         <v>91</v>
       </c>
       <c r="J69" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K69" s="37" t="s">
         <v>98</v>
@@ -6313,7 +6419,7 @@
         <v>91</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K70" s="37" t="s">
         <v>98</v>
@@ -6343,25 +6449,25 @@
         <v>99</v>
       </c>
       <c r="D71" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E71" s="85" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F71" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H71" s="48" t="s">
         <v>188</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J71" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K71" s="60"/>
       <c r="L71" s="60"/>
@@ -6390,7 +6496,7 @@
       <c r="D72" s="69"/>
       <c r="E72" s="69"/>
       <c r="F72" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>144</v>
@@ -6422,7 +6528,7 @@
     </row>
     <row r="73" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>67</v>
@@ -6431,13 +6537,13 @@
         <v>67</v>
       </c>
       <c r="E73" s="85" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F73" s="58" t="s">
         <v>207</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73" s="43" t="s">
         <v>83</v>
@@ -6446,7 +6552,7 @@
         <v>93</v>
       </c>
       <c r="J73" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K73" s="60"/>
       <c r="L73" s="60"/>
@@ -6509,7 +6615,7 @@
       </c>
       <c r="D75" s="70"/>
       <c r="E75" s="70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F75" s="58" t="s">
         <v>207</v>
@@ -6542,13 +6648,13 @@
         <v>92</v>
       </c>
       <c r="D76" s="71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E76" s="86" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F76" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G76" s="54" t="s">
         <v>95</v>
@@ -6584,13 +6690,13 @@
         <v>96</v>
       </c>
       <c r="D77" s="71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E77" s="86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F77" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G77" s="54" t="s">
         <v>94</v>
@@ -6617,7 +6723,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C78" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="69"/>
       <c r="E78" s="69"/>
@@ -6625,7 +6731,7 @@
         <v>207</v>
       </c>
       <c r="G78" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H78" s="56" t="s">
         <v>87</v>
@@ -6637,16 +6743,16 @@
         <v>102</v>
       </c>
       <c r="K78" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="L78" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="L78" s="55" t="s">
+      <c r="M78" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="M78" s="64" t="s">
-        <v>223</v>
-      </c>
       <c r="N78" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="81">
         <v>1992</v>
@@ -6654,7 +6760,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="69"/>
       <c r="E79" s="69"/>
@@ -6662,7 +6768,7 @@
         <v>207</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H79" s="65" t="s">
         <v>86</v>
@@ -6674,13 +6780,13 @@
         <v>102</v>
       </c>
       <c r="K79" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="L79" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="L79" s="64" t="s">
-        <v>226</v>
-      </c>
       <c r="M79" s="64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="81">
         <v>1986</v>
@@ -6688,7 +6794,7 @@
     </row>
     <row r="80" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E80" s="86"/>
       <c r="F80" s="72" t="s">
@@ -6713,14 +6819,14 @@
     </row>
     <row r="81" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81" s="86"/>
       <c r="F81" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G81" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>85</v>
@@ -6732,24 +6838,24 @@
         <v>94</v>
       </c>
       <c r="K81" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L81" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M81" s="74"/>
       <c r="N81" s="74"/>
     </row>
     <row r="82" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E82" s="86"/>
       <c r="F82" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G82" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H82" s="27" t="s">
         <v>85</v>
@@ -6761,24 +6867,24 @@
         <v>94</v>
       </c>
       <c r="K82" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="L82" s="74" t="s">
         <v>229</v>
-      </c>
-      <c r="L82" s="74" t="s">
-        <v>230</v>
       </c>
       <c r="M82" s="74"/>
       <c r="N82" s="74"/>
     </row>
     <row r="83" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83" s="86"/>
       <c r="F83" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G83" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H83" s="27" t="s">
         <v>84</v>
@@ -6790,7 +6896,7 @@
         <v>102</v>
       </c>
       <c r="K83" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L83" s="74"/>
       <c r="M83" s="74"/>
@@ -6798,14 +6904,14 @@
     </row>
     <row r="84" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="85"/>
       <c r="F84" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H84" s="27" t="s">
         <v>84</v>
@@ -6817,19 +6923,19 @@
         <v>102</v>
       </c>
       <c r="K84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E85" s="85"/>
       <c r="F85" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H85" s="27" t="s">
         <v>85</v>
@@ -6841,22 +6947,22 @@
         <v>94</v>
       </c>
       <c r="K85" t="s">
+        <v>235</v>
+      </c>
+      <c r="L85" t="s">
         <v>236</v>
-      </c>
-      <c r="L85" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="86" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E86" s="85"/>
       <c r="F86" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H86" s="27" t="s">
         <v>84</v>
@@ -6868,19 +6974,19 @@
         <v>94</v>
       </c>
       <c r="K86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E87" s="85"/>
       <c r="F87" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>85</v>
@@ -6895,19 +7001,19 @@
         <v>199</v>
       </c>
       <c r="L87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E88" s="85"/>
       <c r="F88" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H88" s="27" t="s">
         <v>86</v>
@@ -6916,7 +7022,7 @@
         <v>91</v>
       </c>
       <c r="J88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K88" t="s">
         <v>98</v>
@@ -6925,52 +7031,52 @@
         <v>157</v>
       </c>
       <c r="M88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E89" s="85"/>
       <c r="F89" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G89" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H89" s="27" t="s">
         <v>87</v>
       </c>
       <c r="I89" t="s">
+        <v>243</v>
+      </c>
+      <c r="J89" t="s">
         <v>244</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>245</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>246</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>247</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>248</v>
-      </c>
-      <c r="N89" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="90" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E90" s="85"/>
       <c r="F90" s="76" t="s">
         <v>208</v>
       </c>
       <c r="G90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H90" s="27" t="s">
         <v>85</v>
@@ -6982,22 +7088,22 @@
         <v>102</v>
       </c>
       <c r="K90" t="s">
+        <v>224</v>
+      </c>
+      <c r="L90" t="s">
         <v>225</v>
-      </c>
-      <c r="L90" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="91" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E91" s="85"/>
       <c r="F91" s="76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H91" s="27" t="s">
         <v>85</v>
@@ -7009,22 +7115,22 @@
         <v>94</v>
       </c>
       <c r="K91" t="s">
+        <v>249</v>
+      </c>
+      <c r="L91" t="s">
         <v>250</v>
-      </c>
-      <c r="L91" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="92" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E92" s="85"/>
       <c r="F92" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H92" s="27" t="s">
         <v>86</v>
@@ -7042,19 +7148,19 @@
         <v>200</v>
       </c>
       <c r="M92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E93" s="85"/>
       <c r="F93" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H93" s="27" t="s">
         <v>83</v>
@@ -7063,19 +7169,19 @@
         <v>89</v>
       </c>
       <c r="J93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E94" s="85"/>
       <c r="F94" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G94" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>86</v>
@@ -7093,30 +7199,30 @@
         <v>201</v>
       </c>
       <c r="M94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E95" s="85"/>
       <c r="F95" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H95" s="27" t="s">
         <v>82</v>
       </c>
       <c r="I95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E96" s="85"/>
       <c r="F96" s="72" t="s">
@@ -7140,14 +7246,14 @@
     </row>
     <row r="97" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E97" s="85"/>
       <c r="F97" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H97" s="27" t="s">
         <v>84</v>
@@ -7159,19 +7265,19 @@
         <v>94</v>
       </c>
       <c r="K97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E98" s="85"/>
       <c r="F98" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H98" s="27" t="s">
         <v>84</v>
@@ -7183,19 +7289,19 @@
         <v>94</v>
       </c>
       <c r="K98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E99" s="85"/>
       <c r="F99" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G99" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H99" s="27" t="s">
         <v>87</v>
@@ -7207,28 +7313,28 @@
         <v>102</v>
       </c>
       <c r="K99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L99" t="s">
+        <v>258</v>
+      </c>
+      <c r="M99" t="s">
+        <v>257</v>
+      </c>
+      <c r="N99" t="s">
         <v>259</v>
-      </c>
-      <c r="M99" t="s">
-        <v>258</v>
-      </c>
-      <c r="N99" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="100" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E100" s="85"/>
       <c r="F100" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G100" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H100" s="27" t="s">
         <v>86</v>
@@ -7246,19 +7352,19 @@
         <v>193</v>
       </c>
       <c r="M100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E101" s="85"/>
       <c r="F101" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G101" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H101" s="27" t="s">
         <v>86</v>
@@ -7270,55 +7376,55 @@
         <v>102</v>
       </c>
       <c r="K101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E102" s="85"/>
       <c r="F102" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G102" s="68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H102" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I102" t="s">
+        <v>264</v>
+      </c>
+      <c r="J102" t="s">
         <v>265</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>266</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>267</v>
       </c>
-      <c r="L102" t="s">
-        <v>268</v>
-      </c>
       <c r="M102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E103" s="85"/>
       <c r="F103" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G103" s="68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H103" s="27" t="s">
         <v>87</v>
@@ -7330,28 +7436,28 @@
         <v>102</v>
       </c>
       <c r="K103" t="s">
+        <v>268</v>
+      </c>
+      <c r="L103" t="s">
         <v>269</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>270</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>271</v>
-      </c>
-      <c r="N103" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="104" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="85"/>
       <c r="F104" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H104" s="27" t="s">
         <v>85</v>
@@ -7363,22 +7469,22 @@
         <v>94</v>
       </c>
       <c r="K104" t="s">
+        <v>272</v>
+      </c>
+      <c r="L104" t="s">
         <v>273</v>
-      </c>
-      <c r="L104" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="105" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E105" s="85"/>
       <c r="F105" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G105" s="68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H105" s="27" t="s">
         <v>86</v>
@@ -7387,7 +7493,7 @@
         <v>91</v>
       </c>
       <c r="J105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K105" t="s">
         <v>98</v>
@@ -7396,19 +7502,19 @@
         <v>157</v>
       </c>
       <c r="M105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E106" s="85"/>
       <c r="F106" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H106" s="27" t="s">
         <v>85</v>
@@ -7420,22 +7526,22 @@
         <v>94</v>
       </c>
       <c r="K106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E107" s="85"/>
       <c r="F107" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H107" s="27" t="s">
         <v>85</v>
@@ -7447,22 +7553,22 @@
         <v>94</v>
       </c>
       <c r="K107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E108" s="85"/>
       <c r="F108" s="75" t="s">
         <v>208</v>
       </c>
       <c r="G108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H108" s="27" t="s">
         <v>85</v>
@@ -7474,22 +7580,22 @@
         <v>102</v>
       </c>
       <c r="K108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E109" s="85"/>
       <c r="F109" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G109" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H109" s="27" t="s">
         <v>87</v>
@@ -7501,28 +7607,28 @@
         <v>102</v>
       </c>
       <c r="K109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E110" s="85"/>
       <c r="F110" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H110" s="27" t="s">
         <v>84</v>
@@ -7534,19 +7640,19 @@
         <v>94</v>
       </c>
       <c r="K110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111" s="85"/>
       <c r="F111" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G111" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H111" s="27" t="s">
         <v>86</v>
@@ -7558,25 +7664,25 @@
         <v>102</v>
       </c>
       <c r="K111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M111" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E112" s="85"/>
       <c r="F112" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H112" s="27" t="s">
         <v>83</v>
@@ -7585,19 +7691,19 @@
         <v>89</v>
       </c>
       <c r="J112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E113" s="85"/>
       <c r="F113" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H113" s="27" t="s">
         <v>84</v>
@@ -7609,16 +7715,16 @@
         <v>94</v>
       </c>
       <c r="K113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E114" s="85"/>
       <c r="F114" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G114" t="s">
         <v>199</v>
@@ -7638,47 +7744,47 @@
     </row>
     <row r="115" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E115" s="85"/>
       <c r="F115" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G115" s="68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H115" s="27" t="s">
         <v>87</v>
       </c>
       <c r="I115" t="s">
+        <v>285</v>
+      </c>
+      <c r="J115" t="s">
         <v>286</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>287</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>288</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>289</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>290</v>
-      </c>
-      <c r="N115" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="116" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E116" s="85"/>
       <c r="F116" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H116" s="27" t="s">
         <v>85</v>
@@ -7693,19 +7799,19 @@
         <v>136</v>
       </c>
       <c r="L116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E117" s="85"/>
       <c r="F117" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H117" s="27" t="s">
         <v>84</v>
@@ -7714,52 +7820,52 @@
         <v>93</v>
       </c>
       <c r="J117" t="s">
+        <v>293</v>
+      </c>
+      <c r="K117" t="s">
         <v>294</v>
-      </c>
-      <c r="K117" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="118" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E118" s="85"/>
       <c r="F118" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H118" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I118" t="s">
+        <v>243</v>
+      </c>
+      <c r="J118" t="s">
         <v>244</v>
       </c>
-      <c r="J118" t="s">
-        <v>245</v>
-      </c>
       <c r="K118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E119" s="85"/>
       <c r="F119" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G119" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H119" s="27" t="s">
         <v>83</v>
@@ -7768,19 +7874,19 @@
         <v>93</v>
       </c>
       <c r="J119" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E120" s="85"/>
       <c r="F120" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H120" s="27" t="s">
         <v>85</v>
@@ -7792,15 +7898,15 @@
         <v>102</v>
       </c>
       <c r="K120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E121" s="85"/>
       <c r="F121" s="77" t="s">
@@ -7818,14 +7924,14 @@
     </row>
     <row r="122" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E122" s="85"/>
       <c r="F122" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H122" s="27" t="s">
         <v>84</v>
@@ -7837,16 +7943,16 @@
         <v>102</v>
       </c>
       <c r="K122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E123" s="85"/>
       <c r="F123" s="77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G123" t="s">
         <v>199</v>
@@ -7866,14 +7972,14 @@
     </row>
     <row r="124" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E124" s="85"/>
       <c r="F124" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H124" s="27" t="s">
         <v>84</v>
@@ -7882,22 +7988,22 @@
         <v>93</v>
       </c>
       <c r="J124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E125" s="85"/>
       <c r="F125" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G125" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H125" s="27" t="s">
         <v>86</v>
@@ -7915,19 +8021,19 @@
         <v>201</v>
       </c>
       <c r="M125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E126" s="85"/>
       <c r="F126" s="77" t="s">
         <v>208</v>
       </c>
       <c r="G126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H126" s="27" t="s">
         <v>84</v>
@@ -7939,19 +8045,19 @@
         <v>102</v>
       </c>
       <c r="K126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E127" s="85"/>
       <c r="F127" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G127" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H127" s="27" t="s">
         <v>86</v>
@@ -7966,22 +8072,22 @@
         <v>136</v>
       </c>
       <c r="L127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E128" s="85"/>
       <c r="F128" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G128" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H128" s="27" t="s">
         <v>86</v>
@@ -7999,19 +8105,19 @@
         <v>193</v>
       </c>
       <c r="M128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E129" s="85"/>
       <c r="F129" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G129" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H129" s="27" t="s">
         <v>86</v>
@@ -8026,64 +8132,64 @@
         <v>136</v>
       </c>
       <c r="L129" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M129" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E130" s="85"/>
       <c r="F130" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H130" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I130" t="s">
+        <v>243</v>
+      </c>
+      <c r="J130" t="s">
         <v>244</v>
-      </c>
-      <c r="J130" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="131" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E131" s="85"/>
       <c r="F131" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H131" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I131" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E132" s="85"/>
       <c r="F132" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G132" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H132" s="27" t="s">
         <v>86</v>
@@ -8095,25 +8201,25 @@
         <v>102</v>
       </c>
       <c r="K132" t="s">
+        <v>224</v>
+      </c>
+      <c r="L132" t="s">
         <v>225</v>
       </c>
-      <c r="L132" t="s">
-        <v>226</v>
-      </c>
       <c r="M132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E133" s="85"/>
       <c r="F133" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G133" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H133" s="27" t="s">
         <v>86</v>
@@ -8128,22 +8234,22 @@
         <v>136</v>
       </c>
       <c r="L133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E134" s="85"/>
       <c r="F134" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G134" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H134" s="27" t="s">
         <v>86</v>
@@ -8158,22 +8264,22 @@
         <v>136</v>
       </c>
       <c r="L134" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E135" s="85"/>
       <c r="F135" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H135" s="27" t="s">
         <v>85</v>
@@ -8182,25 +8288,25 @@
         <v>89</v>
       </c>
       <c r="J135" t="s">
+        <v>313</v>
+      </c>
+      <c r="K135" t="s">
         <v>314</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>315</v>
-      </c>
-      <c r="L135" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E136" s="85"/>
       <c r="F136" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G136" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H136" s="27" t="s">
         <v>86</v>
@@ -8212,76 +8318,76 @@
         <v>102</v>
       </c>
       <c r="K136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E137" s="85"/>
       <c r="F137" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G137" s="68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H137" s="27" t="s">
         <v>86</v>
       </c>
       <c r="I137" t="s">
+        <v>243</v>
+      </c>
+      <c r="J137" t="s">
         <v>244</v>
       </c>
-      <c r="J137" t="s">
-        <v>245</v>
-      </c>
       <c r="K137" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E138" s="85"/>
       <c r="F138" s="77" t="s">
         <v>208</v>
       </c>
       <c r="G138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H138" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I138" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E139" s="85"/>
       <c r="F139" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H139" s="27" t="s">
         <v>86</v>
@@ -8299,40 +8405,40 @@
         <v>200</v>
       </c>
       <c r="M139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="68" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E140" s="85"/>
       <c r="F140" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G140" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H140" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I140" t="s">
+        <v>322</v>
+      </c>
+      <c r="J140" t="s">
         <v>323</v>
-      </c>
-      <c r="J140" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="141" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D141" s="68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G141" s="68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H141" s="27" t="s">
         <v>86</v>
@@ -8350,37 +8456,37 @@
         <v>193</v>
       </c>
       <c r="M141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E142" s="85"/>
       <c r="F142" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H142" s="27" t="s">
         <v>82</v>
       </c>
       <c r="I142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D143" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E143" s="85"/>
       <c r="F143" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G143" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H143" s="27" t="s">
         <v>86</v>
@@ -8389,7 +8495,7 @@
         <v>91</v>
       </c>
       <c r="J143" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K143" t="s">
         <v>98</v>
@@ -8398,19 +8504,19 @@
         <v>157</v>
       </c>
       <c r="M143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D144" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E144" s="85"/>
       <c r="F144" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G144" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H144" s="27" t="s">
         <v>86</v>
@@ -8425,24 +8531,24 @@
         <v>136</v>
       </c>
       <c r="L144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M144" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E145" s="85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F145" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G145" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H145" s="27" t="s">
         <v>87</v>
@@ -8457,804 +8563,806 @@
         <v>104</v>
       </c>
       <c r="L145" t="s">
+        <v>331</v>
+      </c>
+      <c r="M145" t="s">
+        <v>330</v>
+      </c>
+      <c r="N145" t="s">
         <v>332</v>
-      </c>
-      <c r="M145" t="s">
-        <v>331</v>
-      </c>
-      <c r="N145" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="146" spans="4:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D146" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F146" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G146" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F147" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G147" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H147" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I147" s="89" t="s">
-        <v>244</v>
+      <c r="I147" s="87" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F148" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G148" t="s">
-        <v>440</v>
-      </c>
-      <c r="H148" s="89" t="s">
-        <v>463</v>
-      </c>
-      <c r="I148" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="H148" s="87" t="s">
+        <v>461</v>
+      </c>
+      <c r="I148" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F149" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G149" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H149" t="s">
         <v>87</v>
       </c>
-      <c r="I149" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J149" s="89" t="s">
+      <c r="I149" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J149" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K149" s="89" t="s">
+      <c r="K149" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L149" s="89" t="s">
+      <c r="L149" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N149" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F150" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G150" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H150" t="s">
         <v>87</v>
       </c>
-      <c r="I150" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J150" s="89" t="s">
+      <c r="I150" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J150" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K150" s="89" t="s">
+      <c r="K150" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L150" s="89" t="s">
+      <c r="L150" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M150" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N150" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F151" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G151" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H151" t="s">
         <v>87</v>
       </c>
-      <c r="I151" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J151" s="89" t="s">
+      <c r="I151" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J151" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K151" s="89" t="s">
+      <c r="K151" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L151" s="89" t="s">
+      <c r="L151" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M151" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N151" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F152" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G152" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H152" t="s">
         <v>87</v>
       </c>
-      <c r="I152" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J152" s="89" t="s">
+      <c r="I152" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J152" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K152" s="89" t="s">
+      <c r="K152" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L152" s="89" t="s">
+      <c r="L152" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N152" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F153" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G153" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H153" t="s">
         <v>87</v>
       </c>
-      <c r="I153" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J153" s="89" t="s">
+      <c r="I153" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J153" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="K153" s="89" t="s">
+      <c r="K153" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L153" s="89" t="s">
-        <v>330</v>
+      <c r="L153" s="87" t="s">
+        <v>329</v>
       </c>
       <c r="M153" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N153" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F154" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G154" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H154" t="s">
         <v>87</v>
       </c>
-      <c r="I154" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J154" s="89" t="s">
+      <c r="I154" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J154" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K154" s="89" t="s">
+      <c r="K154" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L154" s="89" t="s">
+      <c r="L154" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N154" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F155" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G155" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H155" t="s">
         <v>87</v>
       </c>
-      <c r="I155" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J155" s="89" t="s">
+      <c r="I155" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J155" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K155" s="89" t="s">
+      <c r="K155" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L155" s="89" t="s">
+      <c r="L155" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M155" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N155" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F156" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G156" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H156" t="s">
         <v>87</v>
       </c>
-      <c r="I156" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J156" s="89" t="s">
+      <c r="I156" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J156" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K156" s="89" t="s">
+      <c r="K156" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L156" s="89" t="s">
+      <c r="L156" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M156" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N156" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F157" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G157" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H157" t="s">
         <v>87</v>
       </c>
-      <c r="I157" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J157" s="89" t="s">
+      <c r="I157" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J157" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K157" s="89" t="s">
+      <c r="K157" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L157" s="89" t="s">
+      <c r="L157" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N157" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F158" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G158" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H158" t="s">
         <v>87</v>
       </c>
-      <c r="I158" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J158" s="89" t="s">
+      <c r="I158" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J158" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K158" s="89" t="s">
+      <c r="K158" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L158" s="89" t="s">
+      <c r="L158" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N158" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F159" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G159" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H159" t="s">
         <v>87</v>
       </c>
-      <c r="I159" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J159" s="89" t="s">
+      <c r="I159" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J159" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="K159" s="89" t="s">
+      <c r="K159" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L159" s="89" t="s">
-        <v>330</v>
+      <c r="L159" s="87" t="s">
+        <v>329</v>
       </c>
       <c r="M159" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N159" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F160" s="77" t="s">
         <v>208</v>
       </c>
       <c r="G160" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H160" t="s">
         <v>87</v>
       </c>
-      <c r="I160" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J160" s="89" t="s">
+      <c r="I160" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J160" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K160" s="89" t="s">
+      <c r="K160" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L160" s="89" t="s">
+      <c r="L160" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M160" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N160" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F161" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G161" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H161" t="s">
         <v>87</v>
       </c>
-      <c r="I161" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J161" s="89" t="s">
+      <c r="I161" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J161" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K161" s="89" t="s">
+      <c r="K161" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L161" s="89" t="s">
+      <c r="L161" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M161" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N161" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F162" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G162" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H162" t="s">
         <v>87</v>
       </c>
-      <c r="I162" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J162" s="89" t="s">
+      <c r="I162" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J162" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K162" s="89" t="s">
+      <c r="K162" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L162" s="89" t="s">
+      <c r="L162" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N162" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F163" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G163" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H163" t="s">
         <v>87</v>
       </c>
-      <c r="I163" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J163" s="89" t="s">
+      <c r="I163" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J163" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K163" s="89" t="s">
+      <c r="K163" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L163" s="89" t="s">
+      <c r="L163" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M163" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N163" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F164" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G164" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H164" t="s">
         <v>87</v>
       </c>
-      <c r="I164" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J164" s="89" t="s">
+      <c r="I164" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J164" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K164" s="89" t="s">
+      <c r="K164" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L164" s="89" t="s">
+      <c r="L164" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M164" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N164" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F165" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G165" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H165" t="s">
         <v>87</v>
       </c>
-      <c r="I165" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J165" s="89" t="s">
+      <c r="I165" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K165" s="89" t="s">
+      <c r="K165" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L165" s="89" t="s">
+      <c r="L165" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N165" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F166" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G166" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H166" t="s">
         <v>87</v>
       </c>
-      <c r="I166" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J166" s="89" t="s">
+      <c r="I166" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K166" s="89" t="s">
+      <c r="K166" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L166" s="89" t="s">
+      <c r="L166" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M166" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N166" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="167" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F167" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G167" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H167" t="s">
         <v>87</v>
       </c>
-      <c r="I167" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J167" s="89" t="s">
+      <c r="I167" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J167" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K167" s="89" t="s">
+      <c r="K167" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L167" s="89" t="s">
+      <c r="L167" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M167" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N167" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F168" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G168" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H168" t="s">
         <v>87</v>
       </c>
-      <c r="I168" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J168" s="89" t="s">
+      <c r="I168" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J168" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K168" s="89" t="s">
+      <c r="K168" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L168" s="89" t="s">
+      <c r="L168" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M168" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N168" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F169" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G169" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H169" t="s">
         <v>87</v>
       </c>
-      <c r="I169" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J169" s="89" t="s">
+      <c r="I169" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J169" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K169" s="89" t="s">
+      <c r="K169" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L169" s="89" t="s">
+      <c r="L169" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M169" t="s">
         <v>112</v>
       </c>
       <c r="N169" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F170" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G170" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H170" t="s">
         <v>87</v>
       </c>
-      <c r="I170" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J170" s="89" t="s">
+      <c r="I170" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J170" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K170" s="89" t="s">
+      <c r="K170" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L170" s="89" t="s">
+      <c r="L170" s="87" t="s">
         <v>4</v>
       </c>
       <c r="M170" t="s">
         <v>112</v>
       </c>
       <c r="N170" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F171" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G171" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H171" t="s">
         <v>87</v>
       </c>
-      <c r="I171" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="J171" s="89" t="s">
+      <c r="I171" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J171" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="K171" s="89" t="s">
+      <c r="K171" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="L171" s="89" t="s">
+      <c r="L171" s="87" t="s">
         <v>193</v>
       </c>
       <c r="M171" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N171" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L19" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
+    <hyperlink ref="L20" r:id="rId2" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
+    <hyperlink ref="L45" r:id="rId3" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="764">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -1698,6 +1698,708 @@
   </si>
   <si>
     <t>Calanoid</t>
+  </si>
+  <si>
+    <t>Cyclopoid UNID</t>
+  </si>
+  <si>
+    <t>Cyclopoid</t>
+  </si>
+  <si>
+    <t>Homocyclops</t>
+  </si>
+  <si>
+    <t>Copepod UNID</t>
+  </si>
+  <si>
+    <t>Parasitic Copepod</t>
+  </si>
+  <si>
+    <t>Hydrophilidae Larvae Beetle</t>
+  </si>
+  <si>
+    <t>Hydrophilide</t>
+  </si>
+  <si>
+    <t>Hydrophilidae Adult Beetle</t>
+  </si>
+  <si>
+    <t>Coleoptera Other</t>
+  </si>
+  <si>
+    <t>Dytiscidae larvae</t>
+  </si>
+  <si>
+    <t>Dytiscidae</t>
+  </si>
+  <si>
+    <t>Staphylinidae adult</t>
+  </si>
+  <si>
+    <t>Staphylinidae</t>
+  </si>
+  <si>
+    <t>Curculionidae</t>
+  </si>
+  <si>
+    <t>Noteridae</t>
+  </si>
+  <si>
+    <t>Dytiscidae adult</t>
+  </si>
+  <si>
+    <t>Elmidae</t>
+  </si>
+  <si>
+    <t>Elmidae larvae</t>
+  </si>
+  <si>
+    <t>Gyrinidae larvae</t>
+  </si>
+  <si>
+    <t>Gyrinidae</t>
+  </si>
+  <si>
+    <t>Curculionidae Larvae</t>
+  </si>
+  <si>
+    <t>Chrysomelidae Adult</t>
+  </si>
+  <si>
+    <t>Chrysomelidae</t>
+  </si>
+  <si>
+    <t>Scolytinae Adult</t>
+  </si>
+  <si>
+    <t>Scolytus</t>
+  </si>
+  <si>
+    <t>Haliplidae Larvae</t>
+  </si>
+  <si>
+    <t>Haliplidae</t>
+  </si>
+  <si>
+    <t>Carabidae Larvae</t>
+  </si>
+  <si>
+    <t>Carabidae</t>
+  </si>
+  <si>
+    <t>Hydraenidae</t>
+  </si>
+  <si>
+    <t>Hydraenidea</t>
+  </si>
+  <si>
+    <t>Coccinellidae Adult</t>
+  </si>
+  <si>
+    <t>Coccinellidae</t>
+  </si>
+  <si>
+    <t>Ptilidae</t>
+  </si>
+  <si>
+    <t>Hydroscaphidae Adult</t>
+  </si>
+  <si>
+    <t>Hydroscaphidae</t>
+  </si>
+  <si>
+    <t>Tenebrionidae adult</t>
+  </si>
+  <si>
+    <t>Tenebrionidae</t>
+  </si>
+  <si>
+    <t>Coccinellidae Larvae</t>
+  </si>
+  <si>
+    <t>Scirtidae adult</t>
+  </si>
+  <si>
+    <t>Scirtidae</t>
+  </si>
+  <si>
+    <t>Earwig</t>
+  </si>
+  <si>
+    <t>Dermaptera</t>
+  </si>
+  <si>
+    <t>Ephydridae Larvae</t>
+  </si>
+  <si>
+    <t>Ephydridae</t>
+  </si>
+  <si>
+    <t>Brachycera Larvae</t>
+  </si>
+  <si>
+    <t>Diptera Larvae Other</t>
+  </si>
+  <si>
+    <t>Brachycera Pupae</t>
+  </si>
+  <si>
+    <t>Psychodidae larvae</t>
+  </si>
+  <si>
+    <t>Psychodidae</t>
+  </si>
+  <si>
+    <t>Tabanidae</t>
+  </si>
+  <si>
+    <t>Nematocera pupae</t>
+  </si>
+  <si>
+    <t>Dolichopodidae larvae</t>
+  </si>
+  <si>
+    <t>Dolichopodidae</t>
+  </si>
+  <si>
+    <t>Tipulidae larvae</t>
+  </si>
+  <si>
+    <t>Tipulidae</t>
+  </si>
+  <si>
+    <t>Sciomyzidae Larvae</t>
+  </si>
+  <si>
+    <t>Sciomyzidae</t>
+  </si>
+  <si>
+    <t>Culicidae Larvae</t>
+  </si>
+  <si>
+    <t>Culicidae</t>
+  </si>
+  <si>
+    <t>Simuliidae larvae</t>
+  </si>
+  <si>
+    <t>Simuliidae</t>
+  </si>
+  <si>
+    <t>Muscidae larvae</t>
+  </si>
+  <si>
+    <t>Muscidae</t>
+  </si>
+  <si>
+    <t>Stratiomyidae larvae</t>
+  </si>
+  <si>
+    <t>Stratiomyidae</t>
+  </si>
+  <si>
+    <t>Baetidae</t>
+  </si>
+  <si>
+    <t>Caenidae</t>
+  </si>
+  <si>
+    <t>Ephemeroptera larvae Other</t>
+  </si>
+  <si>
+    <t>Tricorythidae larvae</t>
+  </si>
+  <si>
+    <t>Tricorythidae</t>
+  </si>
+  <si>
+    <t>Leptohyphidae mayfly larvae</t>
+  </si>
+  <si>
+    <t>Leptohyphidae</t>
+  </si>
+  <si>
+    <t>Tricorythodes</t>
+  </si>
+  <si>
+    <t>minutus</t>
+  </si>
+  <si>
+    <t>Tricorythodes minutus</t>
+  </si>
+  <si>
+    <t>Ephemeroptera Adult</t>
+  </si>
+  <si>
+    <t>Belostomatidae</t>
+  </si>
+  <si>
+    <t>Gerridae</t>
+  </si>
+  <si>
+    <t>Hydrometridae</t>
+  </si>
+  <si>
+    <t>Mesoveliidae</t>
+  </si>
+  <si>
+    <t>Vellidae</t>
+  </si>
+  <si>
+    <t>Hemiptera Other</t>
+  </si>
+  <si>
+    <t>Hebridae</t>
+  </si>
+  <si>
+    <t>Nepidae</t>
+  </si>
+  <si>
+    <t>Homoptera</t>
+  </si>
+  <si>
+    <t>Leafhopper</t>
+  </si>
+  <si>
+    <t>Cicadellidae</t>
+  </si>
+  <si>
+    <t>juvenile leafhopper</t>
+  </si>
+  <si>
+    <t>Psyllidae Larvae</t>
+  </si>
+  <si>
+    <t>Hymenoptera Other</t>
+  </si>
+  <si>
+    <t>Lepidoptera Larvae</t>
+  </si>
+  <si>
+    <t>Lepidoptera</t>
+  </si>
+  <si>
+    <t>Lepidoptera adult</t>
+  </si>
+  <si>
+    <t>Lepidoptera pupae</t>
+  </si>
+  <si>
+    <t>Sisyridae Larvae</t>
+  </si>
+  <si>
+    <t>Neuroptera</t>
+  </si>
+  <si>
+    <t>Sisyridae</t>
+  </si>
+  <si>
+    <t>Gomphidae larvae</t>
+  </si>
+  <si>
+    <t>Odanata</t>
+  </si>
+  <si>
+    <t>Gompidae</t>
+  </si>
+  <si>
+    <t>Zygoptera Adult</t>
+  </si>
+  <si>
+    <t>Aeshnidae larvae</t>
+  </si>
+  <si>
+    <t>Aeshnidae</t>
+  </si>
+  <si>
+    <t>Odonata larvae Other</t>
+  </si>
+  <si>
+    <t>Libellulidae</t>
+  </si>
+  <si>
+    <t>Orthoptera</t>
+  </si>
+  <si>
+    <t>Psocoptera Adult</t>
+  </si>
+  <si>
+    <t>Psocoptera</t>
+  </si>
+  <si>
+    <t>Psocoptera Larvae</t>
+  </si>
+  <si>
+    <t>Tricoptera larvae Other</t>
+  </si>
+  <si>
+    <t>Hydroptilidae Adult Caddisfly</t>
+  </si>
+  <si>
+    <t>Polycentripodidae larvae</t>
+  </si>
+  <si>
+    <t>Polycentripodidae</t>
+  </si>
+  <si>
+    <t>Trichoptera Adult</t>
+  </si>
+  <si>
+    <t>Hydroptilidae Pupae Caddisfly</t>
+  </si>
+  <si>
+    <t>Insect larvae Other</t>
+  </si>
+  <si>
+    <t>Juvenile Amphipod</t>
+  </si>
+  <si>
+    <t>Melita</t>
+  </si>
+  <si>
+    <t>Hadzioidea</t>
+  </si>
+  <si>
+    <t>Ampithoe</t>
+  </si>
+  <si>
+    <t>Ampithoidae</t>
+  </si>
+  <si>
+    <t>Corophium alienense</t>
+  </si>
+  <si>
+    <t>Eogammarus</t>
+  </si>
+  <si>
+    <t>Anisogammaridae</t>
+  </si>
+  <si>
+    <t>Talitridae</t>
+  </si>
+  <si>
+    <t>malacostraca</t>
+  </si>
+  <si>
+    <t>Crab megalope</t>
+  </si>
+  <si>
+    <t>Exopalaemon</t>
+  </si>
+  <si>
+    <t>Palaemonidae</t>
+  </si>
+  <si>
+    <t>modestus</t>
+  </si>
+  <si>
+    <t>Exopalaemon modestus</t>
+  </si>
+  <si>
+    <t>Shrimp Other</t>
+  </si>
+  <si>
+    <t>Crayfish</t>
+  </si>
+  <si>
+    <t>Astacidae</t>
+  </si>
+  <si>
+    <t>Pacifastacus</t>
+  </si>
+  <si>
+    <t>Palaemonetes</t>
+  </si>
+  <si>
+    <t>Juvenile Shrimp</t>
+  </si>
+  <si>
+    <t>Crangon</t>
+  </si>
+  <si>
+    <t>Crangonidae</t>
+  </si>
+  <si>
+    <t>Harris Mud Crab</t>
+  </si>
+  <si>
+    <t>Rhithropanopeus</t>
+  </si>
+  <si>
+    <t>harrisii</t>
+  </si>
+  <si>
+    <t>Rhithropanopeus harrisii</t>
+  </si>
+  <si>
+    <t>Mississippi Grass Shrimp</t>
+  </si>
+  <si>
+    <t>Palaemon</t>
+  </si>
+  <si>
+    <t>Asellidae</t>
+  </si>
+  <si>
+    <t>Ligidium</t>
+  </si>
+  <si>
+    <t>Ligiidae</t>
+  </si>
+  <si>
+    <t>lates??</t>
+  </si>
+  <si>
+    <t>Ligidium lates??</t>
+  </si>
+  <si>
+    <t>Caecidotea</t>
+  </si>
+  <si>
+    <t>Munnidae</t>
+  </si>
+  <si>
+    <t>Isopod other</t>
+  </si>
+  <si>
+    <t>Juvenile Isopod</t>
+  </si>
+  <si>
+    <t>Acanthomysis bowmani</t>
+  </si>
+  <si>
+    <t>Hyperacanthomysis longirostris</t>
+  </si>
+  <si>
+    <t>longirostris</t>
+  </si>
+  <si>
+    <t>Hyperacanthomysis</t>
+  </si>
+  <si>
+    <t>Acanthomysis hwanhaiensis</t>
+  </si>
+  <si>
+    <t>Orientomysis hwanhaiensis</t>
+  </si>
+  <si>
+    <t>hwanhaiensis</t>
+  </si>
+  <si>
+    <t>Acanthomysis macropsis</t>
+  </si>
+  <si>
+    <t>Alienacanthomysis macropsis</t>
+  </si>
+  <si>
+    <t>Alienacanthomysis</t>
+  </si>
+  <si>
+    <t>macropsis</t>
+  </si>
+  <si>
+    <t>Deltamysis homquistae</t>
+  </si>
+  <si>
+    <t>Deltamysis holmquistae</t>
+  </si>
+  <si>
+    <t>Deltamysis</t>
+  </si>
+  <si>
+    <t>holmquistae</t>
+  </si>
+  <si>
+    <t>Mysid Other</t>
+  </si>
+  <si>
+    <t>Juvenile Mysid</t>
+  </si>
+  <si>
+    <t>Malcostraca Other</t>
+  </si>
+  <si>
+    <t>Magnificent Bryozoan</t>
+  </si>
+  <si>
+    <t>Bryozoa</t>
+  </si>
+  <si>
+    <t>Phylactolaemata</t>
+  </si>
+  <si>
+    <t>Plumatellida</t>
+  </si>
+  <si>
+    <t>Pectinatellidae</t>
+  </si>
+  <si>
+    <t>Pectinatella</t>
+  </si>
+  <si>
+    <t>Pectinatella magnifica</t>
+  </si>
+  <si>
+    <t>magnifica</t>
+  </si>
+  <si>
+    <t>Cnidaria Other</t>
+  </si>
+  <si>
+    <t>Aequorea spp.</t>
+  </si>
+  <si>
+    <t>Aequoreidae</t>
+  </si>
+  <si>
+    <t>Aequorea</t>
+  </si>
+  <si>
+    <t>Leptothecata</t>
+  </si>
+  <si>
+    <t>Jellyfish Unid</t>
+  </si>
+  <si>
+    <t>Maeotias</t>
+  </si>
+  <si>
+    <t>Olindiidae</t>
+  </si>
+  <si>
+    <t>Limnomedusae</t>
+  </si>
+  <si>
+    <t>Moon Jellyfish</t>
+  </si>
+  <si>
+    <t>Ulmaridae</t>
+  </si>
+  <si>
+    <t>Aurelia</t>
+  </si>
+  <si>
+    <t>Scyphozoa</t>
+  </si>
+  <si>
+    <t>Semaeostomeae</t>
+  </si>
+  <si>
+    <t>Potamocorbula</t>
+  </si>
+  <si>
+    <t>Myoida</t>
+  </si>
+  <si>
+    <t>Corbulidae</t>
+  </si>
+  <si>
+    <t>amurensis</t>
+  </si>
+  <si>
+    <t>Potamocorbula amurensis</t>
+  </si>
+  <si>
+    <t>Juvenile Clam</t>
+  </si>
+  <si>
+    <t>Corbicula</t>
+  </si>
+  <si>
+    <t>Veneroida</t>
+  </si>
+  <si>
+    <t>Corbiculidae</t>
+  </si>
+  <si>
+    <t>fluminea</t>
+  </si>
+  <si>
+    <t>Corbicula fluminea</t>
+  </si>
+  <si>
+    <t>Clam Other</t>
+  </si>
+  <si>
+    <t>Fluminicola</t>
+  </si>
+  <si>
+    <t>Gastopoda</t>
+  </si>
+  <si>
+    <t>Lythoglyphidae</t>
+  </si>
+  <si>
+    <t>Littorinimorpha</t>
+  </si>
+  <si>
+    <t>Fossaria</t>
+  </si>
+  <si>
+    <t>Basommatophora</t>
+  </si>
+  <si>
+    <t>Lymnaeidae</t>
+  </si>
+  <si>
+    <t>Lymnaea</t>
+  </si>
+  <si>
+    <t>Hydrobiidae</t>
+  </si>
+  <si>
+    <t>Nudibranch</t>
+  </si>
+  <si>
+    <t>Nudibranchia</t>
+  </si>
+  <si>
+    <t>Melanoides tuberculata</t>
+  </si>
+  <si>
+    <t>Thiaridae</t>
+  </si>
+  <si>
+    <t>Melanoides</t>
+  </si>
+  <si>
+    <t>tuberculata</t>
+  </si>
+  <si>
+    <t>Caenogastropoda</t>
+  </si>
+  <si>
+    <t>Snail Other</t>
+  </si>
+  <si>
+    <t>Planorbella</t>
+  </si>
+  <si>
+    <t>Hygrophila</t>
+  </si>
+  <si>
+    <t>Planorbidae UNID</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Prostoma</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Enopla</t>
+  </si>
+  <si>
+    <t>Monostilifera</t>
+  </si>
+  <si>
+    <t>Tetrastemmatidae</t>
+  </si>
+  <si>
+    <t>Animal material UNID</t>
   </si>
 </sst>
 </file>
@@ -3120,11 +3822,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G313" sqref="G313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4143,7 +4845,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>19</v>
       </c>
@@ -4153,6 +4855,9 @@
       <c r="C23" s="30" t="s">
         <v>20</v>
       </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="30" t="s">
         <v>207</v>
       </c>
@@ -4193,7 +4898,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
@@ -4203,6 +4908,9 @@
       <c r="C24" s="30" t="s">
         <v>22</v>
       </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="30" t="s">
         <v>398</v>
       </c>
@@ -4246,7 +4954,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>23</v>
       </c>
@@ -4256,6 +4964,9 @@
       <c r="C25" s="30" t="s">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="30" t="s">
         <v>207</v>
       </c>
@@ -4296,7 +5007,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>25</v>
       </c>
@@ -4304,6 +5015,9 @@
         <v>25</v>
       </c>
       <c r="C26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="30" t="s">
@@ -4384,12 +5098,12 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>339</v>
+      <c r="D28" t="s">
+        <v>530</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>381</v>
@@ -4423,6 +5137,9 @@
       <c r="C29" s="30" t="s">
         <v>108</v>
       </c>
+      <c r="D29" s="30" t="s">
+        <v>339</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>397</v>
       </c>
@@ -4454,11 +5171,14 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>500</v>
       </c>
       <c r="B30" s="31"/>
+      <c r="D30" t="s">
+        <v>531</v>
+      </c>
       <c r="F30" s="30" t="s">
         <v>207</v>
       </c>
@@ -6081,13 +6801,16 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>78</v>
       </c>
+      <c r="D71" t="s">
+        <v>78</v>
+      </c>
       <c r="F71" s="30" t="s">
         <v>207</v>
       </c>
@@ -6119,7 +6842,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>61</v>
       </c>
@@ -6127,6 +6850,9 @@
         <v>61</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
         <v>159</v>
       </c>
       <c r="F72" s="30" t="s">
@@ -6201,7 +6927,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>64</v>
       </c>
@@ -6209,6 +6935,9 @@
         <v>64</v>
       </c>
       <c r="C74" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
         <v>143</v>
       </c>
       <c r="F74" s="30" t="s">
@@ -6408,8 +7137,11 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="s">
         <v>219</v>
       </c>
       <c r="F80" s="30" t="s">
@@ -8981,10 +9713,13 @@
         <v>518</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B174" s="32" t="s">
         <v>503</v>
       </c>
+      <c r="D174" t="s">
+        <v>512</v>
+      </c>
       <c r="F174" s="30" t="s">
         <v>207</v>
       </c>
@@ -9013,10 +9748,13 @@
         <v>519</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B175" s="32" t="s">
         <v>504</v>
       </c>
+      <c r="D175" t="s">
+        <v>513</v>
+      </c>
       <c r="F175" s="30" t="s">
         <v>207</v>
       </c>
@@ -9045,9 +9783,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B176" s="32" t="s">
         <v>505</v>
+      </c>
+      <c r="D176" t="s">
+        <v>652</v>
       </c>
       <c r="F176" s="30" t="s">
         <v>207</v>
@@ -9189,6 +9930,3400 @@
       </c>
       <c r="H182" s="30" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>472</v>
+      </c>
+      <c r="F183" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G183" t="s">
+        <v>472</v>
+      </c>
+      <c r="H183" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I183" t="s">
+        <v>93</v>
+      </c>
+      <c r="J183" t="s">
+        <v>101</v>
+      </c>
+      <c r="K183" t="s">
+        <v>104</v>
+      </c>
+      <c r="L183" t="s">
+        <v>193</v>
+      </c>
+      <c r="M183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>532</v>
+      </c>
+      <c r="F184" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G184" t="s">
+        <v>532</v>
+      </c>
+      <c r="H184" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I184" t="s">
+        <v>93</v>
+      </c>
+      <c r="J184" t="s">
+        <v>101</v>
+      </c>
+      <c r="K184" t="s">
+        <v>104</v>
+      </c>
+      <c r="L184" t="s">
+        <v>193</v>
+      </c>
+      <c r="M184" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>467</v>
+      </c>
+      <c r="F185" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G185" t="s">
+        <v>467</v>
+      </c>
+      <c r="H185" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I185" t="s">
+        <v>93</v>
+      </c>
+      <c r="J185" t="s">
+        <v>101</v>
+      </c>
+      <c r="K185" t="s">
+        <v>104</v>
+      </c>
+      <c r="L185" t="s">
+        <v>193</v>
+      </c>
+      <c r="M185" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>533</v>
+      </c>
+      <c r="F186" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G186" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H186" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I186" t="s">
+        <v>93</v>
+      </c>
+      <c r="J186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>534</v>
+      </c>
+      <c r="F187" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G187" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H187" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I187" t="s">
+        <v>93</v>
+      </c>
+      <c r="J187" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>535</v>
+      </c>
+      <c r="F188" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G188" t="s">
+        <v>536</v>
+      </c>
+      <c r="H188" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I188" t="s">
+        <v>93</v>
+      </c>
+      <c r="J188" t="s">
+        <v>94</v>
+      </c>
+      <c r="K188" t="s">
+        <v>278</v>
+      </c>
+      <c r="L188" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>537</v>
+      </c>
+      <c r="F189" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G189" t="s">
+        <v>536</v>
+      </c>
+      <c r="H189" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I189" t="s">
+        <v>93</v>
+      </c>
+      <c r="J189" t="s">
+        <v>94</v>
+      </c>
+      <c r="K189" t="s">
+        <v>278</v>
+      </c>
+      <c r="L189" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>538</v>
+      </c>
+      <c r="F190" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G190" t="s">
+        <v>278</v>
+      </c>
+      <c r="H190" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I190" t="s">
+        <v>93</v>
+      </c>
+      <c r="J190" t="s">
+        <v>94</v>
+      </c>
+      <c r="K190" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>539</v>
+      </c>
+      <c r="F191" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G191" t="s">
+        <v>540</v>
+      </c>
+      <c r="H191" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I191" t="s">
+        <v>93</v>
+      </c>
+      <c r="J191" t="s">
+        <v>94</v>
+      </c>
+      <c r="K191" t="s">
+        <v>278</v>
+      </c>
+      <c r="L191" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>541</v>
+      </c>
+      <c r="F192" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" t="s">
+        <v>542</v>
+      </c>
+      <c r="H192" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I192" t="s">
+        <v>93</v>
+      </c>
+      <c r="J192" t="s">
+        <v>94</v>
+      </c>
+      <c r="K192" t="s">
+        <v>278</v>
+      </c>
+      <c r="L192" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="193" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>543</v>
+      </c>
+      <c r="F193" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G193" t="s">
+        <v>543</v>
+      </c>
+      <c r="H193" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I193" t="s">
+        <v>93</v>
+      </c>
+      <c r="J193" t="s">
+        <v>94</v>
+      </c>
+      <c r="K193" t="s">
+        <v>278</v>
+      </c>
+      <c r="L193" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="194" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>544</v>
+      </c>
+      <c r="F194" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G194" t="s">
+        <v>544</v>
+      </c>
+      <c r="H194" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I194" t="s">
+        <v>93</v>
+      </c>
+      <c r="J194" t="s">
+        <v>94</v>
+      </c>
+      <c r="K194" t="s">
+        <v>278</v>
+      </c>
+      <c r="L194" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="195" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D195" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="F195" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G195" t="s">
+        <v>540</v>
+      </c>
+      <c r="H195" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195" t="s">
+        <v>93</v>
+      </c>
+      <c r="J195" t="s">
+        <v>94</v>
+      </c>
+      <c r="K195" t="s">
+        <v>278</v>
+      </c>
+      <c r="L195" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="196" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>546</v>
+      </c>
+      <c r="F196" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G196" t="s">
+        <v>546</v>
+      </c>
+      <c r="H196" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I196" t="s">
+        <v>93</v>
+      </c>
+      <c r="J196" t="s">
+        <v>94</v>
+      </c>
+      <c r="K196" t="s">
+        <v>278</v>
+      </c>
+      <c r="L196" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="197" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>547</v>
+      </c>
+      <c r="F197" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G197" t="s">
+        <v>546</v>
+      </c>
+      <c r="H197" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I197" t="s">
+        <v>93</v>
+      </c>
+      <c r="J197" t="s">
+        <v>94</v>
+      </c>
+      <c r="K197" t="s">
+        <v>278</v>
+      </c>
+      <c r="L197" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="198" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>548</v>
+      </c>
+      <c r="F198" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G198" t="s">
+        <v>549</v>
+      </c>
+      <c r="H198" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198" t="s">
+        <v>93</v>
+      </c>
+      <c r="J198" t="s">
+        <v>94</v>
+      </c>
+      <c r="K198" t="s">
+        <v>278</v>
+      </c>
+      <c r="L198" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>550</v>
+      </c>
+      <c r="F199" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G199" t="s">
+        <v>543</v>
+      </c>
+      <c r="H199" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I199" t="s">
+        <v>93</v>
+      </c>
+      <c r="J199" t="s">
+        <v>94</v>
+      </c>
+      <c r="K199" t="s">
+        <v>278</v>
+      </c>
+      <c r="L199" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="200" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>551</v>
+      </c>
+      <c r="F200" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G200" t="s">
+        <v>552</v>
+      </c>
+      <c r="H200" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I200" t="s">
+        <v>93</v>
+      </c>
+      <c r="J200" t="s">
+        <v>94</v>
+      </c>
+      <c r="K200" t="s">
+        <v>278</v>
+      </c>
+      <c r="L200" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="201" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>553</v>
+      </c>
+      <c r="F201" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G201" t="s">
+        <v>554</v>
+      </c>
+      <c r="H201" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I201" t="s">
+        <v>93</v>
+      </c>
+      <c r="J201" t="s">
+        <v>94</v>
+      </c>
+      <c r="K201" t="s">
+        <v>278</v>
+      </c>
+      <c r="L201" t="s">
+        <v>543</v>
+      </c>
+      <c r="M201" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="202" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>555</v>
+      </c>
+      <c r="F202" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G202" t="s">
+        <v>556</v>
+      </c>
+      <c r="H202" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202" t="s">
+        <v>93</v>
+      </c>
+      <c r="J202" t="s">
+        <v>94</v>
+      </c>
+      <c r="K202" t="s">
+        <v>278</v>
+      </c>
+      <c r="L202" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="203" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>557</v>
+      </c>
+      <c r="F203" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G203" t="s">
+        <v>558</v>
+      </c>
+      <c r="H203" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203" t="s">
+        <v>93</v>
+      </c>
+      <c r="J203" t="s">
+        <v>94</v>
+      </c>
+      <c r="K203" t="s">
+        <v>278</v>
+      </c>
+      <c r="L203" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="204" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>559</v>
+      </c>
+      <c r="F204" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" t="s">
+        <v>560</v>
+      </c>
+      <c r="H204" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I204" t="s">
+        <v>93</v>
+      </c>
+      <c r="J204" t="s">
+        <v>94</v>
+      </c>
+      <c r="K204" t="s">
+        <v>278</v>
+      </c>
+      <c r="L204" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="205" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>561</v>
+      </c>
+      <c r="F205" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G205" t="s">
+        <v>562</v>
+      </c>
+      <c r="H205" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I205" t="s">
+        <v>93</v>
+      </c>
+      <c r="J205" t="s">
+        <v>94</v>
+      </c>
+      <c r="K205" t="s">
+        <v>278</v>
+      </c>
+      <c r="L205" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="206" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>563</v>
+      </c>
+      <c r="F206" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G206" t="s">
+        <v>563</v>
+      </c>
+      <c r="H206" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" t="s">
+        <v>93</v>
+      </c>
+      <c r="J206" t="s">
+        <v>94</v>
+      </c>
+      <c r="K206" t="s">
+        <v>278</v>
+      </c>
+      <c r="L206" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="207" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>564</v>
+      </c>
+      <c r="F207" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G207" t="s">
+        <v>565</v>
+      </c>
+      <c r="H207" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" t="s">
+        <v>93</v>
+      </c>
+      <c r="J207" t="s">
+        <v>94</v>
+      </c>
+      <c r="K207" t="s">
+        <v>278</v>
+      </c>
+      <c r="L207" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="208" spans="4:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>566</v>
+      </c>
+      <c r="F208" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G208" t="s">
+        <v>567</v>
+      </c>
+      <c r="H208" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I208" t="s">
+        <v>93</v>
+      </c>
+      <c r="J208" t="s">
+        <v>94</v>
+      </c>
+      <c r="K208" t="s">
+        <v>278</v>
+      </c>
+      <c r="L208" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="209" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>568</v>
+      </c>
+      <c r="F209" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G209" t="s">
+        <v>562</v>
+      </c>
+      <c r="H209" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I209" t="s">
+        <v>93</v>
+      </c>
+      <c r="J209" t="s">
+        <v>94</v>
+      </c>
+      <c r="K209" t="s">
+        <v>278</v>
+      </c>
+      <c r="L209" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="210" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>569</v>
+      </c>
+      <c r="F210" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G210" t="s">
+        <v>570</v>
+      </c>
+      <c r="H210" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I210" t="s">
+        <v>93</v>
+      </c>
+      <c r="J210" t="s">
+        <v>94</v>
+      </c>
+      <c r="K210" t="s">
+        <v>278</v>
+      </c>
+      <c r="L210" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="211" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>571</v>
+      </c>
+      <c r="F211" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G211" t="s">
+        <v>572</v>
+      </c>
+      <c r="H211" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I211" t="s">
+        <v>93</v>
+      </c>
+      <c r="J211" t="s">
+        <v>94</v>
+      </c>
+      <c r="K211" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="212" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>573</v>
+      </c>
+      <c r="F212" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G212" t="s">
+        <v>574</v>
+      </c>
+      <c r="H212" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I212" t="s">
+        <v>93</v>
+      </c>
+      <c r="J212" t="s">
+        <v>94</v>
+      </c>
+      <c r="K212" t="s">
+        <v>199</v>
+      </c>
+      <c r="L212" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="213" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>575</v>
+      </c>
+      <c r="F213" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G213" t="s">
+        <v>199</v>
+      </c>
+      <c r="H213" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I213" t="s">
+        <v>93</v>
+      </c>
+      <c r="J213" t="s">
+        <v>94</v>
+      </c>
+      <c r="K213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>576</v>
+      </c>
+      <c r="F214" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G214" t="s">
+        <v>199</v>
+      </c>
+      <c r="H214" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I214" t="s">
+        <v>93</v>
+      </c>
+      <c r="J214" t="s">
+        <v>94</v>
+      </c>
+      <c r="K214" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>577</v>
+      </c>
+      <c r="F215" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G215" t="s">
+        <v>199</v>
+      </c>
+      <c r="H215" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215" t="s">
+        <v>93</v>
+      </c>
+      <c r="J215" t="s">
+        <v>94</v>
+      </c>
+      <c r="K215" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="216" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>578</v>
+      </c>
+      <c r="F216" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G216" t="s">
+        <v>579</v>
+      </c>
+      <c r="H216" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I216" t="s">
+        <v>93</v>
+      </c>
+      <c r="J216" t="s">
+        <v>94</v>
+      </c>
+      <c r="K216" t="s">
+        <v>199</v>
+      </c>
+      <c r="L216" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="217" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>580</v>
+      </c>
+      <c r="F217" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G217" t="s">
+        <v>580</v>
+      </c>
+      <c r="H217" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I217" t="s">
+        <v>93</v>
+      </c>
+      <c r="J217" t="s">
+        <v>94</v>
+      </c>
+      <c r="K217" t="s">
+        <v>199</v>
+      </c>
+      <c r="L217" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="218" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>581</v>
+      </c>
+      <c r="F218" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G218" t="s">
+        <v>199</v>
+      </c>
+      <c r="H218" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I218" t="s">
+        <v>93</v>
+      </c>
+      <c r="J218" t="s">
+        <v>94</v>
+      </c>
+      <c r="K218" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="219" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>582</v>
+      </c>
+      <c r="F219" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G219" t="s">
+        <v>583</v>
+      </c>
+      <c r="H219" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I219" t="s">
+        <v>93</v>
+      </c>
+      <c r="J219" t="s">
+        <v>94</v>
+      </c>
+      <c r="K219" t="s">
+        <v>199</v>
+      </c>
+      <c r="L219" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="220" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>584</v>
+      </c>
+      <c r="F220" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G220" t="s">
+        <v>585</v>
+      </c>
+      <c r="H220" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220" t="s">
+        <v>93</v>
+      </c>
+      <c r="J220" t="s">
+        <v>94</v>
+      </c>
+      <c r="K220" t="s">
+        <v>199</v>
+      </c>
+      <c r="L220" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="221" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>586</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G221" t="s">
+        <v>587</v>
+      </c>
+      <c r="H221" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I221" t="s">
+        <v>93</v>
+      </c>
+      <c r="J221" t="s">
+        <v>94</v>
+      </c>
+      <c r="K221" t="s">
+        <v>199</v>
+      </c>
+      <c r="L221" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="222" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>588</v>
+      </c>
+      <c r="F222" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G222" t="s">
+        <v>589</v>
+      </c>
+      <c r="H222" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I222" t="s">
+        <v>93</v>
+      </c>
+      <c r="J222" t="s">
+        <v>94</v>
+      </c>
+      <c r="K222" t="s">
+        <v>199</v>
+      </c>
+      <c r="L222" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="223" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>590</v>
+      </c>
+      <c r="F223" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G223" t="s">
+        <v>591</v>
+      </c>
+      <c r="H223" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I223" t="s">
+        <v>93</v>
+      </c>
+      <c r="J223" t="s">
+        <v>94</v>
+      </c>
+      <c r="K223" t="s">
+        <v>199</v>
+      </c>
+      <c r="L223" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="224" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>592</v>
+      </c>
+      <c r="F224" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G224" t="s">
+        <v>593</v>
+      </c>
+      <c r="H224" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I224" t="s">
+        <v>93</v>
+      </c>
+      <c r="J224" t="s">
+        <v>94</v>
+      </c>
+      <c r="K224" t="s">
+        <v>199</v>
+      </c>
+      <c r="L224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="225" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>594</v>
+      </c>
+      <c r="F225" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G225" t="s">
+        <v>595</v>
+      </c>
+      <c r="H225" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I225" t="s">
+        <v>93</v>
+      </c>
+      <c r="J225" t="s">
+        <v>94</v>
+      </c>
+      <c r="K225" t="s">
+        <v>199</v>
+      </c>
+      <c r="L225" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>596</v>
+      </c>
+      <c r="F226" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G226" t="s">
+        <v>596</v>
+      </c>
+      <c r="H226" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I226" t="s">
+        <v>93</v>
+      </c>
+      <c r="J226" t="s">
+        <v>94</v>
+      </c>
+      <c r="K226" t="s">
+        <v>283</v>
+      </c>
+      <c r="L226" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="227" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>597</v>
+      </c>
+      <c r="F227" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G227" t="s">
+        <v>597</v>
+      </c>
+      <c r="H227" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I227" t="s">
+        <v>93</v>
+      </c>
+      <c r="J227" t="s">
+        <v>94</v>
+      </c>
+      <c r="K227" t="s">
+        <v>283</v>
+      </c>
+      <c r="L227" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="228" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>598</v>
+      </c>
+      <c r="F228" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G228" t="s">
+        <v>283</v>
+      </c>
+      <c r="H228" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I228" t="s">
+        <v>93</v>
+      </c>
+      <c r="J228" t="s">
+        <v>94</v>
+      </c>
+      <c r="K228" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="229" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>599</v>
+      </c>
+      <c r="F229" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G229" t="s">
+        <v>600</v>
+      </c>
+      <c r="H229" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I229" t="s">
+        <v>93</v>
+      </c>
+      <c r="J229" t="s">
+        <v>94</v>
+      </c>
+      <c r="K229" t="s">
+        <v>283</v>
+      </c>
+      <c r="L229" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="230" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>601</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G230" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="H230" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I230" t="s">
+        <v>93</v>
+      </c>
+      <c r="J230" t="s">
+        <v>94</v>
+      </c>
+      <c r="K230" t="s">
+        <v>283</v>
+      </c>
+      <c r="L230" t="s">
+        <v>602</v>
+      </c>
+      <c r="M230" t="s">
+        <v>603</v>
+      </c>
+      <c r="N230" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="231" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>606</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G231" t="s">
+        <v>283</v>
+      </c>
+      <c r="H231" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I231" t="s">
+        <v>93</v>
+      </c>
+      <c r="J231" t="s">
+        <v>94</v>
+      </c>
+      <c r="K231" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>607</v>
+      </c>
+      <c r="F232" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G232" t="s">
+        <v>607</v>
+      </c>
+      <c r="H232" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I232" t="s">
+        <v>93</v>
+      </c>
+      <c r="J232" t="s">
+        <v>94</v>
+      </c>
+      <c r="K232" t="s">
+        <v>228</v>
+      </c>
+      <c r="L232" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="233" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>608</v>
+      </c>
+      <c r="F233" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G233" t="s">
+        <v>608</v>
+      </c>
+      <c r="H233" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I233" t="s">
+        <v>93</v>
+      </c>
+      <c r="J233" t="s">
+        <v>94</v>
+      </c>
+      <c r="K233" t="s">
+        <v>228</v>
+      </c>
+      <c r="L233" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="234" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>609</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G234" t="s">
+        <v>609</v>
+      </c>
+      <c r="H234" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I234" t="s">
+        <v>93</v>
+      </c>
+      <c r="J234" t="s">
+        <v>94</v>
+      </c>
+      <c r="K234" t="s">
+        <v>228</v>
+      </c>
+      <c r="L234" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="235" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>610</v>
+      </c>
+      <c r="F235" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G235" t="s">
+        <v>610</v>
+      </c>
+      <c r="H235" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I235" t="s">
+        <v>93</v>
+      </c>
+      <c r="J235" t="s">
+        <v>94</v>
+      </c>
+      <c r="K235" t="s">
+        <v>228</v>
+      </c>
+      <c r="L235" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="236" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>611</v>
+      </c>
+      <c r="F236" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G236" t="s">
+        <v>611</v>
+      </c>
+      <c r="H236" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I236" t="s">
+        <v>93</v>
+      </c>
+      <c r="J236" t="s">
+        <v>94</v>
+      </c>
+      <c r="K236" t="s">
+        <v>228</v>
+      </c>
+      <c r="L236" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="237" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>612</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G237" t="s">
+        <v>228</v>
+      </c>
+      <c r="H237" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I237" t="s">
+        <v>93</v>
+      </c>
+      <c r="J237" t="s">
+        <v>94</v>
+      </c>
+      <c r="K237" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="238" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>613</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G238" t="s">
+        <v>613</v>
+      </c>
+      <c r="H238" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I238" t="s">
+        <v>93</v>
+      </c>
+      <c r="J238" t="s">
+        <v>94</v>
+      </c>
+      <c r="K238" t="s">
+        <v>228</v>
+      </c>
+      <c r="L238" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="239" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>614</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G239" t="s">
+        <v>614</v>
+      </c>
+      <c r="H239" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I239" t="s">
+        <v>93</v>
+      </c>
+      <c r="J239" t="s">
+        <v>94</v>
+      </c>
+      <c r="K239" t="s">
+        <v>228</v>
+      </c>
+      <c r="L239" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="240" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>615</v>
+      </c>
+      <c r="F240" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G240" t="s">
+        <v>228</v>
+      </c>
+      <c r="H240" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I240" t="s">
+        <v>93</v>
+      </c>
+      <c r="J240" t="s">
+        <v>94</v>
+      </c>
+      <c r="K240" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>616</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G241" t="s">
+        <v>617</v>
+      </c>
+      <c r="H241" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I241" t="s">
+        <v>93</v>
+      </c>
+      <c r="J241" t="s">
+        <v>94</v>
+      </c>
+      <c r="K241" t="s">
+        <v>228</v>
+      </c>
+      <c r="L241" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>618</v>
+      </c>
+      <c r="F242" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G242" t="s">
+        <v>617</v>
+      </c>
+      <c r="H242" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I242" t="s">
+        <v>93</v>
+      </c>
+      <c r="J242" t="s">
+        <v>94</v>
+      </c>
+      <c r="K242" t="s">
+        <v>228</v>
+      </c>
+      <c r="L242" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="243" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>619</v>
+      </c>
+      <c r="F243" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G243" t="s">
+        <v>227</v>
+      </c>
+      <c r="H243" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I243" t="s">
+        <v>93</v>
+      </c>
+      <c r="J243" t="s">
+        <v>94</v>
+      </c>
+      <c r="K243" t="s">
+        <v>228</v>
+      </c>
+      <c r="L243" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>620</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G244" t="s">
+        <v>228</v>
+      </c>
+      <c r="H244" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I244" t="s">
+        <v>93</v>
+      </c>
+      <c r="J244" t="s">
+        <v>94</v>
+      </c>
+      <c r="K244" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>621</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G245" t="s">
+        <v>622</v>
+      </c>
+      <c r="H245" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I245" t="s">
+        <v>93</v>
+      </c>
+      <c r="J245" t="s">
+        <v>94</v>
+      </c>
+      <c r="K245" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="246" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>623</v>
+      </c>
+      <c r="F246" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G246" t="s">
+        <v>622</v>
+      </c>
+      <c r="H246" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I246" t="s">
+        <v>93</v>
+      </c>
+      <c r="J246" t="s">
+        <v>94</v>
+      </c>
+      <c r="K246" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="247" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>624</v>
+      </c>
+      <c r="F247" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G247" t="s">
+        <v>622</v>
+      </c>
+      <c r="H247" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I247" t="s">
+        <v>93</v>
+      </c>
+      <c r="J247" t="s">
+        <v>94</v>
+      </c>
+      <c r="K247" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="248" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>625</v>
+      </c>
+      <c r="F248" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G248" t="s">
+        <v>627</v>
+      </c>
+      <c r="H248" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I248" t="s">
+        <v>93</v>
+      </c>
+      <c r="J248" t="s">
+        <v>94</v>
+      </c>
+      <c r="K248" t="s">
+        <v>626</v>
+      </c>
+      <c r="L248" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="249" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>628</v>
+      </c>
+      <c r="F249" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G249" t="s">
+        <v>630</v>
+      </c>
+      <c r="H249" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I249" t="s">
+        <v>93</v>
+      </c>
+      <c r="J249" t="s">
+        <v>94</v>
+      </c>
+      <c r="K249" t="s">
+        <v>629</v>
+      </c>
+      <c r="L249" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="250" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>631</v>
+      </c>
+      <c r="F250" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G250" t="s">
+        <v>629</v>
+      </c>
+      <c r="H250" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250" t="s">
+        <v>93</v>
+      </c>
+      <c r="J250" t="s">
+        <v>94</v>
+      </c>
+      <c r="K250" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="251" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>632</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G251" t="s">
+        <v>633</v>
+      </c>
+      <c r="H251" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I251" t="s">
+        <v>93</v>
+      </c>
+      <c r="J251" t="s">
+        <v>94</v>
+      </c>
+      <c r="K251" t="s">
+        <v>272</v>
+      </c>
+      <c r="L251" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="252" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>634</v>
+      </c>
+      <c r="F252" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G252" t="s">
+        <v>272</v>
+      </c>
+      <c r="H252" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I252" t="s">
+        <v>93</v>
+      </c>
+      <c r="J252" t="s">
+        <v>94</v>
+      </c>
+      <c r="K252" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>635</v>
+      </c>
+      <c r="F253" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G253" t="s">
+        <v>635</v>
+      </c>
+      <c r="H253" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I253" t="s">
+        <v>93</v>
+      </c>
+      <c r="J253" t="s">
+        <v>94</v>
+      </c>
+      <c r="K253" t="s">
+        <v>272</v>
+      </c>
+      <c r="L253" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="254" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>636</v>
+      </c>
+      <c r="F254" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G254" t="s">
+        <v>636</v>
+      </c>
+      <c r="H254" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I254" t="s">
+        <v>93</v>
+      </c>
+      <c r="J254" t="s">
+        <v>94</v>
+      </c>
+      <c r="K254" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="255" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>637</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G255" t="s">
+        <v>638</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I255" t="s">
+        <v>93</v>
+      </c>
+      <c r="J255" t="s">
+        <v>94</v>
+      </c>
+      <c r="K255" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="256" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>639</v>
+      </c>
+      <c r="F256" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G256" t="s">
+        <v>638</v>
+      </c>
+      <c r="H256" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I256" t="s">
+        <v>93</v>
+      </c>
+      <c r="J256" t="s">
+        <v>94</v>
+      </c>
+      <c r="K256" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="257" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>640</v>
+      </c>
+      <c r="F257" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G257" t="s">
+        <v>249</v>
+      </c>
+      <c r="H257" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I257" t="s">
+        <v>93</v>
+      </c>
+      <c r="J257" t="s">
+        <v>94</v>
+      </c>
+      <c r="K257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>641</v>
+      </c>
+      <c r="F258" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G258" t="s">
+        <v>250</v>
+      </c>
+      <c r="H258" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I258" t="s">
+        <v>93</v>
+      </c>
+      <c r="J258" t="s">
+        <v>94</v>
+      </c>
+      <c r="K258" t="s">
+        <v>249</v>
+      </c>
+      <c r="L258" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>642</v>
+      </c>
+      <c r="F259" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G259" t="s">
+        <v>643</v>
+      </c>
+      <c r="H259" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I259" t="s">
+        <v>93</v>
+      </c>
+      <c r="J259" t="s">
+        <v>94</v>
+      </c>
+      <c r="K259" t="s">
+        <v>249</v>
+      </c>
+      <c r="L259" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="260" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>644</v>
+      </c>
+      <c r="F260" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G260" t="s">
+        <v>249</v>
+      </c>
+      <c r="H260" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I260" t="s">
+        <v>93</v>
+      </c>
+      <c r="J260" t="s">
+        <v>94</v>
+      </c>
+      <c r="K260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>645</v>
+      </c>
+      <c r="F261" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G261" t="s">
+        <v>250</v>
+      </c>
+      <c r="H261" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I261" t="s">
+        <v>93</v>
+      </c>
+      <c r="J261" t="s">
+        <v>94</v>
+      </c>
+      <c r="K261" t="s">
+        <v>249</v>
+      </c>
+      <c r="L261" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>646</v>
+      </c>
+      <c r="F262" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G262" t="s">
+        <v>94</v>
+      </c>
+      <c r="H262" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I262" t="s">
+        <v>93</v>
+      </c>
+      <c r="J262" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="263" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>647</v>
+      </c>
+      <c r="F263" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G263" t="s">
+        <v>224</v>
+      </c>
+      <c r="H263" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I263" t="s">
+        <v>93</v>
+      </c>
+      <c r="J263" t="s">
+        <v>102</v>
+      </c>
+      <c r="K263" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="264" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>648</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G264" t="s">
+        <v>648</v>
+      </c>
+      <c r="H264" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I264" t="s">
+        <v>93</v>
+      </c>
+      <c r="J264" t="s">
+        <v>102</v>
+      </c>
+      <c r="K264" t="s">
+        <v>224</v>
+      </c>
+      <c r="L264" t="s">
+        <v>649</v>
+      </c>
+      <c r="M264" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="265" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>650</v>
+      </c>
+      <c r="F265" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G265" t="s">
+        <v>650</v>
+      </c>
+      <c r="H265" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I265" t="s">
+        <v>93</v>
+      </c>
+      <c r="J265" t="s">
+        <v>102</v>
+      </c>
+      <c r="K265" t="s">
+        <v>224</v>
+      </c>
+      <c r="L265" t="s">
+        <v>651</v>
+      </c>
+      <c r="M265" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="266" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>653</v>
+      </c>
+      <c r="F266" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G266" t="s">
+        <v>653</v>
+      </c>
+      <c r="H266" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I266" t="s">
+        <v>93</v>
+      </c>
+      <c r="J266" t="s">
+        <v>102</v>
+      </c>
+      <c r="K266" t="s">
+        <v>224</v>
+      </c>
+      <c r="L266" t="s">
+        <v>654</v>
+      </c>
+      <c r="M266" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="267" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>655</v>
+      </c>
+      <c r="F267" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G267" t="s">
+        <v>655</v>
+      </c>
+      <c r="H267" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I267" t="s">
+        <v>93</v>
+      </c>
+      <c r="J267" t="s">
+        <v>656</v>
+      </c>
+      <c r="K267" t="s">
+        <v>224</v>
+      </c>
+      <c r="L267" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="268" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>657</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G268" t="s">
+        <v>144</v>
+      </c>
+      <c r="H268" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I268" t="s">
+        <v>93</v>
+      </c>
+      <c r="J268" t="s">
+        <v>102</v>
+      </c>
+      <c r="K268" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="269" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>658</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G269" t="s">
+        <v>661</v>
+      </c>
+      <c r="H269" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I269" t="s">
+        <v>93</v>
+      </c>
+      <c r="J269" t="s">
+        <v>102</v>
+      </c>
+      <c r="K269" t="s">
+        <v>144</v>
+      </c>
+      <c r="L269" t="s">
+        <v>659</v>
+      </c>
+      <c r="M269" t="s">
+        <v>658</v>
+      </c>
+      <c r="N269" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="270" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>662</v>
+      </c>
+      <c r="F270" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G270" t="s">
+        <v>144</v>
+      </c>
+      <c r="H270" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I270" t="s">
+        <v>93</v>
+      </c>
+      <c r="J270" t="s">
+        <v>102</v>
+      </c>
+      <c r="K270" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="271" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>663</v>
+      </c>
+      <c r="F271" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G271" t="s">
+        <v>665</v>
+      </c>
+      <c r="H271" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I271" t="s">
+        <v>93</v>
+      </c>
+      <c r="J271" t="s">
+        <v>102</v>
+      </c>
+      <c r="K271" t="s">
+        <v>144</v>
+      </c>
+      <c r="L271" t="s">
+        <v>664</v>
+      </c>
+      <c r="M271" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="272" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>666</v>
+      </c>
+      <c r="F272" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G272" t="s">
+        <v>666</v>
+      </c>
+      <c r="H272" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I272" t="s">
+        <v>93</v>
+      </c>
+      <c r="J272" t="s">
+        <v>102</v>
+      </c>
+      <c r="K272" t="s">
+        <v>144</v>
+      </c>
+      <c r="L272" t="s">
+        <v>659</v>
+      </c>
+      <c r="M272" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="273" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>667</v>
+      </c>
+      <c r="F273" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G273" t="s">
+        <v>144</v>
+      </c>
+      <c r="H273" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I273" t="s">
+        <v>93</v>
+      </c>
+      <c r="J273" t="s">
+        <v>102</v>
+      </c>
+      <c r="K273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>668</v>
+      </c>
+      <c r="F274" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G274" t="s">
+        <v>668</v>
+      </c>
+      <c r="H274" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I274" t="s">
+        <v>93</v>
+      </c>
+      <c r="J274" t="s">
+        <v>102</v>
+      </c>
+      <c r="K274" t="s">
+        <v>144</v>
+      </c>
+      <c r="L274" t="s">
+        <v>669</v>
+      </c>
+      <c r="M274" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="275" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>670</v>
+      </c>
+      <c r="F275" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G275" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="H275" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I275" t="s">
+        <v>93</v>
+      </c>
+      <c r="J275" t="s">
+        <v>102</v>
+      </c>
+      <c r="K275" t="s">
+        <v>144</v>
+      </c>
+      <c r="L275" t="s">
+        <v>269</v>
+      </c>
+      <c r="M275" t="s">
+        <v>671</v>
+      </c>
+      <c r="N275" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="276" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>674</v>
+      </c>
+      <c r="F276" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G276" t="s">
+        <v>666</v>
+      </c>
+      <c r="H276" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I276" t="s">
+        <v>93</v>
+      </c>
+      <c r="J276" t="s">
+        <v>102</v>
+      </c>
+      <c r="K276" t="s">
+        <v>144</v>
+      </c>
+      <c r="L276" t="s">
+        <v>659</v>
+      </c>
+      <c r="M276" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="277" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>675</v>
+      </c>
+      <c r="F277" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G277" t="s">
+        <v>675</v>
+      </c>
+      <c r="H277" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I277" t="s">
+        <v>93</v>
+      </c>
+      <c r="J277" t="s">
+        <v>102</v>
+      </c>
+      <c r="K277" t="s">
+        <v>144</v>
+      </c>
+      <c r="L277" t="s">
+        <v>659</v>
+      </c>
+      <c r="M277" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="278" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>676</v>
+      </c>
+      <c r="F278" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G278" t="s">
+        <v>676</v>
+      </c>
+      <c r="H278" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I278" t="s">
+        <v>93</v>
+      </c>
+      <c r="J278" t="s">
+        <v>102</v>
+      </c>
+      <c r="K278" t="s">
+        <v>231</v>
+      </c>
+      <c r="L278" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="279" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>677</v>
+      </c>
+      <c r="F279" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G279" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="H279" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I279" t="s">
+        <v>93</v>
+      </c>
+      <c r="J279" t="s">
+        <v>102</v>
+      </c>
+      <c r="K279" t="s">
+        <v>231</v>
+      </c>
+      <c r="L279" t="s">
+        <v>678</v>
+      </c>
+      <c r="M279" t="s">
+        <v>677</v>
+      </c>
+      <c r="N279" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>681</v>
+      </c>
+      <c r="F280" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G280" t="s">
+        <v>681</v>
+      </c>
+      <c r="H280" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I280" t="s">
+        <v>93</v>
+      </c>
+      <c r="J280" t="s">
+        <v>102</v>
+      </c>
+      <c r="K280" t="s">
+        <v>231</v>
+      </c>
+      <c r="L280" t="s">
+        <v>676</v>
+      </c>
+      <c r="M280" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="281" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>682</v>
+      </c>
+      <c r="F281" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G281" t="s">
+        <v>682</v>
+      </c>
+      <c r="H281" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I281" t="s">
+        <v>93</v>
+      </c>
+      <c r="J281" t="s">
+        <v>102</v>
+      </c>
+      <c r="K281" t="s">
+        <v>231</v>
+      </c>
+      <c r="L281" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="282" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>683</v>
+      </c>
+      <c r="F282" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G282" t="s">
+        <v>231</v>
+      </c>
+      <c r="H282" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I282" t="s">
+        <v>93</v>
+      </c>
+      <c r="J282" t="s">
+        <v>102</v>
+      </c>
+      <c r="K282" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="283" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>684</v>
+      </c>
+      <c r="F283" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G283" t="s">
+        <v>231</v>
+      </c>
+      <c r="H283" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I283" t="s">
+        <v>93</v>
+      </c>
+      <c r="J283" t="s">
+        <v>102</v>
+      </c>
+      <c r="K283" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="284" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>685</v>
+      </c>
+      <c r="F284" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G284" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="H284" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I284" t="s">
+        <v>93</v>
+      </c>
+      <c r="J284" t="s">
+        <v>102</v>
+      </c>
+      <c r="K284" t="s">
+        <v>268</v>
+      </c>
+      <c r="L284" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M284" t="s">
+        <v>688</v>
+      </c>
+      <c r="N284" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="285" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>689</v>
+      </c>
+      <c r="F285" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G285" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="H285" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I285" t="s">
+        <v>93</v>
+      </c>
+      <c r="J285" t="s">
+        <v>102</v>
+      </c>
+      <c r="K285" t="s">
+        <v>268</v>
+      </c>
+      <c r="L285" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M285" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="N285" s="30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="286" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>692</v>
+      </c>
+      <c r="F286" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G286" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="H286" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I286" t="s">
+        <v>93</v>
+      </c>
+      <c r="J286" t="s">
+        <v>102</v>
+      </c>
+      <c r="K286" t="s">
+        <v>268</v>
+      </c>
+      <c r="L286" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M286" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="N286" s="30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="287" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>696</v>
+      </c>
+      <c r="F287" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G287" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="H287" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I287" t="s">
+        <v>93</v>
+      </c>
+      <c r="J287" t="s">
+        <v>102</v>
+      </c>
+      <c r="K287" t="s">
+        <v>268</v>
+      </c>
+      <c r="L287" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M287" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="N287" s="30" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="288" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>700</v>
+      </c>
+      <c r="F288" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G288" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H288" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I288" t="s">
+        <v>93</v>
+      </c>
+      <c r="J288" t="s">
+        <v>102</v>
+      </c>
+      <c r="K288" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>701</v>
+      </c>
+      <c r="F289" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G289" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H289" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I289" t="s">
+        <v>93</v>
+      </c>
+      <c r="J289" t="s">
+        <v>102</v>
+      </c>
+      <c r="K289" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>686</v>
+      </c>
+      <c r="F290" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G290" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="H290" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I290" t="s">
+        <v>93</v>
+      </c>
+      <c r="J290" t="s">
+        <v>102</v>
+      </c>
+      <c r="K290" t="s">
+        <v>268</v>
+      </c>
+      <c r="L290" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M290" t="s">
+        <v>688</v>
+      </c>
+      <c r="N290" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="291" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>702</v>
+      </c>
+      <c r="F291" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G291" t="s">
+        <v>102</v>
+      </c>
+      <c r="H291" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I291" t="s">
+        <v>93</v>
+      </c>
+      <c r="J291" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="292" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>703</v>
+      </c>
+      <c r="F292" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G292" t="s">
+        <v>709</v>
+      </c>
+      <c r="H292" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I292" t="s">
+        <v>704</v>
+      </c>
+      <c r="J292" t="s">
+        <v>705</v>
+      </c>
+      <c r="K292" t="s">
+        <v>706</v>
+      </c>
+      <c r="L292" t="s">
+        <v>707</v>
+      </c>
+      <c r="M292" t="s">
+        <v>708</v>
+      </c>
+      <c r="N292" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="293" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>711</v>
+      </c>
+      <c r="F293" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G293" t="s">
+        <v>264</v>
+      </c>
+      <c r="H293" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I293" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="294" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>712</v>
+      </c>
+      <c r="F294" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G294" t="s">
+        <v>714</v>
+      </c>
+      <c r="H294" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I294" t="s">
+        <v>264</v>
+      </c>
+      <c r="J294" t="s">
+        <v>265</v>
+      </c>
+      <c r="K294" t="s">
+        <v>715</v>
+      </c>
+      <c r="L294" t="s">
+        <v>713</v>
+      </c>
+      <c r="M294" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="295" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>716</v>
+      </c>
+      <c r="F295" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G295" t="s">
+        <v>264</v>
+      </c>
+      <c r="H295" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I295" t="s">
+        <v>264</v>
+      </c>
+      <c r="J295"/>
+    </row>
+    <row r="296" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>717</v>
+      </c>
+      <c r="F296" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G296" t="s">
+        <v>717</v>
+      </c>
+      <c r="H296" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I296" t="s">
+        <v>264</v>
+      </c>
+      <c r="J296" t="s">
+        <v>265</v>
+      </c>
+      <c r="K296" t="s">
+        <v>719</v>
+      </c>
+      <c r="L296" t="s">
+        <v>718</v>
+      </c>
+      <c r="M296" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="297" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>720</v>
+      </c>
+      <c r="F297" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G297" t="s">
+        <v>722</v>
+      </c>
+      <c r="H297" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I297" t="s">
+        <v>264</v>
+      </c>
+      <c r="J297" t="s">
+        <v>723</v>
+      </c>
+      <c r="K297" t="s">
+        <v>724</v>
+      </c>
+      <c r="L297" t="s">
+        <v>721</v>
+      </c>
+      <c r="M297" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="298" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>725</v>
+      </c>
+      <c r="F298" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G298" t="s">
+        <v>729</v>
+      </c>
+      <c r="H298" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I298" t="s">
+        <v>243</v>
+      </c>
+      <c r="J298" t="s">
+        <v>307</v>
+      </c>
+      <c r="K298" t="s">
+        <v>726</v>
+      </c>
+      <c r="L298" t="s">
+        <v>727</v>
+      </c>
+      <c r="M298" t="s">
+        <v>725</v>
+      </c>
+      <c r="N298" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="299" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>730</v>
+      </c>
+      <c r="F299" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G299" t="s">
+        <v>307</v>
+      </c>
+      <c r="H299" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I299" t="s">
+        <v>243</v>
+      </c>
+      <c r="J299" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="300" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>731</v>
+      </c>
+      <c r="F300" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G300" t="s">
+        <v>735</v>
+      </c>
+      <c r="H300" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I300" t="s">
+        <v>243</v>
+      </c>
+      <c r="J300" t="s">
+        <v>307</v>
+      </c>
+      <c r="K300" t="s">
+        <v>732</v>
+      </c>
+      <c r="L300" t="s">
+        <v>733</v>
+      </c>
+      <c r="M300" t="s">
+        <v>731</v>
+      </c>
+      <c r="N300" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="301" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>736</v>
+      </c>
+      <c r="F301" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G301" t="s">
+        <v>307</v>
+      </c>
+      <c r="H301" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I301" t="s">
+        <v>243</v>
+      </c>
+      <c r="J301" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="302" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>737</v>
+      </c>
+      <c r="F302" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G302" t="s">
+        <v>737</v>
+      </c>
+      <c r="H302" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I302" t="s">
+        <v>243</v>
+      </c>
+      <c r="J302" t="s">
+        <v>738</v>
+      </c>
+      <c r="K302" t="s">
+        <v>740</v>
+      </c>
+      <c r="L302" t="s">
+        <v>739</v>
+      </c>
+      <c r="M302" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="303" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>741</v>
+      </c>
+      <c r="F303" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G303" t="s">
+        <v>741</v>
+      </c>
+      <c r="H303" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I303" t="s">
+        <v>243</v>
+      </c>
+      <c r="J303" t="s">
+        <v>244</v>
+      </c>
+      <c r="K303" t="s">
+        <v>742</v>
+      </c>
+      <c r="L303" t="s">
+        <v>743</v>
+      </c>
+      <c r="M303" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="304" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>744</v>
+      </c>
+      <c r="F304" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G304" t="s">
+        <v>744</v>
+      </c>
+      <c r="H304" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I304" t="s">
+        <v>243</v>
+      </c>
+      <c r="J304" t="s">
+        <v>244</v>
+      </c>
+      <c r="K304" t="s">
+        <v>742</v>
+      </c>
+      <c r="L304" t="s">
+        <v>743</v>
+      </c>
+      <c r="M304" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="305" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>745</v>
+      </c>
+      <c r="F305" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G305" t="s">
+        <v>745</v>
+      </c>
+      <c r="H305" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I305" t="s">
+        <v>243</v>
+      </c>
+      <c r="J305" t="s">
+        <v>244</v>
+      </c>
+      <c r="K305" t="s">
+        <v>740</v>
+      </c>
+      <c r="L305" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="306" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>746</v>
+      </c>
+      <c r="F306" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G306" t="s">
+        <v>747</v>
+      </c>
+      <c r="H306" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I306" t="s">
+        <v>243</v>
+      </c>
+      <c r="J306" t="s">
+        <v>244</v>
+      </c>
+      <c r="K306" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="307" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>748</v>
+      </c>
+      <c r="F307" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G307" t="s">
+        <v>748</v>
+      </c>
+      <c r="H307" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I307" t="s">
+        <v>243</v>
+      </c>
+      <c r="J307" t="s">
+        <v>244</v>
+      </c>
+      <c r="K307" t="s">
+        <v>752</v>
+      </c>
+      <c r="L307" t="s">
+        <v>749</v>
+      </c>
+      <c r="M307" t="s">
+        <v>750</v>
+      </c>
+      <c r="N307" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="308" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>753</v>
+      </c>
+      <c r="F308" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G308" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H308" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I308" t="s">
+        <v>243</v>
+      </c>
+      <c r="J308" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="309" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>754</v>
+      </c>
+      <c r="F309" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G309" t="s">
+        <v>754</v>
+      </c>
+      <c r="H309" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I309" t="s">
+        <v>243</v>
+      </c>
+      <c r="J309" t="s">
+        <v>244</v>
+      </c>
+      <c r="K309" t="s">
+        <v>755</v>
+      </c>
+      <c r="L309" t="s">
+        <v>296</v>
+      </c>
+      <c r="M309" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>756</v>
+      </c>
+      <c r="F310" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G310" t="s">
+        <v>296</v>
+      </c>
+      <c r="H310" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I310" t="s">
+        <v>243</v>
+      </c>
+      <c r="J310" t="s">
+        <v>244</v>
+      </c>
+      <c r="K310" t="s">
+        <v>755</v>
+      </c>
+      <c r="L310" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>757</v>
+      </c>
+      <c r="F311" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G311" t="s">
+        <v>244</v>
+      </c>
+      <c r="H311" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I311" t="s">
+        <v>243</v>
+      </c>
+      <c r="J311" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>758</v>
+      </c>
+      <c r="F312" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G312" t="s">
+        <v>758</v>
+      </c>
+      <c r="H312" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I312" t="s">
+        <v>759</v>
+      </c>
+      <c r="J312" t="s">
+        <v>760</v>
+      </c>
+      <c r="K312" t="s">
+        <v>761</v>
+      </c>
+      <c r="L312" t="s">
+        <v>762</v>
+      </c>
+      <c r="M312" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="313" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>759</v>
+      </c>
+      <c r="F313" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G313" t="s">
+        <v>759</v>
+      </c>
+      <c r="H313" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I313" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>763</v>
+      </c>
+      <c r="F314" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G314" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="763">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -750,9 +750,6 @@
   </si>
   <si>
     <t>Limnoithona</t>
-  </si>
-  <si>
-    <t>Synchaeta (not bicornis)</t>
   </si>
   <si>
     <t>Cirripedia</t>
@@ -3824,9 +3821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G313" sqref="G313"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3866,13 +3863,13 @@
         <v>205</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>204</v>
@@ -3899,28 +3896,28 @@
         <v>87</v>
       </c>
       <c r="O1" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -3937,7 +3934,7 @@
         <v>119</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>207</v>
@@ -3987,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>
@@ -4030,7 +4027,7 @@
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>207</v>
@@ -4068,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>207</v>
@@ -4106,13 +4103,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>207</v>
@@ -4161,7 +4158,7 @@
         <v>118</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>207</v>
@@ -4201,10 +4198,10 @@
         <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>207</v>
@@ -4232,7 +4229,7 @@
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>207</v>
@@ -4264,10 +4261,10 @@
         <v>130</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>207</v>
@@ -4301,7 +4298,7 @@
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
@@ -4351,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>207</v>
@@ -4496,7 +4493,7 @@
         <v>117</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>207</v>
@@ -4542,7 +4539,7 @@
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="E16" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>207</v>
@@ -4719,7 +4716,7 @@
         <v>105</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>207</v>
@@ -4768,7 +4765,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="E21" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>207</v>
@@ -4806,7 +4803,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>80</v>
@@ -4912,7 +4909,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>207</v>
@@ -5062,7 +5059,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>81</v>
@@ -5103,10 +5100,10 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>207</v>
@@ -5138,10 +5135,10 @@
         <v>108</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>207</v>
@@ -5173,11 +5170,11 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30" s="31"/>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>207</v>
@@ -5215,10 +5212,10 @@
         <v>132</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>133</v>
@@ -5250,10 +5247,10 @@
         <v>71</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>208</v>
@@ -5297,7 +5294,7 @@
         <v>122</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>208</v>
@@ -5344,7 +5341,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>208</v>
@@ -5730,10 +5727,10 @@
         <v>103</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>208</v>
@@ -5890,7 +5887,7 @@
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="E47" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>208</v>
@@ -5924,7 +5921,7 @@
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="E48" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F48" s="30" t="s">
         <v>208</v>
@@ -5958,7 +5955,7 @@
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="E49" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F49" s="30" t="s">
         <v>208</v>
@@ -5996,7 +5993,7 @@
         <v>100</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F50" s="30" t="s">
         <v>209</v>
@@ -6107,7 +6104,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>209</v>
@@ -6269,7 +6266,7 @@
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="E57" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>209</v>
@@ -6288,7 +6285,7 @@
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="E58" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F58" s="30" t="s">
         <v>209</v>
@@ -6323,7 +6320,7 @@
         <v>134</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F59" s="30" t="s">
         <v>207</v>
@@ -6506,7 +6503,7 @@
         <v>136</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F63" s="30" t="s">
         <v>207</v>
@@ -6594,7 +6591,7 @@
         <v>91</v>
       </c>
       <c r="J65" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K65" s="30" t="s">
         <v>98</v>
@@ -6638,7 +6635,7 @@
         <v>91</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K66" s="30" t="s">
         <v>98</v>
@@ -6686,10 +6683,10 @@
         <v>90</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>207</v>
@@ -6739,7 +6736,7 @@
         <v>91</v>
       </c>
       <c r="J69" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K69" s="30" t="s">
         <v>98</v>
@@ -6774,7 +6771,7 @@
         <v>207</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="H70" s="30" t="s">
         <v>86</v>
@@ -6783,7 +6780,7 @@
         <v>91</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K70" s="30" t="s">
         <v>98</v>
@@ -6824,7 +6821,7 @@
         <v>91</v>
       </c>
       <c r="J71" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K71" s="30" t="s">
         <v>98</v>
@@ -6868,7 +6865,7 @@
         <v>91</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K72" s="30" t="s">
         <v>98</v>
@@ -6897,16 +6894,16 @@
         <v>99</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>188</v>
@@ -6915,7 +6912,7 @@
         <v>210</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P73" s="30">
         <v>1972</v>
@@ -6979,7 +6976,7 @@
         <v>67</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>207</v>
@@ -7046,7 +7043,7 @@
         <v>88</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>207</v>
@@ -7072,10 +7069,10 @@
         <v>92</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F78" s="30" t="s">
         <v>209</v>
@@ -7110,10 +7107,10 @@
         <v>96</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>209</v>
@@ -7139,16 +7136,16 @@
     </row>
     <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F80" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H80" s="30" t="s">
         <v>87</v>
@@ -7160,16 +7157,16 @@
         <v>102</v>
       </c>
       <c r="K80" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L80" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="L80" s="30" t="s">
+      <c r="M80" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="M80" s="30" t="s">
-        <v>222</v>
-      </c>
       <c r="N80" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O80" s="30">
         <v>1992</v>
@@ -7177,19 +7174,19 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" s="30" t="s">
         <v>86</v>
@@ -7201,13 +7198,13 @@
         <v>102</v>
       </c>
       <c r="K81" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L81" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="L81" s="30" t="s">
-        <v>225</v>
-      </c>
       <c r="M81" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O81" s="30">
         <v>1986</v>
@@ -7215,7 +7212,7 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D82" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F82" s="30" t="s">
         <v>207</v>
@@ -7235,13 +7232,13 @@
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D83" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="30" t="s">
         <v>85</v>
@@ -7253,21 +7250,21 @@
         <v>94</v>
       </c>
       <c r="K83" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L83" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D84" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H84" s="30" t="s">
         <v>85</v>
@@ -7279,21 +7276,21 @@
         <v>94</v>
       </c>
       <c r="K84" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L84" s="30" t="s">
         <v>228</v>
-      </c>
-      <c r="L84" s="30" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D85" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G85" s="30" t="s">
-        <v>231</v>
       </c>
       <c r="H85" s="30" t="s">
         <v>84</v>
@@ -7305,18 +7302,18 @@
         <v>102</v>
       </c>
       <c r="K85" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D86" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="30" t="s">
         <v>232</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G86" s="30" t="s">
-        <v>233</v>
       </c>
       <c r="H86" s="30" t="s">
         <v>84</v>
@@ -7328,18 +7325,18 @@
         <v>102</v>
       </c>
       <c r="K86" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D87" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H87" s="30" t="s">
         <v>85</v>
@@ -7351,21 +7348,21 @@
         <v>94</v>
       </c>
       <c r="K87" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L87" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="L87" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D88" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="H88" s="30" t="s">
         <v>84</v>
@@ -7377,18 +7374,18 @@
         <v>94</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D89" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F89" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H89" s="30" t="s">
         <v>85</v>
@@ -7403,18 +7400,18 @@
         <v>199</v>
       </c>
       <c r="L89" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D90" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F90" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90" s="30" t="s">
         <v>86</v>
@@ -7423,7 +7420,7 @@
         <v>91</v>
       </c>
       <c r="J90" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K90" s="30" t="s">
         <v>98</v>
@@ -7432,50 +7429,50 @@
         <v>157</v>
       </c>
       <c r="M90" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D91" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F91" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H91" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I91" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="J91" s="30" t="s">
+      <c r="K91" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="K91" s="30" t="s">
+      <c r="L91" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="M91" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="M91" s="30" t="s">
+      <c r="N91" s="30" t="s">
         <v>247</v>
-      </c>
-      <c r="N91" s="30" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D92" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H92" s="30" t="s">
         <v>85</v>
@@ -7487,21 +7484,21 @@
         <v>102</v>
       </c>
       <c r="K92" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L92" s="30" t="s">
         <v>224</v>
-      </c>
-      <c r="L92" s="30" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D93" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F93" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H93" s="30" t="s">
         <v>85</v>
@@ -7513,21 +7510,21 @@
         <v>94</v>
       </c>
       <c r="K93" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L93" s="30" t="s">
         <v>249</v>
-      </c>
-      <c r="L93" s="30" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D94" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F94" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" s="30" t="s">
         <v>86</v>
@@ -7545,18 +7542,18 @@
         <v>200</v>
       </c>
       <c r="M94" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D95" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" s="30" t="s">
         <v>252</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>253</v>
       </c>
       <c r="H95" s="30" t="s">
         <v>83</v>
@@ -7565,18 +7562,18 @@
         <v>89</v>
       </c>
       <c r="J95" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D96" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H96" s="30" t="s">
         <v>86</v>
@@ -7594,29 +7591,29 @@
         <v>201</v>
       </c>
       <c r="M96" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D97" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="30" t="s">
         <v>255</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>256</v>
       </c>
       <c r="H97" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D98" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F98" s="30" t="s">
         <v>207</v>
@@ -7639,13 +7636,13 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D99" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F99" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H99" s="30" t="s">
         <v>84</v>
@@ -7657,18 +7654,18 @@
         <v>94</v>
       </c>
       <c r="K99" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D100" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F100" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" s="30" t="s">
         <v>84</v>
@@ -7680,18 +7677,18 @@
         <v>94</v>
       </c>
       <c r="K100" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D101" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F101" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H101" s="30" t="s">
         <v>87</v>
@@ -7703,27 +7700,27 @@
         <v>102</v>
       </c>
       <c r="K101" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L101" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="N101" s="30" t="s">
         <v>258</v>
-      </c>
-      <c r="M101" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="N101" s="30" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D102" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F102" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H102" s="30" t="s">
         <v>86</v>
@@ -7741,21 +7738,21 @@
         <v>193</v>
       </c>
       <c r="M102" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H103" s="30" t="s">
         <v>86</v>
@@ -7767,53 +7764,53 @@
         <v>102</v>
       </c>
       <c r="K103" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L103" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M103" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D104" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H104" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I104" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J104" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J104" s="30" t="s">
+      <c r="K104" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="K104" s="30" t="s">
+      <c r="L104" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="L104" s="30" t="s">
-        <v>267</v>
-      </c>
       <c r="M104" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D105" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H105" s="30" t="s">
         <v>87</v>
@@ -7825,27 +7822,27 @@
         <v>102</v>
       </c>
       <c r="K105" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L105" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="L105" s="30" t="s">
+      <c r="M105" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="M105" s="30" t="s">
+      <c r="N105" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="N105" s="30" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D106" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F106" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H106" s="30" t="s">
         <v>85</v>
@@ -7857,21 +7854,21 @@
         <v>94</v>
       </c>
       <c r="K106" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L106" s="30" t="s">
         <v>272</v>
-      </c>
-      <c r="L106" s="30" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D107" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F107" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H107" s="30" t="s">
         <v>86</v>
@@ -7880,7 +7877,7 @@
         <v>91</v>
       </c>
       <c r="J107" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>98</v>
@@ -7889,18 +7886,18 @@
         <v>157</v>
       </c>
       <c r="M107" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D108" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F108" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G108" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="30" t="s">
         <v>85</v>
@@ -7912,21 +7909,21 @@
         <v>94</v>
       </c>
       <c r="K108" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L108" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D109" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" s="30" t="s">
         <v>85</v>
@@ -7938,21 +7935,21 @@
         <v>94</v>
       </c>
       <c r="K109" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L109" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D110" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H110" s="30" t="s">
         <v>85</v>
@@ -7964,21 +7961,21 @@
         <v>102</v>
       </c>
       <c r="K110" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L110" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D111" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H111" s="30" t="s">
         <v>87</v>
@@ -7990,27 +7987,27 @@
         <v>102</v>
       </c>
       <c r="K111" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L111" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M111" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N111" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D112" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F112" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H112" s="30" t="s">
         <v>84</v>
@@ -8022,18 +8019,18 @@
         <v>94</v>
       </c>
       <c r="K112" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D113" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F113" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G113" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H113" s="30" t="s">
         <v>86</v>
@@ -8045,24 +8042,24 @@
         <v>102</v>
       </c>
       <c r="K113" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L113" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M113" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D114" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G114" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="H114" s="30" t="s">
         <v>83</v>
@@ -8071,18 +8068,18 @@
         <v>89</v>
       </c>
       <c r="J114" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D115" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F115" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H115" s="30" t="s">
         <v>84</v>
@@ -8094,12 +8091,12 @@
         <v>94</v>
       </c>
       <c r="K115" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D116" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F116" s="30" t="s">
         <v>209</v>
@@ -8122,45 +8119,45 @@
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D117" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F117" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H117" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I117" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J117" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="J117" s="30" t="s">
+      <c r="K117" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="K117" s="30" t="s">
+      <c r="L117" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="L117" s="30" t="s">
+      <c r="M117" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="M117" s="30" t="s">
+      <c r="N117" s="30" t="s">
         <v>289</v>
-      </c>
-      <c r="N117" s="30" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D118" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H118" s="30" t="s">
         <v>85</v>
@@ -8175,18 +8172,18 @@
         <v>136</v>
       </c>
       <c r="L118" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D119" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F119" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H119" s="30" t="s">
         <v>84</v>
@@ -8195,50 +8192,50 @@
         <v>93</v>
       </c>
       <c r="J119" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="K119" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="K119" s="30" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D120" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F120" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H120" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I120" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="J120" s="30" t="s">
-        <v>244</v>
-      </c>
       <c r="K120" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L120" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D121" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F121" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H121" s="30" t="s">
         <v>83</v>
@@ -8247,18 +8244,18 @@
         <v>93</v>
       </c>
       <c r="J121" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D122" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G122" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H122" s="30" t="s">
         <v>85</v>
@@ -8270,15 +8267,15 @@
         <v>102</v>
       </c>
       <c r="K122" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L122" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D123" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F123" s="30" t="s">
         <v>207</v>
@@ -8295,16 +8292,16 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G124" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H124" s="30" t="s">
         <v>84</v>
@@ -8316,15 +8313,15 @@
         <v>102</v>
       </c>
       <c r="K124" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D125" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G125" s="30" t="s">
         <v>199</v>
@@ -8344,13 +8341,13 @@
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D126" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G126" s="30" t="s">
         <v>299</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G126" s="30" t="s">
-        <v>300</v>
       </c>
       <c r="H126" s="30" t="s">
         <v>84</v>
@@ -8359,21 +8356,21 @@
         <v>93</v>
       </c>
       <c r="J126" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K126" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D127" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F127" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H127" s="30" t="s">
         <v>86</v>
@@ -8391,18 +8388,18 @@
         <v>201</v>
       </c>
       <c r="M127" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D128" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F128" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H128" s="30" t="s">
         <v>84</v>
@@ -8414,18 +8411,18 @@
         <v>102</v>
       </c>
       <c r="K128" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D129" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F129" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H129" s="30" t="s">
         <v>86</v>
@@ -8440,21 +8437,21 @@
         <v>136</v>
       </c>
       <c r="L129" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M129" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D130" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F130" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G130" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H130" s="30" t="s">
         <v>86</v>
@@ -8472,18 +8469,18 @@
         <v>193</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D131" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G131" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H131" s="30" t="s">
         <v>86</v>
@@ -8498,61 +8495,61 @@
         <v>136</v>
       </c>
       <c r="L131" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M131" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D132" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F132" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H132" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I132" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J132" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="J132" s="30" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D133" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F133" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G133" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H133" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I133" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J133" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D134" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F134" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G134" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H134" s="30" t="s">
         <v>86</v>
@@ -8567,21 +8564,21 @@
         <v>136</v>
       </c>
       <c r="L134" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M134" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D135" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F135" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G135" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H135" s="30" t="s">
         <v>86</v>
@@ -8596,21 +8593,21 @@
         <v>136</v>
       </c>
       <c r="L135" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M135" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D136" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F136" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G136" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H136" s="30" t="s">
         <v>85</v>
@@ -8619,27 +8616,27 @@
         <v>89</v>
       </c>
       <c r="J136" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="K136" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="K136" s="30" t="s">
+      <c r="L136" s="30" t="s">
         <v>314</v>
-      </c>
-      <c r="L136" s="30" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F137" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H137" s="30" t="s">
         <v>86</v>
@@ -8651,73 +8648,73 @@
         <v>102</v>
       </c>
       <c r="K137" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L137" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M137" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D138" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F138" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H138" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I138" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J138" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="J138" s="30" t="s">
-        <v>244</v>
-      </c>
       <c r="K138" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L138" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M138" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D139" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F139" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H139" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I139" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J139" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D140" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F140" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H140" s="30" t="s">
         <v>86</v>
@@ -8735,38 +8732,38 @@
         <v>200</v>
       </c>
       <c r="M140" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D141" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F141" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H141" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I141" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="J141" s="30" t="s">
         <v>322</v>
-      </c>
-      <c r="J141" s="30" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D142" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F142" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H142" s="30" t="s">
         <v>86</v>
@@ -8784,35 +8781,35 @@
         <v>193</v>
       </c>
       <c r="M142" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D143" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G143" s="30" t="s">
         <v>325</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G143" s="30" t="s">
-        <v>326</v>
       </c>
       <c r="H143" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I143" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D144" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F144" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H144" s="30" t="s">
         <v>86</v>
@@ -8821,7 +8818,7 @@
         <v>91</v>
       </c>
       <c r="J144" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K144" s="30" t="s">
         <v>98</v>
@@ -8830,18 +8827,18 @@
         <v>157</v>
       </c>
       <c r="M144" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D145" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F145" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G145" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H145" s="30" t="s">
         <v>86</v>
@@ -8856,24 +8853,24 @@
         <v>136</v>
       </c>
       <c r="L145" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M145" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D146" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F146" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H146" s="30" t="s">
         <v>87</v>
@@ -8888,58 +8885,58 @@
         <v>104</v>
       </c>
       <c r="L146" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="M146" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N146" s="30" t="s">
         <v>331</v>
-      </c>
-      <c r="M146" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="N146" s="30" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D147" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F147" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G147" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E148" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F148" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G148" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H148" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E149" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F149" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I149" s="30" t="s">
         <v>93</v>
@@ -8947,13 +8944,13 @@
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E150" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F150" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G150" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H150" s="30" t="s">
         <v>87</v>
@@ -8971,21 +8968,21 @@
         <v>4</v>
       </c>
       <c r="M150" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="N150" s="30" t="s">
         <v>462</v>
-      </c>
-      <c r="N150" s="30" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E151" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F151" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G151" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H151" s="30" t="s">
         <v>87</v>
@@ -9003,21 +9000,21 @@
         <v>4</v>
       </c>
       <c r="M151" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E152" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F152" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H152" s="30" t="s">
         <v>87</v>
@@ -9035,21 +9032,21 @@
         <v>193</v>
       </c>
       <c r="M152" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E153" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F153" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H153" s="30" t="s">
         <v>87</v>
@@ -9067,21 +9064,21 @@
         <v>193</v>
       </c>
       <c r="M153" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E154" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F154" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G154" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H154" s="30" t="s">
         <v>87</v>
@@ -9096,24 +9093,24 @@
         <v>136</v>
       </c>
       <c r="L154" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M154" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E155" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F155" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G155" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H155" s="30" t="s">
         <v>87</v>
@@ -9131,21 +9128,21 @@
         <v>193</v>
       </c>
       <c r="M155" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E156" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F156" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G156" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H156" s="30" t="s">
         <v>87</v>
@@ -9163,21 +9160,21 @@
         <v>193</v>
       </c>
       <c r="M156" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E157" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F157" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G157" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H157" s="30" t="s">
         <v>87</v>
@@ -9195,21 +9192,21 @@
         <v>4</v>
       </c>
       <c r="M157" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E158" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G158" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H158" s="30" t="s">
         <v>87</v>
@@ -9227,21 +9224,21 @@
         <v>193</v>
       </c>
       <c r="M158" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N158" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E159" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F159" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H159" s="30" t="s">
         <v>87</v>
@@ -9259,21 +9256,21 @@
         <v>193</v>
       </c>
       <c r="M159" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E160" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F160" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H160" s="30" t="s">
         <v>87</v>
@@ -9288,24 +9285,24 @@
         <v>136</v>
       </c>
       <c r="L160" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M160" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E161" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F161" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H161" s="30" t="s">
         <v>87</v>
@@ -9323,21 +9320,21 @@
         <v>193</v>
       </c>
       <c r="M161" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E162" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F162" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H162" s="30" t="s">
         <v>87</v>
@@ -9355,21 +9352,21 @@
         <v>4</v>
       </c>
       <c r="M162" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E163" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F163" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H163" s="30" t="s">
         <v>87</v>
@@ -9387,21 +9384,21 @@
         <v>193</v>
       </c>
       <c r="M163" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E164" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F164" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G164" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H164" s="30" t="s">
         <v>87</v>
@@ -9419,21 +9416,21 @@
         <v>193</v>
       </c>
       <c r="M164" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N164" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E165" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F165" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G165" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H165" s="30" t="s">
         <v>87</v>
@@ -9451,21 +9448,21 @@
         <v>193</v>
       </c>
       <c r="M165" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N165" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E166" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F166" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G166" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H166" s="30" t="s">
         <v>87</v>
@@ -9483,21 +9480,21 @@
         <v>193</v>
       </c>
       <c r="M166" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N166" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E167" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F167" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G167" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H167" s="30" t="s">
         <v>87</v>
@@ -9515,21 +9512,21 @@
         <v>193</v>
       </c>
       <c r="M167" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N167" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E168" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F168" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H168" s="30" t="s">
         <v>87</v>
@@ -9547,21 +9544,21 @@
         <v>4</v>
       </c>
       <c r="M168" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N168" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E169" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F169" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G169" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H169" s="30" t="s">
         <v>87</v>
@@ -9579,21 +9576,21 @@
         <v>193</v>
       </c>
       <c r="M169" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N169" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E170" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F170" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G170" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H170" s="30" t="s">
         <v>87</v>
@@ -9614,18 +9611,18 @@
         <v>112</v>
       </c>
       <c r="N170" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E171" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F171" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H171" s="30" t="s">
         <v>87</v>
@@ -9646,18 +9643,18 @@
         <v>112</v>
       </c>
       <c r="N171" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E172" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F172" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H172" s="30" t="s">
         <v>87</v>
@@ -9675,21 +9672,21 @@
         <v>193</v>
       </c>
       <c r="M172" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N172" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F173" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G173" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H173" s="30" t="s">
         <v>87</v>
@@ -9701,30 +9698,30 @@
         <v>102</v>
       </c>
       <c r="K173" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L173" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="M173" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="M173" s="30" t="s">
-        <v>516</v>
-      </c>
       <c r="N173" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B174" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D174" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F174" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H174" s="30" t="s">
         <v>87</v>
@@ -9736,30 +9733,30 @@
         <v>102</v>
       </c>
       <c r="K174" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L174" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M174" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N174" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B175" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F175" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H175" s="30" t="s">
         <v>87</v>
@@ -9771,30 +9768,30 @@
         <v>102</v>
       </c>
       <c r="K175" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L175" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M175" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N175" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="176" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B176" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D176" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F176" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H176" s="30" t="s">
         <v>87</v>
@@ -9806,27 +9803,27 @@
         <v>102</v>
       </c>
       <c r="K176" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L176" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M176" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N176" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F177" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H177" s="30" t="s">
         <v>87</v>
@@ -9838,27 +9835,27 @@
         <v>102</v>
       </c>
       <c r="K177" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L177" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="L177" s="30" t="s">
-        <v>225</v>
-      </c>
       <c r="M177" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N177" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F178" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H178" s="30" t="s">
         <v>86</v>
@@ -9870,21 +9867,21 @@
         <v>102</v>
       </c>
       <c r="K178" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L178" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F179" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G179" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H179" s="30" t="s">
         <v>86</v>
@@ -9892,13 +9889,13 @@
     </row>
     <row r="180" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F180" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H180" s="30" t="s">
         <v>83</v>
@@ -9906,13 +9903,13 @@
     </row>
     <row r="181" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F181" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H181" s="30" t="s">
         <v>87</v>
@@ -9920,7 +9917,7 @@
     </row>
     <row r="182" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F182" s="30" t="s">
         <v>207</v>
@@ -9934,13 +9931,13 @@
     </row>
     <row r="183" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F183" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H183" s="30" t="s">
         <v>86</v>
@@ -9958,18 +9955,18 @@
         <v>193</v>
       </c>
       <c r="M183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F184" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G184" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H184" s="30" t="s">
         <v>86</v>
@@ -9987,18 +9984,18 @@
         <v>193</v>
       </c>
       <c r="M184" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F185" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H185" s="30" t="s">
         <v>86</v>
@@ -10016,12 +10013,12 @@
         <v>193</v>
       </c>
       <c r="M185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F186" s="30" t="s">
         <v>207</v>
@@ -10041,7 +10038,7 @@
     </row>
     <row r="187" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F187" s="30" t="s">
         <v>207</v>
@@ -10061,13 +10058,13 @@
     </row>
     <row r="188" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F188" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H188" s="30" t="s">
         <v>85</v>
@@ -10079,21 +10076,21 @@
         <v>94</v>
       </c>
       <c r="K188" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L188" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F189" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G189" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H189" s="30" t="s">
         <v>85</v>
@@ -10105,21 +10102,21 @@
         <v>94</v>
       </c>
       <c r="K189" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L189" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F190" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H190" s="30" t="s">
         <v>84</v>
@@ -10131,18 +10128,18 @@
         <v>94</v>
       </c>
       <c r="K190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F191" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G191" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H191" s="30" t="s">
         <v>85</v>
@@ -10154,21 +10151,21 @@
         <v>94</v>
       </c>
       <c r="K191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L191" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
+        <v>540</v>
+      </c>
+      <c r="F192" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" t="s">
         <v>541</v>
-      </c>
-      <c r="F192" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G192" t="s">
-        <v>542</v>
       </c>
       <c r="H192" s="30" t="s">
         <v>85</v>
@@ -10180,21 +10177,21 @@
         <v>94</v>
       </c>
       <c r="K192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L192" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F193" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H193" s="30" t="s">
         <v>85</v>
@@ -10206,21 +10203,21 @@
         <v>94</v>
       </c>
       <c r="K193" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F194" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H194" s="30" t="s">
         <v>85</v>
@@ -10232,21 +10229,21 @@
         <v>94</v>
       </c>
       <c r="K194" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D195" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F195" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G195" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H195" s="30" t="s">
         <v>85</v>
@@ -10258,21 +10255,21 @@
         <v>94</v>
       </c>
       <c r="K195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L195" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F196" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G196" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H196" s="30" t="s">
         <v>85</v>
@@ -10284,21 +10281,21 @@
         <v>94</v>
       </c>
       <c r="K196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L196" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F197" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G197" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H197" s="30" t="s">
         <v>85</v>
@@ -10310,21 +10307,21 @@
         <v>94</v>
       </c>
       <c r="K197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L197" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F198" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G198" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H198" s="30" t="s">
         <v>85</v>
@@ -10336,21 +10333,21 @@
         <v>94</v>
       </c>
       <c r="K198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L198" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F199" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G199" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H199" s="30" t="s">
         <v>85</v>
@@ -10362,21 +10359,21 @@
         <v>94</v>
       </c>
       <c r="K199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L199" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
+        <v>550</v>
+      </c>
+      <c r="F200" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G200" t="s">
         <v>551</v>
-      </c>
-      <c r="F200" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G200" t="s">
-        <v>552</v>
       </c>
       <c r="H200" s="30" t="s">
         <v>85</v>
@@ -10388,21 +10385,21 @@
         <v>94</v>
       </c>
       <c r="K200" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L200" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
+        <v>552</v>
+      </c>
+      <c r="F201" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G201" t="s">
         <v>553</v>
-      </c>
-      <c r="F201" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G201" t="s">
-        <v>554</v>
       </c>
       <c r="H201" s="30" t="s">
         <v>86</v>
@@ -10414,24 +10411,24 @@
         <v>94</v>
       </c>
       <c r="K201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L201" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F202" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H202" s="30" t="s">
         <v>85</v>
@@ -10443,21 +10440,21 @@
         <v>94</v>
       </c>
       <c r="K202" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F203" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G203" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H203" s="30" t="s">
         <v>85</v>
@@ -10469,21 +10466,21 @@
         <v>94</v>
       </c>
       <c r="K203" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L203" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="204" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
+        <v>558</v>
+      </c>
+      <c r="F204" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" t="s">
         <v>559</v>
-      </c>
-      <c r="F204" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G204" t="s">
-        <v>560</v>
       </c>
       <c r="H204" s="30" t="s">
         <v>85</v>
@@ -10495,21 +10492,21 @@
         <v>94</v>
       </c>
       <c r="K204" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L204" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
+        <v>560</v>
+      </c>
+      <c r="F205" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G205" t="s">
         <v>561</v>
-      </c>
-      <c r="F205" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G205" t="s">
-        <v>562</v>
       </c>
       <c r="H205" s="30" t="s">
         <v>85</v>
@@ -10521,21 +10518,21 @@
         <v>94</v>
       </c>
       <c r="K205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L205" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F206" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H206" s="30" t="s">
         <v>85</v>
@@ -10547,21 +10544,21 @@
         <v>94</v>
       </c>
       <c r="K206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
+        <v>563</v>
+      </c>
+      <c r="F207" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G207" t="s">
         <v>564</v>
-      </c>
-      <c r="F207" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G207" t="s">
-        <v>565</v>
       </c>
       <c r="H207" s="30" t="s">
         <v>85</v>
@@ -10573,21 +10570,21 @@
         <v>94</v>
       </c>
       <c r="K207" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L207" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="208" spans="4:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
+        <v>565</v>
+      </c>
+      <c r="F208" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G208" t="s">
         <v>566</v>
-      </c>
-      <c r="F208" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G208" t="s">
-        <v>567</v>
       </c>
       <c r="H208" s="30" t="s">
         <v>85</v>
@@ -10599,21 +10596,21 @@
         <v>94</v>
       </c>
       <c r="K208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L208" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="209" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F209" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H209" s="30" t="s">
         <v>85</v>
@@ -10625,21 +10622,21 @@
         <v>94</v>
       </c>
       <c r="K209" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
+        <v>568</v>
+      </c>
+      <c r="F210" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G210" t="s">
         <v>569</v>
-      </c>
-      <c r="F210" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G210" t="s">
-        <v>570</v>
       </c>
       <c r="H210" s="30" t="s">
         <v>85</v>
@@ -10651,21 +10648,21 @@
         <v>94</v>
       </c>
       <c r="K210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L210" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
+        <v>570</v>
+      </c>
+      <c r="F211" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G211" t="s">
         <v>571</v>
-      </c>
-      <c r="F211" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G211" t="s">
-        <v>572</v>
       </c>
       <c r="H211" s="30" t="s">
         <v>84</v>
@@ -10677,18 +10674,18 @@
         <v>94</v>
       </c>
       <c r="K211" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F212" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G212" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H212" s="30" t="s">
         <v>85</v>
@@ -10703,12 +10700,12 @@
         <v>199</v>
       </c>
       <c r="L212" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F213" s="30" t="s">
         <v>209</v>
@@ -10731,7 +10728,7 @@
     </row>
     <row r="214" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F214" s="30" t="s">
         <v>209</v>
@@ -10754,10 +10751,10 @@
     </row>
     <row r="215" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G215" t="s">
         <v>199</v>
@@ -10777,13 +10774,13 @@
     </row>
     <row r="216" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F216" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G216" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H216" s="30" t="s">
         <v>85</v>
@@ -10798,18 +10795,18 @@
         <v>199</v>
       </c>
       <c r="L216" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F217" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G217" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H217" s="30" t="s">
         <v>85</v>
@@ -10824,15 +10821,15 @@
         <v>199</v>
       </c>
       <c r="L217" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G218" t="s">
         <v>199</v>
@@ -10852,13 +10849,13 @@
     </row>
     <row r="219" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F219" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H219" s="30" t="s">
         <v>85</v>
@@ -10873,18 +10870,18 @@
         <v>199</v>
       </c>
       <c r="L219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="220" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F220" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G220" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H220" s="30" t="s">
         <v>85</v>
@@ -10899,18 +10896,18 @@
         <v>199</v>
       </c>
       <c r="L220" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="221" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F221" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G221" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H221" s="30" t="s">
         <v>85</v>
@@ -10925,18 +10922,18 @@
         <v>199</v>
       </c>
       <c r="L221" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F222" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G222" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H222" s="30" t="s">
         <v>85</v>
@@ -10951,18 +10948,18 @@
         <v>199</v>
       </c>
       <c r="L222" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F223" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G223" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H223" s="30" t="s">
         <v>85</v>
@@ -10977,18 +10974,18 @@
         <v>199</v>
       </c>
       <c r="L223" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="224" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F224" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G224" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H224" s="30" t="s">
         <v>85</v>
@@ -11003,18 +11000,18 @@
         <v>199</v>
       </c>
       <c r="L224" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F225" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G225" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H225" s="30" t="s">
         <v>85</v>
@@ -11029,18 +11026,18 @@
         <v>199</v>
       </c>
       <c r="L225" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F226" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H226" s="30" t="s">
         <v>85</v>
@@ -11052,21 +11049,21 @@
         <v>94</v>
       </c>
       <c r="K226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F227" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G227" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H227" s="30" t="s">
         <v>85</v>
@@ -11078,21 +11075,21 @@
         <v>94</v>
       </c>
       <c r="K227" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L227" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F228" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G228" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H228" s="30" t="s">
         <v>84</v>
@@ -11104,18 +11101,18 @@
         <v>94</v>
       </c>
       <c r="K228" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F229" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G229" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H229" s="30" t="s">
         <v>85</v>
@@ -11127,21 +11124,21 @@
         <v>94</v>
       </c>
       <c r="K229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L229" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F230" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G230" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H230" s="30" t="s">
         <v>87</v>
@@ -11153,27 +11150,27 @@
         <v>94</v>
       </c>
       <c r="K230" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L230" t="s">
+        <v>601</v>
+      </c>
+      <c r="M230" t="s">
         <v>602</v>
       </c>
-      <c r="M230" t="s">
+      <c r="N230" t="s">
         <v>603</v>
-      </c>
-      <c r="N230" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="231" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F231" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G231" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H231" s="30" t="s">
         <v>84</v>
@@ -11185,18 +11182,18 @@
         <v>94</v>
       </c>
       <c r="K231" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F232" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H232" s="30" t="s">
         <v>85</v>
@@ -11208,21 +11205,21 @@
         <v>94</v>
       </c>
       <c r="K232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="233" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F233" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G233" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H233" s="30" t="s">
         <v>85</v>
@@ -11234,21 +11231,21 @@
         <v>94</v>
       </c>
       <c r="K233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L233" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="234" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F234" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G234" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H234" s="30" t="s">
         <v>85</v>
@@ -11260,21 +11257,21 @@
         <v>94</v>
       </c>
       <c r="K234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L234" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="235" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F235" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G235" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H235" s="30" t="s">
         <v>85</v>
@@ -11286,21 +11283,21 @@
         <v>94</v>
       </c>
       <c r="K235" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L235" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="236" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F236" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G236" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H236" s="30" t="s">
         <v>85</v>
@@ -11312,21 +11309,21 @@
         <v>94</v>
       </c>
       <c r="K236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L236" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F237" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H237" s="30" t="s">
         <v>84</v>
@@ -11338,18 +11335,18 @@
         <v>94</v>
       </c>
       <c r="K237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="238" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F238" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G238" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H238" s="30" t="s">
         <v>85</v>
@@ -11361,21 +11358,21 @@
         <v>94</v>
       </c>
       <c r="K238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L238" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F239" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G239" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H239" s="30" t="s">
         <v>85</v>
@@ -11387,21 +11384,21 @@
         <v>94</v>
       </c>
       <c r="K239" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L239" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F240" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G240" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H240" s="30" t="s">
         <v>84</v>
@@ -11413,18 +11410,18 @@
         <v>94</v>
       </c>
       <c r="K240" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="241" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
+        <v>615</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G241" t="s">
         <v>616</v>
-      </c>
-      <c r="F241" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G241" t="s">
-        <v>617</v>
       </c>
       <c r="H241" s="30" t="s">
         <v>85</v>
@@ -11436,21 +11433,21 @@
         <v>94</v>
       </c>
       <c r="K241" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L241" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="242" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F242" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G242" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H242" s="30" t="s">
         <v>85</v>
@@ -11462,21 +11459,21 @@
         <v>94</v>
       </c>
       <c r="K242" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L242" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="243" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F243" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H243" s="30" t="s">
         <v>85</v>
@@ -11488,21 +11485,21 @@
         <v>94</v>
       </c>
       <c r="K243" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F244" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H244" s="30" t="s">
         <v>84</v>
@@ -11514,18 +11511,18 @@
         <v>94</v>
       </c>
       <c r="K244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F245" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G245" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H245" s="30" t="s">
         <v>84</v>
@@ -11537,18 +11534,18 @@
         <v>94</v>
       </c>
       <c r="K245" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="246" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F246" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G246" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H246" s="30" t="s">
         <v>84</v>
@@ -11560,18 +11557,18 @@
         <v>94</v>
       </c>
       <c r="K246" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="247" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G247" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H247" s="30" t="s">
         <v>84</v>
@@ -11583,18 +11580,18 @@
         <v>94</v>
       </c>
       <c r="K247" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F248" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G248" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H248" s="30" t="s">
         <v>85</v>
@@ -11606,21 +11603,21 @@
         <v>94</v>
       </c>
       <c r="K248" t="s">
+        <v>625</v>
+      </c>
+      <c r="L248" t="s">
         <v>626</v>
-      </c>
-      <c r="L248" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="249" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F249" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G249" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H249" s="30" t="s">
         <v>85</v>
@@ -11632,21 +11629,21 @@
         <v>94</v>
       </c>
       <c r="K249" t="s">
+        <v>628</v>
+      </c>
+      <c r="L249" t="s">
         <v>629</v>
-      </c>
-      <c r="L249" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="250" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F250" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G250" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H250" s="30" t="s">
         <v>84</v>
@@ -11658,18 +11655,18 @@
         <v>94</v>
       </c>
       <c r="K250" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="251" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F251" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G251" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H251" s="30" t="s">
         <v>85</v>
@@ -11681,21 +11678,21 @@
         <v>94</v>
       </c>
       <c r="K251" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L251" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="252" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F252" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G252" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H252" s="30" t="s">
         <v>84</v>
@@ -11707,18 +11704,18 @@
         <v>94</v>
       </c>
       <c r="K252" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F253" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G253" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H253" s="30" t="s">
         <v>85</v>
@@ -11730,21 +11727,21 @@
         <v>94</v>
       </c>
       <c r="K253" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L253" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="254" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F254" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G254" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H254" s="30" t="s">
         <v>84</v>
@@ -11756,18 +11753,18 @@
         <v>94</v>
       </c>
       <c r="K254" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="255" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
+        <v>636</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G255" t="s">
         <v>637</v>
-      </c>
-      <c r="F255" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G255" t="s">
-        <v>638</v>
       </c>
       <c r="H255" s="30" t="s">
         <v>84</v>
@@ -11779,18 +11776,18 @@
         <v>94</v>
       </c>
       <c r="K255" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="256" spans="4:12" ht="15" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F256" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G256" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H256" s="30" t="s">
         <v>84</v>
@@ -11802,18 +11799,18 @@
         <v>94</v>
       </c>
       <c r="K256" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F257" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H257" s="30" t="s">
         <v>84</v>
@@ -11825,18 +11822,18 @@
         <v>94</v>
       </c>
       <c r="K257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F258" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H258" s="30" t="s">
         <v>85</v>
@@ -11848,21 +11845,21 @@
         <v>94</v>
       </c>
       <c r="K258" t="s">
+        <v>248</v>
+      </c>
+      <c r="L258" t="s">
         <v>249</v>
-      </c>
-      <c r="L258" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="259" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F259" s="30" t="s">
         <v>209</v>
       </c>
       <c r="G259" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H259" s="30" t="s">
         <v>85</v>
@@ -11874,21 +11871,21 @@
         <v>94</v>
       </c>
       <c r="K259" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L259" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="260" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F260" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H260" s="30" t="s">
         <v>84</v>
@@ -11900,18 +11897,18 @@
         <v>94</v>
       </c>
       <c r="K260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G261" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H261" s="30" t="s">
         <v>85</v>
@@ -11923,15 +11920,15 @@
         <v>94</v>
       </c>
       <c r="K261" t="s">
+        <v>248</v>
+      </c>
+      <c r="L261" t="s">
         <v>249</v>
-      </c>
-      <c r="L261" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="262" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F262" s="30" t="s">
         <v>209</v>
@@ -11951,13 +11948,13 @@
     </row>
     <row r="263" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F263" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G263" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H263" s="30" t="s">
         <v>84</v>
@@ -11969,18 +11966,18 @@
         <v>102</v>
       </c>
       <c r="K263" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="264" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F264" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G264" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H264" s="30" t="s">
         <v>86</v>
@@ -11992,24 +11989,24 @@
         <v>102</v>
       </c>
       <c r="K264" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L264" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M264" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="265" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F265" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G265" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H265" s="30" t="s">
         <v>86</v>
@@ -12021,24 +12018,24 @@
         <v>102</v>
       </c>
       <c r="K265" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L265" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M265" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="266" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F266" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G266" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H266" s="30" t="s">
         <v>86</v>
@@ -12050,24 +12047,24 @@
         <v>102</v>
       </c>
       <c r="K266" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L266" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M266" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="267" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F267" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G267" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H267" s="30" t="s">
         <v>85</v>
@@ -12076,18 +12073,18 @@
         <v>93</v>
       </c>
       <c r="J267" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K267" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L267" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="268" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F268" s="30" t="s">
         <v>209</v>
@@ -12110,13 +12107,13 @@
     </row>
     <row r="269" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F269" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G269" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H269" s="30" t="s">
         <v>87</v>
@@ -12131,18 +12128,18 @@
         <v>144</v>
       </c>
       <c r="L269" t="s">
+        <v>658</v>
+      </c>
+      <c r="M269" t="s">
+        <v>657</v>
+      </c>
+      <c r="N269" t="s">
         <v>659</v>
-      </c>
-      <c r="M269" t="s">
-        <v>658</v>
-      </c>
-      <c r="N269" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="270" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F270" s="30" t="s">
         <v>207</v>
@@ -12165,13 +12162,13 @@
     </row>
     <row r="271" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F271" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G271" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H271" s="30" t="s">
         <v>86</v>
@@ -12186,21 +12183,21 @@
         <v>144</v>
       </c>
       <c r="L271" t="s">
+        <v>663</v>
+      </c>
+      <c r="M271" t="s">
         <v>664</v>
-      </c>
-      <c r="M271" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="272" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F272" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G272" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H272" s="30" t="s">
         <v>86</v>
@@ -12215,15 +12212,15 @@
         <v>144</v>
       </c>
       <c r="L272" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M272" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F273" s="30" t="s">
         <v>208</v>
@@ -12246,13 +12243,13 @@
     </row>
     <row r="274" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F274" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H274" s="30" t="s">
         <v>86</v>
@@ -12267,21 +12264,21 @@
         <v>144</v>
       </c>
       <c r="L274" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F275" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G275" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H275" s="30" t="s">
         <v>87</v>
@@ -12296,24 +12293,24 @@
         <v>144</v>
       </c>
       <c r="L275" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M275" t="s">
+        <v>670</v>
+      </c>
+      <c r="N275" t="s">
         <v>671</v>
-      </c>
-      <c r="N275" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="276" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F276" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G276" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H276" s="30" t="s">
         <v>86</v>
@@ -12328,21 +12325,21 @@
         <v>144</v>
       </c>
       <c r="L276" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M276" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="277" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F277" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G277" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H277" s="30" t="s">
         <v>86</v>
@@ -12357,21 +12354,21 @@
         <v>144</v>
       </c>
       <c r="L277" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M277" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="278" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F278" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G278" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H278" s="30" t="s">
         <v>85</v>
@@ -12383,21 +12380,21 @@
         <v>102</v>
       </c>
       <c r="K278" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L278" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="279" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F279" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G279" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H279" s="30" t="s">
         <v>87</v>
@@ -12409,27 +12406,27 @@
         <v>102</v>
       </c>
       <c r="K279" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L279" t="s">
+        <v>677</v>
+      </c>
+      <c r="M279" t="s">
+        <v>676</v>
+      </c>
+      <c r="N279" t="s">
         <v>678</v>
-      </c>
-      <c r="M279" t="s">
-        <v>677</v>
-      </c>
-      <c r="N279" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="280" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F280" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G280" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H280" s="30" t="s">
         <v>86</v>
@@ -12441,24 +12438,24 @@
         <v>102</v>
       </c>
       <c r="K280" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L280" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M280" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="281" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F281" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G281" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H281" s="30" t="s">
         <v>85</v>
@@ -12470,21 +12467,21 @@
         <v>102</v>
       </c>
       <c r="K281" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L281" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="282" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F282" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H282" s="30" t="s">
         <v>84</v>
@@ -12496,18 +12493,18 @@
         <v>102</v>
       </c>
       <c r="K282" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="283" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F283" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G283" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H283" s="30" t="s">
         <v>84</v>
@@ -12519,18 +12516,18 @@
         <v>102</v>
       </c>
       <c r="K283" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="284" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
+        <v>684</v>
+      </c>
+      <c r="F284" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G284" s="30" t="s">
         <v>685</v>
-      </c>
-      <c r="F284" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G284" s="30" t="s">
-        <v>686</v>
       </c>
       <c r="H284" s="30" t="s">
         <v>87</v>
@@ -12542,27 +12539,27 @@
         <v>102</v>
       </c>
       <c r="K284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L284" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M284" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N284" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="285" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
+        <v>688</v>
+      </c>
+      <c r="F285" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G285" s="30" t="s">
         <v>689</v>
-      </c>
-      <c r="F285" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G285" s="30" t="s">
-        <v>690</v>
       </c>
       <c r="H285" s="30" t="s">
         <v>87</v>
@@ -12574,27 +12571,27 @@
         <v>102</v>
       </c>
       <c r="K285" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L285" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M285" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="M285" s="30" t="s">
-        <v>222</v>
-      </c>
       <c r="N285" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="286" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
+        <v>691</v>
+      </c>
+      <c r="F286" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G286" s="30" t="s">
         <v>692</v>
-      </c>
-      <c r="F286" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G286" s="30" t="s">
-        <v>693</v>
       </c>
       <c r="H286" s="30" t="s">
         <v>87</v>
@@ -12606,27 +12603,27 @@
         <v>102</v>
       </c>
       <c r="K286" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L286" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M286" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="N286" s="30" t="s">
         <v>694</v>
-      </c>
-      <c r="N286" s="30" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="287" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
+        <v>695</v>
+      </c>
+      <c r="F287" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G287" s="30" t="s">
         <v>696</v>
-      </c>
-      <c r="F287" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G287" s="30" t="s">
-        <v>697</v>
       </c>
       <c r="H287" s="30" t="s">
         <v>87</v>
@@ -12638,27 +12635,27 @@
         <v>102</v>
       </c>
       <c r="K287" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L287" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M287" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="N287" s="30" t="s">
         <v>698</v>
-      </c>
-      <c r="N287" s="30" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="288" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F288" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G288" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H288" s="30" t="s">
         <v>84</v>
@@ -12670,18 +12667,18 @@
         <v>102</v>
       </c>
       <c r="K288" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="289" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F289" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G289" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H289" s="30" t="s">
         <v>84</v>
@@ -12693,18 +12690,18 @@
         <v>102</v>
       </c>
       <c r="K289" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F290" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G290" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H290" s="30" t="s">
         <v>87</v>
@@ -12716,21 +12713,21 @@
         <v>102</v>
       </c>
       <c r="K290" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L290" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M290" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N290" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="291" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F291" s="30" t="s">
         <v>207</v>
@@ -12750,580 +12747,580 @@
     </row>
     <row r="292" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F292" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G292" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H292" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I292" t="s">
+        <v>703</v>
+      </c>
+      <c r="J292" t="s">
         <v>704</v>
       </c>
-      <c r="J292" t="s">
+      <c r="K292" t="s">
         <v>705</v>
       </c>
-      <c r="K292" t="s">
+      <c r="L292" t="s">
         <v>706</v>
       </c>
-      <c r="L292" t="s">
+      <c r="M292" t="s">
         <v>707</v>
       </c>
-      <c r="M292" t="s">
-        <v>708</v>
-      </c>
       <c r="N292" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="293" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F293" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G293" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H293" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I293" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F294" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G294" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H294" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I294" t="s">
+        <v>263</v>
+      </c>
+      <c r="J294" t="s">
         <v>264</v>
       </c>
-      <c r="J294" t="s">
-        <v>265</v>
-      </c>
       <c r="K294" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L294" t="s">
+        <v>712</v>
+      </c>
+      <c r="M294" t="s">
         <v>713</v>
-      </c>
-      <c r="M294" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="295" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F295" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G295" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H295" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I295" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J295"/>
     </row>
     <row r="296" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F296" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G296" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H296" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I296" t="s">
+        <v>263</v>
+      </c>
+      <c r="J296" t="s">
         <v>264</v>
       </c>
-      <c r="J296" t="s">
-        <v>265</v>
-      </c>
       <c r="K296" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L296" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M296" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="297" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F297" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G297" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H297" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I297" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J297" t="s">
+        <v>722</v>
+      </c>
+      <c r="K297" t="s">
         <v>723</v>
       </c>
-      <c r="K297" t="s">
-        <v>724</v>
-      </c>
       <c r="L297" t="s">
+        <v>720</v>
+      </c>
+      <c r="M297" t="s">
         <v>721</v>
-      </c>
-      <c r="M297" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="298" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F298" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G298" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H298" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I298" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J298" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K298" t="s">
+        <v>725</v>
+      </c>
+      <c r="L298" t="s">
         <v>726</v>
       </c>
-      <c r="L298" t="s">
+      <c r="M298" t="s">
+        <v>724</v>
+      </c>
+      <c r="N298" t="s">
         <v>727</v>
-      </c>
-      <c r="M298" t="s">
-        <v>725</v>
-      </c>
-      <c r="N298" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="299" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F299" s="30" t="s">
         <v>208</v>
       </c>
       <c r="G299" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H299" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I299" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J299" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F300" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G300" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H300" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I300" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J300" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K300" t="s">
+        <v>731</v>
+      </c>
+      <c r="L300" t="s">
         <v>732</v>
       </c>
-      <c r="L300" t="s">
+      <c r="M300" t="s">
+        <v>730</v>
+      </c>
+      <c r="N300" t="s">
         <v>733</v>
-      </c>
-      <c r="M300" t="s">
-        <v>731</v>
-      </c>
-      <c r="N300" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="301" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F301" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G301" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H301" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I301" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J301" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F302" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G302" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H302" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I302" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J302" t="s">
+        <v>737</v>
+      </c>
+      <c r="K302" t="s">
+        <v>739</v>
+      </c>
+      <c r="L302" t="s">
         <v>738</v>
       </c>
-      <c r="K302" t="s">
-        <v>740</v>
-      </c>
-      <c r="L302" t="s">
-        <v>739</v>
-      </c>
       <c r="M302" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="303" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F303" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G303" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H303" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I303" t="s">
+        <v>242</v>
+      </c>
+      <c r="J303" t="s">
         <v>243</v>
       </c>
-      <c r="J303" t="s">
-        <v>244</v>
-      </c>
       <c r="K303" t="s">
+        <v>741</v>
+      </c>
+      <c r="L303" t="s">
         <v>742</v>
       </c>
-      <c r="L303" t="s">
-        <v>743</v>
-      </c>
       <c r="M303" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F304" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G304" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H304" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I304" t="s">
+        <v>242</v>
+      </c>
+      <c r="J304" t="s">
         <v>243</v>
       </c>
-      <c r="J304" t="s">
-        <v>244</v>
-      </c>
       <c r="K304" t="s">
+        <v>741</v>
+      </c>
+      <c r="L304" t="s">
         <v>742</v>
       </c>
-      <c r="L304" t="s">
+      <c r="M304" t="s">
         <v>743</v>
-      </c>
-      <c r="M304" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="305" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F305" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G305" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H305" s="30" t="s">
         <v>85</v>
       </c>
       <c r="I305" t="s">
+        <v>242</v>
+      </c>
+      <c r="J305" t="s">
         <v>243</v>
       </c>
-      <c r="J305" t="s">
-        <v>244</v>
-      </c>
       <c r="K305" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L305" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="306" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
+        <v>745</v>
+      </c>
+      <c r="F306" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G306" t="s">
         <v>746</v>
-      </c>
-      <c r="F306" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G306" t="s">
-        <v>747</v>
       </c>
       <c r="H306" s="30" t="s">
         <v>84</v>
       </c>
       <c r="I306" t="s">
+        <v>242</v>
+      </c>
+      <c r="J306" t="s">
         <v>243</v>
       </c>
-      <c r="J306" t="s">
-        <v>244</v>
-      </c>
       <c r="K306" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="307" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F307" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G307" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H307" s="30" t="s">
         <v>87</v>
       </c>
       <c r="I307" t="s">
+        <v>242</v>
+      </c>
+      <c r="J307" t="s">
         <v>243</v>
       </c>
-      <c r="J307" t="s">
-        <v>244</v>
-      </c>
       <c r="K307" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L307" t="s">
+        <v>748</v>
+      </c>
+      <c r="M307" t="s">
         <v>749</v>
       </c>
-      <c r="M307" t="s">
+      <c r="N307" t="s">
         <v>750</v>
-      </c>
-      <c r="N307" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="308" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F308" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G308" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H308" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I308" t="s">
+        <v>242</v>
+      </c>
+      <c r="J308" t="s">
         <v>243</v>
-      </c>
-      <c r="J308" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="309" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F309" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G309" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H309" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I309" t="s">
+        <v>242</v>
+      </c>
+      <c r="J309" t="s">
         <v>243</v>
       </c>
-      <c r="J309" t="s">
-        <v>244</v>
-      </c>
       <c r="K309" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L309" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M309" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="310" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F310" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G310" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H310" s="30" t="s">
         <v>85</v>
       </c>
       <c r="I310" t="s">
+        <v>242</v>
+      </c>
+      <c r="J310" t="s">
         <v>243</v>
       </c>
-      <c r="J310" t="s">
-        <v>244</v>
-      </c>
       <c r="K310" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L310" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="311" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F311" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H311" s="30" t="s">
         <v>83</v>
       </c>
       <c r="I311" t="s">
+        <v>242</v>
+      </c>
+      <c r="J311" t="s">
         <v>243</v>
-      </c>
-      <c r="J311" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="312" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F312" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G312" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H312" s="30" t="s">
         <v>86</v>
       </c>
       <c r="I312" t="s">
+        <v>758</v>
+      </c>
+      <c r="J312" t="s">
         <v>759</v>
       </c>
-      <c r="J312" t="s">
+      <c r="K312" t="s">
         <v>760</v>
       </c>
-      <c r="K312" t="s">
+      <c r="L312" t="s">
         <v>761</v>
       </c>
-      <c r="L312" t="s">
-        <v>762</v>
-      </c>
       <c r="M312" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="313" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F313" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H313" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="4:14" ht="15" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F314" s="30" t="s">
         <v>207</v>
       </c>
       <c r="G314" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="788">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -2387,9 +2387,6 @@
     <t>D_ holmquistae</t>
   </si>
   <si>
-    <t>H_longirostris</t>
-  </si>
-  <si>
     <t>N_ kadiakensis</t>
   </si>
   <si>
@@ -2448,6 +2445,33 @@
   </si>
   <si>
     <t>FRP_Macro</t>
+  </si>
+  <si>
+    <t>H_ longirostris</t>
+  </si>
+  <si>
+    <t>Diptera pupae</t>
+  </si>
+  <si>
+    <t>Eggs UNID</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Egg Sacs</t>
+  </si>
+  <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t>Curculionidae adult</t>
+  </si>
+  <si>
+    <t>Fish Eggs</t>
+  </si>
+  <si>
+    <t>clam other</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2518,6 +2542,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2627,7 +2657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,6 +2727,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3881,11 +3914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB313"/>
+  <dimension ref="A1:AB319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M270" sqref="M270"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3916,34 +3949,34 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>778</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>779</v>
       </c>
       <c r="K1" s="31" t="s">
         <v>488</v>
@@ -8682,11 +8715,11 @@
       <c r="C81" s="31"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H81" s="31" t="s">
         <v>222</v>
@@ -9738,11 +9771,11 @@
       <c r="C103" s="31"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H103" s="31"/>
       <c r="I103" s="31" t="s">
@@ -9840,7 +9873,7 @@
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
@@ -10142,7 +10175,7 @@
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
@@ -10766,11 +10799,11 @@
       <c r="C124" s="31"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H124" s="31"/>
       <c r="I124" s="31" t="s">
@@ -10866,17 +10899,17 @@
       <c r="G126" s="38"/>
       <c r="H126" s="31"/>
       <c r="I126" s="31" t="s">
-        <v>295</v>
+        <v>780</v>
       </c>
       <c r="J126" s="31" t="s">
-        <v>295</v>
+        <v>780</v>
       </c>
       <c r="K126" s="31"/>
       <c r="L126" s="31" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="M126" s="31" t="s">
-        <v>739</v>
+        <v>199</v>
       </c>
       <c r="N126" s="31" t="s">
         <v>84</v>
@@ -10885,10 +10918,10 @@
         <v>93</v>
       </c>
       <c r="P126" s="31" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="Q126" s="31" t="s">
-        <v>739</v>
+        <v>199</v>
       </c>
       <c r="R126" s="31"/>
       <c r="S126" s="31"/>
@@ -10912,36 +10945,32 @@
       <c r="G127" s="38"/>
       <c r="H127" s="31"/>
       <c r="I127" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J127" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K127" s="31"/>
       <c r="L127" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M127" s="31" t="s">
-        <v>296</v>
+        <v>739</v>
       </c>
       <c r="N127" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O127" s="31" t="s">
         <v>93</v>
       </c>
       <c r="P127" s="31" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="Q127" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="R127" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="S127" s="31" t="s">
-        <v>296</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="R127" s="31"/>
+      <c r="S127" s="31"/>
       <c r="T127" s="31"/>
       <c r="U127" s="31"/>
       <c r="V127" s="31"/>
@@ -10962,32 +10991,36 @@
       <c r="G128" s="38"/>
       <c r="H128" s="31"/>
       <c r="I128" s="31" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="J128" s="31" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="K128" s="31"/>
       <c r="L128" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M128" s="31" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="N128" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O128" s="31" t="s">
         <v>93</v>
       </c>
       <c r="P128" s="31" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Q128" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="R128" s="31"/>
-      <c r="S128" s="31"/>
+        <v>136</v>
+      </c>
+      <c r="R128" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="S128" s="31" t="s">
+        <v>296</v>
+      </c>
       <c r="T128" s="31"/>
       <c r="U128" s="31"/>
       <c r="V128" s="31"/>
@@ -11008,36 +11041,32 @@
       <c r="G129" s="38"/>
       <c r="H129" s="31"/>
       <c r="I129" s="31" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="J129" s="31" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="K129" s="31"/>
       <c r="L129" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M129" s="31" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="N129" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O129" s="31" t="s">
         <v>93</v>
       </c>
       <c r="P129" s="31" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="Q129" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="R129" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="S129" s="31" t="s">
-        <v>297</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="R129" s="31"/>
+      <c r="S129" s="31"/>
       <c r="T129" s="31"/>
       <c r="U129" s="31"/>
       <c r="V129" s="31"/>
@@ -11058,17 +11087,17 @@
       <c r="G130" s="38"/>
       <c r="H130" s="31"/>
       <c r="I130" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J130" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K130" s="31"/>
       <c r="L130" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M130" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N130" s="31" t="s">
         <v>86</v>
@@ -11077,16 +11106,16 @@
         <v>93</v>
       </c>
       <c r="P130" s="31" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q130" s="31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="R130" s="31" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="S130" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="T130" s="31"/>
       <c r="U130" s="31"/>
@@ -11108,17 +11137,17 @@
       <c r="G131" s="38"/>
       <c r="H131" s="31"/>
       <c r="I131" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J131" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K131" s="31"/>
       <c r="L131" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M131" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N131" s="31" t="s">
         <v>86</v>
@@ -11127,16 +11156,16 @@
         <v>93</v>
       </c>
       <c r="P131" s="31" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q131" s="31" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="R131" s="31" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="S131" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T131" s="31"/>
       <c r="U131" s="31"/>
@@ -11158,30 +11187,36 @@
       <c r="G132" s="38"/>
       <c r="H132" s="31"/>
       <c r="I132" s="31" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="J132" s="31" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="K132" s="31"/>
       <c r="L132" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M132" s="31" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="N132" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="P132" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q132" s="31"/>
-      <c r="R132" s="31"/>
-      <c r="S132" s="31"/>
+        <v>135</v>
+      </c>
+      <c r="Q132" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="R132" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="S132" s="31" t="s">
+        <v>300</v>
+      </c>
       <c r="T132" s="31"/>
       <c r="U132" s="31"/>
       <c r="V132" s="31"/>
@@ -11202,17 +11237,17 @@
       <c r="G133" s="38"/>
       <c r="H133" s="31"/>
       <c r="I133" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J133" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K133" s="31"/>
       <c r="L133" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M133" s="31" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>83</v>
@@ -11221,7 +11256,7 @@
         <v>241</v>
       </c>
       <c r="P133" s="31" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="Q133" s="31"/>
       <c r="R133" s="31"/>
@@ -11246,36 +11281,30 @@
       <c r="G134" s="38"/>
       <c r="H134" s="31"/>
       <c r="I134" s="31" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="J134" s="31" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="K134" s="31"/>
       <c r="L134" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M134" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N134" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O134" s="31" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="P134" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q134" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="R134" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="S134" s="31" t="s">
-        <v>303</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="Q134" s="31"/>
+      <c r="R134" s="31"/>
+      <c r="S134" s="31"/>
       <c r="T134" s="31"/>
       <c r="U134" s="31"/>
       <c r="V134" s="31"/>
@@ -11296,17 +11325,17 @@
       <c r="G135" s="38"/>
       <c r="H135" s="31"/>
       <c r="I135" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J135" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K135" s="31"/>
       <c r="L135" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M135" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N135" s="31" t="s">
         <v>86</v>
@@ -11321,10 +11350,10 @@
         <v>136</v>
       </c>
       <c r="R135" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S135" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T135" s="31"/>
       <c r="U135" s="31"/>
@@ -11345,35 +11374,37 @@
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="31"/>
-      <c r="I136" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="J136" s="30" t="s">
-        <v>310</v>
+      <c r="I136" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="J136" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="K136" s="31"/>
       <c r="L136" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M136" s="31" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N136" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O136" s="31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P136" s="31" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="Q136" s="31" t="s">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="R136" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="S136" s="31"/>
+        <v>306</v>
+      </c>
+      <c r="S136" s="31" t="s">
+        <v>305</v>
+      </c>
       <c r="T136" s="31"/>
       <c r="U136" s="31"/>
       <c r="V136" s="31"/>
@@ -11389,45 +11420,39 @@
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
       <c r="D137" s="38"/>
-      <c r="E137" s="38" t="s">
-        <v>765</v>
-      </c>
+      <c r="E137" s="38"/>
       <c r="F137" s="38"/>
-      <c r="G137" s="38" t="s">
-        <v>765</v>
-      </c>
+      <c r="G137" s="38"/>
       <c r="H137" s="31"/>
-      <c r="I137" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="J137" s="31" t="s">
-        <v>311</v>
+      <c r="I137" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J137" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="K137" s="31"/>
       <c r="L137" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M137" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N137" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P137" s="31" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="Q137" s="31" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="R137" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="S137" s="31" t="s">
-        <v>311</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="S137" s="31"/>
       <c r="T137" s="31"/>
       <c r="U137" s="31"/>
       <c r="V137" s="31"/>
@@ -11443,40 +11468,44 @@
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
       <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
+      <c r="E138" s="38" t="s">
+        <v>764</v>
+      </c>
       <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
+      <c r="G138" s="38" t="s">
+        <v>764</v>
+      </c>
       <c r="H138" s="31"/>
       <c r="I138" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J138" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K138" s="31"/>
       <c r="L138" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M138" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="P138" s="31" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="Q138" s="31" t="s">
-        <v>730</v>
+        <v>223</v>
       </c>
       <c r="R138" s="31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S138" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T138" s="31"/>
       <c r="U138" s="31"/>
@@ -11498,30 +11527,36 @@
       <c r="G139" s="38"/>
       <c r="H139" s="31"/>
       <c r="I139" s="31" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="J139" s="31" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="K139" s="31"/>
       <c r="L139" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M139" s="31" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N139" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O139" s="31" t="s">
         <v>241</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q139" s="31"/>
-      <c r="R139" s="31"/>
-      <c r="S139" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="Q139" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="R139" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="S139" s="31" t="s">
+        <v>313</v>
+      </c>
       <c r="T139" s="31"/>
       <c r="U139" s="31"/>
       <c r="V139" s="31"/>
@@ -11542,36 +11577,30 @@
       <c r="G140" s="38"/>
       <c r="H140" s="31"/>
       <c r="I140" s="31" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="J140" s="31" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="K140" s="31"/>
       <c r="L140" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M140" s="31" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N140" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q140" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="R140" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="S140" s="31" t="s">
-        <v>315</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="Q140" s="31"/>
+      <c r="R140" s="31"/>
+      <c r="S140" s="31"/>
       <c r="T140" s="31"/>
       <c r="U140" s="31"/>
       <c r="V140" s="31"/>
@@ -11592,30 +11621,36 @@
       <c r="G141" s="38"/>
       <c r="H141" s="31"/>
       <c r="I141" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J141" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K141" s="31"/>
       <c r="L141" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M141" s="31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N141" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q141" s="31"/>
-      <c r="R141" s="31"/>
-      <c r="S141" s="31"/>
+        <v>135</v>
+      </c>
+      <c r="Q141" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="R141" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="S141" s="31" t="s">
+        <v>315</v>
+      </c>
       <c r="T141" s="31"/>
       <c r="U141" s="31"/>
       <c r="V141" s="31"/>
@@ -11636,36 +11671,30 @@
       <c r="G142" s="38"/>
       <c r="H142" s="31"/>
       <c r="I142" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J142" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K142" s="31"/>
       <c r="L142" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M142" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N142" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="P142" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q142" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="R142" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="S142" s="31" t="s">
-        <v>319</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="Q142" s="31"/>
+      <c r="R142" s="31"/>
+      <c r="S142" s="31"/>
       <c r="T142" s="31"/>
       <c r="U142" s="31"/>
       <c r="V142" s="31"/>
@@ -11686,28 +11715,36 @@
       <c r="G143" s="38"/>
       <c r="H143" s="31"/>
       <c r="I143" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J143" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K143" s="31"/>
       <c r="L143" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M143" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N143" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="P143" s="31"/>
-      <c r="Q143" s="31"/>
-      <c r="R143" s="31"/>
-      <c r="S143" s="31"/>
+        <v>93</v>
+      </c>
+      <c r="P143" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q143" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="R143" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="S143" s="31" t="s">
+        <v>319</v>
+      </c>
       <c r="T143" s="31"/>
       <c r="U143" s="31"/>
       <c r="V143" s="31"/>
@@ -11728,36 +11765,28 @@
       <c r="G144" s="38"/>
       <c r="H144" s="31"/>
       <c r="I144" s="31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J144" s="31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K144" s="31"/>
       <c r="L144" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M144" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N144" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P144" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q144" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R144" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="S144" s="31" t="s">
-        <v>322</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="P144" s="31"/>
+      <c r="Q144" s="31"/>
+      <c r="R144" s="31"/>
+      <c r="S144" s="31"/>
       <c r="T144" s="31"/>
       <c r="U144" s="31"/>
       <c r="V144" s="31"/>
@@ -11778,35 +11807,35 @@
       <c r="G145" s="38"/>
       <c r="H145" s="31"/>
       <c r="I145" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J145" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K145" s="31"/>
       <c r="L145" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M145" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="Q145" s="31" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="R145" s="31" t="s">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="S145" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T145" s="31"/>
       <c r="U145" s="31"/>
@@ -11828,41 +11857,37 @@
       <c r="G146" s="38"/>
       <c r="H146" s="31"/>
       <c r="I146" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J146" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="K146" s="31" t="s">
-        <v>399</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K146" s="31"/>
       <c r="L146" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M146" s="31" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N146" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O146" s="31" t="s">
         <v>93</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q146" s="31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="R146" s="31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S146" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="T146" s="31" t="s">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="T146" s="31"/>
       <c r="U146" s="31"/>
       <c r="V146" s="31"/>
       <c r="W146" s="31"/>
@@ -11882,27 +11907,41 @@
       <c r="G147" s="38"/>
       <c r="H147" s="31"/>
       <c r="I147" s="31" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="J147" s="31" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="K147" s="31" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L147" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M147" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="N147" s="31"/>
-      <c r="O147" s="31"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="31"/>
-      <c r="R147" s="31"/>
-      <c r="S147" s="31"/>
-      <c r="T147" s="31"/>
+        <v>331</v>
+      </c>
+      <c r="N147" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="O147" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P147" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q147" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="R147" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="S147" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="T147" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="U147" s="31"/>
       <c r="V147" s="31"/>
       <c r="W147" s="31"/>
@@ -11921,23 +11960,23 @@
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
       <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="J148" s="31" t="s">
+        <v>365</v>
+      </c>
       <c r="K148" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L148" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M148" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="N148" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O148" s="31" t="s">
-        <v>241</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N148" s="31"/>
+      <c r="O148" s="31"/>
       <c r="P148" s="31"/>
       <c r="Q148" s="31"/>
       <c r="R148" s="31"/>
@@ -11964,19 +12003,19 @@
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
       <c r="K149" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L149" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M149" s="31" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="N149" s="31" t="s">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="P149" s="31"/>
       <c r="Q149" s="31"/>
@@ -12004,35 +12043,25 @@
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
       <c r="K150" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L150" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M150" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N150" s="31" t="s">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="O150" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="P150" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q150" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="R150" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="S150" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="T150" s="31" t="s">
-        <v>455</v>
-      </c>
+      <c r="P150" s="31"/>
+      <c r="Q150" s="31"/>
+      <c r="R150" s="31"/>
+      <c r="S150" s="31"/>
+      <c r="T150" s="31"/>
       <c r="U150" s="31"/>
       <c r="V150" s="31"/>
       <c r="W150" s="31"/>
@@ -12054,13 +12083,13 @@
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
       <c r="K151" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L151" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M151" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>87</v>
@@ -12078,10 +12107,10 @@
         <v>4</v>
       </c>
       <c r="S151" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T151" s="31" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="U151" s="31"/>
       <c r="V151" s="31"/>
@@ -12104,13 +12133,13 @@
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
       <c r="K152" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L152" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M152" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>87</v>
@@ -12122,16 +12151,16 @@
         <v>101</v>
       </c>
       <c r="Q152" s="31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R152" s="31" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="S152" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T152" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U152" s="31"/>
       <c r="V152" s="31"/>
@@ -12154,13 +12183,13 @@
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
       <c r="K153" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L153" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M153" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>87</v>
@@ -12178,10 +12207,10 @@
         <v>193</v>
       </c>
       <c r="S153" s="31" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="T153" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U153" s="31"/>
       <c r="V153" s="31"/>
@@ -12204,13 +12233,13 @@
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
       <c r="K154" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L154" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M154" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>87</v>
@@ -12219,19 +12248,19 @@
         <v>93</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q154" s="31" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="R154" s="31" t="s">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="S154" s="31" t="s">
-        <v>458</v>
+        <v>299</v>
       </c>
       <c r="T154" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U154" s="31"/>
       <c r="V154" s="31"/>
@@ -12254,13 +12283,13 @@
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
       <c r="K155" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L155" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M155" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>87</v>
@@ -12269,19 +12298,19 @@
         <v>93</v>
       </c>
       <c r="P155" s="31" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q155" s="31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="R155" s="31" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="S155" s="31" t="s">
-        <v>299</v>
+        <v>458</v>
       </c>
       <c r="T155" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U155" s="31"/>
       <c r="V155" s="31"/>
@@ -12304,13 +12333,13 @@
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
       <c r="K156" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L156" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M156" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>87</v>
@@ -12328,10 +12357,10 @@
         <v>193</v>
       </c>
       <c r="S156" s="31" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="T156" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U156" s="31"/>
       <c r="V156" s="31"/>
@@ -12354,13 +12383,13 @@
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
       <c r="K157" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L157" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M157" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>87</v>
@@ -12372,16 +12401,16 @@
         <v>101</v>
       </c>
       <c r="Q157" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R157" s="31" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="S157" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T157" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U157" s="31"/>
       <c r="V157" s="31"/>
@@ -12404,13 +12433,13 @@
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
       <c r="K158" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L158" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M158" s="31" t="s">
-        <v>740</v>
+        <v>441</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>87</v>
@@ -12422,16 +12451,16 @@
         <v>101</v>
       </c>
       <c r="Q158" s="31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R158" s="31" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="S158" s="31" t="s">
-        <v>741</v>
+        <v>460</v>
       </c>
       <c r="T158" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U158" s="31"/>
       <c r="V158" s="31"/>
@@ -12454,13 +12483,13 @@
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
       <c r="K159" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L159" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M159" s="31" t="s">
-        <v>442</v>
+        <v>740</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>87</v>
@@ -12478,10 +12507,10 @@
         <v>193</v>
       </c>
       <c r="S159" s="31" t="s">
-        <v>299</v>
+        <v>741</v>
       </c>
       <c r="T159" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U159" s="31"/>
       <c r="V159" s="31"/>
@@ -12504,13 +12533,13 @@
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
       <c r="K160" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L160" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M160" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N160" s="31" t="s">
         <v>87</v>
@@ -12519,19 +12548,19 @@
         <v>93</v>
       </c>
       <c r="P160" s="31" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q160" s="31" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="R160" s="31" t="s">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="S160" s="31" t="s">
-        <v>461</v>
+        <v>299</v>
       </c>
       <c r="T160" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U160" s="31"/>
       <c r="V160" s="31"/>
@@ -12554,13 +12583,13 @@
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
       <c r="K161" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L161" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M161" s="31" t="s">
-        <v>740</v>
+        <v>443</v>
       </c>
       <c r="N161" s="31" t="s">
         <v>87</v>
@@ -12569,19 +12598,19 @@
         <v>93</v>
       </c>
       <c r="P161" s="31" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="Q161" s="31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="R161" s="31" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="S161" s="31" t="s">
-        <v>741</v>
+        <v>461</v>
       </c>
       <c r="T161" s="31" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="U161" s="31"/>
       <c r="V161" s="31"/>
@@ -12604,13 +12633,13 @@
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
       <c r="K162" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L162" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M162" s="31" t="s">
-        <v>444</v>
+        <v>740</v>
       </c>
       <c r="N162" s="31" t="s">
         <v>87</v>
@@ -12622,16 +12651,16 @@
         <v>101</v>
       </c>
       <c r="Q162" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R162" s="31" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="S162" s="31" t="s">
-        <v>462</v>
+        <v>741</v>
       </c>
       <c r="T162" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="U162" s="31"/>
       <c r="V162" s="31"/>
@@ -12654,13 +12683,13 @@
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
       <c r="K163" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L163" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M163" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N163" s="31" t="s">
         <v>87</v>
@@ -12672,16 +12701,16 @@
         <v>101</v>
       </c>
       <c r="Q163" s="31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R163" s="31" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="S163" s="31" t="s">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="T163" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U163" s="31"/>
       <c r="V163" s="31"/>
@@ -12704,13 +12733,13 @@
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
       <c r="K164" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L164" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M164" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N164" s="31" t="s">
         <v>87</v>
@@ -12731,7 +12760,7 @@
         <v>258</v>
       </c>
       <c r="T164" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U164" s="31"/>
       <c r="V164" s="31"/>
@@ -12754,13 +12783,13 @@
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
       <c r="K165" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L165" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M165" s="31" t="s">
-        <v>740</v>
+        <v>446</v>
       </c>
       <c r="N165" s="31" t="s">
         <v>87</v>
@@ -12778,10 +12807,10 @@
         <v>193</v>
       </c>
       <c r="S165" s="31" t="s">
-        <v>741</v>
+        <v>258</v>
       </c>
       <c r="T165" s="31" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="U165" s="31"/>
       <c r="V165" s="31"/>
@@ -12804,13 +12833,13 @@
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
       <c r="K166" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L166" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M166" s="31" t="s">
-        <v>447</v>
+        <v>740</v>
       </c>
       <c r="N166" s="31" t="s">
         <v>87</v>
@@ -12828,10 +12857,10 @@
         <v>193</v>
       </c>
       <c r="S166" s="31" t="s">
-        <v>258</v>
+        <v>741</v>
       </c>
       <c r="T166" s="31" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="U166" s="31"/>
       <c r="V166" s="31"/>
@@ -12854,13 +12883,13 @@
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
       <c r="K167" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L167" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M167" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N167" s="31" t="s">
         <v>87</v>
@@ -12878,10 +12907,10 @@
         <v>193</v>
       </c>
       <c r="S167" s="31" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="T167" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U167" s="31"/>
       <c r="V167" s="31"/>
@@ -12904,13 +12933,13 @@
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
       <c r="K168" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L168" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M168" s="31" t="s">
-        <v>742</v>
+        <v>448</v>
       </c>
       <c r="N168" s="31" t="s">
         <v>87</v>
@@ -12922,16 +12951,16 @@
         <v>101</v>
       </c>
       <c r="Q168" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R168" s="31" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="S168" s="31" t="s">
-        <v>462</v>
+        <v>299</v>
       </c>
       <c r="T168" s="31" t="s">
-        <v>743</v>
+        <v>479</v>
       </c>
       <c r="U168" s="31"/>
       <c r="V168" s="31"/>
@@ -12954,13 +12983,13 @@
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
       <c r="K169" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L169" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M169" s="31" t="s">
-        <v>449</v>
+        <v>742</v>
       </c>
       <c r="N169" s="31" t="s">
         <v>87</v>
@@ -12972,16 +13001,16 @@
         <v>101</v>
       </c>
       <c r="Q169" s="31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R169" s="31" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="S169" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T169" s="31" t="s">
-        <v>480</v>
+        <v>743</v>
       </c>
       <c r="U169" s="31"/>
       <c r="V169" s="31"/>
@@ -13004,13 +13033,13 @@
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
       <c r="K170" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L170" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M170" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N170" s="31" t="s">
         <v>87</v>
@@ -13022,16 +13051,16 @@
         <v>101</v>
       </c>
       <c r="Q170" s="31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R170" s="31" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="S170" s="31" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="T170" s="31" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="U170" s="31"/>
       <c r="V170" s="31"/>
@@ -13054,13 +13083,13 @@
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
       <c r="K171" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L171" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M171" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N171" s="31" t="s">
         <v>87</v>
@@ -13081,7 +13110,7 @@
         <v>112</v>
       </c>
       <c r="T171" s="31" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="U171" s="31"/>
       <c r="V171" s="31"/>
@@ -13104,13 +13133,13 @@
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
       <c r="K172" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L172" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M172" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>87</v>
@@ -13122,16 +13151,16 @@
         <v>101</v>
       </c>
       <c r="Q172" s="31" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R172" s="31" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="S172" s="31" t="s">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="T172" s="31" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="U172" s="31"/>
       <c r="V172" s="31"/>
@@ -13147,22 +13176,20 @@
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
       <c r="D173" s="38"/>
-      <c r="E173" s="38" t="s">
-        <v>491</v>
-      </c>
+      <c r="E173" s="38"/>
       <c r="F173" s="38"/>
-      <c r="G173" s="38" t="s">
-        <v>491</v>
-      </c>
+      <c r="G173" s="38"/>
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
-      <c r="K173" s="31"/>
+      <c r="K173" s="31" t="s">
+        <v>432</v>
+      </c>
       <c r="L173" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M173" s="35" t="s">
-        <v>491</v>
+      <c r="M173" s="31" t="s">
+        <v>452</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>87</v>
@@ -13171,19 +13198,19 @@
         <v>93</v>
       </c>
       <c r="P173" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q173" s="31" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="R173" s="31" t="s">
-        <v>495</v>
+        <v>193</v>
       </c>
       <c r="S173" s="31" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="T173" s="31" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="U173" s="31"/>
       <c r="V173" s="31"/>
@@ -13200,25 +13227,21 @@
       <c r="C174" s="31"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H174" s="31"/>
-      <c r="I174" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="J174" s="33" t="s">
-        <v>492</v>
-      </c>
+      <c r="I174" s="31"/>
+      <c r="J174" s="31"/>
       <c r="K174" s="31"/>
       <c r="L174" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M174" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N174" s="31" t="s">
         <v>87</v>
@@ -13233,13 +13256,13 @@
         <v>223</v>
       </c>
       <c r="R174" s="31" t="s">
-        <v>272</v>
+        <v>495</v>
       </c>
       <c r="S174" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T174" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U174" s="31"/>
       <c r="V174" s="31"/>
@@ -13256,25 +13279,25 @@
       <c r="C175" s="31"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H175" s="31"/>
       <c r="I175" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J175" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K175" s="31"/>
       <c r="L175" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M175" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N175" s="31" t="s">
         <v>87</v>
@@ -13295,7 +13318,7 @@
         <v>497</v>
       </c>
       <c r="T175" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U175" s="31"/>
       <c r="V175" s="31"/>
@@ -13312,25 +13335,25 @@
       <c r="C176" s="31"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="H176" s="31"/>
       <c r="I176" s="33" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="J176" s="33" t="s">
-        <v>627</v>
+        <v>493</v>
       </c>
       <c r="K176" s="31"/>
       <c r="L176" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M176" s="35" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="N176" s="31" t="s">
         <v>87</v>
@@ -13348,10 +13371,10 @@
         <v>272</v>
       </c>
       <c r="S176" s="31" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="T176" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U176" s="31"/>
       <c r="V176" s="31"/>
@@ -13368,21 +13391,25 @@
       <c r="C177" s="31"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>494</v>
+        <v>627</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38" t="s">
-        <v>494</v>
+        <v>627</v>
       </c>
       <c r="H177" s="31"/>
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="J177" s="33" t="s">
+        <v>627</v>
+      </c>
       <c r="K177" s="31"/>
       <c r="L177" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M177" s="35" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N177" s="31" t="s">
         <v>87</v>
@@ -13397,13 +13424,13 @@
         <v>223</v>
       </c>
       <c r="R177" s="31" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="S177" s="31" t="s">
-        <v>222</v>
+        <v>503</v>
       </c>
       <c r="T177" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U177" s="31"/>
       <c r="V177" s="31"/>
@@ -13420,11 +13447,11 @@
       <c r="C178" s="31"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>767</v>
+        <v>494</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38" t="s">
-        <v>767</v>
+        <v>494</v>
       </c>
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
@@ -13433,11 +13460,11 @@
       <c r="L178" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M178" s="31" t="s">
-        <v>272</v>
+      <c r="M178" s="35" t="s">
+        <v>494</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O178" s="31" t="s">
         <v>93</v>
@@ -13449,10 +13476,14 @@
         <v>223</v>
       </c>
       <c r="R178" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="S178" s="31"/>
-      <c r="T178" s="31"/>
+        <v>224</v>
+      </c>
+      <c r="S178" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="T178" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="U178" s="31"/>
       <c r="V178" s="31"/>
       <c r="W178" s="31"/>
@@ -13467,41 +13498,39 @@
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
       <c r="D179" s="38"/>
-      <c r="E179" s="38"/>
+      <c r="E179" s="38" t="s">
+        <v>766</v>
+      </c>
       <c r="F179" s="38"/>
-      <c r="G179" s="38"/>
+      <c r="G179" s="38" t="s">
+        <v>766</v>
+      </c>
       <c r="H179" s="31"/>
-      <c r="I179" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="J179" s="33" t="s">
-        <v>505</v>
-      </c>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
       <c r="K179" s="31"/>
       <c r="L179" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M179" s="33" t="s">
-        <v>505</v>
+      <c r="M179" s="31" t="s">
+        <v>272</v>
       </c>
       <c r="N179" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P179" s="31" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="Q179" s="31" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="R179" s="31" t="s">
-        <v>750</v>
-      </c>
-      <c r="S179" s="31" t="s">
-        <v>505</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="S179" s="31"/>
       <c r="T179" s="31"/>
       <c r="U179" s="31"/>
       <c r="V179" s="31"/>
@@ -13512,30 +13541,30 @@
       <c r="AA179" s="31"/>
       <c r="AB179" s="31"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="31"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
+      <c r="D180" s="38"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
       <c r="H180" s="31"/>
       <c r="I180" s="33" t="s">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="J180" s="33" t="s">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="K180" s="31"/>
       <c r="L180" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M180" s="36" t="s">
-        <v>308</v>
+      <c r="M180" s="33" t="s">
+        <v>505</v>
       </c>
       <c r="N180" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O180" s="31" t="s">
         <v>89</v>
@@ -13543,9 +13572,15 @@
       <c r="P180" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="Q180" s="31"/>
-      <c r="R180" s="31"/>
-      <c r="S180" s="31"/>
+      <c r="Q180" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="R180" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="S180" s="31" t="s">
+        <v>505</v>
+      </c>
       <c r="T180" s="31"/>
       <c r="U180" s="31"/>
       <c r="V180" s="31"/>
@@ -13566,39 +13601,31 @@
       <c r="G181" s="31"/>
       <c r="H181" s="31"/>
       <c r="I181" s="33" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="J181" s="33" t="s">
-        <v>506</v>
+        <v>307</v>
       </c>
       <c r="K181" s="31"/>
       <c r="L181" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M181" s="33" t="s">
-        <v>506</v>
+      <c r="M181" s="36" t="s">
+        <v>308</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O181" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q181" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="R181" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="S181" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="T181" s="31" t="s">
-        <v>754</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Q181" s="31"/>
+      <c r="R181" s="31"/>
+      <c r="S181" s="31"/>
+      <c r="T181" s="31"/>
       <c r="U181" s="31"/>
       <c r="V181" s="31"/>
       <c r="W181" s="31"/>
@@ -13618,37 +13645,39 @@
       <c r="G182" s="31"/>
       <c r="H182" s="31"/>
       <c r="I182" s="33" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="J182" s="33" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="K182" s="31"/>
       <c r="L182" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M182" s="33" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O182" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="P182" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q182" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="R182" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="S182" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="T182" s="31"/>
+        <v>87</v>
+      </c>
+      <c r="O182" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P182" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q182" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="R182" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="S182" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="T182" s="31" t="s">
+        <v>754</v>
+      </c>
       <c r="U182" s="31"/>
       <c r="V182" s="31"/>
       <c r="W182" s="31"/>
@@ -13668,17 +13697,17 @@
       <c r="G183" s="31"/>
       <c r="H183" s="31"/>
       <c r="I183" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="J183" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="K183" s="31"/>
       <c r="L183" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M183" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>86</v>
@@ -13696,7 +13725,7 @@
         <v>193</v>
       </c>
       <c r="S183" s="33" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="T183" s="31"/>
       <c r="U183" s="31"/>
@@ -13718,17 +13747,17 @@
       <c r="G184" s="31"/>
       <c r="H184" s="31"/>
       <c r="I184" s="33" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="J184" s="33" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="K184" s="31"/>
       <c r="L184" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M184" s="33" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="N184" s="31" t="s">
         <v>86</v>
@@ -13746,7 +13775,7 @@
         <v>193</v>
       </c>
       <c r="S184" s="33" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="T184" s="31"/>
       <c r="U184" s="31"/>
@@ -13768,20 +13797,20 @@
       <c r="G185" s="31"/>
       <c r="H185" s="31"/>
       <c r="I185" s="33" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="J185" s="33" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="K185" s="31"/>
       <c r="L185" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M185" s="31" t="s">
-        <v>101</v>
+      <c r="M185" s="33" t="s">
+        <v>459</v>
       </c>
       <c r="N185" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O185" s="33" t="s">
         <v>93</v>
@@ -13789,9 +13818,15 @@
       <c r="P185" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="Q185" s="31"/>
-      <c r="R185" s="31"/>
-      <c r="S185" s="31"/>
+      <c r="Q185" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="R185" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S185" s="33" t="s">
+        <v>459</v>
+      </c>
       <c r="T185" s="31"/>
       <c r="U185" s="31"/>
       <c r="V185" s="31"/>
@@ -13812,10 +13847,10 @@
       <c r="G186" s="31"/>
       <c r="H186" s="31"/>
       <c r="I186" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J186" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K186" s="31"/>
       <c r="L186" s="31" t="s">
@@ -13856,33 +13891,29 @@
       <c r="G187" s="31"/>
       <c r="H187" s="31"/>
       <c r="I187" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J187" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K187" s="31"/>
       <c r="L187" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M187" s="33" t="s">
-        <v>744</v>
+        <v>207</v>
+      </c>
+      <c r="M187" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="N187" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O187" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P187" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q187" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R187" s="33" t="s">
-        <v>744</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Q187" s="31"/>
+      <c r="R187" s="31"/>
       <c r="S187" s="31"/>
       <c r="T187" s="31"/>
       <c r="U187" s="31"/>
@@ -13904,14 +13935,14 @@
       <c r="G188" s="31"/>
       <c r="H188" s="31"/>
       <c r="I188" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J188" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K188" s="31"/>
       <c r="L188" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M188" s="33" t="s">
         <v>744</v>
@@ -13952,20 +13983,20 @@
       <c r="G189" s="31"/>
       <c r="H189" s="31"/>
       <c r="I189" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J189" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K189" s="31"/>
       <c r="L189" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M189" s="33" t="s">
-        <v>274</v>
+        <v>744</v>
       </c>
       <c r="N189" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O189" s="33" t="s">
         <v>93</v>
@@ -13976,7 +14007,9 @@
       <c r="Q189" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="R189" s="31"/>
+      <c r="R189" s="33" t="s">
+        <v>744</v>
+      </c>
       <c r="S189" s="31"/>
       <c r="T189" s="31"/>
       <c r="U189" s="31"/>
@@ -13998,20 +14031,20 @@
       <c r="G190" s="31"/>
       <c r="H190" s="31"/>
       <c r="I190" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J190" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K190" s="31"/>
       <c r="L190" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M190" s="33" t="s">
-        <v>519</v>
+        <v>274</v>
       </c>
       <c r="N190" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O190" s="33" t="s">
         <v>93</v>
@@ -14022,9 +14055,7 @@
       <c r="Q190" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="R190" s="33" t="s">
-        <v>519</v>
-      </c>
+      <c r="R190" s="31"/>
       <c r="S190" s="31"/>
       <c r="T190" s="31"/>
       <c r="U190" s="31"/>
@@ -14046,17 +14077,17 @@
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J191" s="33" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K191" s="31"/>
       <c r="L191" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M191" s="33" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N191" s="31" t="s">
         <v>85</v>
@@ -14071,7 +14102,7 @@
         <v>274</v>
       </c>
       <c r="R191" s="33" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S191" s="31"/>
       <c r="T191" s="31"/>
@@ -14094,17 +14125,17 @@
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="33" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J192" s="33" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K192" s="31"/>
       <c r="L192" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N192" s="31" t="s">
         <v>85</v>
@@ -14119,7 +14150,7 @@
         <v>274</v>
       </c>
       <c r="R192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S192" s="31"/>
       <c r="T192" s="31"/>
@@ -14142,17 +14173,17 @@
       <c r="G193" s="31"/>
       <c r="H193" s="31"/>
       <c r="I193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K193" s="31"/>
       <c r="L193" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>85</v>
@@ -14167,7 +14198,7 @@
         <v>274</v>
       </c>
       <c r="R193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S193" s="31"/>
       <c r="T193" s="31"/>
@@ -14189,18 +14220,18 @@
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
       <c r="H194" s="31"/>
-      <c r="I194" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="J194" s="31" t="s">
-        <v>524</v>
+      <c r="I194" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="J194" s="33" t="s">
+        <v>523</v>
       </c>
       <c r="K194" s="31"/>
       <c r="L194" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M194" s="33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>85</v>
@@ -14215,7 +14246,7 @@
         <v>274</v>
       </c>
       <c r="R194" s="33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="S194" s="31"/>
       <c r="T194" s="31"/>
@@ -14237,18 +14268,18 @@
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
       <c r="H195" s="31"/>
-      <c r="I195" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="J195" s="33" t="s">
-        <v>525</v>
+      <c r="I195" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="J195" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="K195" s="31"/>
       <c r="L195" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M195" s="33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>85</v>
@@ -14263,7 +14294,7 @@
         <v>274</v>
       </c>
       <c r="R195" s="33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="S195" s="31"/>
       <c r="T195" s="31"/>
@@ -14286,14 +14317,14 @@
       <c r="G196" s="31"/>
       <c r="H196" s="31"/>
       <c r="I196" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J196" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K196" s="31"/>
       <c r="L196" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M196" s="33" t="s">
         <v>525</v>
@@ -14334,17 +14365,17 @@
       <c r="G197" s="31"/>
       <c r="H197" s="31"/>
       <c r="I197" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J197" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K197" s="31"/>
       <c r="L197" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M197" s="33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N197" s="31" t="s">
         <v>85</v>
@@ -14359,7 +14390,7 @@
         <v>274</v>
       </c>
       <c r="R197" s="33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="S197" s="31"/>
       <c r="T197" s="31"/>
@@ -14382,17 +14413,17 @@
       <c r="G198" s="31"/>
       <c r="H198" s="31"/>
       <c r="I198" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J198" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K198" s="31"/>
       <c r="L198" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M198" s="33" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="N198" s="31" t="s">
         <v>85</v>
@@ -14407,7 +14438,7 @@
         <v>274</v>
       </c>
       <c r="R198" s="33" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="S198" s="31"/>
       <c r="T198" s="31"/>
@@ -14430,17 +14461,17 @@
       <c r="G199" s="31"/>
       <c r="H199" s="31"/>
       <c r="I199" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J199" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K199" s="31"/>
       <c r="L199" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M199" s="33" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>85</v>
@@ -14455,7 +14486,7 @@
         <v>274</v>
       </c>
       <c r="R199" s="33" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="S199" s="31"/>
       <c r="T199" s="31"/>
@@ -14478,20 +14509,20 @@
       <c r="G200" s="31"/>
       <c r="H200" s="31"/>
       <c r="I200" s="33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J200" s="33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K200" s="31"/>
       <c r="L200" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M200" s="33" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N200" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O200" s="33" t="s">
         <v>93</v>
@@ -14503,11 +14534,9 @@
         <v>274</v>
       </c>
       <c r="R200" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="S200" s="33" t="s">
-        <v>533</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="S200" s="31"/>
       <c r="T200" s="31"/>
       <c r="U200" s="31"/>
       <c r="V200" s="31"/>
@@ -14528,20 +14557,20 @@
       <c r="G201" s="31"/>
       <c r="H201" s="31"/>
       <c r="I201" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J201" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K201" s="31"/>
       <c r="L201" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M201" s="33" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N201" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O201" s="33" t="s">
         <v>93</v>
@@ -14553,9 +14582,11 @@
         <v>274</v>
       </c>
       <c r="R201" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="S201" s="31"/>
+        <v>522</v>
+      </c>
+      <c r="S201" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="T201" s="31"/>
       <c r="U201" s="31"/>
       <c r="V201" s="31"/>
@@ -14576,17 +14607,17 @@
       <c r="G202" s="31"/>
       <c r="H202" s="31"/>
       <c r="I202" s="33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J202" s="33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K202" s="31"/>
       <c r="L202" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M202" s="33" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>85</v>
@@ -14601,7 +14632,7 @@
         <v>274</v>
       </c>
       <c r="R202" s="33" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S202" s="31"/>
       <c r="T202" s="31"/>
@@ -14624,17 +14655,17 @@
       <c r="G203" s="31"/>
       <c r="H203" s="31"/>
       <c r="I203" s="33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J203" s="33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K203" s="31"/>
       <c r="L203" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N203" s="31" t="s">
         <v>85</v>
@@ -14649,7 +14680,7 @@
         <v>274</v>
       </c>
       <c r="R203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S203" s="31"/>
       <c r="T203" s="31"/>
@@ -14672,17 +14703,17 @@
       <c r="G204" s="31"/>
       <c r="H204" s="31"/>
       <c r="I204" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J204" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K204" s="31"/>
       <c r="L204" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M204" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N204" s="31" t="s">
         <v>85</v>
@@ -14697,7 +14728,7 @@
         <v>274</v>
       </c>
       <c r="R204" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S204" s="31"/>
       <c r="T204" s="31"/>
@@ -14720,17 +14751,17 @@
       <c r="G205" s="31"/>
       <c r="H205" s="31"/>
       <c r="I205" s="33" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J205" s="33" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K205" s="31"/>
       <c r="L205" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M205" s="33" t="s">
-        <v>746</v>
+        <v>540</v>
       </c>
       <c r="N205" s="31" t="s">
         <v>85</v>
@@ -14745,7 +14776,7 @@
         <v>274</v>
       </c>
       <c r="R205" s="33" t="s">
-        <v>746</v>
+        <v>540</v>
       </c>
       <c r="S205" s="31"/>
       <c r="T205" s="31"/>
@@ -14768,17 +14799,17 @@
       <c r="G206" s="31"/>
       <c r="H206" s="31"/>
       <c r="I206" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J206" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K206" s="31"/>
       <c r="L206" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M206" s="33" t="s">
-        <v>543</v>
+        <v>746</v>
       </c>
       <c r="N206" s="31" t="s">
         <v>85</v>
@@ -14793,7 +14824,7 @@
         <v>274</v>
       </c>
       <c r="R206" s="33" t="s">
-        <v>543</v>
+        <v>746</v>
       </c>
       <c r="S206" s="31"/>
       <c r="T206" s="31"/>
@@ -14816,17 +14847,17 @@
       <c r="G207" s="31"/>
       <c r="H207" s="31"/>
       <c r="I207" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J207" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K207" s="31"/>
       <c r="L207" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M207" s="33" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N207" s="31" t="s">
         <v>85</v>
@@ -14841,7 +14872,7 @@
         <v>274</v>
       </c>
       <c r="R207" s="33" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="S207" s="31"/>
       <c r="T207" s="31"/>
@@ -14864,17 +14895,17 @@
       <c r="G208" s="31"/>
       <c r="H208" s="31"/>
       <c r="I208" s="33" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J208" s="33" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K208" s="31"/>
       <c r="L208" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M208" s="33" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="N208" s="31" t="s">
         <v>85</v>
@@ -14889,7 +14920,7 @@
         <v>274</v>
       </c>
       <c r="R208" s="33" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="S208" s="31"/>
       <c r="T208" s="31"/>
@@ -14912,17 +14943,17 @@
       <c r="G209" s="31"/>
       <c r="H209" s="31"/>
       <c r="I209" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J209" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K209" s="31"/>
       <c r="L209" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M209" s="33" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="N209" s="31" t="s">
         <v>85</v>
@@ -14937,7 +14968,7 @@
         <v>274</v>
       </c>
       <c r="R209" s="33" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="S209" s="31"/>
       <c r="T209" s="31"/>
@@ -14960,20 +14991,20 @@
       <c r="G210" s="31"/>
       <c r="H210" s="31"/>
       <c r="I210" s="33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J210" s="33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K210" s="31"/>
       <c r="L210" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M210" s="33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N210" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O210" s="33" t="s">
         <v>93</v>
@@ -14982,9 +15013,11 @@
         <v>94</v>
       </c>
       <c r="Q210" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="R210" s="31"/>
+        <v>274</v>
+      </c>
+      <c r="R210" s="33" t="s">
+        <v>548</v>
+      </c>
       <c r="S210" s="31"/>
       <c r="T210" s="31"/>
       <c r="U210" s="31"/>
@@ -15006,20 +15039,20 @@
       <c r="G211" s="31"/>
       <c r="H211" s="31"/>
       <c r="I211" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J211" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K211" s="31"/>
       <c r="L211" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M211" s="33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N211" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O211" s="33" t="s">
         <v>93</v>
@@ -15028,11 +15061,9 @@
         <v>94</v>
       </c>
       <c r="Q211" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="R211" s="33" t="s">
-        <v>552</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="R211" s="31"/>
       <c r="S211" s="31"/>
       <c r="T211" s="31"/>
       <c r="U211" s="31"/>
@@ -15054,20 +15085,20 @@
       <c r="G212" s="31"/>
       <c r="H212" s="31"/>
       <c r="I212" s="33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J212" s="33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K212" s="31"/>
       <c r="L212" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M212" s="33" t="s">
-        <v>199</v>
+        <v>552</v>
       </c>
       <c r="N212" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O212" s="33" t="s">
         <v>93</v>
@@ -15078,7 +15109,9 @@
       <c r="Q212" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R212" s="31"/>
+      <c r="R212" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="S212" s="31"/>
       <c r="T212" s="31"/>
       <c r="U212" s="31"/>
@@ -15100,10 +15133,10 @@
       <c r="G213" s="31"/>
       <c r="H213" s="31"/>
       <c r="I213" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J213" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K213" s="31"/>
       <c r="L213" s="31" t="s">
@@ -15146,14 +15179,14 @@
       <c r="G214" s="31"/>
       <c r="H214" s="31"/>
       <c r="I214" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J214" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K214" s="31"/>
       <c r="L214" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M214" s="33" t="s">
         <v>199</v>
@@ -15192,20 +15225,20 @@
       <c r="G215" s="31"/>
       <c r="H215" s="31"/>
       <c r="I215" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J215" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K215" s="31"/>
       <c r="L215" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M215" s="33" t="s">
-        <v>557</v>
+        <v>199</v>
       </c>
       <c r="N215" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O215" s="33" t="s">
         <v>93</v>
@@ -15216,9 +15249,7 @@
       <c r="Q215" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R215" s="33" t="s">
-        <v>557</v>
-      </c>
+      <c r="R215" s="31"/>
       <c r="S215" s="31"/>
       <c r="T215" s="31"/>
       <c r="U215" s="31"/>
@@ -15240,17 +15271,17 @@
       <c r="G216" s="31"/>
       <c r="H216" s="31"/>
       <c r="I216" s="33" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J216" s="33" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K216" s="31"/>
       <c r="L216" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N216" s="31" t="s">
         <v>85</v>
@@ -15265,7 +15296,7 @@
         <v>199</v>
       </c>
       <c r="R216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S216" s="31"/>
       <c r="T216" s="31"/>
@@ -15288,20 +15319,20 @@
       <c r="G217" s="31"/>
       <c r="H217" s="31"/>
       <c r="I217" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J217" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K217" s="31"/>
       <c r="L217" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M217" s="33" t="s">
-        <v>199</v>
+        <v>558</v>
       </c>
       <c r="N217" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O217" s="33" t="s">
         <v>93</v>
@@ -15312,7 +15343,9 @@
       <c r="Q217" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R217" s="31"/>
+      <c r="R217" s="33" t="s">
+        <v>558</v>
+      </c>
       <c r="S217" s="31"/>
       <c r="T217" s="31"/>
       <c r="U217" s="31"/>
@@ -15334,20 +15367,20 @@
       <c r="G218" s="31"/>
       <c r="H218" s="31"/>
       <c r="I218" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J218" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K218" s="31"/>
       <c r="L218" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M218" s="33" t="s">
-        <v>561</v>
+        <v>199</v>
       </c>
       <c r="N218" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O218" s="33" t="s">
         <v>93</v>
@@ -15358,9 +15391,7 @@
       <c r="Q218" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R218" s="33" t="s">
-        <v>561</v>
-      </c>
+      <c r="R218" s="31"/>
       <c r="S218" s="31"/>
       <c r="T218" s="31"/>
       <c r="U218" s="31"/>
@@ -15382,17 +15413,17 @@
       <c r="G219" s="31"/>
       <c r="H219" s="31"/>
       <c r="I219" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J219" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K219" s="31"/>
       <c r="L219" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M219" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N219" s="31" t="s">
         <v>85</v>
@@ -15407,7 +15438,7 @@
         <v>199</v>
       </c>
       <c r="R219" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S219" s="31"/>
       <c r="T219" s="31"/>
@@ -15430,17 +15461,17 @@
       <c r="G220" s="31"/>
       <c r="H220" s="31"/>
       <c r="I220" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J220" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K220" s="31"/>
       <c r="L220" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M220" s="33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N220" s="31" t="s">
         <v>85</v>
@@ -15455,7 +15486,7 @@
         <v>199</v>
       </c>
       <c r="R220" s="33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S220" s="31"/>
       <c r="T220" s="31"/>
@@ -15478,17 +15509,17 @@
       <c r="G221" s="31"/>
       <c r="H221" s="31"/>
       <c r="I221" s="33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J221" s="33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K221" s="31"/>
       <c r="L221" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M221" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N221" s="31" t="s">
         <v>85</v>
@@ -15503,7 +15534,7 @@
         <v>199</v>
       </c>
       <c r="R221" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S221" s="31"/>
       <c r="T221" s="31"/>
@@ -15526,17 +15557,17 @@
       <c r="G222" s="31"/>
       <c r="H222" s="31"/>
       <c r="I222" s="33" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J222" s="33" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K222" s="31"/>
       <c r="L222" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M222" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N222" s="31" t="s">
         <v>85</v>
@@ -15551,7 +15582,7 @@
         <v>199</v>
       </c>
       <c r="R222" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S222" s="31"/>
       <c r="T222" s="31"/>
@@ -15574,17 +15605,17 @@
       <c r="G223" s="31"/>
       <c r="H223" s="31"/>
       <c r="I223" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J223" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K223" s="31"/>
       <c r="L223" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M223" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N223" s="31" t="s">
         <v>85</v>
@@ -15599,7 +15630,7 @@
         <v>199</v>
       </c>
       <c r="R223" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S223" s="31"/>
       <c r="T223" s="31"/>
@@ -15622,17 +15653,17 @@
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
       <c r="I224" s="33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J224" s="33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K224" s="31"/>
       <c r="L224" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M224" s="33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N224" s="31" t="s">
         <v>85</v>
@@ -15647,7 +15678,7 @@
         <v>199</v>
       </c>
       <c r="R224" s="33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S224" s="31"/>
       <c r="T224" s="31"/>
@@ -15670,17 +15701,17 @@
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
       <c r="I225" s="33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J225" s="33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K225" s="31"/>
       <c r="L225" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N225" s="31" t="s">
         <v>85</v>
@@ -15692,10 +15723,10 @@
         <v>94</v>
       </c>
       <c r="Q225" s="33" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="R225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S225" s="31"/>
       <c r="T225" s="31"/>
@@ -15718,17 +15749,17 @@
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
       <c r="I226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K226" s="31"/>
       <c r="L226" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N226" s="31" t="s">
         <v>85</v>
@@ -15743,7 +15774,7 @@
         <v>279</v>
       </c>
       <c r="R226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S226" s="31"/>
       <c r="T226" s="31"/>
@@ -15766,20 +15797,20 @@
       <c r="G227" s="31"/>
       <c r="H227" s="31"/>
       <c r="I227" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J227" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K227" s="31"/>
       <c r="L227" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M227" s="33" t="s">
-        <v>279</v>
+        <v>575</v>
       </c>
       <c r="N227" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O227" s="33" t="s">
         <v>93</v>
@@ -15790,7 +15821,9 @@
       <c r="Q227" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R227" s="31"/>
+      <c r="R227" s="33" t="s">
+        <v>575</v>
+      </c>
       <c r="S227" s="31"/>
       <c r="T227" s="31"/>
       <c r="U227" s="31"/>
@@ -15812,20 +15845,20 @@
       <c r="G228" s="31"/>
       <c r="H228" s="31"/>
       <c r="I228" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J228" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K228" s="31"/>
       <c r="L228" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M228" s="33" t="s">
-        <v>578</v>
+        <v>279</v>
       </c>
       <c r="N228" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O228" s="33" t="s">
         <v>93</v>
@@ -15836,9 +15869,7 @@
       <c r="Q228" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R228" s="33" t="s">
-        <v>578</v>
-      </c>
+      <c r="R228" s="31"/>
       <c r="S228" s="31"/>
       <c r="T228" s="31"/>
       <c r="U228" s="31"/>
@@ -15860,20 +15891,20 @@
       <c r="G229" s="31"/>
       <c r="H229" s="31"/>
       <c r="I229" s="33" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J229" s="33" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K229" s="31"/>
       <c r="L229" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="M229" s="31" t="s">
-        <v>583</v>
+      <c r="M229" s="33" t="s">
+        <v>578</v>
       </c>
       <c r="N229" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O229" s="33" t="s">
         <v>93</v>
@@ -15885,14 +15916,10 @@
         <v>279</v>
       </c>
       <c r="R229" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="S229" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="T229" s="33" t="s">
-        <v>582</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="S229" s="31"/>
+      <c r="T229" s="31"/>
       <c r="U229" s="31"/>
       <c r="V229" s="31"/>
       <c r="W229" s="31"/>
@@ -15912,20 +15939,20 @@
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
       <c r="I230" s="33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J230" s="33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K230" s="31"/>
       <c r="L230" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M230" s="33" t="s">
-        <v>279</v>
+        <v>209</v>
+      </c>
+      <c r="M230" s="31" t="s">
+        <v>583</v>
       </c>
       <c r="N230" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O230" s="33" t="s">
         <v>93</v>
@@ -15936,9 +15963,15 @@
       <c r="Q230" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R230" s="31"/>
-      <c r="S230" s="31"/>
-      <c r="T230" s="31"/>
+      <c r="R230" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="S230" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="T230" s="33" t="s">
+        <v>582</v>
+      </c>
       <c r="U230" s="31"/>
       <c r="V230" s="31"/>
       <c r="W230" s="31"/>
@@ -15958,20 +15991,20 @@
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
       <c r="I231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K231" s="31"/>
       <c r="L231" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M231" s="33" t="s">
-        <v>585</v>
+        <v>279</v>
       </c>
       <c r="N231" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O231" s="33" t="s">
         <v>93</v>
@@ -15980,11 +16013,9 @@
         <v>94</v>
       </c>
       <c r="Q231" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="R231" s="33" t="s">
-        <v>585</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="R231" s="31"/>
       <c r="S231" s="31"/>
       <c r="T231" s="31"/>
       <c r="U231" s="31"/>
@@ -16006,17 +16037,17 @@
       <c r="G232" s="31"/>
       <c r="H232" s="31"/>
       <c r="I232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K232" s="31"/>
       <c r="L232" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N232" s="31" t="s">
         <v>85</v>
@@ -16031,7 +16062,7 @@
         <v>226</v>
       </c>
       <c r="R232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S232" s="31"/>
       <c r="T232" s="31"/>
@@ -16054,17 +16085,17 @@
       <c r="G233" s="31"/>
       <c r="H233" s="31"/>
       <c r="I233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K233" s="31"/>
       <c r="L233" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N233" s="31" t="s">
         <v>85</v>
@@ -16079,7 +16110,7 @@
         <v>226</v>
       </c>
       <c r="R233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S233" s="31"/>
       <c r="T233" s="31"/>
@@ -16102,17 +16133,17 @@
       <c r="G234" s="31"/>
       <c r="H234" s="31"/>
       <c r="I234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K234" s="31"/>
       <c r="L234" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N234" s="31" t="s">
         <v>85</v>
@@ -16127,7 +16158,7 @@
         <v>226</v>
       </c>
       <c r="R234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S234" s="31"/>
       <c r="T234" s="31"/>
@@ -16150,17 +16181,17 @@
       <c r="G235" s="31"/>
       <c r="H235" s="31"/>
       <c r="I235" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J235" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K235" s="31"/>
       <c r="L235" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M235" s="33" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="N235" s="31" t="s">
         <v>85</v>
@@ -16175,7 +16206,7 @@
         <v>226</v>
       </c>
       <c r="R235" s="33" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="S235" s="31"/>
       <c r="T235" s="31"/>
@@ -16198,20 +16229,20 @@
       <c r="G236" s="31"/>
       <c r="H236" s="31"/>
       <c r="I236" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J236" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K236" s="31"/>
       <c r="L236" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M236" s="33" t="s">
-        <v>226</v>
+        <v>747</v>
       </c>
       <c r="N236" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O236" s="33" t="s">
         <v>93</v>
@@ -16222,7 +16253,9 @@
       <c r="Q236" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R236" s="31"/>
+      <c r="R236" s="33" t="s">
+        <v>747</v>
+      </c>
       <c r="S236" s="31"/>
       <c r="T236" s="31"/>
       <c r="U236" s="31"/>
@@ -16244,20 +16277,20 @@
       <c r="G237" s="31"/>
       <c r="H237" s="31"/>
       <c r="I237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K237" s="31"/>
       <c r="L237" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M237" s="33" t="s">
-        <v>591</v>
+        <v>226</v>
       </c>
       <c r="N237" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O237" s="33" t="s">
         <v>93</v>
@@ -16268,9 +16301,7 @@
       <c r="Q237" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R237" s="33" t="s">
-        <v>591</v>
-      </c>
+      <c r="R237" s="31"/>
       <c r="S237" s="31"/>
       <c r="T237" s="31"/>
       <c r="U237" s="31"/>
@@ -16292,17 +16323,17 @@
       <c r="G238" s="31"/>
       <c r="H238" s="31"/>
       <c r="I238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K238" s="31"/>
       <c r="L238" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N238" s="31" t="s">
         <v>85</v>
@@ -16317,7 +16348,7 @@
         <v>226</v>
       </c>
       <c r="R238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S238" s="31"/>
       <c r="T238" s="31"/>
@@ -16340,20 +16371,20 @@
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
       <c r="I239" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J239" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K239" s="31"/>
       <c r="L239" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M239" s="33" t="s">
-        <v>226</v>
+        <v>592</v>
       </c>
       <c r="N239" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O239" s="33" t="s">
         <v>93</v>
@@ -16364,7 +16395,9 @@
       <c r="Q239" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R239" s="31"/>
+      <c r="R239" s="33" t="s">
+        <v>592</v>
+      </c>
       <c r="S239" s="31"/>
       <c r="T239" s="31"/>
       <c r="U239" s="31"/>
@@ -16386,20 +16419,20 @@
       <c r="G240" s="31"/>
       <c r="H240" s="31"/>
       <c r="I240" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J240" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K240" s="31"/>
       <c r="L240" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M240" s="33" t="s">
-        <v>595</v>
+        <v>226</v>
       </c>
       <c r="N240" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O240" s="33" t="s">
         <v>93</v>
@@ -16410,9 +16443,7 @@
       <c r="Q240" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R240" s="33" t="s">
-        <v>595</v>
-      </c>
+      <c r="R240" s="31"/>
       <c r="S240" s="31"/>
       <c r="T240" s="31"/>
       <c r="U240" s="31"/>
@@ -16434,14 +16465,14 @@
       <c r="G241" s="31"/>
       <c r="H241" s="31"/>
       <c r="I241" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J241" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K241" s="31"/>
       <c r="L241" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M241" s="33" t="s">
         <v>595</v>
@@ -16482,17 +16513,17 @@
       <c r="G242" s="31"/>
       <c r="H242" s="31"/>
       <c r="I242" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J242" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K242" s="31"/>
       <c r="L242" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M242" s="33" t="s">
-        <v>225</v>
+        <v>595</v>
       </c>
       <c r="N242" s="31" t="s">
         <v>85</v>
@@ -16507,7 +16538,7 @@
         <v>226</v>
       </c>
       <c r="R242" s="33" t="s">
-        <v>225</v>
+        <v>595</v>
       </c>
       <c r="S242" s="31"/>
       <c r="T242" s="31"/>
@@ -16530,20 +16561,20 @@
       <c r="G243" s="31"/>
       <c r="H243" s="31"/>
       <c r="I243" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J243" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K243" s="31"/>
       <c r="L243" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M243" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N243" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O243" s="33" t="s">
         <v>93</v>
@@ -16554,7 +16585,9 @@
       <c r="Q243" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R243" s="31"/>
+      <c r="R243" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="S243" s="31"/>
       <c r="T243" s="31"/>
       <c r="U243" s="31"/>
@@ -16576,17 +16609,17 @@
       <c r="G244" s="31"/>
       <c r="H244" s="31"/>
       <c r="I244" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J244" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K244" s="31"/>
       <c r="L244" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M244" s="33" t="s">
-        <v>600</v>
+        <v>226</v>
       </c>
       <c r="N244" s="31" t="s">
         <v>84</v>
@@ -16598,7 +16631,7 @@
         <v>94</v>
       </c>
       <c r="Q244" s="33" t="s">
-        <v>600</v>
+        <v>226</v>
       </c>
       <c r="R244" s="31"/>
       <c r="S244" s="31"/>
@@ -16622,14 +16655,14 @@
       <c r="G245" s="31"/>
       <c r="H245" s="31"/>
       <c r="I245" s="33" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J245" s="33" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K245" s="31"/>
       <c r="L245" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M245" s="33" t="s">
         <v>600</v>
@@ -16668,14 +16701,14 @@
       <c r="G246" s="31"/>
       <c r="H246" s="31"/>
       <c r="I246" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J246" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K246" s="31"/>
       <c r="L246" s="31" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="M246" s="33" t="s">
         <v>600</v>
@@ -16714,20 +16747,20 @@
       <c r="G247" s="31"/>
       <c r="H247" s="31"/>
       <c r="I247" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J247" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K247" s="31"/>
       <c r="L247" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M247" s="33" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N247" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O247" s="33" t="s">
         <v>93</v>
@@ -16736,11 +16769,9 @@
         <v>94</v>
       </c>
       <c r="Q247" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="R247" s="33" t="s">
-        <v>605</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="R247" s="31"/>
       <c r="S247" s="31"/>
       <c r="T247" s="31"/>
       <c r="U247" s="31"/>
@@ -16762,17 +16793,17 @@
       <c r="G248" s="31"/>
       <c r="H248" s="31"/>
       <c r="I248" s="33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J248" s="33" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K248" s="31"/>
       <c r="L248" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M248" s="33" t="s">
-        <v>748</v>
+        <v>605</v>
       </c>
       <c r="N248" s="31" t="s">
         <v>85</v>
@@ -16784,10 +16815,10 @@
         <v>94</v>
       </c>
       <c r="Q248" s="33" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="R248" s="33" t="s">
-        <v>748</v>
+        <v>605</v>
       </c>
       <c r="S248" s="31"/>
       <c r="T248" s="31"/>
@@ -16810,20 +16841,20 @@
       <c r="G249" s="31"/>
       <c r="H249" s="31"/>
       <c r="I249" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J249" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K249" s="31"/>
       <c r="L249" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M249" s="33" t="s">
-        <v>268</v>
+        <v>748</v>
       </c>
       <c r="N249" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O249" s="33" t="s">
         <v>93</v>
@@ -16834,7 +16865,9 @@
       <c r="Q249" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R249" s="31"/>
+      <c r="R249" s="33" t="s">
+        <v>748</v>
+      </c>
       <c r="S249" s="31"/>
       <c r="T249" s="31"/>
       <c r="U249" s="31"/>
@@ -16856,20 +16889,20 @@
       <c r="G250" s="31"/>
       <c r="H250" s="31"/>
       <c r="I250" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J250" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K250" s="31"/>
       <c r="L250" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M250" s="33" t="s">
-        <v>609</v>
+        <v>268</v>
       </c>
       <c r="N250" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O250" s="33" t="s">
         <v>93</v>
@@ -16880,9 +16913,7 @@
       <c r="Q250" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R250" s="33" t="s">
-        <v>609</v>
-      </c>
+      <c r="R250" s="31"/>
       <c r="S250" s="31"/>
       <c r="T250" s="31"/>
       <c r="U250" s="31"/>
@@ -16904,20 +16935,20 @@
       <c r="G251" s="31"/>
       <c r="H251" s="31"/>
       <c r="I251" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J251" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K251" s="31"/>
       <c r="L251" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M251" s="33" t="s">
-        <v>268</v>
+        <v>609</v>
       </c>
       <c r="N251" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O251" s="33" t="s">
         <v>93</v>
@@ -16928,7 +16959,9 @@
       <c r="Q251" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R251" s="31"/>
+      <c r="R251" s="33" t="s">
+        <v>609</v>
+      </c>
       <c r="S251" s="31"/>
       <c r="T251" s="31"/>
       <c r="U251" s="31"/>
@@ -16950,20 +16983,20 @@
       <c r="G252" s="31"/>
       <c r="H252" s="31"/>
       <c r="I252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K252" s="31"/>
       <c r="L252" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M252" s="33" t="s">
-        <v>611</v>
+        <v>268</v>
       </c>
       <c r="N252" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O252" s="33" t="s">
         <v>93</v>
@@ -16974,9 +17007,7 @@
       <c r="Q252" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R252" s="33" t="s">
-        <v>611</v>
-      </c>
+      <c r="R252" s="31"/>
       <c r="S252" s="31"/>
       <c r="T252" s="31"/>
       <c r="U252" s="31"/>
@@ -16998,20 +17029,20 @@
       <c r="G253" s="31"/>
       <c r="H253" s="31"/>
       <c r="I253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K253" s="31"/>
       <c r="L253" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N253" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O253" s="33" t="s">
         <v>93</v>
@@ -17020,9 +17051,11 @@
         <v>94</v>
       </c>
       <c r="Q253" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="R253" s="31"/>
+        <v>268</v>
+      </c>
+      <c r="R253" s="33" t="s">
+        <v>611</v>
+      </c>
       <c r="S253" s="31"/>
       <c r="T253" s="31"/>
       <c r="U253" s="31"/>
@@ -17044,17 +17077,17 @@
       <c r="G254" s="31"/>
       <c r="H254" s="31"/>
       <c r="I254" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J254" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K254" s="31"/>
       <c r="L254" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M254" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N254" s="31" t="s">
         <v>84</v>
@@ -17066,7 +17099,7 @@
         <v>94</v>
       </c>
       <c r="Q254" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R254" s="31"/>
       <c r="S254" s="31"/>
@@ -17090,14 +17123,14 @@
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J255" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K255" s="31"/>
       <c r="L255" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M255" s="33" t="s">
         <v>614</v>
@@ -17136,17 +17169,17 @@
       <c r="G256" s="31"/>
       <c r="H256" s="31"/>
       <c r="I256" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J256" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K256" s="31"/>
       <c r="L256" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M256" s="33" t="s">
-        <v>247</v>
+        <v>614</v>
       </c>
       <c r="N256" s="31" t="s">
         <v>84</v>
@@ -17158,7 +17191,7 @@
         <v>94</v>
       </c>
       <c r="Q256" s="33" t="s">
-        <v>247</v>
+        <v>614</v>
       </c>
       <c r="R256" s="31"/>
       <c r="S256" s="31"/>
@@ -17182,20 +17215,20 @@
       <c r="G257" s="31"/>
       <c r="H257" s="31"/>
       <c r="I257" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J257" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K257" s="31"/>
       <c r="L257" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M257" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N257" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O257" s="33" t="s">
         <v>93</v>
@@ -17206,9 +17239,7 @@
       <c r="Q257" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R257" s="33" t="s">
-        <v>248</v>
-      </c>
+      <c r="R257" s="31"/>
       <c r="S257" s="31"/>
       <c r="T257" s="31"/>
       <c r="U257" s="31"/>
@@ -17230,17 +17261,17 @@
       <c r="G258" s="31"/>
       <c r="H258" s="31"/>
       <c r="I258" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J258" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K258" s="31"/>
       <c r="L258" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M258" s="33" t="s">
-        <v>749</v>
+        <v>248</v>
       </c>
       <c r="N258" s="31" t="s">
         <v>85</v>
@@ -17255,7 +17286,7 @@
         <v>247</v>
       </c>
       <c r="R258" s="33" t="s">
-        <v>749</v>
+        <v>248</v>
       </c>
       <c r="S258" s="31"/>
       <c r="T258" s="31"/>
@@ -17278,20 +17309,20 @@
       <c r="G259" s="31"/>
       <c r="H259" s="31"/>
       <c r="I259" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J259" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K259" s="31"/>
       <c r="L259" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M259" s="33" t="s">
-        <v>247</v>
+        <v>749</v>
       </c>
       <c r="N259" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O259" s="33" t="s">
         <v>93</v>
@@ -17302,7 +17333,9 @@
       <c r="Q259" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R259" s="31"/>
+      <c r="R259" s="33" t="s">
+        <v>749</v>
+      </c>
       <c r="S259" s="31"/>
       <c r="T259" s="31"/>
       <c r="U259" s="31"/>
@@ -17324,20 +17357,20 @@
       <c r="G260" s="31"/>
       <c r="H260" s="31"/>
       <c r="I260" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J260" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K260" s="31"/>
       <c r="L260" s="31" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="M260" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N260" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O260" s="33" t="s">
         <v>93</v>
@@ -17348,9 +17381,7 @@
       <c r="Q260" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R260" s="33" t="s">
-        <v>248</v>
-      </c>
+      <c r="R260" s="31"/>
       <c r="S260" s="31"/>
       <c r="T260" s="31"/>
       <c r="U260" s="31"/>
@@ -17372,20 +17403,20 @@
       <c r="G261" s="31"/>
       <c r="H261" s="31"/>
       <c r="I261" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J261" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K261" s="31"/>
       <c r="L261" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M261" s="33" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="N261" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O261" s="33" t="s">
         <v>93</v>
@@ -17393,8 +17424,12 @@
       <c r="P261" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Q261" s="31"/>
-      <c r="R261" s="31"/>
+      <c r="Q261" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="R261" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="S261" s="31"/>
       <c r="T261" s="31"/>
       <c r="U261" s="31"/>
@@ -17416,30 +17451,28 @@
       <c r="G262" s="31"/>
       <c r="H262" s="31"/>
       <c r="I262" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J262" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K262" s="31"/>
       <c r="L262" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M262" s="33" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="N262" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O262" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P262" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q262" s="33" t="s">
-        <v>223</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Q262" s="31"/>
       <c r="R262" s="31"/>
       <c r="S262" s="31"/>
       <c r="T262" s="31"/>
@@ -17462,20 +17495,20 @@
       <c r="G263" s="31"/>
       <c r="H263" s="31"/>
       <c r="I263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K263" s="31"/>
       <c r="L263" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M263" s="33" t="s">
-        <v>623</v>
+        <v>223</v>
       </c>
       <c r="N263" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O263" s="33" t="s">
         <v>93</v>
@@ -17486,12 +17519,8 @@
       <c r="Q263" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="R263" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="S263" s="33" t="s">
-        <v>623</v>
-      </c>
+      <c r="R263" s="31"/>
+      <c r="S263" s="31"/>
       <c r="T263" s="31"/>
       <c r="U263" s="31"/>
       <c r="V263" s="31"/>
@@ -17512,17 +17541,17 @@
       <c r="G264" s="31"/>
       <c r="H264" s="31"/>
       <c r="I264" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J264" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K264" s="31"/>
       <c r="L264" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M264" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N264" s="31" t="s">
         <v>86</v>
@@ -17537,10 +17566,10 @@
         <v>223</v>
       </c>
       <c r="R264" s="33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="S264" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="T264" s="31"/>
       <c r="U264" s="31"/>
@@ -17562,17 +17591,17 @@
       <c r="G265" s="31"/>
       <c r="H265" s="31"/>
       <c r="I265" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J265" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K265" s="31"/>
       <c r="L265" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M265" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N265" s="31" t="s">
         <v>86</v>
@@ -17587,10 +17616,10 @@
         <v>223</v>
       </c>
       <c r="R265" s="33" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="S265" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="T265" s="31"/>
       <c r="U265" s="31"/>
@@ -17612,34 +17641,36 @@
       <c r="G266" s="31"/>
       <c r="H266" s="31"/>
       <c r="I266" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J266" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K266" s="31"/>
       <c r="L266" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M266" s="33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N266" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O266" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P266" s="33" t="s">
-        <v>631</v>
+        <v>102</v>
       </c>
       <c r="Q266" s="33" t="s">
         <v>223</v>
       </c>
       <c r="R266" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="S266" s="31"/>
+        <v>629</v>
+      </c>
+      <c r="S266" s="33" t="s">
+        <v>628</v>
+      </c>
       <c r="T266" s="31"/>
       <c r="U266" s="31"/>
       <c r="V266" s="31"/>
@@ -17660,31 +17691,33 @@
       <c r="G267" s="31"/>
       <c r="H267" s="31"/>
       <c r="I267" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J267" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K267" s="31"/>
       <c r="L267" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M267" s="33" t="s">
-        <v>144</v>
+        <v>630</v>
       </c>
       <c r="N267" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O267" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P267" s="33" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="Q267" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="R267" s="31"/>
+        <v>223</v>
+      </c>
+      <c r="R267" s="33" t="s">
+        <v>630</v>
+      </c>
       <c r="S267" s="31"/>
       <c r="T267" s="31"/>
       <c r="U267" s="31"/>
@@ -17706,20 +17739,20 @@
       <c r="G268" s="31"/>
       <c r="H268" s="31"/>
       <c r="I268" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J268" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K268" s="31"/>
       <c r="L268" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M268" s="33" t="s">
-        <v>636</v>
+        <v>144</v>
       </c>
       <c r="N268" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O268" s="33" t="s">
         <v>93</v>
@@ -17730,15 +17763,9 @@
       <c r="Q268" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R268" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="S268" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="T268" s="33" t="s">
-        <v>635</v>
-      </c>
+      <c r="R268" s="31"/>
+      <c r="S268" s="31"/>
+      <c r="T268" s="31"/>
       <c r="U268" s="31"/>
       <c r="V268" s="31"/>
       <c r="W268" s="31"/>
@@ -17758,20 +17785,20 @@
       <c r="G269" s="31"/>
       <c r="H269" s="31"/>
       <c r="I269" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J269" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K269" s="31"/>
       <c r="L269" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M269" s="33" t="s">
-        <v>144</v>
+        <v>636</v>
       </c>
       <c r="N269" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O269" s="33" t="s">
         <v>93</v>
@@ -17782,9 +17809,15 @@
       <c r="Q269" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R269" s="31"/>
-      <c r="S269" s="31"/>
-      <c r="T269" s="31"/>
+      <c r="R269" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="S269" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="T269" s="33" t="s">
+        <v>635</v>
+      </c>
       <c r="U269" s="31"/>
       <c r="V269" s="31"/>
       <c r="W269" s="31"/>
@@ -17804,20 +17837,20 @@
       <c r="G270" s="31"/>
       <c r="H270" s="31"/>
       <c r="I270" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J270" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K270" s="31"/>
       <c r="L270" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M270" s="33" t="s">
-        <v>640</v>
+        <v>144</v>
       </c>
       <c r="N270" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O270" s="33" t="s">
         <v>93</v>
@@ -17828,12 +17861,8 @@
       <c r="Q270" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R270" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="S270" s="33" t="s">
-        <v>640</v>
-      </c>
+      <c r="R270" s="31"/>
+      <c r="S270" s="31"/>
       <c r="T270" s="31"/>
       <c r="U270" s="31"/>
       <c r="V270" s="31"/>
@@ -17854,17 +17883,17 @@
       <c r="G271" s="31"/>
       <c r="H271" s="31"/>
       <c r="I271" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J271" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K271" s="31"/>
       <c r="L271" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M271" s="33" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="N271" s="31" t="s">
         <v>86</v>
@@ -17879,10 +17908,10 @@
         <v>144</v>
       </c>
       <c r="R271" s="33" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="S271" s="33" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="T271" s="31"/>
       <c r="U271" s="31"/>
@@ -17904,20 +17933,20 @@
       <c r="G272" s="31"/>
       <c r="H272" s="31"/>
       <c r="I272" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J272" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K272" s="31"/>
       <c r="L272" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M272" s="33" t="s">
-        <v>144</v>
+        <v>650</v>
       </c>
       <c r="N272" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O272" s="33" t="s">
         <v>93</v>
@@ -17928,8 +17957,12 @@
       <c r="Q272" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R272" s="31"/>
-      <c r="S272" s="31"/>
+      <c r="R272" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="S272" s="33" t="s">
+        <v>650</v>
+      </c>
       <c r="T272" s="31"/>
       <c r="U272" s="31"/>
       <c r="V272" s="31"/>
@@ -17950,20 +17983,20 @@
       <c r="G273" s="31"/>
       <c r="H273" s="31"/>
       <c r="I273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K273" s="31"/>
       <c r="L273" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M273" s="33" t="s">
-        <v>643</v>
+        <v>144</v>
       </c>
       <c r="N273" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O273" s="33" t="s">
         <v>93</v>
@@ -17974,12 +18007,8 @@
       <c r="Q273" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R273" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="S273" s="33" t="s">
-        <v>643</v>
-      </c>
+      <c r="R273" s="31"/>
+      <c r="S273" s="31"/>
       <c r="T273" s="31"/>
       <c r="U273" s="31"/>
       <c r="V273" s="31"/>
@@ -18000,20 +18029,20 @@
       <c r="G274" s="31"/>
       <c r="H274" s="31"/>
       <c r="I274" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J274" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K274" s="31"/>
       <c r="L274" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M274" s="31" t="s">
-        <v>648</v>
+      <c r="M274" s="33" t="s">
+        <v>643</v>
       </c>
       <c r="N274" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O274" s="33" t="s">
         <v>93</v>
@@ -18025,14 +18054,12 @@
         <v>144</v>
       </c>
       <c r="R274" s="33" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="S274" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="T274" s="33" t="s">
-        <v>647</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="T274" s="31"/>
       <c r="U274" s="31"/>
       <c r="V274" s="31"/>
       <c r="W274" s="31"/>
@@ -18052,20 +18079,20 @@
       <c r="G275" s="31"/>
       <c r="H275" s="31"/>
       <c r="I275" s="33" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J275" s="33" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K275" s="31"/>
       <c r="L275" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M275" s="33" t="s">
-        <v>650</v>
+      <c r="M275" s="31" t="s">
+        <v>648</v>
       </c>
       <c r="N275" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O275" s="33" t="s">
         <v>93</v>
@@ -18077,12 +18104,14 @@
         <v>144</v>
       </c>
       <c r="R275" s="33" t="s">
-        <v>634</v>
+        <v>768</v>
       </c>
       <c r="S275" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="T275" s="31"/>
+        <v>646</v>
+      </c>
+      <c r="T275" s="33" t="s">
+        <v>647</v>
+      </c>
       <c r="U275" s="31"/>
       <c r="V275" s="31"/>
       <c r="W275" s="31"/>
@@ -18102,10 +18131,10 @@
       <c r="G276" s="31"/>
       <c r="H276" s="31"/>
       <c r="I276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K276" s="31"/>
       <c r="L276" s="31" t="s">
@@ -18152,20 +18181,20 @@
       <c r="G277" s="31"/>
       <c r="H277" s="31"/>
       <c r="I277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K277" s="31"/>
       <c r="L277" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N277" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O277" s="33" t="s">
         <v>93</v>
@@ -18174,12 +18203,14 @@
         <v>102</v>
       </c>
       <c r="Q277" s="33" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="R277" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="S277" s="31"/>
+        <v>634</v>
+      </c>
+      <c r="S277" s="33" t="s">
+        <v>650</v>
+      </c>
       <c r="T277" s="31"/>
       <c r="U277" s="31"/>
       <c r="V277" s="31"/>
@@ -18200,20 +18231,20 @@
       <c r="G278" s="31"/>
       <c r="H278" s="31"/>
       <c r="I278" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J278" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K278" s="31"/>
       <c r="L278" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M278" s="31" t="s">
-        <v>655</v>
+      <c r="M278" s="33" t="s">
+        <v>651</v>
       </c>
       <c r="N278" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O278" s="33" t="s">
         <v>93</v>
@@ -18225,14 +18256,10 @@
         <v>229</v>
       </c>
       <c r="R278" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="S278" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="T278" s="33" t="s">
-        <v>654</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="S278" s="31"/>
+      <c r="T278" s="31"/>
       <c r="U278" s="31"/>
       <c r="V278" s="31"/>
       <c r="W278" s="31"/>
@@ -18252,20 +18279,20 @@
       <c r="G279" s="31"/>
       <c r="H279" s="31"/>
       <c r="I279" s="33" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J279" s="33" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K279" s="31"/>
       <c r="L279" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M279" s="33" t="s">
-        <v>656</v>
+      <c r="M279" s="31" t="s">
+        <v>655</v>
       </c>
       <c r="N279" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O279" s="33" t="s">
         <v>93</v>
@@ -18277,12 +18304,14 @@
         <v>229</v>
       </c>
       <c r="R279" s="33" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="S279" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="T279" s="31"/>
+        <v>652</v>
+      </c>
+      <c r="T279" s="33" t="s">
+        <v>654</v>
+      </c>
       <c r="U279" s="31"/>
       <c r="V279" s="31"/>
       <c r="W279" s="31"/>
@@ -18302,20 +18331,20 @@
       <c r="G280" s="31"/>
       <c r="H280" s="31"/>
       <c r="I280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K280" s="31"/>
       <c r="L280" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N280" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O280" s="33" t="s">
         <v>93</v>
@@ -18327,9 +18356,11 @@
         <v>229</v>
       </c>
       <c r="R280" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="S280" s="31"/>
+        <v>651</v>
+      </c>
+      <c r="S280" s="33" t="s">
+        <v>656</v>
+      </c>
       <c r="T280" s="31"/>
       <c r="U280" s="31"/>
       <c r="V280" s="31"/>
@@ -18350,20 +18381,20 @@
       <c r="G281" s="31"/>
       <c r="H281" s="31"/>
       <c r="I281" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J281" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K281" s="31"/>
       <c r="L281" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M281" s="33" t="s">
-        <v>229</v>
+        <v>657</v>
       </c>
       <c r="N281" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O281" s="33" t="s">
         <v>93</v>
@@ -18374,7 +18405,9 @@
       <c r="Q281" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R281" s="31"/>
+      <c r="R281" s="33" t="s">
+        <v>657</v>
+      </c>
       <c r="S281" s="31"/>
       <c r="T281" s="31"/>
       <c r="U281" s="31"/>
@@ -18396,14 +18429,14 @@
       <c r="G282" s="31"/>
       <c r="H282" s="31"/>
       <c r="I282" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J282" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K282" s="31"/>
       <c r="L282" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M282" s="33" t="s">
         <v>229</v>
@@ -18436,22 +18469,26 @@
       <c r="A283" s="31"/>
       <c r="B283" s="31"/>
       <c r="C283" s="31"/>
+      <c r="D283" s="31"/>
+      <c r="E283" s="31"/>
+      <c r="F283" s="31"/>
+      <c r="G283" s="31"/>
       <c r="H283" s="31"/>
       <c r="I283" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J283" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K283" s="31"/>
       <c r="L283" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M283" s="31" t="s">
-        <v>661</v>
+        <v>208</v>
+      </c>
+      <c r="M283" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="N283" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O283" s="33" t="s">
         <v>93</v>
@@ -18460,20 +18497,12 @@
         <v>102</v>
       </c>
       <c r="Q283" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="R283" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="S283" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="T283" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="U283" s="31">
-        <v>1993</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="R283" s="31"/>
+      <c r="S283" s="31"/>
+      <c r="T283" s="31"/>
+      <c r="U283" s="31"/>
       <c r="V283" s="31"/>
       <c r="W283" s="31"/>
       <c r="X283" s="31"/>
@@ -18483,32 +18512,22 @@
       <c r="AB283" s="31"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A284" s="34"/>
-      <c r="B284" s="34"/>
-      <c r="C284" s="34" t="s">
-        <v>756</v>
-      </c>
-      <c r="D284" s="31"/>
-      <c r="E284" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="F284" s="31"/>
-      <c r="G284" s="31" t="s">
-        <v>664</v>
-      </c>
+      <c r="A284" s="31"/>
+      <c r="B284" s="31"/>
+      <c r="C284" s="31"/>
       <c r="H284" s="31"/>
       <c r="I284" s="33" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J284" s="33" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K284" s="31"/>
       <c r="L284" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M284" s="31" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="N284" s="31" t="s">
         <v>87</v>
@@ -18525,16 +18544,16 @@
       <c r="R284" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="S284" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="T284" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="U284" s="31"/>
-      <c r="V284" s="31">
+      <c r="S284" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="T284" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="U284" s="31">
         <v>1993</v>
       </c>
+      <c r="V284" s="31"/>
       <c r="W284" s="31"/>
       <c r="X284" s="31"/>
       <c r="Y284" s="31"/>
@@ -18546,29 +18565,29 @@
       <c r="A285" s="34"/>
       <c r="B285" s="34"/>
       <c r="C285" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F285" s="31"/>
       <c r="G285" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H285" s="31"/>
       <c r="I285" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J285" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K285" s="31"/>
       <c r="L285" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M285" s="31" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="N285" s="31" t="s">
         <v>87</v>
@@ -18586,14 +18605,14 @@
         <v>220</v>
       </c>
       <c r="S285" s="31" t="s">
-        <v>669</v>
+        <v>221</v>
       </c>
       <c r="T285" s="31" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="U285" s="31"/>
       <c r="V285" s="31">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="W285" s="31"/>
       <c r="X285" s="31"/>
@@ -18606,29 +18625,29 @@
       <c r="A286" s="34"/>
       <c r="B286" s="34"/>
       <c r="C286" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D286" s="31"/>
       <c r="E286" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F286" s="31"/>
       <c r="G286" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H286" s="31"/>
       <c r="I286" s="33" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="J286" s="33" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K286" s="31"/>
       <c r="L286" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M286" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="N286" s="31" t="s">
         <v>87</v>
@@ -18646,14 +18665,14 @@
         <v>220</v>
       </c>
       <c r="S286" s="31" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="T286" s="31" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="U286" s="31"/>
       <c r="V286" s="31">
-        <v>1979</v>
+        <v>1994</v>
       </c>
       <c r="W286" s="31"/>
       <c r="X286" s="31"/>
@@ -18666,32 +18685,32 @@
       <c r="A287" s="34"/>
       <c r="B287" s="34"/>
       <c r="C287" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D287" s="31"/>
       <c r="E287" s="31" t="s">
-        <v>763</v>
+        <v>672</v>
       </c>
       <c r="F287" s="31"/>
       <c r="G287" s="31" t="s">
-        <v>763</v>
+        <v>672</v>
       </c>
       <c r="H287" s="31"/>
       <c r="I287" s="33" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J287" s="33" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K287" s="31"/>
       <c r="L287" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M287" s="31" t="s">
-        <v>219</v>
+        <v>672</v>
       </c>
       <c r="N287" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O287" s="33" t="s">
         <v>93</v>
@@ -18702,11 +18721,19 @@
       <c r="Q287" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="R287" s="31"/>
-      <c r="S287" s="31"/>
-      <c r="T287" s="31"/>
+      <c r="R287" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="S287" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="T287" s="31" t="s">
+        <v>674</v>
+      </c>
       <c r="U287" s="31"/>
-      <c r="V287" s="31"/>
+      <c r="V287" s="31">
+        <v>1979</v>
+      </c>
       <c r="W287" s="31"/>
       <c r="X287" s="31"/>
       <c r="Y287" s="31"/>
@@ -18715,23 +18742,29 @@
       <c r="AB287" s="31"/>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A288" s="31"/>
-      <c r="B288" s="31"/>
-      <c r="C288" s="31"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="34" t="s">
+        <v>761</v>
+      </c>
       <c r="D288" s="31"/>
-      <c r="E288" s="31"/>
+      <c r="E288" s="31" t="s">
+        <v>762</v>
+      </c>
       <c r="F288" s="31"/>
-      <c r="G288" s="31"/>
+      <c r="G288" s="31" t="s">
+        <v>762</v>
+      </c>
       <c r="H288" s="31"/>
       <c r="I288" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K288" s="31"/>
       <c r="L288" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M288" s="31" t="s">
         <v>219</v>
@@ -18761,35 +18794,29 @@
       <c r="AB288" s="31"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A289" s="34"/>
-      <c r="B289" s="34"/>
-      <c r="C289" s="34" t="s">
-        <v>759</v>
-      </c>
+      <c r="A289" s="31"/>
+      <c r="B289" s="31"/>
+      <c r="C289" s="31"/>
       <c r="D289" s="31"/>
-      <c r="E289" s="31" t="s">
-        <v>661</v>
-      </c>
+      <c r="E289" s="31"/>
       <c r="F289" s="31"/>
-      <c r="G289" s="31" t="s">
-        <v>661</v>
-      </c>
+      <c r="G289" s="31"/>
       <c r="H289" s="31"/>
       <c r="I289" s="33" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="K289" s="31"/>
       <c r="L289" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M289" s="31" t="s">
-        <v>661</v>
+        <v>219</v>
       </c>
       <c r="N289" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O289" s="33" t="s">
         <v>93</v>
@@ -18800,21 +18827,11 @@
       <c r="Q289" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="R289" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="S289" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="T289" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="U289" s="31">
-        <v>1993</v>
-      </c>
-      <c r="V289" s="31">
-        <v>1993</v>
-      </c>
+      <c r="R289" s="31"/>
+      <c r="S289" s="31"/>
+      <c r="T289" s="31"/>
+      <c r="U289" s="31"/>
+      <c r="V289" s="31"/>
       <c r="W289" s="31"/>
       <c r="X289" s="31"/>
       <c r="Y289" s="31"/>
@@ -18823,29 +18840,35 @@
       <c r="AB289" s="31"/>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A290" s="31"/>
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="34" t="s">
+        <v>779</v>
+      </c>
       <c r="D290" s="31"/>
-      <c r="E290" s="31"/>
+      <c r="E290" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="F290" s="31"/>
-      <c r="G290" s="31"/>
+      <c r="G290" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="H290" s="31"/>
       <c r="I290" s="33" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="K290" s="31"/>
       <c r="L290" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M290" s="33" t="s">
-        <v>102</v>
+      <c r="M290" s="31" t="s">
+        <v>661</v>
       </c>
       <c r="N290" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O290" s="33" t="s">
         <v>93</v>
@@ -18853,12 +18876,24 @@
       <c r="P290" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Q290" s="31"/>
-      <c r="R290" s="31"/>
-      <c r="S290" s="31"/>
-      <c r="T290" s="31"/>
-      <c r="U290" s="31"/>
-      <c r="V290" s="31"/>
+      <c r="Q290" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="R290" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="S290" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="T290" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="U290" s="31">
+        <v>1993</v>
+      </c>
+      <c r="V290" s="31">
+        <v>1993</v>
+      </c>
       <c r="W290" s="31"/>
       <c r="X290" s="31"/>
       <c r="Y290" s="31"/>
@@ -18876,39 +18911,31 @@
       <c r="G291" s="31"/>
       <c r="H291" s="31"/>
       <c r="I291" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J291" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K291" s="31"/>
       <c r="L291" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M291" s="33" t="s">
-        <v>684</v>
+        <v>102</v>
       </c>
       <c r="N291" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O291" s="33" t="s">
-        <v>679</v>
+        <v>93</v>
       </c>
       <c r="P291" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q291" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="R291" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="S291" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="T291" s="33" t="s">
-        <v>685</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Q291" s="31"/>
+      <c r="R291" s="31"/>
+      <c r="S291" s="31"/>
+      <c r="T291" s="31"/>
       <c r="U291" s="31"/>
       <c r="V291" s="31"/>
       <c r="W291" s="31"/>
@@ -18928,29 +18955,39 @@
       <c r="G292" s="31"/>
       <c r="H292" s="31"/>
       <c r="I292" s="33" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="J292" s="33" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="K292" s="31"/>
       <c r="L292" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M292" s="33" t="s">
-        <v>262</v>
+        <v>684</v>
       </c>
       <c r="N292" s="31" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O292" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="P292" s="31"/>
-      <c r="Q292" s="31"/>
-      <c r="R292" s="31"/>
-      <c r="S292" s="31"/>
-      <c r="T292" s="31"/>
+        <v>679</v>
+      </c>
+      <c r="P292" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q292" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="R292" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="S292" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="T292" s="33" t="s">
+        <v>685</v>
+      </c>
       <c r="U292" s="31"/>
       <c r="V292" s="31"/>
       <c r="W292" s="31"/>
@@ -18970,36 +19007,28 @@
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
       <c r="I293" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J293" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K293" s="31"/>
       <c r="L293" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M293" s="33" t="s">
-        <v>689</v>
+        <v>262</v>
       </c>
       <c r="N293" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O293" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P293" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q293" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="R293" s="33" t="s">
-        <v>688</v>
-      </c>
-      <c r="S293" s="33" t="s">
-        <v>689</v>
-      </c>
+      <c r="P293" s="31"/>
+      <c r="Q293" s="31"/>
+      <c r="R293" s="31"/>
+      <c r="S293" s="31"/>
       <c r="T293" s="31"/>
       <c r="U293" s="31"/>
       <c r="V293" s="31"/>
@@ -19020,28 +19049,36 @@
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="33" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J294" s="33" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K294" s="31"/>
       <c r="L294" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M294" s="33" t="s">
-        <v>262</v>
+        <v>689</v>
       </c>
       <c r="N294" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O294" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P294" s="33"/>
-      <c r="Q294" s="31"/>
-      <c r="R294" s="31"/>
-      <c r="S294" s="31"/>
+      <c r="P294" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q294" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="R294" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="S294" s="33" t="s">
+        <v>689</v>
+      </c>
       <c r="T294" s="31"/>
       <c r="U294" s="31"/>
       <c r="V294" s="31"/>
@@ -19062,36 +19099,28 @@
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
       <c r="I295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K295" s="31"/>
       <c r="L295" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M295" s="33" t="s">
-        <v>692</v>
+        <v>262</v>
       </c>
       <c r="N295" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O295" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P295" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q295" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="R295" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="S295" s="33" t="s">
-        <v>692</v>
-      </c>
+      <c r="P295" s="33"/>
+      <c r="Q295" s="31"/>
+      <c r="R295" s="31"/>
+      <c r="S295" s="31"/>
       <c r="T295" s="31"/>
       <c r="U295" s="31"/>
       <c r="V295" s="31"/>
@@ -19112,17 +19141,17 @@
       <c r="G296" s="31"/>
       <c r="H296" s="31"/>
       <c r="I296" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J296" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K296" s="31"/>
       <c r="L296" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M296" s="33" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="N296" s="31" t="s">
         <v>86</v>
@@ -19131,16 +19160,16 @@
         <v>262</v>
       </c>
       <c r="P296" s="33" t="s">
-        <v>698</v>
+        <v>263</v>
       </c>
       <c r="Q296" s="33" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="R296" s="33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="S296" s="33" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="T296" s="31"/>
       <c r="U296" s="31"/>
@@ -19162,39 +19191,37 @@
       <c r="G297" s="31"/>
       <c r="H297" s="31"/>
       <c r="I297" s="33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="J297" s="33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="K297" s="31"/>
       <c r="L297" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M297" s="33" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="N297" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O297" s="33" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="P297" s="33" t="s">
-        <v>302</v>
+        <v>698</v>
       </c>
       <c r="Q297" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="R297" s="33" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="S297" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="T297" s="33" t="s">
-        <v>703</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="T297" s="31"/>
       <c r="U297" s="31"/>
       <c r="V297" s="31"/>
       <c r="W297" s="31"/>
@@ -19214,20 +19241,20 @@
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="33" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J298" s="33" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K298" s="31"/>
       <c r="L298" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M298" s="33" t="s">
-        <v>302</v>
+        <v>704</v>
       </c>
       <c r="N298" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O298" s="33" t="s">
         <v>241</v>
@@ -19235,10 +19262,18 @@
       <c r="P298" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q298" s="31"/>
-      <c r="R298" s="31"/>
-      <c r="S298" s="31"/>
-      <c r="T298" s="31"/>
+      <c r="Q298" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="R298" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="S298" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="T298" s="33" t="s">
+        <v>703</v>
+      </c>
       <c r="U298" s="31"/>
       <c r="V298" s="31"/>
       <c r="W298" s="31"/>
@@ -19258,20 +19293,20 @@
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J299" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K299" s="31"/>
       <c r="L299" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M299" s="33" t="s">
-        <v>710</v>
+        <v>302</v>
       </c>
       <c r="N299" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O299" s="33" t="s">
         <v>241</v>
@@ -19279,18 +19314,10 @@
       <c r="P299" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q299" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="R299" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="S299" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="T299" s="33" t="s">
-        <v>709</v>
-      </c>
+      <c r="Q299" s="31"/>
+      <c r="R299" s="31"/>
+      <c r="S299" s="31"/>
+      <c r="T299" s="31"/>
       <c r="U299" s="31"/>
       <c r="V299" s="31"/>
       <c r="W299" s="31"/>
@@ -19310,20 +19337,20 @@
       <c r="G300" s="31"/>
       <c r="H300" s="31"/>
       <c r="I300" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="J300" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K300" s="31"/>
       <c r="L300" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M300" s="33" t="s">
-        <v>302</v>
+        <v>710</v>
       </c>
       <c r="N300" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O300" s="33" t="s">
         <v>241</v>
@@ -19331,10 +19358,18 @@
       <c r="P300" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q300" s="31"/>
-      <c r="R300" s="31"/>
-      <c r="S300" s="31"/>
-      <c r="T300" s="31"/>
+      <c r="Q300" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="R300" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="S300" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="T300" s="33" t="s">
+        <v>709</v>
+      </c>
       <c r="U300" s="31"/>
       <c r="V300" s="31"/>
       <c r="W300" s="31"/>
@@ -19354,36 +19389,30 @@
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J301" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K301" s="31"/>
       <c r="L301" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M301" s="33" t="s">
-        <v>712</v>
+        <v>302</v>
       </c>
       <c r="N301" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O301" s="33" t="s">
         <v>241</v>
       </c>
       <c r="P301" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q301" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="R301" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="S301" s="33" t="s">
-        <v>712</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="Q301" s="31"/>
+      <c r="R301" s="31"/>
+      <c r="S301" s="31"/>
       <c r="T301" s="31"/>
       <c r="U301" s="31"/>
       <c r="V301" s="31"/>
@@ -19404,36 +19433,30 @@
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
       <c r="I302" s="33" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="J302" s="33" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="K302" s="31"/>
       <c r="L302" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M302" s="33" t="s">
-        <v>745</v>
+        <v>302</v>
       </c>
       <c r="N302" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O302" s="33" t="s">
         <v>241</v>
       </c>
       <c r="P302" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q302" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="R302" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="S302" s="33" t="s">
-        <v>745</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="Q302" s="31"/>
+      <c r="R302" s="31"/>
+      <c r="S302" s="31"/>
       <c r="T302" s="31"/>
       <c r="U302" s="31"/>
       <c r="V302" s="31"/>
@@ -19454,17 +19477,17 @@
       <c r="G303" s="31"/>
       <c r="H303" s="31"/>
       <c r="I303" s="33" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="J303" s="33" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="K303" s="31"/>
       <c r="L303" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M303" s="33" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="N303" s="31" t="s">
         <v>86</v>
@@ -19473,16 +19496,16 @@
         <v>241</v>
       </c>
       <c r="P303" s="33" t="s">
-        <v>242</v>
+        <v>713</v>
       </c>
       <c r="Q303" s="33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="R303" s="33" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="S303" s="33" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="T303" s="31"/>
       <c r="U303" s="31"/>
@@ -19504,20 +19527,20 @@
       <c r="G304" s="31"/>
       <c r="H304" s="31"/>
       <c r="I304" s="33" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J304" s="33" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K304" s="31"/>
       <c r="L304" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M304" s="33" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="N304" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O304" s="33" t="s">
         <v>241</v>
@@ -19526,12 +19549,14 @@
         <v>242</v>
       </c>
       <c r="Q304" s="33" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="R304" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="S304" s="31"/>
+        <v>718</v>
+      </c>
+      <c r="S304" s="33" t="s">
+        <v>745</v>
+      </c>
       <c r="T304" s="31"/>
       <c r="U304" s="31"/>
       <c r="V304" s="31"/>
@@ -19552,20 +19577,20 @@
       <c r="G305" s="31"/>
       <c r="H305" s="31"/>
       <c r="I305" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J305" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K305" s="31"/>
       <c r="L305" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M305" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N305" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O305" s="33" t="s">
         <v>241</v>
@@ -19574,10 +19599,14 @@
         <v>242</v>
       </c>
       <c r="Q305" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="R305" s="31"/>
-      <c r="S305" s="31"/>
+        <v>717</v>
+      </c>
+      <c r="R305" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="S305" s="33" t="s">
+        <v>719</v>
+      </c>
       <c r="T305" s="31"/>
       <c r="U305" s="31"/>
       <c r="V305" s="31"/>
@@ -19598,20 +19627,20 @@
       <c r="G306" s="31"/>
       <c r="H306" s="31"/>
       <c r="I306" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J306" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K306" s="31"/>
       <c r="L306" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M306" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="N306" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O306" s="33" t="s">
         <v>241</v>
@@ -19620,17 +19649,13 @@
         <v>242</v>
       </c>
       <c r="Q306" s="33" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="R306" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="S306" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="T306" s="33" t="s">
-        <v>726</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="S306" s="31"/>
+      <c r="T306" s="31"/>
       <c r="U306" s="31"/>
       <c r="V306" s="31"/>
       <c r="W306" s="31"/>
@@ -19650,20 +19675,20 @@
       <c r="G307" s="31"/>
       <c r="H307" s="31"/>
       <c r="I307" s="33" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="J307" s="33" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="K307" s="31"/>
       <c r="L307" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M307" s="31" t="s">
-        <v>242</v>
+      <c r="M307" s="33" t="s">
+        <v>722</v>
       </c>
       <c r="N307" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O307" s="33" t="s">
         <v>241</v>
@@ -19671,7 +19696,9 @@
       <c r="P307" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q307" s="31"/>
+      <c r="Q307" s="33" t="s">
+        <v>722</v>
+      </c>
       <c r="R307" s="31"/>
       <c r="S307" s="31"/>
       <c r="T307" s="31"/>
@@ -19694,20 +19721,20 @@
       <c r="G308" s="31"/>
       <c r="H308" s="31"/>
       <c r="I308" s="33" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J308" s="33" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="K308" s="31"/>
       <c r="L308" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M308" s="33" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="N308" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O308" s="33" t="s">
         <v>241</v>
@@ -19716,15 +19743,17 @@
         <v>242</v>
       </c>
       <c r="Q308" s="33" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R308" s="33" t="s">
-        <v>292</v>
+        <v>724</v>
       </c>
       <c r="S308" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="T308" s="31"/>
+        <v>725</v>
+      </c>
+      <c r="T308" s="33" t="s">
+        <v>726</v>
+      </c>
       <c r="U308" s="31"/>
       <c r="V308" s="31"/>
       <c r="W308" s="31"/>
@@ -19744,20 +19773,20 @@
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
       <c r="I309" s="33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="J309" s="33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K309" s="31"/>
       <c r="L309" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M309" s="33" t="s">
-        <v>292</v>
+      <c r="M309" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="N309" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O309" s="33" t="s">
         <v>241</v>
@@ -19765,12 +19794,8 @@
       <c r="P309" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q309" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="R309" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q309" s="31"/>
+      <c r="R309" s="31"/>
       <c r="S309" s="31"/>
       <c r="T309" s="31"/>
       <c r="U309" s="31"/>
@@ -19792,20 +19817,20 @@
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
       <c r="I310" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J310" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K310" s="31"/>
       <c r="L310" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M310" s="33" t="s">
-        <v>242</v>
+        <v>729</v>
       </c>
       <c r="N310" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O310" s="33" t="s">
         <v>241</v>
@@ -19813,9 +19838,15 @@
       <c r="P310" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q310" s="31"/>
-      <c r="R310" s="31"/>
-      <c r="S310" s="31"/>
+      <c r="Q310" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="R310" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="S310" s="33" t="s">
+        <v>729</v>
+      </c>
       <c r="T310" s="31"/>
       <c r="U310" s="31"/>
       <c r="V310" s="31"/>
@@ -19836,36 +19867,34 @@
       <c r="G311" s="31"/>
       <c r="H311" s="31"/>
       <c r="I311" s="33" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J311" s="33" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K311" s="31"/>
       <c r="L311" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M311" s="33" t="s">
-        <v>733</v>
+        <v>292</v>
       </c>
       <c r="N311" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O311" s="33" t="s">
-        <v>734</v>
+        <v>241</v>
       </c>
       <c r="P311" s="33" t="s">
-        <v>735</v>
+        <v>242</v>
       </c>
       <c r="Q311" s="33" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="R311" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="S311" s="33" t="s">
-        <v>733</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="S311" s="31"/>
       <c r="T311" s="31"/>
       <c r="U311" s="31"/>
       <c r="V311" s="31"/>
@@ -19886,25 +19915,27 @@
       <c r="G312" s="31"/>
       <c r="H312" s="31"/>
       <c r="I312" s="33" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J312" s="33" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K312" s="31"/>
       <c r="L312" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M312" s="33" t="s">
-        <v>734</v>
+        <v>242</v>
       </c>
       <c r="N312" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O312" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="P312" s="31"/>
+        <v>241</v>
+      </c>
+      <c r="P312" s="33" t="s">
+        <v>242</v>
+      </c>
       <c r="Q312" s="31"/>
       <c r="R312" s="31"/>
       <c r="S312" s="31"/>
@@ -19928,24 +19959,36 @@
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
       <c r="I313" s="33" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="J313" s="33" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="K313" s="31"/>
       <c r="L313" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M313" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="N313" s="31"/>
-      <c r="O313" s="31"/>
-      <c r="P313" s="31"/>
-      <c r="Q313" s="31"/>
-      <c r="R313" s="31"/>
-      <c r="S313" s="31"/>
+        <v>733</v>
+      </c>
+      <c r="N313" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O313" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="P313" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q313" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="R313" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="S313" s="33" t="s">
+        <v>733</v>
+      </c>
       <c r="T313" s="31"/>
       <c r="U313" s="31"/>
       <c r="V313" s="31"/>
@@ -19955,6 +19998,163 @@
       <c r="Z313" s="31"/>
       <c r="AA313" s="31"/>
       <c r="AB313" s="31"/>
+    </row>
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A314" s="31"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="31"/>
+      <c r="E314" s="31"/>
+      <c r="F314" s="31"/>
+      <c r="G314" s="31"/>
+      <c r="H314" s="31"/>
+      <c r="I314" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J314" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="K314" s="31"/>
+      <c r="L314" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M314" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="N314" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O314" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="P314" s="31"/>
+      <c r="Q314" s="31"/>
+      <c r="R314" s="31"/>
+      <c r="S314" s="31"/>
+      <c r="T314" s="31"/>
+      <c r="U314" s="31"/>
+      <c r="V314" s="31"/>
+      <c r="W314" s="31"/>
+      <c r="X314" s="31"/>
+      <c r="Y314" s="31"/>
+      <c r="Z314" s="31"/>
+      <c r="AA314" s="31"/>
+      <c r="AB314" s="31"/>
+    </row>
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A315" s="31"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
+      <c r="D315" s="31"/>
+      <c r="E315" s="31"/>
+      <c r="F315" s="31"/>
+      <c r="G315" s="31"/>
+      <c r="H315" s="31"/>
+      <c r="I315" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="J315" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="K315" s="31"/>
+      <c r="L315" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="M315" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="N315" s="31"/>
+      <c r="O315" s="31"/>
+      <c r="P315" s="31"/>
+      <c r="Q315" s="31"/>
+      <c r="R315" s="31"/>
+      <c r="S315" s="31"/>
+      <c r="T315" s="31"/>
+      <c r="U315" s="31"/>
+      <c r="V315" s="31"/>
+      <c r="W315" s="31"/>
+      <c r="X315" s="31"/>
+      <c r="Y315" s="31"/>
+      <c r="Z315" s="31"/>
+      <c r="AA315" s="31"/>
+      <c r="AB315" s="31"/>
+    </row>
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="I316" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="J316" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="L316" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="M316" s="37" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="I317" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="J317" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="L317" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="M317" s="37" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="I318" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="J318" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="L318" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M318" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="N318" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O318" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P318" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q318" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="R318" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="I319" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="J319" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="L319" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="M319" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="N319" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="O319" s="37" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="788">
   <si>
     <t>ACARTELA</t>
   </si>
@@ -3914,11 +3914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB319"/>
+  <dimension ref="A1:AB318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P258" sqref="P258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9810,7 +9810,9 @@
         <v>259</v>
       </c>
       <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
+      <c r="U103" s="31">
+        <v>1995</v>
+      </c>
       <c r="V103" s="31"/>
       <c r="W103" s="31"/>
       <c r="X103" s="31"/>
@@ -10318,7 +10320,9 @@
         <v>275</v>
       </c>
       <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
+      <c r="U113" s="31">
+        <v>1966</v>
+      </c>
       <c r="V113" s="31"/>
       <c r="W113" s="31"/>
       <c r="X113" s="31"/>
@@ -10708,9 +10712,13 @@
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
       <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
+      <c r="E122" s="38" t="s">
+        <v>766</v>
+      </c>
       <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
+      <c r="G122" s="38" t="s">
+        <v>766</v>
+      </c>
       <c r="H122" s="31"/>
       <c r="I122" s="31" t="s">
         <v>357</v>
@@ -13264,7 +13272,9 @@
       <c r="T174" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="U174" s="31"/>
+      <c r="U174" s="31">
+        <v>1954</v>
+      </c>
       <c r="V174" s="31"/>
       <c r="W174" s="31"/>
       <c r="X174" s="31"/>
@@ -13432,7 +13442,9 @@
       <c r="T177" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="U177" s="31"/>
+      <c r="U177" s="31">
+        <v>1973</v>
+      </c>
       <c r="V177" s="31"/>
       <c r="W177" s="31"/>
       <c r="X177" s="31"/>
@@ -13484,7 +13496,9 @@
       <c r="T178" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="U178" s="31"/>
+      <c r="U178" s="31">
+        <v>1983</v>
+      </c>
       <c r="V178" s="31"/>
       <c r="W178" s="31"/>
       <c r="X178" s="31"/>
@@ -13498,39 +13512,41 @@
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
       <c r="D179" s="38"/>
-      <c r="E179" s="38" t="s">
-        <v>766</v>
-      </c>
+      <c r="E179" s="38"/>
       <c r="F179" s="38"/>
-      <c r="G179" s="38" t="s">
-        <v>766</v>
-      </c>
+      <c r="G179" s="38"/>
       <c r="H179" s="31"/>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="J179" s="33" t="s">
+        <v>505</v>
+      </c>
       <c r="K179" s="31"/>
       <c r="L179" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M179" s="31" t="s">
-        <v>272</v>
+      <c r="M179" s="33" t="s">
+        <v>505</v>
       </c>
       <c r="N179" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P179" s="31" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="Q179" s="31" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="R179" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="S179" s="31"/>
+        <v>750</v>
+      </c>
+      <c r="S179" s="31" t="s">
+        <v>505</v>
+      </c>
       <c r="T179" s="31"/>
       <c r="U179" s="31"/>
       <c r="V179" s="31"/>
@@ -13541,30 +13557,30 @@
       <c r="AA179" s="31"/>
       <c r="AB179" s="31"/>
     </row>
-    <row r="180" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" s="31"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
-      <c r="D180" s="38"/>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="38"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
       <c r="H180" s="31"/>
       <c r="I180" s="33" t="s">
-        <v>505</v>
+        <v>307</v>
       </c>
       <c r="J180" s="33" t="s">
-        <v>505</v>
+        <v>307</v>
       </c>
       <c r="K180" s="31"/>
       <c r="L180" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M180" s="33" t="s">
-        <v>505</v>
+      <c r="M180" s="36" t="s">
+        <v>308</v>
       </c>
       <c r="N180" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O180" s="31" t="s">
         <v>89</v>
@@ -13572,15 +13588,9 @@
       <c r="P180" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="Q180" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="R180" s="31" t="s">
-        <v>750</v>
-      </c>
-      <c r="S180" s="31" t="s">
-        <v>505</v>
-      </c>
+      <c r="Q180" s="31"/>
+      <c r="R180" s="31"/>
+      <c r="S180" s="31"/>
       <c r="T180" s="31"/>
       <c r="U180" s="31"/>
       <c r="V180" s="31"/>
@@ -13601,31 +13611,39 @@
       <c r="G181" s="31"/>
       <c r="H181" s="31"/>
       <c r="I181" s="33" t="s">
-        <v>307</v>
+        <v>506</v>
       </c>
       <c r="J181" s="33" t="s">
-        <v>307</v>
+        <v>506</v>
       </c>
       <c r="K181" s="31"/>
       <c r="L181" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M181" s="36" t="s">
-        <v>308</v>
+      <c r="M181" s="33" t="s">
+        <v>506</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O181" s="31" t="s">
         <v>89</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q181" s="31"/>
-      <c r="R181" s="31"/>
-      <c r="S181" s="31"/>
-      <c r="T181" s="31"/>
+        <v>278</v>
+      </c>
+      <c r="Q181" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="R181" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="S181" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="T181" s="31" t="s">
+        <v>754</v>
+      </c>
       <c r="U181" s="31"/>
       <c r="V181" s="31"/>
       <c r="W181" s="31"/>
@@ -13645,39 +13663,37 @@
       <c r="G182" s="31"/>
       <c r="H182" s="31"/>
       <c r="I182" s="33" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="J182" s="33" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="K182" s="31"/>
       <c r="L182" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M182" s="33" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="O182" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P182" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q182" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="R182" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="S182" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="T182" s="31" t="s">
-        <v>754</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O182" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P182" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q182" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="R182" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="S182" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="T182" s="31"/>
       <c r="U182" s="31"/>
       <c r="V182" s="31"/>
       <c r="W182" s="31"/>
@@ -13697,17 +13713,17 @@
       <c r="G183" s="31"/>
       <c r="H183" s="31"/>
       <c r="I183" s="33" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="J183" s="33" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="K183" s="31"/>
       <c r="L183" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M183" s="33" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>86</v>
@@ -13725,7 +13741,7 @@
         <v>193</v>
       </c>
       <c r="S183" s="33" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="T183" s="31"/>
       <c r="U183" s="31"/>
@@ -13747,17 +13763,17 @@
       <c r="G184" s="31"/>
       <c r="H184" s="31"/>
       <c r="I184" s="33" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="J184" s="33" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="K184" s="31"/>
       <c r="L184" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M184" s="33" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="N184" s="31" t="s">
         <v>86</v>
@@ -13775,7 +13791,7 @@
         <v>193</v>
       </c>
       <c r="S184" s="33" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="T184" s="31"/>
       <c r="U184" s="31"/>
@@ -13797,20 +13813,20 @@
       <c r="G185" s="31"/>
       <c r="H185" s="31"/>
       <c r="I185" s="33" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J185" s="33" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="K185" s="31"/>
       <c r="L185" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M185" s="33" t="s">
-        <v>459</v>
+      <c r="M185" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="N185" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O185" s="33" t="s">
         <v>93</v>
@@ -13818,15 +13834,9 @@
       <c r="P185" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="Q185" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="R185" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="S185" s="33" t="s">
-        <v>459</v>
-      </c>
+      <c r="Q185" s="31"/>
+      <c r="R185" s="31"/>
+      <c r="S185" s="31"/>
       <c r="T185" s="31"/>
       <c r="U185" s="31"/>
       <c r="V185" s="31"/>
@@ -13847,10 +13857,10 @@
       <c r="G186" s="31"/>
       <c r="H186" s="31"/>
       <c r="I186" s="33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J186" s="33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K186" s="31"/>
       <c r="L186" s="31" t="s">
@@ -13891,29 +13901,33 @@
       <c r="G187" s="31"/>
       <c r="H187" s="31"/>
       <c r="I187" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J187" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K187" s="31"/>
       <c r="L187" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M187" s="31" t="s">
-        <v>101</v>
+        <v>209</v>
+      </c>
+      <c r="M187" s="33" t="s">
+        <v>744</v>
       </c>
       <c r="N187" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O187" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P187" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q187" s="31"/>
-      <c r="R187" s="31"/>
+        <v>94</v>
+      </c>
+      <c r="Q187" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="R187" s="33" t="s">
+        <v>744</v>
+      </c>
       <c r="S187" s="31"/>
       <c r="T187" s="31"/>
       <c r="U187" s="31"/>
@@ -13935,14 +13949,14 @@
       <c r="G188" s="31"/>
       <c r="H188" s="31"/>
       <c r="I188" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J188" s="33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K188" s="31"/>
       <c r="L188" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M188" s="33" t="s">
         <v>744</v>
@@ -13983,20 +13997,20 @@
       <c r="G189" s="31"/>
       <c r="H189" s="31"/>
       <c r="I189" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J189" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K189" s="31"/>
       <c r="L189" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M189" s="33" t="s">
-        <v>744</v>
+        <v>274</v>
       </c>
       <c r="N189" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O189" s="33" t="s">
         <v>93</v>
@@ -14007,9 +14021,7 @@
       <c r="Q189" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="R189" s="33" t="s">
-        <v>744</v>
-      </c>
+      <c r="R189" s="31"/>
       <c r="S189" s="31"/>
       <c r="T189" s="31"/>
       <c r="U189" s="31"/>
@@ -14031,20 +14043,20 @@
       <c r="G190" s="31"/>
       <c r="H190" s="31"/>
       <c r="I190" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J190" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K190" s="31"/>
       <c r="L190" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M190" s="33" t="s">
-        <v>274</v>
+        <v>519</v>
       </c>
       <c r="N190" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O190" s="33" t="s">
         <v>93</v>
@@ -14055,7 +14067,9 @@
       <c r="Q190" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="R190" s="31"/>
+      <c r="R190" s="33" t="s">
+        <v>519</v>
+      </c>
       <c r="S190" s="31"/>
       <c r="T190" s="31"/>
       <c r="U190" s="31"/>
@@ -14077,17 +14091,17 @@
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J191" s="33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K191" s="31"/>
       <c r="L191" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M191" s="33" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N191" s="31" t="s">
         <v>85</v>
@@ -14102,7 +14116,7 @@
         <v>274</v>
       </c>
       <c r="R191" s="33" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="S191" s="31"/>
       <c r="T191" s="31"/>
@@ -14125,17 +14139,17 @@
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J192" s="33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K192" s="31"/>
       <c r="L192" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M192" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N192" s="31" t="s">
         <v>85</v>
@@ -14150,7 +14164,7 @@
         <v>274</v>
       </c>
       <c r="R192" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S192" s="31"/>
       <c r="T192" s="31"/>
@@ -14173,17 +14187,17 @@
       <c r="G193" s="31"/>
       <c r="H193" s="31"/>
       <c r="I193" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J193" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K193" s="31"/>
       <c r="L193" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M193" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>85</v>
@@ -14198,7 +14212,7 @@
         <v>274</v>
       </c>
       <c r="R193" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S193" s="31"/>
       <c r="T193" s="31"/>
@@ -14220,18 +14234,18 @@
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
       <c r="H194" s="31"/>
-      <c r="I194" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="J194" s="33" t="s">
-        <v>523</v>
+      <c r="I194" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="J194" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="K194" s="31"/>
       <c r="L194" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M194" s="33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>85</v>
@@ -14246,7 +14260,7 @@
         <v>274</v>
       </c>
       <c r="R194" s="33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="S194" s="31"/>
       <c r="T194" s="31"/>
@@ -14268,18 +14282,18 @@
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
       <c r="H195" s="31"/>
-      <c r="I195" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="J195" s="31" t="s">
-        <v>524</v>
+      <c r="I195" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="J195" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="K195" s="31"/>
       <c r="L195" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M195" s="33" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>85</v>
@@ -14294,7 +14308,7 @@
         <v>274</v>
       </c>
       <c r="R195" s="33" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="S195" s="31"/>
       <c r="T195" s="31"/>
@@ -14317,14 +14331,14 @@
       <c r="G196" s="31"/>
       <c r="H196" s="31"/>
       <c r="I196" s="33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J196" s="33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K196" s="31"/>
       <c r="L196" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M196" s="33" t="s">
         <v>525</v>
@@ -14365,17 +14379,17 @@
       <c r="G197" s="31"/>
       <c r="H197" s="31"/>
       <c r="I197" s="33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J197" s="33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K197" s="31"/>
       <c r="L197" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M197" s="33" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="N197" s="31" t="s">
         <v>85</v>
@@ -14390,7 +14404,7 @@
         <v>274</v>
       </c>
       <c r="R197" s="33" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="S197" s="31"/>
       <c r="T197" s="31"/>
@@ -14413,17 +14427,17 @@
       <c r="G198" s="31"/>
       <c r="H198" s="31"/>
       <c r="I198" s="33" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J198" s="33" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K198" s="31"/>
       <c r="L198" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M198" s="33" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N198" s="31" t="s">
         <v>85</v>
@@ -14438,7 +14452,7 @@
         <v>274</v>
       </c>
       <c r="R198" s="33" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S198" s="31"/>
       <c r="T198" s="31"/>
@@ -14461,17 +14475,17 @@
       <c r="G199" s="31"/>
       <c r="H199" s="31"/>
       <c r="I199" s="33" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J199" s="33" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K199" s="31"/>
       <c r="L199" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M199" s="33" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>85</v>
@@ -14486,7 +14500,7 @@
         <v>274</v>
       </c>
       <c r="R199" s="33" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="S199" s="31"/>
       <c r="T199" s="31"/>
@@ -14509,20 +14523,20 @@
       <c r="G200" s="31"/>
       <c r="H200" s="31"/>
       <c r="I200" s="33" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J200" s="33" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K200" s="31"/>
       <c r="L200" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M200" s="33" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N200" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O200" s="33" t="s">
         <v>93</v>
@@ -14534,9 +14548,11 @@
         <v>274</v>
       </c>
       <c r="R200" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="S200" s="31"/>
+        <v>522</v>
+      </c>
+      <c r="S200" s="33" t="s">
+        <v>533</v>
+      </c>
       <c r="T200" s="31"/>
       <c r="U200" s="31"/>
       <c r="V200" s="31"/>
@@ -14557,20 +14573,20 @@
       <c r="G201" s="31"/>
       <c r="H201" s="31"/>
       <c r="I201" s="33" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J201" s="33" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K201" s="31"/>
       <c r="L201" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M201" s="33" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N201" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O201" s="33" t="s">
         <v>93</v>
@@ -14582,11 +14598,9 @@
         <v>274</v>
       </c>
       <c r="R201" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="S201" s="33" t="s">
-        <v>533</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="S201" s="31"/>
       <c r="T201" s="31"/>
       <c r="U201" s="31"/>
       <c r="V201" s="31"/>
@@ -14607,17 +14621,17 @@
       <c r="G202" s="31"/>
       <c r="H202" s="31"/>
       <c r="I202" s="33" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J202" s="33" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K202" s="31"/>
       <c r="L202" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M202" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>85</v>
@@ -14632,7 +14646,7 @@
         <v>274</v>
       </c>
       <c r="R202" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="S202" s="31"/>
       <c r="T202" s="31"/>
@@ -14655,17 +14669,17 @@
       <c r="G203" s="31"/>
       <c r="H203" s="31"/>
       <c r="I203" s="33" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J203" s="33" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K203" s="31"/>
       <c r="L203" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M203" s="33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N203" s="31" t="s">
         <v>85</v>
@@ -14680,7 +14694,7 @@
         <v>274</v>
       </c>
       <c r="R203" s="33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S203" s="31"/>
       <c r="T203" s="31"/>
@@ -14703,17 +14717,17 @@
       <c r="G204" s="31"/>
       <c r="H204" s="31"/>
       <c r="I204" s="33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J204" s="33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K204" s="31"/>
       <c r="L204" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M204" s="33" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N204" s="31" t="s">
         <v>85</v>
@@ -14728,7 +14742,7 @@
         <v>274</v>
       </c>
       <c r="R204" s="33" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="S204" s="31"/>
       <c r="T204" s="31"/>
@@ -14751,17 +14765,17 @@
       <c r="G205" s="31"/>
       <c r="H205" s="31"/>
       <c r="I205" s="33" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J205" s="33" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K205" s="31"/>
       <c r="L205" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M205" s="33" t="s">
-        <v>540</v>
+        <v>746</v>
       </c>
       <c r="N205" s="31" t="s">
         <v>85</v>
@@ -14776,7 +14790,7 @@
         <v>274</v>
       </c>
       <c r="R205" s="33" t="s">
-        <v>540</v>
+        <v>746</v>
       </c>
       <c r="S205" s="31"/>
       <c r="T205" s="31"/>
@@ -14799,17 +14813,17 @@
       <c r="G206" s="31"/>
       <c r="H206" s="31"/>
       <c r="I206" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J206" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K206" s="31"/>
       <c r="L206" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M206" s="33" t="s">
-        <v>746</v>
+        <v>543</v>
       </c>
       <c r="N206" s="31" t="s">
         <v>85</v>
@@ -14824,7 +14838,7 @@
         <v>274</v>
       </c>
       <c r="R206" s="33" t="s">
-        <v>746</v>
+        <v>543</v>
       </c>
       <c r="S206" s="31"/>
       <c r="T206" s="31"/>
@@ -14847,17 +14861,17 @@
       <c r="G207" s="31"/>
       <c r="H207" s="31"/>
       <c r="I207" s="33" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J207" s="33" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K207" s="31"/>
       <c r="L207" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M207" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="N207" s="31" t="s">
         <v>85</v>
@@ -14872,7 +14886,7 @@
         <v>274</v>
       </c>
       <c r="R207" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="S207" s="31"/>
       <c r="T207" s="31"/>
@@ -14895,17 +14909,17 @@
       <c r="G208" s="31"/>
       <c r="H208" s="31"/>
       <c r="I208" s="33" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J208" s="33" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K208" s="31"/>
       <c r="L208" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M208" s="33" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N208" s="31" t="s">
         <v>85</v>
@@ -14920,7 +14934,7 @@
         <v>274</v>
       </c>
       <c r="R208" s="33" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S208" s="31"/>
       <c r="T208" s="31"/>
@@ -14943,17 +14957,17 @@
       <c r="G209" s="31"/>
       <c r="H209" s="31"/>
       <c r="I209" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J209" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K209" s="31"/>
       <c r="L209" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M209" s="33" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N209" s="31" t="s">
         <v>85</v>
@@ -14968,7 +14982,7 @@
         <v>274</v>
       </c>
       <c r="R209" s="33" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="S209" s="31"/>
       <c r="T209" s="31"/>
@@ -14991,20 +15005,20 @@
       <c r="G210" s="31"/>
       <c r="H210" s="31"/>
       <c r="I210" s="33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J210" s="33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K210" s="31"/>
       <c r="L210" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M210" s="33" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N210" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O210" s="33" t="s">
         <v>93</v>
@@ -15013,11 +15027,9 @@
         <v>94</v>
       </c>
       <c r="Q210" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R210" s="33" t="s">
-        <v>548</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="R210" s="31"/>
       <c r="S210" s="31"/>
       <c r="T210" s="31"/>
       <c r="U210" s="31"/>
@@ -15039,20 +15051,20 @@
       <c r="G211" s="31"/>
       <c r="H211" s="31"/>
       <c r="I211" s="33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J211" s="33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K211" s="31"/>
       <c r="L211" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M211" s="33" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N211" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O211" s="33" t="s">
         <v>93</v>
@@ -15061,9 +15073,11 @@
         <v>94</v>
       </c>
       <c r="Q211" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="R211" s="31"/>
+        <v>199</v>
+      </c>
+      <c r="R211" s="33" t="s">
+        <v>552</v>
+      </c>
       <c r="S211" s="31"/>
       <c r="T211" s="31"/>
       <c r="U211" s="31"/>
@@ -15085,20 +15099,20 @@
       <c r="G212" s="31"/>
       <c r="H212" s="31"/>
       <c r="I212" s="33" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J212" s="33" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K212" s="31"/>
       <c r="L212" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M212" s="33" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="N212" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O212" s="33" t="s">
         <v>93</v>
@@ -15109,9 +15123,7 @@
       <c r="Q212" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R212" s="33" t="s">
-        <v>552</v>
-      </c>
+      <c r="R212" s="31"/>
       <c r="S212" s="31"/>
       <c r="T212" s="31"/>
       <c r="U212" s="31"/>
@@ -15133,10 +15145,10 @@
       <c r="G213" s="31"/>
       <c r="H213" s="31"/>
       <c r="I213" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J213" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K213" s="31"/>
       <c r="L213" s="31" t="s">
@@ -15179,14 +15191,14 @@
       <c r="G214" s="31"/>
       <c r="H214" s="31"/>
       <c r="I214" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J214" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K214" s="31"/>
       <c r="L214" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M214" s="33" t="s">
         <v>199</v>
@@ -15225,20 +15237,20 @@
       <c r="G215" s="31"/>
       <c r="H215" s="31"/>
       <c r="I215" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J215" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K215" s="31"/>
       <c r="L215" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M215" s="33" t="s">
-        <v>199</v>
+        <v>557</v>
       </c>
       <c r="N215" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O215" s="33" t="s">
         <v>93</v>
@@ -15249,7 +15261,9 @@
       <c r="Q215" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R215" s="31"/>
+      <c r="R215" s="33" t="s">
+        <v>557</v>
+      </c>
       <c r="S215" s="31"/>
       <c r="T215" s="31"/>
       <c r="U215" s="31"/>
@@ -15271,17 +15285,17 @@
       <c r="G216" s="31"/>
       <c r="H216" s="31"/>
       <c r="I216" s="33" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J216" s="33" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K216" s="31"/>
       <c r="L216" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M216" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N216" s="31" t="s">
         <v>85</v>
@@ -15296,7 +15310,7 @@
         <v>199</v>
       </c>
       <c r="R216" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="S216" s="31"/>
       <c r="T216" s="31"/>
@@ -15319,20 +15333,20 @@
       <c r="G217" s="31"/>
       <c r="H217" s="31"/>
       <c r="I217" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J217" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K217" s="31"/>
       <c r="L217" s="31" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="M217" s="33" t="s">
-        <v>558</v>
+        <v>199</v>
       </c>
       <c r="N217" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O217" s="33" t="s">
         <v>93</v>
@@ -15343,9 +15357,7 @@
       <c r="Q217" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R217" s="33" t="s">
-        <v>558</v>
-      </c>
+      <c r="R217" s="31"/>
       <c r="S217" s="31"/>
       <c r="T217" s="31"/>
       <c r="U217" s="31"/>
@@ -15367,20 +15379,20 @@
       <c r="G218" s="31"/>
       <c r="H218" s="31"/>
       <c r="I218" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J218" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K218" s="31"/>
       <c r="L218" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M218" s="33" t="s">
-        <v>199</v>
+        <v>561</v>
       </c>
       <c r="N218" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O218" s="33" t="s">
         <v>93</v>
@@ -15391,7 +15403,9 @@
       <c r="Q218" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="R218" s="31"/>
+      <c r="R218" s="33" t="s">
+        <v>561</v>
+      </c>
       <c r="S218" s="31"/>
       <c r="T218" s="31"/>
       <c r="U218" s="31"/>
@@ -15413,17 +15427,17 @@
       <c r="G219" s="31"/>
       <c r="H219" s="31"/>
       <c r="I219" s="33" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J219" s="33" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K219" s="31"/>
       <c r="L219" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M219" s="33" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N219" s="31" t="s">
         <v>85</v>
@@ -15438,7 +15452,7 @@
         <v>199</v>
       </c>
       <c r="R219" s="33" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="S219" s="31"/>
       <c r="T219" s="31"/>
@@ -15461,17 +15475,17 @@
       <c r="G220" s="31"/>
       <c r="H220" s="31"/>
       <c r="I220" s="33" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J220" s="33" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K220" s="31"/>
       <c r="L220" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M220" s="33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N220" s="31" t="s">
         <v>85</v>
@@ -15486,7 +15500,7 @@
         <v>199</v>
       </c>
       <c r="R220" s="33" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="S220" s="31"/>
       <c r="T220" s="31"/>
@@ -15509,17 +15523,17 @@
       <c r="G221" s="31"/>
       <c r="H221" s="31"/>
       <c r="I221" s="33" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J221" s="33" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K221" s="31"/>
       <c r="L221" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M221" s="33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N221" s="31" t="s">
         <v>85</v>
@@ -15534,7 +15548,7 @@
         <v>199</v>
       </c>
       <c r="R221" s="33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="S221" s="31"/>
       <c r="T221" s="31"/>
@@ -15557,17 +15571,17 @@
       <c r="G222" s="31"/>
       <c r="H222" s="31"/>
       <c r="I222" s="33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J222" s="33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K222" s="31"/>
       <c r="L222" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M222" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N222" s="31" t="s">
         <v>85</v>
@@ -15582,7 +15596,7 @@
         <v>199</v>
       </c>
       <c r="R222" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="S222" s="31"/>
       <c r="T222" s="31"/>
@@ -15605,17 +15619,17 @@
       <c r="G223" s="31"/>
       <c r="H223" s="31"/>
       <c r="I223" s="33" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J223" s="33" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K223" s="31"/>
       <c r="L223" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M223" s="33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N223" s="31" t="s">
         <v>85</v>
@@ -15630,7 +15644,7 @@
         <v>199</v>
       </c>
       <c r="R223" s="33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="S223" s="31"/>
       <c r="T223" s="31"/>
@@ -15653,17 +15667,17 @@
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
       <c r="I224" s="33" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J224" s="33" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K224" s="31"/>
       <c r="L224" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M224" s="33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N224" s="31" t="s">
         <v>85</v>
@@ -15678,7 +15692,7 @@
         <v>199</v>
       </c>
       <c r="R224" s="33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="S224" s="31"/>
       <c r="T224" s="31"/>
@@ -15701,17 +15715,17 @@
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
       <c r="I225" s="33" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J225" s="33" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K225" s="31"/>
       <c r="L225" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M225" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N225" s="31" t="s">
         <v>85</v>
@@ -15723,10 +15737,10 @@
         <v>94</v>
       </c>
       <c r="Q225" s="33" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="R225" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S225" s="31"/>
       <c r="T225" s="31"/>
@@ -15749,17 +15763,17 @@
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
       <c r="I226" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J226" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K226" s="31"/>
       <c r="L226" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M226" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N226" s="31" t="s">
         <v>85</v>
@@ -15774,7 +15788,7 @@
         <v>279</v>
       </c>
       <c r="R226" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S226" s="31"/>
       <c r="T226" s="31"/>
@@ -15797,20 +15811,20 @@
       <c r="G227" s="31"/>
       <c r="H227" s="31"/>
       <c r="I227" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J227" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K227" s="31"/>
       <c r="L227" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M227" s="33" t="s">
-        <v>575</v>
+        <v>279</v>
       </c>
       <c r="N227" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O227" s="33" t="s">
         <v>93</v>
@@ -15821,9 +15835,7 @@
       <c r="Q227" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R227" s="33" t="s">
-        <v>575</v>
-      </c>
+      <c r="R227" s="31"/>
       <c r="S227" s="31"/>
       <c r="T227" s="31"/>
       <c r="U227" s="31"/>
@@ -15845,20 +15857,20 @@
       <c r="G228" s="31"/>
       <c r="H228" s="31"/>
       <c r="I228" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J228" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K228" s="31"/>
       <c r="L228" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M228" s="33" t="s">
-        <v>279</v>
+        <v>578</v>
       </c>
       <c r="N228" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O228" s="33" t="s">
         <v>93</v>
@@ -15869,7 +15881,9 @@
       <c r="Q228" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R228" s="31"/>
+      <c r="R228" s="33" t="s">
+        <v>578</v>
+      </c>
       <c r="S228" s="31"/>
       <c r="T228" s="31"/>
       <c r="U228" s="31"/>
@@ -15891,20 +15905,20 @@
       <c r="G229" s="31"/>
       <c r="H229" s="31"/>
       <c r="I229" s="33" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J229" s="33" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K229" s="31"/>
       <c r="L229" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="M229" s="33" t="s">
-        <v>578</v>
+      <c r="M229" s="31" t="s">
+        <v>583</v>
       </c>
       <c r="N229" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O229" s="33" t="s">
         <v>93</v>
@@ -15916,10 +15930,14 @@
         <v>279</v>
       </c>
       <c r="R229" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="S229" s="31"/>
-      <c r="T229" s="31"/>
+        <v>580</v>
+      </c>
+      <c r="S229" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="T229" s="33" t="s">
+        <v>582</v>
+      </c>
       <c r="U229" s="31"/>
       <c r="V229" s="31"/>
       <c r="W229" s="31"/>
@@ -15939,20 +15957,20 @@
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
       <c r="I230" s="33" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="J230" s="33" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K230" s="31"/>
       <c r="L230" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="M230" s="31" t="s">
-        <v>583</v>
+        <v>207</v>
+      </c>
+      <c r="M230" s="33" t="s">
+        <v>279</v>
       </c>
       <c r="N230" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O230" s="33" t="s">
         <v>93</v>
@@ -15963,15 +15981,9 @@
       <c r="Q230" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="R230" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="S230" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="T230" s="33" t="s">
-        <v>582</v>
-      </c>
+      <c r="R230" s="31"/>
+      <c r="S230" s="31"/>
+      <c r="T230" s="31"/>
       <c r="U230" s="31"/>
       <c r="V230" s="31"/>
       <c r="W230" s="31"/>
@@ -15991,20 +16003,20 @@
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
       <c r="I231" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J231" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K231" s="31"/>
       <c r="L231" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M231" s="33" t="s">
-        <v>279</v>
+        <v>585</v>
       </c>
       <c r="N231" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O231" s="33" t="s">
         <v>93</v>
@@ -16013,9 +16025,11 @@
         <v>94</v>
       </c>
       <c r="Q231" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="R231" s="31"/>
+        <v>226</v>
+      </c>
+      <c r="R231" s="33" t="s">
+        <v>585</v>
+      </c>
       <c r="S231" s="31"/>
       <c r="T231" s="31"/>
       <c r="U231" s="31"/>
@@ -16037,17 +16051,17 @@
       <c r="G232" s="31"/>
       <c r="H232" s="31"/>
       <c r="I232" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J232" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K232" s="31"/>
       <c r="L232" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M232" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N232" s="31" t="s">
         <v>85</v>
@@ -16062,7 +16076,7 @@
         <v>226</v>
       </c>
       <c r="R232" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S232" s="31"/>
       <c r="T232" s="31"/>
@@ -16085,17 +16099,17 @@
       <c r="G233" s="31"/>
       <c r="H233" s="31"/>
       <c r="I233" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J233" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K233" s="31"/>
       <c r="L233" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M233" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N233" s="31" t="s">
         <v>85</v>
@@ -16110,7 +16124,7 @@
         <v>226</v>
       </c>
       <c r="R233" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S233" s="31"/>
       <c r="T233" s="31"/>
@@ -16133,17 +16147,17 @@
       <c r="G234" s="31"/>
       <c r="H234" s="31"/>
       <c r="I234" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J234" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K234" s="31"/>
       <c r="L234" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M234" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N234" s="31" t="s">
         <v>85</v>
@@ -16158,7 +16172,7 @@
         <v>226</v>
       </c>
       <c r="R234" s="33" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S234" s="31"/>
       <c r="T234" s="31"/>
@@ -16181,17 +16195,17 @@
       <c r="G235" s="31"/>
       <c r="H235" s="31"/>
       <c r="I235" s="33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J235" s="33" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K235" s="31"/>
       <c r="L235" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M235" s="33" t="s">
-        <v>588</v>
+        <v>747</v>
       </c>
       <c r="N235" s="31" t="s">
         <v>85</v>
@@ -16206,7 +16220,7 @@
         <v>226</v>
       </c>
       <c r="R235" s="33" t="s">
-        <v>588</v>
+        <v>747</v>
       </c>
       <c r="S235" s="31"/>
       <c r="T235" s="31"/>
@@ -16229,20 +16243,20 @@
       <c r="G236" s="31"/>
       <c r="H236" s="31"/>
       <c r="I236" s="33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J236" s="33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K236" s="31"/>
       <c r="L236" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M236" s="33" t="s">
-        <v>747</v>
+        <v>226</v>
       </c>
       <c r="N236" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O236" s="33" t="s">
         <v>93</v>
@@ -16253,9 +16267,7 @@
       <c r="Q236" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R236" s="33" t="s">
-        <v>747</v>
-      </c>
+      <c r="R236" s="31"/>
       <c r="S236" s="31"/>
       <c r="T236" s="31"/>
       <c r="U236" s="31"/>
@@ -16277,20 +16289,20 @@
       <c r="G237" s="31"/>
       <c r="H237" s="31"/>
       <c r="I237" s="33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J237" s="33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K237" s="31"/>
       <c r="L237" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M237" s="33" t="s">
-        <v>226</v>
+        <v>591</v>
       </c>
       <c r="N237" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O237" s="33" t="s">
         <v>93</v>
@@ -16301,7 +16313,9 @@
       <c r="Q237" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R237" s="31"/>
+      <c r="R237" s="33" t="s">
+        <v>591</v>
+      </c>
       <c r="S237" s="31"/>
       <c r="T237" s="31"/>
       <c r="U237" s="31"/>
@@ -16323,17 +16337,17 @@
       <c r="G238" s="31"/>
       <c r="H238" s="31"/>
       <c r="I238" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J238" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K238" s="31"/>
       <c r="L238" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M238" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N238" s="31" t="s">
         <v>85</v>
@@ -16348,7 +16362,7 @@
         <v>226</v>
       </c>
       <c r="R238" s="33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S238" s="31"/>
       <c r="T238" s="31"/>
@@ -16371,20 +16385,20 @@
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
       <c r="I239" s="33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J239" s="33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K239" s="31"/>
       <c r="L239" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M239" s="33" t="s">
-        <v>592</v>
+        <v>226</v>
       </c>
       <c r="N239" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O239" s="33" t="s">
         <v>93</v>
@@ -16395,9 +16409,7 @@
       <c r="Q239" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R239" s="33" t="s">
-        <v>592</v>
-      </c>
+      <c r="R239" s="31"/>
       <c r="S239" s="31"/>
       <c r="T239" s="31"/>
       <c r="U239" s="31"/>
@@ -16419,20 +16431,20 @@
       <c r="G240" s="31"/>
       <c r="H240" s="31"/>
       <c r="I240" s="33" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J240" s="33" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K240" s="31"/>
       <c r="L240" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M240" s="33" t="s">
-        <v>226</v>
+        <v>595</v>
       </c>
       <c r="N240" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O240" s="33" t="s">
         <v>93</v>
@@ -16443,7 +16455,9 @@
       <c r="Q240" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R240" s="31"/>
+      <c r="R240" s="33" t="s">
+        <v>595</v>
+      </c>
       <c r="S240" s="31"/>
       <c r="T240" s="31"/>
       <c r="U240" s="31"/>
@@ -16465,14 +16479,14 @@
       <c r="G241" s="31"/>
       <c r="H241" s="31"/>
       <c r="I241" s="33" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J241" s="33" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K241" s="31"/>
       <c r="L241" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M241" s="33" t="s">
         <v>595</v>
@@ -16513,17 +16527,17 @@
       <c r="G242" s="31"/>
       <c r="H242" s="31"/>
       <c r="I242" s="33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J242" s="33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K242" s="31"/>
       <c r="L242" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M242" s="33" t="s">
-        <v>595</v>
+        <v>225</v>
       </c>
       <c r="N242" s="31" t="s">
         <v>85</v>
@@ -16538,7 +16552,7 @@
         <v>226</v>
       </c>
       <c r="R242" s="33" t="s">
-        <v>595</v>
+        <v>225</v>
       </c>
       <c r="S242" s="31"/>
       <c r="T242" s="31"/>
@@ -16561,20 +16575,20 @@
       <c r="G243" s="31"/>
       <c r="H243" s="31"/>
       <c r="I243" s="33" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J243" s="33" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K243" s="31"/>
       <c r="L243" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M243" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N243" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O243" s="33" t="s">
         <v>93</v>
@@ -16585,9 +16599,7 @@
       <c r="Q243" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="R243" s="33" t="s">
-        <v>225</v>
-      </c>
+      <c r="R243" s="31"/>
       <c r="S243" s="31"/>
       <c r="T243" s="31"/>
       <c r="U243" s="31"/>
@@ -16609,17 +16621,17 @@
       <c r="G244" s="31"/>
       <c r="H244" s="31"/>
       <c r="I244" s="33" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J244" s="33" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K244" s="31"/>
       <c r="L244" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M244" s="33" t="s">
-        <v>226</v>
+        <v>600</v>
       </c>
       <c r="N244" s="31" t="s">
         <v>84</v>
@@ -16631,7 +16643,7 @@
         <v>94</v>
       </c>
       <c r="Q244" s="33" t="s">
-        <v>226</v>
+        <v>600</v>
       </c>
       <c r="R244" s="31"/>
       <c r="S244" s="31"/>
@@ -16655,14 +16667,14 @@
       <c r="G245" s="31"/>
       <c r="H245" s="31"/>
       <c r="I245" s="33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J245" s="33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K245" s="31"/>
       <c r="L245" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M245" s="33" t="s">
         <v>600</v>
@@ -16701,14 +16713,14 @@
       <c r="G246" s="31"/>
       <c r="H246" s="31"/>
       <c r="I246" s="33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J246" s="33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K246" s="31"/>
       <c r="L246" s="31" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="M246" s="33" t="s">
         <v>600</v>
@@ -16747,20 +16759,20 @@
       <c r="G247" s="31"/>
       <c r="H247" s="31"/>
       <c r="I247" s="33" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J247" s="33" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K247" s="31"/>
       <c r="L247" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M247" s="33" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="N247" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O247" s="33" t="s">
         <v>93</v>
@@ -16769,9 +16781,11 @@
         <v>94</v>
       </c>
       <c r="Q247" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="R247" s="31"/>
+        <v>604</v>
+      </c>
+      <c r="R247" s="33" t="s">
+        <v>605</v>
+      </c>
       <c r="S247" s="31"/>
       <c r="T247" s="31"/>
       <c r="U247" s="31"/>
@@ -16793,17 +16807,17 @@
       <c r="G248" s="31"/>
       <c r="H248" s="31"/>
       <c r="I248" s="33" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J248" s="33" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K248" s="31"/>
       <c r="L248" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M248" s="33" t="s">
-        <v>605</v>
+        <v>748</v>
       </c>
       <c r="N248" s="31" t="s">
         <v>85</v>
@@ -16815,10 +16829,10 @@
         <v>94</v>
       </c>
       <c r="Q248" s="33" t="s">
-        <v>604</v>
+        <v>268</v>
       </c>
       <c r="R248" s="33" t="s">
-        <v>605</v>
+        <v>748</v>
       </c>
       <c r="S248" s="31"/>
       <c r="T248" s="31"/>
@@ -16841,20 +16855,20 @@
       <c r="G249" s="31"/>
       <c r="H249" s="31"/>
       <c r="I249" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J249" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K249" s="31"/>
       <c r="L249" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M249" s="33" t="s">
-        <v>748</v>
+        <v>268</v>
       </c>
       <c r="N249" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O249" s="33" t="s">
         <v>93</v>
@@ -16865,9 +16879,7 @@
       <c r="Q249" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R249" s="33" t="s">
-        <v>748</v>
-      </c>
+      <c r="R249" s="31"/>
       <c r="S249" s="31"/>
       <c r="T249" s="31"/>
       <c r="U249" s="31"/>
@@ -16889,20 +16901,20 @@
       <c r="G250" s="31"/>
       <c r="H250" s="31"/>
       <c r="I250" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J250" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K250" s="31"/>
       <c r="L250" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M250" s="33" t="s">
-        <v>268</v>
+        <v>609</v>
       </c>
       <c r="N250" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O250" s="33" t="s">
         <v>93</v>
@@ -16913,7 +16925,9 @@
       <c r="Q250" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R250" s="31"/>
+      <c r="R250" s="33" t="s">
+        <v>609</v>
+      </c>
       <c r="S250" s="31"/>
       <c r="T250" s="31"/>
       <c r="U250" s="31"/>
@@ -16935,20 +16949,20 @@
       <c r="G251" s="31"/>
       <c r="H251" s="31"/>
       <c r="I251" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J251" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K251" s="31"/>
       <c r="L251" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M251" s="33" t="s">
-        <v>609</v>
+        <v>268</v>
       </c>
       <c r="N251" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O251" s="33" t="s">
         <v>93</v>
@@ -16959,9 +16973,7 @@
       <c r="Q251" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R251" s="33" t="s">
-        <v>609</v>
-      </c>
+      <c r="R251" s="31"/>
       <c r="S251" s="31"/>
       <c r="T251" s="31"/>
       <c r="U251" s="31"/>
@@ -16983,20 +16995,20 @@
       <c r="G252" s="31"/>
       <c r="H252" s="31"/>
       <c r="I252" s="33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J252" s="33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K252" s="31"/>
       <c r="L252" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M252" s="33" t="s">
-        <v>268</v>
+        <v>611</v>
       </c>
       <c r="N252" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O252" s="33" t="s">
         <v>93</v>
@@ -17007,7 +17019,9 @@
       <c r="Q252" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="R252" s="31"/>
+      <c r="R252" s="33" t="s">
+        <v>611</v>
+      </c>
       <c r="S252" s="31"/>
       <c r="T252" s="31"/>
       <c r="U252" s="31"/>
@@ -17029,20 +17043,20 @@
       <c r="G253" s="31"/>
       <c r="H253" s="31"/>
       <c r="I253" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J253" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K253" s="31"/>
       <c r="L253" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M253" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N253" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O253" s="33" t="s">
         <v>93</v>
@@ -17051,11 +17065,9 @@
         <v>94</v>
       </c>
       <c r="Q253" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="R253" s="33" t="s">
-        <v>611</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="R253" s="31"/>
       <c r="S253" s="31"/>
       <c r="T253" s="31"/>
       <c r="U253" s="31"/>
@@ -17077,17 +17089,17 @@
       <c r="G254" s="31"/>
       <c r="H254" s="31"/>
       <c r="I254" s="33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J254" s="33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K254" s="31"/>
       <c r="L254" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M254" s="33" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N254" s="31" t="s">
         <v>84</v>
@@ -17099,7 +17111,7 @@
         <v>94</v>
       </c>
       <c r="Q254" s="33" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="R254" s="31"/>
       <c r="S254" s="31"/>
@@ -17123,14 +17135,14 @@
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J255" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K255" s="31"/>
       <c r="L255" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M255" s="33" t="s">
         <v>614</v>
@@ -17169,17 +17181,17 @@
       <c r="G256" s="31"/>
       <c r="H256" s="31"/>
       <c r="I256" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J256" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K256" s="31"/>
       <c r="L256" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M256" s="33" t="s">
-        <v>614</v>
+        <v>247</v>
       </c>
       <c r="N256" s="31" t="s">
         <v>84</v>
@@ -17191,7 +17203,7 @@
         <v>94</v>
       </c>
       <c r="Q256" s="33" t="s">
-        <v>614</v>
+        <v>247</v>
       </c>
       <c r="R256" s="31"/>
       <c r="S256" s="31"/>
@@ -17215,20 +17227,20 @@
       <c r="G257" s="31"/>
       <c r="H257" s="31"/>
       <c r="I257" s="33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J257" s="33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K257" s="31"/>
       <c r="L257" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M257" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N257" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O257" s="33" t="s">
         <v>93</v>
@@ -17239,7 +17251,9 @@
       <c r="Q257" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R257" s="31"/>
+      <c r="R257" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="S257" s="31"/>
       <c r="T257" s="31"/>
       <c r="U257" s="31"/>
@@ -17261,17 +17275,17 @@
       <c r="G258" s="31"/>
       <c r="H258" s="31"/>
       <c r="I258" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J258" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K258" s="31"/>
       <c r="L258" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M258" s="33" t="s">
-        <v>248</v>
+        <v>749</v>
       </c>
       <c r="N258" s="31" t="s">
         <v>85</v>
@@ -17286,7 +17300,7 @@
         <v>247</v>
       </c>
       <c r="R258" s="33" t="s">
-        <v>248</v>
+        <v>749</v>
       </c>
       <c r="S258" s="31"/>
       <c r="T258" s="31"/>
@@ -17309,20 +17323,20 @@
       <c r="G259" s="31"/>
       <c r="H259" s="31"/>
       <c r="I259" s="33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J259" s="33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K259" s="31"/>
       <c r="L259" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M259" s="33" t="s">
-        <v>749</v>
+        <v>247</v>
       </c>
       <c r="N259" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O259" s="33" t="s">
         <v>93</v>
@@ -17333,9 +17347,7 @@
       <c r="Q259" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R259" s="33" t="s">
-        <v>749</v>
-      </c>
+      <c r="R259" s="31"/>
       <c r="S259" s="31"/>
       <c r="T259" s="31"/>
       <c r="U259" s="31"/>
@@ -17357,20 +17369,20 @@
       <c r="G260" s="31"/>
       <c r="H260" s="31"/>
       <c r="I260" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J260" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K260" s="31"/>
       <c r="L260" s="31" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="M260" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N260" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O260" s="33" t="s">
         <v>93</v>
@@ -17381,7 +17393,9 @@
       <c r="Q260" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="R260" s="31"/>
+      <c r="R260" s="33" t="s">
+        <v>248</v>
+      </c>
       <c r="S260" s="31"/>
       <c r="T260" s="31"/>
       <c r="U260" s="31"/>
@@ -17403,20 +17417,20 @@
       <c r="G261" s="31"/>
       <c r="H261" s="31"/>
       <c r="I261" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J261" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K261" s="31"/>
       <c r="L261" s="31" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="M261" s="33" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="N261" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O261" s="33" t="s">
         <v>93</v>
@@ -17424,12 +17438,8 @@
       <c r="P261" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Q261" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="R261" s="33" t="s">
-        <v>248</v>
-      </c>
+      <c r="Q261" s="31"/>
+      <c r="R261" s="31"/>
       <c r="S261" s="31"/>
       <c r="T261" s="31"/>
       <c r="U261" s="31"/>
@@ -17451,28 +17461,30 @@
       <c r="G262" s="31"/>
       <c r="H262" s="31"/>
       <c r="I262" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J262" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K262" s="31"/>
       <c r="L262" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M262" s="33" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="N262" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O262" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P262" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q262" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="Q262" s="33" t="s">
+        <v>223</v>
+      </c>
       <c r="R262" s="31"/>
       <c r="S262" s="31"/>
       <c r="T262" s="31"/>
@@ -17495,20 +17507,20 @@
       <c r="G263" s="31"/>
       <c r="H263" s="31"/>
       <c r="I263" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J263" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K263" s="31"/>
       <c r="L263" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M263" s="33" t="s">
-        <v>223</v>
+        <v>623</v>
       </c>
       <c r="N263" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O263" s="33" t="s">
         <v>93</v>
@@ -17519,10 +17531,16 @@
       <c r="Q263" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="R263" s="31"/>
-      <c r="S263" s="31"/>
+      <c r="R263" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="S263" s="33" t="s">
+        <v>623</v>
+      </c>
       <c r="T263" s="31"/>
-      <c r="U263" s="31"/>
+      <c r="U263" s="31">
+        <v>1938</v>
+      </c>
       <c r="V263" s="31"/>
       <c r="W263" s="31"/>
       <c r="X263" s="31"/>
@@ -17541,17 +17559,17 @@
       <c r="G264" s="31"/>
       <c r="H264" s="31"/>
       <c r="I264" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J264" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K264" s="31"/>
       <c r="L264" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M264" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N264" s="31" t="s">
         <v>86</v>
@@ -17566,13 +17584,15 @@
         <v>223</v>
       </c>
       <c r="R264" s="33" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="S264" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="T264" s="31"/>
-      <c r="U264" s="31"/>
+      <c r="U264" s="31">
+        <v>1941</v>
+      </c>
       <c r="V264" s="31"/>
       <c r="W264" s="31"/>
       <c r="X264" s="31"/>
@@ -17591,17 +17611,17 @@
       <c r="G265" s="31"/>
       <c r="H265" s="31"/>
       <c r="I265" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="J265" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K265" s="31"/>
       <c r="L265" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M265" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N265" s="31" t="s">
         <v>86</v>
@@ -17616,10 +17636,10 @@
         <v>223</v>
       </c>
       <c r="R265" s="33" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="S265" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="T265" s="31"/>
       <c r="U265" s="31"/>
@@ -17641,38 +17661,38 @@
       <c r="G266" s="31"/>
       <c r="H266" s="31"/>
       <c r="I266" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J266" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K266" s="31"/>
       <c r="L266" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M266" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N266" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O266" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P266" s="33" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="Q266" s="33" t="s">
         <v>223</v>
       </c>
       <c r="R266" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="S266" s="33" t="s">
-        <v>628</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="S266" s="31"/>
       <c r="T266" s="31"/>
-      <c r="U266" s="31"/>
+      <c r="U266" s="31">
+        <v>1962</v>
+      </c>
       <c r="V266" s="31"/>
       <c r="W266" s="31"/>
       <c r="X266" s="31"/>
@@ -17691,33 +17711,31 @@
       <c r="G267" s="31"/>
       <c r="H267" s="31"/>
       <c r="I267" s="33" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J267" s="33" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K267" s="31"/>
       <c r="L267" s="31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M267" s="33" t="s">
-        <v>630</v>
+        <v>144</v>
       </c>
       <c r="N267" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O267" s="33" t="s">
         <v>93</v>
       </c>
       <c r="P267" s="33" t="s">
-        <v>631</v>
+        <v>102</v>
       </c>
       <c r="Q267" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="R267" s="33" t="s">
-        <v>630</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="R267" s="31"/>
       <c r="S267" s="31"/>
       <c r="T267" s="31"/>
       <c r="U267" s="31"/>
@@ -17739,20 +17757,20 @@
       <c r="G268" s="31"/>
       <c r="H268" s="31"/>
       <c r="I268" s="33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J268" s="33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K268" s="31"/>
       <c r="L268" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M268" s="33" t="s">
-        <v>144</v>
+        <v>636</v>
       </c>
       <c r="N268" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O268" s="33" t="s">
         <v>93</v>
@@ -17763,9 +17781,15 @@
       <c r="Q268" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R268" s="31"/>
-      <c r="S268" s="31"/>
-      <c r="T268" s="31"/>
+      <c r="R268" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="S268" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="T268" s="33" t="s">
+        <v>635</v>
+      </c>
       <c r="U268" s="31"/>
       <c r="V268" s="31"/>
       <c r="W268" s="31"/>
@@ -17785,20 +17809,20 @@
       <c r="G269" s="31"/>
       <c r="H269" s="31"/>
       <c r="I269" s="33" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="J269" s="33" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K269" s="31"/>
       <c r="L269" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M269" s="33" t="s">
-        <v>636</v>
+        <v>144</v>
       </c>
       <c r="N269" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O269" s="33" t="s">
         <v>93</v>
@@ -17809,15 +17833,9 @@
       <c r="Q269" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R269" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="S269" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="T269" s="33" t="s">
-        <v>635</v>
-      </c>
+      <c r="R269" s="31"/>
+      <c r="S269" s="31"/>
+      <c r="T269" s="31"/>
       <c r="U269" s="31"/>
       <c r="V269" s="31"/>
       <c r="W269" s="31"/>
@@ -17837,20 +17855,20 @@
       <c r="G270" s="31"/>
       <c r="H270" s="31"/>
       <c r="I270" s="33" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J270" s="33" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K270" s="31"/>
       <c r="L270" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M270" s="33" t="s">
-        <v>144</v>
+        <v>640</v>
       </c>
       <c r="N270" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O270" s="33" t="s">
         <v>93</v>
@@ -17861,8 +17879,12 @@
       <c r="Q270" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R270" s="31"/>
-      <c r="S270" s="31"/>
+      <c r="R270" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="S270" s="33" t="s">
+        <v>640</v>
+      </c>
       <c r="T270" s="31"/>
       <c r="U270" s="31"/>
       <c r="V270" s="31"/>
@@ -17883,17 +17905,17 @@
       <c r="G271" s="31"/>
       <c r="H271" s="31"/>
       <c r="I271" s="33" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="J271" s="33" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K271" s="31"/>
       <c r="L271" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M271" s="33" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="N271" s="31" t="s">
         <v>86</v>
@@ -17908,10 +17930,10 @@
         <v>144</v>
       </c>
       <c r="R271" s="33" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="S271" s="33" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="T271" s="31"/>
       <c r="U271" s="31"/>
@@ -17933,20 +17955,20 @@
       <c r="G272" s="31"/>
       <c r="H272" s="31"/>
       <c r="I272" s="33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J272" s="33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K272" s="31"/>
       <c r="L272" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M272" s="33" t="s">
-        <v>650</v>
+        <v>144</v>
       </c>
       <c r="N272" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O272" s="33" t="s">
         <v>93</v>
@@ -17957,12 +17979,8 @@
       <c r="Q272" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R272" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="S272" s="33" t="s">
-        <v>650</v>
-      </c>
+      <c r="R272" s="31"/>
+      <c r="S272" s="31"/>
       <c r="T272" s="31"/>
       <c r="U272" s="31"/>
       <c r="V272" s="31"/>
@@ -17983,20 +18001,20 @@
       <c r="G273" s="31"/>
       <c r="H273" s="31"/>
       <c r="I273" s="33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J273" s="33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K273" s="31"/>
       <c r="L273" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M273" s="33" t="s">
-        <v>144</v>
+        <v>643</v>
       </c>
       <c r="N273" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O273" s="33" t="s">
         <v>93</v>
@@ -18007,8 +18025,12 @@
       <c r="Q273" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="R273" s="31"/>
-      <c r="S273" s="31"/>
+      <c r="R273" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="S273" s="33" t="s">
+        <v>643</v>
+      </c>
       <c r="T273" s="31"/>
       <c r="U273" s="31"/>
       <c r="V273" s="31"/>
@@ -18029,20 +18051,20 @@
       <c r="G274" s="31"/>
       <c r="H274" s="31"/>
       <c r="I274" s="33" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J274" s="33" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K274" s="31"/>
       <c r="L274" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M274" s="33" t="s">
-        <v>643</v>
+      <c r="M274" s="31" t="s">
+        <v>648</v>
       </c>
       <c r="N274" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O274" s="33" t="s">
         <v>93</v>
@@ -18054,12 +18076,14 @@
         <v>144</v>
       </c>
       <c r="R274" s="33" t="s">
-        <v>644</v>
+        <v>768</v>
       </c>
       <c r="S274" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="T274" s="31"/>
+        <v>646</v>
+      </c>
+      <c r="T274" s="33" t="s">
+        <v>647</v>
+      </c>
       <c r="U274" s="31"/>
       <c r="V274" s="31"/>
       <c r="W274" s="31"/>
@@ -18079,20 +18103,20 @@
       <c r="G275" s="31"/>
       <c r="H275" s="31"/>
       <c r="I275" s="33" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J275" s="33" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K275" s="31"/>
       <c r="L275" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M275" s="31" t="s">
-        <v>648</v>
+      <c r="M275" s="33" t="s">
+        <v>650</v>
       </c>
       <c r="N275" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O275" s="33" t="s">
         <v>93</v>
@@ -18104,14 +18128,12 @@
         <v>144</v>
       </c>
       <c r="R275" s="33" t="s">
-        <v>768</v>
+        <v>634</v>
       </c>
       <c r="S275" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="T275" s="33" t="s">
-        <v>647</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="T275" s="31"/>
       <c r="U275" s="31"/>
       <c r="V275" s="31"/>
       <c r="W275" s="31"/>
@@ -18131,10 +18153,10 @@
       <c r="G276" s="31"/>
       <c r="H276" s="31"/>
       <c r="I276" s="33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J276" s="33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K276" s="31"/>
       <c r="L276" s="31" t="s">
@@ -18181,20 +18203,20 @@
       <c r="G277" s="31"/>
       <c r="H277" s="31"/>
       <c r="I277" s="33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J277" s="33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K277" s="31"/>
       <c r="L277" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M277" s="33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N277" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O277" s="33" t="s">
         <v>93</v>
@@ -18203,14 +18225,12 @@
         <v>102</v>
       </c>
       <c r="Q277" s="33" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="R277" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="S277" s="33" t="s">
-        <v>650</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="S277" s="31"/>
       <c r="T277" s="31"/>
       <c r="U277" s="31"/>
       <c r="V277" s="31"/>
@@ -18231,20 +18251,20 @@
       <c r="G278" s="31"/>
       <c r="H278" s="31"/>
       <c r="I278" s="33" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J278" s="33" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K278" s="31"/>
       <c r="L278" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M278" s="33" t="s">
-        <v>651</v>
+      <c r="M278" s="31" t="s">
+        <v>655</v>
       </c>
       <c r="N278" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O278" s="33" t="s">
         <v>93</v>
@@ -18256,10 +18276,14 @@
         <v>229</v>
       </c>
       <c r="R278" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="S278" s="31"/>
-      <c r="T278" s="31"/>
+        <v>653</v>
+      </c>
+      <c r="S278" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="T278" s="33" t="s">
+        <v>654</v>
+      </c>
       <c r="U278" s="31"/>
       <c r="V278" s="31"/>
       <c r="W278" s="31"/>
@@ -18279,20 +18303,20 @@
       <c r="G279" s="31"/>
       <c r="H279" s="31"/>
       <c r="I279" s="33" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="J279" s="33" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K279" s="31"/>
       <c r="L279" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M279" s="31" t="s">
-        <v>655</v>
+      <c r="M279" s="33" t="s">
+        <v>656</v>
       </c>
       <c r="N279" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O279" s="33" t="s">
         <v>93</v>
@@ -18304,14 +18328,12 @@
         <v>229</v>
       </c>
       <c r="R279" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="S279" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="T279" s="33" t="s">
-        <v>654</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="T279" s="31"/>
       <c r="U279" s="31"/>
       <c r="V279" s="31"/>
       <c r="W279" s="31"/>
@@ -18331,20 +18353,20 @@
       <c r="G280" s="31"/>
       <c r="H280" s="31"/>
       <c r="I280" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J280" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K280" s="31"/>
       <c r="L280" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M280" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N280" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O280" s="33" t="s">
         <v>93</v>
@@ -18356,11 +18378,9 @@
         <v>229</v>
       </c>
       <c r="R280" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="S280" s="33" t="s">
-        <v>656</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="S280" s="31"/>
       <c r="T280" s="31"/>
       <c r="U280" s="31"/>
       <c r="V280" s="31"/>
@@ -18381,20 +18401,20 @@
       <c r="G281" s="31"/>
       <c r="H281" s="31"/>
       <c r="I281" s="33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J281" s="33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K281" s="31"/>
       <c r="L281" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M281" s="33" t="s">
-        <v>657</v>
+        <v>229</v>
       </c>
       <c r="N281" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O281" s="33" t="s">
         <v>93</v>
@@ -18405,9 +18425,7 @@
       <c r="Q281" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R281" s="33" t="s">
-        <v>657</v>
-      </c>
+      <c r="R281" s="31"/>
       <c r="S281" s="31"/>
       <c r="T281" s="31"/>
       <c r="U281" s="31"/>
@@ -18429,14 +18447,14 @@
       <c r="G282" s="31"/>
       <c r="H282" s="31"/>
       <c r="I282" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J282" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K282" s="31"/>
       <c r="L282" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M282" s="33" t="s">
         <v>229</v>
@@ -18469,26 +18487,22 @@
       <c r="A283" s="31"/>
       <c r="B283" s="31"/>
       <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
-      <c r="E283" s="31"/>
-      <c r="F283" s="31"/>
-      <c r="G283" s="31"/>
       <c r="H283" s="31"/>
       <c r="I283" s="33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J283" s="33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K283" s="31"/>
       <c r="L283" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="M283" s="33" t="s">
-        <v>229</v>
+        <v>207</v>
+      </c>
+      <c r="M283" s="31" t="s">
+        <v>661</v>
       </c>
       <c r="N283" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O283" s="33" t="s">
         <v>93</v>
@@ -18497,12 +18511,20 @@
         <v>102</v>
       </c>
       <c r="Q283" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="R283" s="31"/>
-      <c r="S283" s="31"/>
-      <c r="T283" s="31"/>
-      <c r="U283" s="31"/>
+        <v>219</v>
+      </c>
+      <c r="R283" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="S283" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="T283" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="U283" s="31">
+        <v>1993</v>
+      </c>
       <c r="V283" s="31"/>
       <c r="W283" s="31"/>
       <c r="X283" s="31"/>
@@ -18512,22 +18534,32 @@
       <c r="AB283" s="31"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A284" s="31"/>
-      <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D284" s="31"/>
+      <c r="E284" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="F284" s="31"/>
+      <c r="G284" s="31" t="s">
+        <v>664</v>
+      </c>
       <c r="H284" s="31"/>
       <c r="I284" s="33" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J284" s="33" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K284" s="31"/>
       <c r="L284" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M284" s="31" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="N284" s="31" t="s">
         <v>87</v>
@@ -18544,16 +18576,18 @@
       <c r="R284" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="S284" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="T284" s="33" t="s">
-        <v>662</v>
+      <c r="S284" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="T284" s="31" t="s">
+        <v>666</v>
       </c>
       <c r="U284" s="31">
+        <v>1997</v>
+      </c>
+      <c r="V284" s="31">
         <v>1993</v>
       </c>
-      <c r="V284" s="31"/>
       <c r="W284" s="31"/>
       <c r="X284" s="31"/>
       <c r="Y284" s="31"/>
@@ -18565,29 +18599,29 @@
       <c r="A285" s="34"/>
       <c r="B285" s="34"/>
       <c r="C285" s="34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="31" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F285" s="31"/>
       <c r="G285" s="31" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="H285" s="31"/>
       <c r="I285" s="33" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="J285" s="33" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K285" s="31"/>
       <c r="L285" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M285" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="N285" s="31" t="s">
         <v>87</v>
@@ -18605,14 +18639,14 @@
         <v>220</v>
       </c>
       <c r="S285" s="31" t="s">
-        <v>221</v>
+        <v>669</v>
       </c>
       <c r="T285" s="31" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="U285" s="31"/>
       <c r="V285" s="31">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="W285" s="31"/>
       <c r="X285" s="31"/>
@@ -18625,29 +18659,29 @@
       <c r="A286" s="34"/>
       <c r="B286" s="34"/>
       <c r="C286" s="34" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D286" s="31"/>
       <c r="E286" s="31" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F286" s="31"/>
       <c r="G286" s="31" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="H286" s="31"/>
       <c r="I286" s="33" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J286" s="33" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K286" s="31"/>
       <c r="L286" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M286" s="31" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="N286" s="31" t="s">
         <v>87</v>
@@ -18665,14 +18699,16 @@
         <v>220</v>
       </c>
       <c r="S286" s="31" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="T286" s="31" t="s">
-        <v>670</v>
-      </c>
-      <c r="U286" s="31"/>
+        <v>674</v>
+      </c>
+      <c r="U286" s="31">
+        <v>1977</v>
+      </c>
       <c r="V286" s="31">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="W286" s="31"/>
       <c r="X286" s="31"/>
@@ -18685,32 +18721,32 @@
       <c r="A287" s="34"/>
       <c r="B287" s="34"/>
       <c r="C287" s="34" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D287" s="31"/>
       <c r="E287" s="31" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="F287" s="31"/>
       <c r="G287" s="31" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="H287" s="31"/>
       <c r="I287" s="33" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="J287" s="33" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K287" s="31"/>
       <c r="L287" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M287" s="31" t="s">
-        <v>672</v>
+        <v>219</v>
       </c>
       <c r="N287" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O287" s="33" t="s">
         <v>93</v>
@@ -18721,19 +18757,11 @@
       <c r="Q287" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="R287" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="S287" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="T287" s="31" t="s">
-        <v>674</v>
-      </c>
+      <c r="R287" s="31"/>
+      <c r="S287" s="31"/>
+      <c r="T287" s="31"/>
       <c r="U287" s="31"/>
-      <c r="V287" s="31">
-        <v>1979</v>
-      </c>
+      <c r="V287" s="31"/>
       <c r="W287" s="31"/>
       <c r="X287" s="31"/>
       <c r="Y287" s="31"/>
@@ -18742,29 +18770,23 @@
       <c r="AB287" s="31"/>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A288" s="34"/>
-      <c r="B288" s="34"/>
-      <c r="C288" s="34" t="s">
-        <v>761</v>
-      </c>
+      <c r="A288" s="31"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="31"/>
       <c r="D288" s="31"/>
-      <c r="E288" s="31" t="s">
-        <v>762</v>
-      </c>
+      <c r="E288" s="31"/>
       <c r="F288" s="31"/>
-      <c r="G288" s="31" t="s">
-        <v>762</v>
-      </c>
+      <c r="G288" s="31"/>
       <c r="H288" s="31"/>
       <c r="I288" s="33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K288" s="31"/>
       <c r="L288" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M288" s="31" t="s">
         <v>219</v>
@@ -18794,29 +18816,35 @@
       <c r="AB288" s="31"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A289" s="31"/>
-      <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="34" t="s">
+        <v>779</v>
+      </c>
       <c r="D289" s="31"/>
-      <c r="E289" s="31"/>
+      <c r="E289" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="F289" s="31"/>
-      <c r="G289" s="31"/>
+      <c r="G289" s="31" t="s">
+        <v>661</v>
+      </c>
       <c r="H289" s="31"/>
       <c r="I289" s="33" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="K289" s="31"/>
       <c r="L289" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M289" s="31" t="s">
-        <v>219</v>
+        <v>661</v>
       </c>
       <c r="N289" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O289" s="33" t="s">
         <v>93</v>
@@ -18827,11 +18855,21 @@
       <c r="Q289" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="R289" s="31"/>
-      <c r="S289" s="31"/>
-      <c r="T289" s="31"/>
-      <c r="U289" s="31"/>
-      <c r="V289" s="31"/>
+      <c r="R289" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="S289" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="T289" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="U289" s="31">
+        <v>1993</v>
+      </c>
+      <c r="V289" s="31">
+        <v>1993</v>
+      </c>
       <c r="W289" s="31"/>
       <c r="X289" s="31"/>
       <c r="Y289" s="31"/>
@@ -18840,35 +18878,29 @@
       <c r="AB289" s="31"/>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A290" s="34"/>
-      <c r="B290" s="34"/>
-      <c r="C290" s="34" t="s">
-        <v>779</v>
-      </c>
+      <c r="A290" s="31"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
       <c r="D290" s="31"/>
-      <c r="E290" s="31" t="s">
-        <v>661</v>
-      </c>
+      <c r="E290" s="31"/>
       <c r="F290" s="31"/>
-      <c r="G290" s="31" t="s">
-        <v>661</v>
-      </c>
+      <c r="G290" s="31"/>
       <c r="H290" s="31"/>
       <c r="I290" s="33" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="K290" s="31"/>
       <c r="L290" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M290" s="31" t="s">
-        <v>661</v>
+      <c r="M290" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="N290" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O290" s="33" t="s">
         <v>93</v>
@@ -18876,24 +18908,12 @@
       <c r="P290" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Q290" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="R290" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="S290" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="T290" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="U290" s="31">
-        <v>1993</v>
-      </c>
-      <c r="V290" s="31">
-        <v>1993</v>
-      </c>
+      <c r="Q290" s="31"/>
+      <c r="R290" s="31"/>
+      <c r="S290" s="31"/>
+      <c r="T290" s="31"/>
+      <c r="U290" s="31"/>
+      <c r="V290" s="31"/>
       <c r="W290" s="31"/>
       <c r="X290" s="31"/>
       <c r="Y290" s="31"/>
@@ -18911,31 +18931,39 @@
       <c r="G291" s="31"/>
       <c r="H291" s="31"/>
       <c r="I291" s="33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J291" s="33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K291" s="31"/>
       <c r="L291" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M291" s="33" t="s">
-        <v>102</v>
+        <v>684</v>
       </c>
       <c r="N291" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O291" s="33" t="s">
-        <v>93</v>
+        <v>679</v>
       </c>
       <c r="P291" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q291" s="31"/>
-      <c r="R291" s="31"/>
-      <c r="S291" s="31"/>
-      <c r="T291" s="31"/>
+        <v>680</v>
+      </c>
+      <c r="Q291" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="R291" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="S291" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="T291" s="33" t="s">
+        <v>685</v>
+      </c>
       <c r="U291" s="31"/>
       <c r="V291" s="31"/>
       <c r="W291" s="31"/>
@@ -18955,39 +18983,29 @@
       <c r="G292" s="31"/>
       <c r="H292" s="31"/>
       <c r="I292" s="33" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="J292" s="33" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="K292" s="31"/>
       <c r="L292" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M292" s="33" t="s">
-        <v>684</v>
+        <v>262</v>
       </c>
       <c r="N292" s="31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O292" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P292" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q292" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="R292" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="S292" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="T292" s="33" t="s">
-        <v>685</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P292" s="31"/>
+      <c r="Q292" s="31"/>
+      <c r="R292" s="31"/>
+      <c r="S292" s="31"/>
+      <c r="T292" s="31"/>
       <c r="U292" s="31"/>
       <c r="V292" s="31"/>
       <c r="W292" s="31"/>
@@ -19007,28 +19025,36 @@
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
       <c r="I293" s="33" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J293" s="33" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K293" s="31"/>
       <c r="L293" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M293" s="33" t="s">
-        <v>262</v>
+        <v>689</v>
       </c>
       <c r="N293" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O293" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P293" s="31"/>
-      <c r="Q293" s="31"/>
-      <c r="R293" s="31"/>
-      <c r="S293" s="31"/>
+      <c r="P293" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q293" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="R293" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="S293" s="33" t="s">
+        <v>689</v>
+      </c>
       <c r="T293" s="31"/>
       <c r="U293" s="31"/>
       <c r="V293" s="31"/>
@@ -19049,36 +19075,28 @@
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="33" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="J294" s="33" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="K294" s="31"/>
       <c r="L294" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M294" s="33" t="s">
-        <v>689</v>
+        <v>262</v>
       </c>
       <c r="N294" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O294" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P294" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q294" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="R294" s="33" t="s">
-        <v>688</v>
-      </c>
-      <c r="S294" s="33" t="s">
-        <v>689</v>
-      </c>
+      <c r="P294" s="33"/>
+      <c r="Q294" s="31"/>
+      <c r="R294" s="31"/>
+      <c r="S294" s="31"/>
       <c r="T294" s="31"/>
       <c r="U294" s="31"/>
       <c r="V294" s="31"/>
@@ -19099,28 +19117,36 @@
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
       <c r="I295" s="33" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J295" s="33" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K295" s="31"/>
       <c r="L295" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M295" s="33" t="s">
-        <v>262</v>
+        <v>692</v>
       </c>
       <c r="N295" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O295" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="P295" s="33"/>
-      <c r="Q295" s="31"/>
-      <c r="R295" s="31"/>
-      <c r="S295" s="31"/>
+      <c r="P295" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q295" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="R295" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="S295" s="33" t="s">
+        <v>692</v>
+      </c>
       <c r="T295" s="31"/>
       <c r="U295" s="31"/>
       <c r="V295" s="31"/>
@@ -19141,17 +19167,17 @@
       <c r="G296" s="31"/>
       <c r="H296" s="31"/>
       <c r="I296" s="33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J296" s="33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K296" s="31"/>
       <c r="L296" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M296" s="33" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="N296" s="31" t="s">
         <v>86</v>
@@ -19160,16 +19186,16 @@
         <v>262</v>
       </c>
       <c r="P296" s="33" t="s">
-        <v>263</v>
+        <v>698</v>
       </c>
       <c r="Q296" s="33" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="R296" s="33" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="S296" s="33" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="T296" s="31"/>
       <c r="U296" s="31"/>
@@ -19191,37 +19217,39 @@
       <c r="G297" s="31"/>
       <c r="H297" s="31"/>
       <c r="I297" s="33" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="J297" s="33" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K297" s="31"/>
       <c r="L297" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M297" s="33" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="N297" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O297" s="33" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="P297" s="33" t="s">
-        <v>698</v>
+        <v>302</v>
       </c>
       <c r="Q297" s="33" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="R297" s="33" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S297" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="T297" s="31"/>
+        <v>700</v>
+      </c>
+      <c r="T297" s="33" t="s">
+        <v>703</v>
+      </c>
       <c r="U297" s="31"/>
       <c r="V297" s="31"/>
       <c r="W297" s="31"/>
@@ -19241,20 +19269,20 @@
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="33" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="J298" s="33" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K298" s="31"/>
       <c r="L298" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M298" s="33" t="s">
-        <v>704</v>
+        <v>302</v>
       </c>
       <c r="N298" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O298" s="33" t="s">
         <v>241</v>
@@ -19262,18 +19290,10 @@
       <c r="P298" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q298" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="R298" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="S298" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="T298" s="33" t="s">
-        <v>703</v>
-      </c>
+      <c r="Q298" s="31"/>
+      <c r="R298" s="31"/>
+      <c r="S298" s="31"/>
+      <c r="T298" s="31"/>
       <c r="U298" s="31"/>
       <c r="V298" s="31"/>
       <c r="W298" s="31"/>
@@ -19293,20 +19313,20 @@
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="33" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J299" s="33" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K299" s="31"/>
       <c r="L299" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M299" s="33" t="s">
-        <v>302</v>
+        <v>710</v>
       </c>
       <c r="N299" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O299" s="33" t="s">
         <v>241</v>
@@ -19314,10 +19334,18 @@
       <c r="P299" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q299" s="31"/>
-      <c r="R299" s="31"/>
-      <c r="S299" s="31"/>
-      <c r="T299" s="31"/>
+      <c r="Q299" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="R299" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="S299" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="T299" s="33" t="s">
+        <v>709</v>
+      </c>
       <c r="U299" s="31"/>
       <c r="V299" s="31"/>
       <c r="W299" s="31"/>
@@ -19337,20 +19365,20 @@
       <c r="G300" s="31"/>
       <c r="H300" s="31"/>
       <c r="I300" s="33" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="J300" s="33" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K300" s="31"/>
       <c r="L300" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M300" s="33" t="s">
-        <v>710</v>
+        <v>302</v>
       </c>
       <c r="N300" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O300" s="33" t="s">
         <v>241</v>
@@ -19358,18 +19386,10 @@
       <c r="P300" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="Q300" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="R300" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="S300" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="T300" s="33" t="s">
-        <v>709</v>
-      </c>
+      <c r="Q300" s="31"/>
+      <c r="R300" s="31"/>
+      <c r="S300" s="31"/>
+      <c r="T300" s="31"/>
       <c r="U300" s="31"/>
       <c r="V300" s="31"/>
       <c r="W300" s="31"/>
@@ -19389,10 +19409,10 @@
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="33" t="s">
-        <v>711</v>
+        <v>787</v>
       </c>
       <c r="J301" s="33" t="s">
-        <v>711</v>
+        <v>787</v>
       </c>
       <c r="K301" s="31"/>
       <c r="L301" s="31" t="s">
@@ -19433,30 +19453,36 @@
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
       <c r="I302" s="33" t="s">
-        <v>787</v>
+        <v>712</v>
       </c>
       <c r="J302" s="33" t="s">
-        <v>787</v>
+        <v>712</v>
       </c>
       <c r="K302" s="31"/>
       <c r="L302" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M302" s="33" t="s">
-        <v>302</v>
+        <v>712</v>
       </c>
       <c r="N302" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O302" s="33" t="s">
         <v>241</v>
       </c>
       <c r="P302" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q302" s="31"/>
-      <c r="R302" s="31"/>
-      <c r="S302" s="31"/>
+        <v>713</v>
+      </c>
+      <c r="Q302" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="R302" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="S302" s="33" t="s">
+        <v>712</v>
+      </c>
       <c r="T302" s="31"/>
       <c r="U302" s="31"/>
       <c r="V302" s="31"/>
@@ -19477,17 +19503,17 @@
       <c r="G303" s="31"/>
       <c r="H303" s="31"/>
       <c r="I303" s="33" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="J303" s="33" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K303" s="31"/>
       <c r="L303" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M303" s="33" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="N303" s="31" t="s">
         <v>86</v>
@@ -19496,16 +19522,16 @@
         <v>241</v>
       </c>
       <c r="P303" s="33" t="s">
-        <v>713</v>
+        <v>242</v>
       </c>
       <c r="Q303" s="33" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="R303" s="33" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="S303" s="33" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="T303" s="31"/>
       <c r="U303" s="31"/>
@@ -19527,17 +19553,17 @@
       <c r="G304" s="31"/>
       <c r="H304" s="31"/>
       <c r="I304" s="33" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J304" s="33" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K304" s="31"/>
       <c r="L304" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M304" s="33" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="N304" s="31" t="s">
         <v>86</v>
@@ -19555,7 +19581,7 @@
         <v>718</v>
       </c>
       <c r="S304" s="33" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="T304" s="31"/>
       <c r="U304" s="31"/>
@@ -19577,20 +19603,20 @@
       <c r="G305" s="31"/>
       <c r="H305" s="31"/>
       <c r="I305" s="33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J305" s="33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K305" s="31"/>
       <c r="L305" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M305" s="33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N305" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O305" s="33" t="s">
         <v>241</v>
@@ -19599,14 +19625,12 @@
         <v>242</v>
       </c>
       <c r="Q305" s="33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="R305" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="S305" s="33" t="s">
-        <v>719</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="S305" s="31"/>
       <c r="T305" s="31"/>
       <c r="U305" s="31"/>
       <c r="V305" s="31"/>
@@ -19627,20 +19651,20 @@
       <c r="G306" s="31"/>
       <c r="H306" s="31"/>
       <c r="I306" s="33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J306" s="33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K306" s="31"/>
       <c r="L306" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M306" s="33" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N306" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O306" s="33" t="s">
         <v>241</v>
@@ -19649,11 +19673,9 @@
         <v>242</v>
       </c>
       <c r="Q306" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="R306" s="33" t="s">
-        <v>720</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="R306" s="31"/>
       <c r="S306" s="31"/>
       <c r="T306" s="31"/>
       <c r="U306" s="31"/>
@@ -19675,20 +19697,20 @@
       <c r="G307" s="31"/>
       <c r="H307" s="31"/>
       <c r="I307" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="J307" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K307" s="31"/>
       <c r="L307" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M307" s="33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N307" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O307" s="33" t="s">
         <v>241</v>
@@ -19697,11 +19719,17 @@
         <v>242</v>
       </c>
       <c r="Q307" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="R307" s="31"/>
-      <c r="S307" s="31"/>
-      <c r="T307" s="31"/>
+        <v>727</v>
+      </c>
+      <c r="R307" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="S307" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="T307" s="33" t="s">
+        <v>726</v>
+      </c>
       <c r="U307" s="31"/>
       <c r="V307" s="31"/>
       <c r="W307" s="31"/>
@@ -19721,20 +19749,20 @@
       <c r="G308" s="31"/>
       <c r="H308" s="31"/>
       <c r="I308" s="33" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="J308" s="33" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="K308" s="31"/>
       <c r="L308" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M308" s="33" t="s">
-        <v>723</v>
+      <c r="M308" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="N308" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O308" s="33" t="s">
         <v>241</v>
@@ -19742,18 +19770,10 @@
       <c r="P308" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q308" s="33" t="s">
-        <v>727</v>
-      </c>
-      <c r="R308" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="S308" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="T308" s="33" t="s">
-        <v>726</v>
-      </c>
+      <c r="Q308" s="31"/>
+      <c r="R308" s="31"/>
+      <c r="S308" s="31"/>
+      <c r="T308" s="31"/>
       <c r="U308" s="31"/>
       <c r="V308" s="31"/>
       <c r="W308" s="31"/>
@@ -19773,20 +19793,20 @@
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
       <c r="I309" s="33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J309" s="33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K309" s="31"/>
       <c r="L309" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="M309" s="31" t="s">
-        <v>242</v>
+      <c r="M309" s="33" t="s">
+        <v>729</v>
       </c>
       <c r="N309" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O309" s="33" t="s">
         <v>241</v>
@@ -19794,9 +19814,15 @@
       <c r="P309" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q309" s="31"/>
-      <c r="R309" s="31"/>
-      <c r="S309" s="31"/>
+      <c r="Q309" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="R309" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="S309" s="33" t="s">
+        <v>729</v>
+      </c>
       <c r="T309" s="31"/>
       <c r="U309" s="31"/>
       <c r="V309" s="31"/>
@@ -19817,20 +19843,20 @@
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
       <c r="I310" s="33" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J310" s="33" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K310" s="31"/>
       <c r="L310" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M310" s="33" t="s">
-        <v>729</v>
+        <v>292</v>
       </c>
       <c r="N310" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O310" s="33" t="s">
         <v>241</v>
@@ -19844,9 +19870,7 @@
       <c r="R310" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="S310" s="33" t="s">
-        <v>729</v>
-      </c>
+      <c r="S310" s="31"/>
       <c r="T310" s="31"/>
       <c r="U310" s="31"/>
       <c r="V310" s="31"/>
@@ -19867,20 +19891,20 @@
       <c r="G311" s="31"/>
       <c r="H311" s="31"/>
       <c r="I311" s="33" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J311" s="33" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K311" s="31"/>
       <c r="L311" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M311" s="33" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="N311" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O311" s="33" t="s">
         <v>241</v>
@@ -19888,12 +19912,8 @@
       <c r="P311" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="Q311" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="R311" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q311" s="31"/>
+      <c r="R311" s="31"/>
       <c r="S311" s="31"/>
       <c r="T311" s="31"/>
       <c r="U311" s="31"/>
@@ -19915,30 +19935,36 @@
       <c r="G312" s="31"/>
       <c r="H312" s="31"/>
       <c r="I312" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J312" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K312" s="31"/>
       <c r="L312" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M312" s="33" t="s">
-        <v>242</v>
+        <v>733</v>
       </c>
       <c r="N312" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O312" s="33" t="s">
-        <v>241</v>
+        <v>734</v>
       </c>
       <c r="P312" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q312" s="31"/>
-      <c r="R312" s="31"/>
-      <c r="S312" s="31"/>
+        <v>735</v>
+      </c>
+      <c r="Q312" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="R312" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="S312" s="33" t="s">
+        <v>733</v>
+      </c>
       <c r="T312" s="31"/>
       <c r="U312" s="31"/>
       <c r="V312" s="31"/>
@@ -19959,36 +19985,28 @@
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
       <c r="I313" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J313" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K313" s="31"/>
       <c r="L313" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M313" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N313" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O313" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="P313" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q313" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="R313" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="S313" s="33" t="s">
-        <v>733</v>
-      </c>
+      <c r="P313" s="31"/>
+      <c r="Q313" s="31"/>
+      <c r="R313" s="31"/>
+      <c r="S313" s="31"/>
       <c r="T313" s="31"/>
       <c r="U313" s="31"/>
       <c r="V313" s="31"/>
@@ -20009,24 +20027,20 @@
       <c r="G314" s="31"/>
       <c r="H314" s="31"/>
       <c r="I314" s="33" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="J314" s="33" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="K314" s="31"/>
       <c r="L314" s="31" t="s">
-        <v>207</v>
+        <v>489</v>
       </c>
       <c r="M314" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="N314" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O314" s="33" t="s">
-        <v>734</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="N314" s="31"/>
+      <c r="O314" s="31"/>
       <c r="P314" s="31"/>
       <c r="Q314" s="31"/>
       <c r="R314" s="31"/>
@@ -20042,117 +20056,79 @@
       <c r="AB314" s="31"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A315" s="31"/>
-      <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
-      <c r="D315" s="31"/>
-      <c r="E315" s="31"/>
-      <c r="F315" s="31"/>
-      <c r="G315" s="31"/>
-      <c r="H315" s="31"/>
-      <c r="I315" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="J315" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="K315" s="31"/>
-      <c r="L315" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="M315" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="N315" s="31"/>
-      <c r="O315" s="31"/>
-      <c r="P315" s="31"/>
-      <c r="Q315" s="31"/>
-      <c r="R315" s="31"/>
-      <c r="S315" s="31"/>
-      <c r="T315" s="31"/>
-      <c r="U315" s="31"/>
-      <c r="V315" s="31"/>
-      <c r="W315" s="31"/>
-      <c r="X315" s="31"/>
-      <c r="Y315" s="31"/>
-      <c r="Z315" s="31"/>
-      <c r="AA315" s="31"/>
-      <c r="AB315" s="31"/>
+      <c r="I315" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="J315" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="L315" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="M315" s="37" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="I316" s="37" t="s">
-        <v>781</v>
-      </c>
-      <c r="J316" s="37" t="s">
-        <v>781</v>
+      <c r="I316" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="J316" s="39" t="s">
+        <v>783</v>
       </c>
       <c r="L316" s="37" t="s">
         <v>782</v>
       </c>
       <c r="M316" s="37" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="I317" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="J317" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="L317" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="M317" s="37" t="s">
-        <v>784</v>
+      <c r="I317" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="J317" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="L317" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M317" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="N317" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O317" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P317" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q317" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="R317" s="33" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I318" s="37" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J318" s="37" t="s">
-        <v>785</v>
-      </c>
-      <c r="L318" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="M318" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="N318" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="O318" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="P318" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q318" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="R318" s="33" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="I319" s="37" t="s">
         <v>786</v>
       </c>
-      <c r="J319" s="37" t="s">
-        <v>786</v>
-      </c>
-      <c r="L319" s="37" t="s">
+      <c r="L318" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="M319" s="37" t="s">
+      <c r="M318" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="N319" s="37" t="s">
+      <c r="N318" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="O319" s="37" t="s">
+      <c r="O318" s="37" t="s">
         <v>317</v>
       </c>
     </row>

--- a/Data/new_crosswalk.xlsx
+++ b/Data/new_crosswalk.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbashevkin\Documents\ZoopSynth\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083BF34-3CAF-4F20-A544-306C1BA4187F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCD" sheetId="4" r:id="rId1"/>
@@ -1577,9 +1578,6 @@
     <t>YBFMP</t>
   </si>
   <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>OTHCYCADPUMP</t>
   </si>
   <si>
@@ -2472,12 +2470,15 @@
   </si>
   <si>
     <t>clam other</t>
+  </si>
+  <si>
+    <t>Undifferentiated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2733,9 +2734,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_20mm" xfId="2"/>
-    <cellStyle name="Normal_Species Lookup" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_20mm" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Species Lookup" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3012,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -3913,12 +3914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P258" sqref="P258"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3949,34 +3950,34 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>777</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>778</v>
       </c>
       <c r="K1" s="31" t="s">
         <v>488</v>
@@ -4413,10 +4414,10 @@
         <v>129</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>400</v>
@@ -4463,10 +4464,10 @@
       <c r="G9" s="32"/>
       <c r="H9" s="31"/>
       <c r="I9" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31" t="s">
@@ -5649,10 +5650,10 @@
         <v>107</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>376</v>
@@ -5751,7 +5752,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -5761,10 +5762,10 @@
       <c r="G30" s="32"/>
       <c r="H30" s="31"/>
       <c r="I30" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K30" s="31"/>
       <c r="L30" s="31" t="s">
@@ -5828,7 +5829,7 @@
         <v>386</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="M31" s="31" t="s">
         <v>133</v>
@@ -7733,10 +7734,10 @@
         <v>141</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="31" t="s">
@@ -8649,7 +8650,7 @@
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D80" s="31"/>
       <c r="E80" s="31" t="s">
@@ -8715,11 +8716,11 @@
       <c r="C81" s="31"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H81" s="31" t="s">
         <v>222</v>
@@ -9771,11 +9772,11 @@
       <c r="C103" s="31"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H103" s="31"/>
       <c r="I103" s="31" t="s">
@@ -9875,7 +9876,7 @@
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
@@ -10177,7 +10178,7 @@
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
@@ -10645,7 +10646,7 @@
         <v>242</v>
       </c>
       <c r="Q120" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R120" s="31" t="s">
         <v>292</v>
@@ -10713,11 +10714,11 @@
       <c r="C122" s="31"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H122" s="31"/>
       <c r="I122" s="31" t="s">
@@ -10807,11 +10808,11 @@
       <c r="C124" s="31"/>
       <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H124" s="31"/>
       <c r="I124" s="31" t="s">
@@ -10907,10 +10908,10 @@
       <c r="G126" s="38"/>
       <c r="H126" s="31"/>
       <c r="I126" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J126" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K126" s="31"/>
       <c r="L126" s="31" t="s">
@@ -10963,7 +10964,7 @@
         <v>207</v>
       </c>
       <c r="M127" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>84</v>
@@ -10975,7 +10976,7 @@
         <v>289</v>
       </c>
       <c r="Q127" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R127" s="31"/>
       <c r="S127" s="31"/>
@@ -11477,11 +11478,11 @@
       <c r="C138" s="31"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H138" s="31"/>
       <c r="I138" s="31" t="s">
@@ -11557,7 +11558,7 @@
         <v>242</v>
       </c>
       <c r="Q139" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R139" s="31" t="s">
         <v>314</v>
@@ -12497,7 +12498,7 @@
         <v>207</v>
       </c>
       <c r="M159" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>87</v>
@@ -12515,7 +12516,7 @@
         <v>193</v>
       </c>
       <c r="S159" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T159" s="31" t="s">
         <v>472</v>
@@ -12647,7 +12648,7 @@
         <v>208</v>
       </c>
       <c r="M162" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N162" s="31" t="s">
         <v>87</v>
@@ -12665,7 +12666,7 @@
         <v>193</v>
       </c>
       <c r="S162" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T162" s="31" t="s">
         <v>472</v>
@@ -12847,7 +12848,7 @@
         <v>207</v>
       </c>
       <c r="M166" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N166" s="31" t="s">
         <v>87</v>
@@ -12865,7 +12866,7 @@
         <v>193</v>
       </c>
       <c r="S166" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T166" s="31" t="s">
         <v>472</v>
@@ -12997,7 +12998,7 @@
         <v>207</v>
       </c>
       <c r="M169" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="N169" s="31" t="s">
         <v>87</v>
@@ -13018,7 +13019,7 @@
         <v>462</v>
       </c>
       <c r="T169" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U169" s="31"/>
       <c r="V169" s="31"/>
@@ -13235,11 +13236,11 @@
       <c r="C174" s="31"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
@@ -13249,7 +13250,7 @@
         <v>207</v>
       </c>
       <c r="M174" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N174" s="31" t="s">
         <v>87</v>
@@ -13264,13 +13265,13 @@
         <v>223</v>
       </c>
       <c r="R174" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="S174" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="S174" s="31" t="s">
-        <v>496</v>
-      </c>
       <c r="T174" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U174" s="31">
         <v>1954</v>
@@ -13289,25 +13290,25 @@
       <c r="C175" s="31"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H175" s="31"/>
       <c r="I175" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J175" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K175" s="31"/>
       <c r="L175" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M175" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N175" s="31" t="s">
         <v>87</v>
@@ -13325,10 +13326,10 @@
         <v>272</v>
       </c>
       <c r="S175" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T175" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U175" s="31"/>
       <c r="V175" s="31"/>
@@ -13345,25 +13346,25 @@
       <c r="C176" s="31"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H176" s="31"/>
       <c r="I176" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J176" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K176" s="31"/>
       <c r="L176" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M176" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N176" s="31" t="s">
         <v>87</v>
@@ -13381,10 +13382,10 @@
         <v>272</v>
       </c>
       <c r="S176" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T176" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U176" s="31"/>
       <c r="V176" s="31"/>
@@ -13401,25 +13402,25 @@
       <c r="C177" s="31"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H177" s="31"/>
       <c r="I177" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J177" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K177" s="31"/>
       <c r="L177" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M177" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N177" s="31" t="s">
         <v>87</v>
@@ -13437,10 +13438,10 @@
         <v>272</v>
       </c>
       <c r="S177" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T177" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U177" s="31">
         <v>1973</v>
@@ -13459,11 +13460,11 @@
       <c r="C178" s="31"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
@@ -13473,7 +13474,7 @@
         <v>207</v>
       </c>
       <c r="M178" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N178" s="31" t="s">
         <v>87</v>
@@ -13494,7 +13495,7 @@
         <v>222</v>
       </c>
       <c r="T178" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U178" s="31">
         <v>1983</v>
@@ -13517,17 +13518,17 @@
       <c r="G179" s="38"/>
       <c r="H179" s="31"/>
       <c r="I179" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J179" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K179" s="31"/>
       <c r="L179" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M179" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N179" s="31" t="s">
         <v>86</v>
@@ -13542,10 +13543,10 @@
         <v>309</v>
       </c>
       <c r="R179" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S179" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T179" s="31"/>
       <c r="U179" s="31"/>
@@ -13611,17 +13612,17 @@
       <c r="G181" s="31"/>
       <c r="H181" s="31"/>
       <c r="I181" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J181" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K181" s="31"/>
       <c r="L181" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M181" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N181" s="31" t="s">
         <v>87</v>
@@ -13633,16 +13634,16 @@
         <v>278</v>
       </c>
       <c r="Q181" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="R181" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="R181" s="31" t="s">
+      <c r="S181" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="S181" s="31" t="s">
+      <c r="T181" s="31" t="s">
         <v>753</v>
-      </c>
-      <c r="T181" s="31" t="s">
-        <v>754</v>
       </c>
       <c r="U181" s="31"/>
       <c r="V181" s="31"/>
@@ -13713,17 +13714,17 @@
       <c r="G183" s="31"/>
       <c r="H183" s="31"/>
       <c r="I183" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J183" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K183" s="31"/>
       <c r="L183" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M183" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>86</v>
@@ -13741,7 +13742,7 @@
         <v>193</v>
       </c>
       <c r="S183" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T183" s="31"/>
       <c r="U183" s="31"/>
@@ -13813,10 +13814,10 @@
       <c r="G185" s="31"/>
       <c r="H185" s="31"/>
       <c r="I185" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J185" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K185" s="31"/>
       <c r="L185" s="31" t="s">
@@ -13857,10 +13858,10 @@
       <c r="G186" s="31"/>
       <c r="H186" s="31"/>
       <c r="I186" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J186" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K186" s="31"/>
       <c r="L186" s="31" t="s">
@@ -13901,17 +13902,17 @@
       <c r="G187" s="31"/>
       <c r="H187" s="31"/>
       <c r="I187" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J187" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K187" s="31"/>
       <c r="L187" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M187" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N187" s="31" t="s">
         <v>85</v>
@@ -13926,7 +13927,7 @@
         <v>274</v>
       </c>
       <c r="R187" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S187" s="31"/>
       <c r="T187" s="31"/>
@@ -13949,17 +13950,17 @@
       <c r="G188" s="31"/>
       <c r="H188" s="31"/>
       <c r="I188" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J188" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K188" s="31"/>
       <c r="L188" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M188" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N188" s="31" t="s">
         <v>85</v>
@@ -13974,7 +13975,7 @@
         <v>274</v>
       </c>
       <c r="R188" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S188" s="31"/>
       <c r="T188" s="31"/>
@@ -13997,10 +13998,10 @@
       <c r="G189" s="31"/>
       <c r="H189" s="31"/>
       <c r="I189" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J189" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K189" s="31"/>
       <c r="L189" s="31" t="s">
@@ -14043,17 +14044,17 @@
       <c r="G190" s="31"/>
       <c r="H190" s="31"/>
       <c r="I190" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J190" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K190" s="31"/>
       <c r="L190" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M190" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N190" s="31" t="s">
         <v>85</v>
@@ -14068,7 +14069,7 @@
         <v>274</v>
       </c>
       <c r="R190" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S190" s="31"/>
       <c r="T190" s="31"/>
@@ -14091,17 +14092,17 @@
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J191" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K191" s="31"/>
       <c r="L191" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M191" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N191" s="31" t="s">
         <v>85</v>
@@ -14116,7 +14117,7 @@
         <v>274</v>
       </c>
       <c r="R191" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S191" s="31"/>
       <c r="T191" s="31"/>
@@ -14139,17 +14140,17 @@
       <c r="G192" s="31"/>
       <c r="H192" s="31"/>
       <c r="I192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K192" s="31"/>
       <c r="L192" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N192" s="31" t="s">
         <v>85</v>
@@ -14164,7 +14165,7 @@
         <v>274</v>
       </c>
       <c r="R192" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S192" s="31"/>
       <c r="T192" s="31"/>
@@ -14187,17 +14188,17 @@
       <c r="G193" s="31"/>
       <c r="H193" s="31"/>
       <c r="I193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K193" s="31"/>
       <c r="L193" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>85</v>
@@ -14212,7 +14213,7 @@
         <v>274</v>
       </c>
       <c r="R193" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S193" s="31"/>
       <c r="T193" s="31"/>
@@ -14235,17 +14236,17 @@
       <c r="G194" s="31"/>
       <c r="H194" s="31"/>
       <c r="I194" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J194" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K194" s="31"/>
       <c r="L194" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M194" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>85</v>
@@ -14260,7 +14261,7 @@
         <v>274</v>
       </c>
       <c r="R194" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S194" s="31"/>
       <c r="T194" s="31"/>
@@ -14283,17 +14284,17 @@
       <c r="G195" s="31"/>
       <c r="H195" s="31"/>
       <c r="I195" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J195" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K195" s="31"/>
       <c r="L195" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M195" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>85</v>
@@ -14308,7 +14309,7 @@
         <v>274</v>
       </c>
       <c r="R195" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S195" s="31"/>
       <c r="T195" s="31"/>
@@ -14331,17 +14332,17 @@
       <c r="G196" s="31"/>
       <c r="H196" s="31"/>
       <c r="I196" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J196" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K196" s="31"/>
       <c r="L196" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M196" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N196" s="31" t="s">
         <v>85</v>
@@ -14356,7 +14357,7 @@
         <v>274</v>
       </c>
       <c r="R196" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S196" s="31"/>
       <c r="T196" s="31"/>
@@ -14379,17 +14380,17 @@
       <c r="G197" s="31"/>
       <c r="H197" s="31"/>
       <c r="I197" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J197" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K197" s="31"/>
       <c r="L197" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M197" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N197" s="31" t="s">
         <v>85</v>
@@ -14404,7 +14405,7 @@
         <v>274</v>
       </c>
       <c r="R197" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S197" s="31"/>
       <c r="T197" s="31"/>
@@ -14427,17 +14428,17 @@
       <c r="G198" s="31"/>
       <c r="H198" s="31"/>
       <c r="I198" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J198" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K198" s="31"/>
       <c r="L198" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M198" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N198" s="31" t="s">
         <v>85</v>
@@ -14452,7 +14453,7 @@
         <v>274</v>
       </c>
       <c r="R198" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S198" s="31"/>
       <c r="T198" s="31"/>
@@ -14475,17 +14476,17 @@
       <c r="G199" s="31"/>
       <c r="H199" s="31"/>
       <c r="I199" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J199" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K199" s="31"/>
       <c r="L199" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M199" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>85</v>
@@ -14500,7 +14501,7 @@
         <v>274</v>
       </c>
       <c r="R199" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S199" s="31"/>
       <c r="T199" s="31"/>
@@ -14523,17 +14524,17 @@
       <c r="G200" s="31"/>
       <c r="H200" s="31"/>
       <c r="I200" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J200" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K200" s="31"/>
       <c r="L200" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M200" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N200" s="31" t="s">
         <v>86</v>
@@ -14548,10 +14549,10 @@
         <v>274</v>
       </c>
       <c r="R200" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S200" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T200" s="31"/>
       <c r="U200" s="31"/>
@@ -14573,17 +14574,17 @@
       <c r="G201" s="31"/>
       <c r="H201" s="31"/>
       <c r="I201" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J201" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K201" s="31"/>
       <c r="L201" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M201" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>85</v>
@@ -14598,7 +14599,7 @@
         <v>274</v>
       </c>
       <c r="R201" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S201" s="31"/>
       <c r="T201" s="31"/>
@@ -14621,17 +14622,17 @@
       <c r="G202" s="31"/>
       <c r="H202" s="31"/>
       <c r="I202" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J202" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K202" s="31"/>
       <c r="L202" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M202" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>85</v>
@@ -14646,7 +14647,7 @@
         <v>274</v>
       </c>
       <c r="R202" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S202" s="31"/>
       <c r="T202" s="31"/>
@@ -14669,17 +14670,17 @@
       <c r="G203" s="31"/>
       <c r="H203" s="31"/>
       <c r="I203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K203" s="31"/>
       <c r="L203" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N203" s="31" t="s">
         <v>85</v>
@@ -14694,7 +14695,7 @@
         <v>274</v>
       </c>
       <c r="R203" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S203" s="31"/>
       <c r="T203" s="31"/>
@@ -14717,17 +14718,17 @@
       <c r="G204" s="31"/>
       <c r="H204" s="31"/>
       <c r="I204" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J204" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K204" s="31"/>
       <c r="L204" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M204" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N204" s="31" t="s">
         <v>85</v>
@@ -14742,7 +14743,7 @@
         <v>274</v>
       </c>
       <c r="R204" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S204" s="31"/>
       <c r="T204" s="31"/>
@@ -14765,17 +14766,17 @@
       <c r="G205" s="31"/>
       <c r="H205" s="31"/>
       <c r="I205" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J205" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K205" s="31"/>
       <c r="L205" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M205" s="33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N205" s="31" t="s">
         <v>85</v>
@@ -14790,7 +14791,7 @@
         <v>274</v>
       </c>
       <c r="R205" s="33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S205" s="31"/>
       <c r="T205" s="31"/>
@@ -14813,17 +14814,17 @@
       <c r="G206" s="31"/>
       <c r="H206" s="31"/>
       <c r="I206" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J206" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K206" s="31"/>
       <c r="L206" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M206" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N206" s="31" t="s">
         <v>85</v>
@@ -14838,7 +14839,7 @@
         <v>274</v>
       </c>
       <c r="R206" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S206" s="31"/>
       <c r="T206" s="31"/>
@@ -14861,17 +14862,17 @@
       <c r="G207" s="31"/>
       <c r="H207" s="31"/>
       <c r="I207" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J207" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K207" s="31"/>
       <c r="L207" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M207" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N207" s="31" t="s">
         <v>85</v>
@@ -14886,7 +14887,7 @@
         <v>274</v>
       </c>
       <c r="R207" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S207" s="31"/>
       <c r="T207" s="31"/>
@@ -14909,17 +14910,17 @@
       <c r="G208" s="31"/>
       <c r="H208" s="31"/>
       <c r="I208" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J208" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K208" s="31"/>
       <c r="L208" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M208" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N208" s="31" t="s">
         <v>85</v>
@@ -14934,7 +14935,7 @@
         <v>274</v>
       </c>
       <c r="R208" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S208" s="31"/>
       <c r="T208" s="31"/>
@@ -14957,17 +14958,17 @@
       <c r="G209" s="31"/>
       <c r="H209" s="31"/>
       <c r="I209" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J209" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K209" s="31"/>
       <c r="L209" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M209" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N209" s="31" t="s">
         <v>85</v>
@@ -14982,7 +14983,7 @@
         <v>274</v>
       </c>
       <c r="R209" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S209" s="31"/>
       <c r="T209" s="31"/>
@@ -15005,17 +15006,17 @@
       <c r="G210" s="31"/>
       <c r="H210" s="31"/>
       <c r="I210" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J210" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K210" s="31"/>
       <c r="L210" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M210" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N210" s="31" t="s">
         <v>84</v>
@@ -15027,7 +15028,7 @@
         <v>94</v>
       </c>
       <c r="Q210" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R210" s="31"/>
       <c r="S210" s="31"/>
@@ -15051,17 +15052,17 @@
       <c r="G211" s="31"/>
       <c r="H211" s="31"/>
       <c r="I211" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J211" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K211" s="31"/>
       <c r="L211" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M211" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N211" s="31" t="s">
         <v>85</v>
@@ -15076,7 +15077,7 @@
         <v>199</v>
       </c>
       <c r="R211" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S211" s="31"/>
       <c r="T211" s="31"/>
@@ -15099,10 +15100,10 @@
       <c r="G212" s="31"/>
       <c r="H212" s="31"/>
       <c r="I212" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J212" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K212" s="31"/>
       <c r="L212" s="31" t="s">
@@ -15145,10 +15146,10 @@
       <c r="G213" s="31"/>
       <c r="H213" s="31"/>
       <c r="I213" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J213" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K213" s="31"/>
       <c r="L213" s="31" t="s">
@@ -15191,10 +15192,10 @@
       <c r="G214" s="31"/>
       <c r="H214" s="31"/>
       <c r="I214" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J214" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K214" s="31"/>
       <c r="L214" s="31" t="s">
@@ -15237,17 +15238,17 @@
       <c r="G215" s="31"/>
       <c r="H215" s="31"/>
       <c r="I215" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J215" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K215" s="31"/>
       <c r="L215" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M215" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N215" s="31" t="s">
         <v>85</v>
@@ -15262,7 +15263,7 @@
         <v>199</v>
       </c>
       <c r="R215" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S215" s="31"/>
       <c r="T215" s="31"/>
@@ -15285,17 +15286,17 @@
       <c r="G216" s="31"/>
       <c r="H216" s="31"/>
       <c r="I216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K216" s="31"/>
       <c r="L216" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N216" s="31" t="s">
         <v>85</v>
@@ -15310,7 +15311,7 @@
         <v>199</v>
       </c>
       <c r="R216" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S216" s="31"/>
       <c r="T216" s="31"/>
@@ -15333,10 +15334,10 @@
       <c r="G217" s="31"/>
       <c r="H217" s="31"/>
       <c r="I217" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J217" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K217" s="31"/>
       <c r="L217" s="31" t="s">
@@ -15379,17 +15380,17 @@
       <c r="G218" s="31"/>
       <c r="H218" s="31"/>
       <c r="I218" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J218" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K218" s="31"/>
       <c r="L218" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M218" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N218" s="31" t="s">
         <v>85</v>
@@ -15404,7 +15405,7 @@
         <v>199</v>
       </c>
       <c r="R218" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S218" s="31"/>
       <c r="T218" s="31"/>
@@ -15427,17 +15428,17 @@
       <c r="G219" s="31"/>
       <c r="H219" s="31"/>
       <c r="I219" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J219" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K219" s="31"/>
       <c r="L219" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M219" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N219" s="31" t="s">
         <v>85</v>
@@ -15452,7 +15453,7 @@
         <v>199</v>
       </c>
       <c r="R219" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S219" s="31"/>
       <c r="T219" s="31"/>
@@ -15475,17 +15476,17 @@
       <c r="G220" s="31"/>
       <c r="H220" s="31"/>
       <c r="I220" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J220" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K220" s="31"/>
       <c r="L220" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M220" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N220" s="31" t="s">
         <v>85</v>
@@ -15500,7 +15501,7 @@
         <v>199</v>
       </c>
       <c r="R220" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S220" s="31"/>
       <c r="T220" s="31"/>
@@ -15523,17 +15524,17 @@
       <c r="G221" s="31"/>
       <c r="H221" s="31"/>
       <c r="I221" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J221" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K221" s="31"/>
       <c r="L221" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M221" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N221" s="31" t="s">
         <v>85</v>
@@ -15548,7 +15549,7 @@
         <v>199</v>
       </c>
       <c r="R221" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S221" s="31"/>
       <c r="T221" s="31"/>
@@ -15571,17 +15572,17 @@
       <c r="G222" s="31"/>
       <c r="H222" s="31"/>
       <c r="I222" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J222" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K222" s="31"/>
       <c r="L222" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M222" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N222" s="31" t="s">
         <v>85</v>
@@ -15596,7 +15597,7 @@
         <v>199</v>
       </c>
       <c r="R222" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S222" s="31"/>
       <c r="T222" s="31"/>
@@ -15619,17 +15620,17 @@
       <c r="G223" s="31"/>
       <c r="H223" s="31"/>
       <c r="I223" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J223" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K223" s="31"/>
       <c r="L223" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M223" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N223" s="31" t="s">
         <v>85</v>
@@ -15644,7 +15645,7 @@
         <v>199</v>
       </c>
       <c r="R223" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S223" s="31"/>
       <c r="T223" s="31"/>
@@ -15667,17 +15668,17 @@
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
       <c r="I224" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J224" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K224" s="31"/>
       <c r="L224" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M224" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N224" s="31" t="s">
         <v>85</v>
@@ -15692,7 +15693,7 @@
         <v>199</v>
       </c>
       <c r="R224" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S224" s="31"/>
       <c r="T224" s="31"/>
@@ -15715,17 +15716,17 @@
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
       <c r="I225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K225" s="31"/>
       <c r="L225" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N225" s="31" t="s">
         <v>85</v>
@@ -15740,7 +15741,7 @@
         <v>279</v>
       </c>
       <c r="R225" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S225" s="31"/>
       <c r="T225" s="31"/>
@@ -15763,17 +15764,17 @@
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
       <c r="I226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K226" s="31"/>
       <c r="L226" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N226" s="31" t="s">
         <v>85</v>
@@ -15788,7 +15789,7 @@
         <v>279</v>
       </c>
       <c r="R226" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S226" s="31"/>
       <c r="T226" s="31"/>
@@ -15811,10 +15812,10 @@
       <c r="G227" s="31"/>
       <c r="H227" s="31"/>
       <c r="I227" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J227" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K227" s="31"/>
       <c r="L227" s="31" t="s">
@@ -15857,17 +15858,17 @@
       <c r="G228" s="31"/>
       <c r="H228" s="31"/>
       <c r="I228" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J228" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K228" s="31"/>
       <c r="L228" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M228" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N228" s="31" t="s">
         <v>85</v>
@@ -15882,7 +15883,7 @@
         <v>279</v>
       </c>
       <c r="R228" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S228" s="31"/>
       <c r="T228" s="31"/>
@@ -15905,17 +15906,17 @@
       <c r="G229" s="31"/>
       <c r="H229" s="31"/>
       <c r="I229" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J229" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K229" s="31"/>
       <c r="L229" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M229" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N229" s="31" t="s">
         <v>87</v>
@@ -15930,13 +15931,13 @@
         <v>279</v>
       </c>
       <c r="R229" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="S229" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="S229" s="33" t="s">
+      <c r="T229" s="33" t="s">
         <v>581</v>
-      </c>
-      <c r="T229" s="33" t="s">
-        <v>582</v>
       </c>
       <c r="U229" s="31"/>
       <c r="V229" s="31"/>
@@ -15957,10 +15958,10 @@
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
       <c r="I230" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J230" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K230" s="31"/>
       <c r="L230" s="31" t="s">
@@ -16003,17 +16004,17 @@
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
       <c r="I231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K231" s="31"/>
       <c r="L231" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N231" s="31" t="s">
         <v>85</v>
@@ -16028,7 +16029,7 @@
         <v>226</v>
       </c>
       <c r="R231" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="S231" s="31"/>
       <c r="T231" s="31"/>
@@ -16051,17 +16052,17 @@
       <c r="G232" s="31"/>
       <c r="H232" s="31"/>
       <c r="I232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K232" s="31"/>
       <c r="L232" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N232" s="31" t="s">
         <v>85</v>
@@ -16076,7 +16077,7 @@
         <v>226</v>
       </c>
       <c r="R232" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S232" s="31"/>
       <c r="T232" s="31"/>
@@ -16099,17 +16100,17 @@
       <c r="G233" s="31"/>
       <c r="H233" s="31"/>
       <c r="I233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K233" s="31"/>
       <c r="L233" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N233" s="31" t="s">
         <v>85</v>
@@ -16124,7 +16125,7 @@
         <v>226</v>
       </c>
       <c r="R233" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S233" s="31"/>
       <c r="T233" s="31"/>
@@ -16147,17 +16148,17 @@
       <c r="G234" s="31"/>
       <c r="H234" s="31"/>
       <c r="I234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K234" s="31"/>
       <c r="L234" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N234" s="31" t="s">
         <v>85</v>
@@ -16172,7 +16173,7 @@
         <v>226</v>
       </c>
       <c r="R234" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S234" s="31"/>
       <c r="T234" s="31"/>
@@ -16195,17 +16196,17 @@
       <c r="G235" s="31"/>
       <c r="H235" s="31"/>
       <c r="I235" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J235" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K235" s="31"/>
       <c r="L235" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M235" s="33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N235" s="31" t="s">
         <v>85</v>
@@ -16220,7 +16221,7 @@
         <v>226</v>
       </c>
       <c r="R235" s="33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S235" s="31"/>
       <c r="T235" s="31"/>
@@ -16243,10 +16244,10 @@
       <c r="G236" s="31"/>
       <c r="H236" s="31"/>
       <c r="I236" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J236" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K236" s="31"/>
       <c r="L236" s="31" t="s">
@@ -16289,17 +16290,17 @@
       <c r="G237" s="31"/>
       <c r="H237" s="31"/>
       <c r="I237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K237" s="31"/>
       <c r="L237" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N237" s="31" t="s">
         <v>85</v>
@@ -16314,7 +16315,7 @@
         <v>226</v>
       </c>
       <c r="R237" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S237" s="31"/>
       <c r="T237" s="31"/>
@@ -16337,17 +16338,17 @@
       <c r="G238" s="31"/>
       <c r="H238" s="31"/>
       <c r="I238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K238" s="31"/>
       <c r="L238" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N238" s="31" t="s">
         <v>85</v>
@@ -16362,7 +16363,7 @@
         <v>226</v>
       </c>
       <c r="R238" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S238" s="31"/>
       <c r="T238" s="31"/>
@@ -16385,10 +16386,10 @@
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
       <c r="I239" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J239" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K239" s="31"/>
       <c r="L239" s="31" t="s">
@@ -16431,17 +16432,17 @@
       <c r="G240" s="31"/>
       <c r="H240" s="31"/>
       <c r="I240" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J240" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K240" s="31"/>
       <c r="L240" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M240" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N240" s="31" t="s">
         <v>85</v>
@@ -16456,7 +16457,7 @@
         <v>226</v>
       </c>
       <c r="R240" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S240" s="31"/>
       <c r="T240" s="31"/>
@@ -16479,17 +16480,17 @@
       <c r="G241" s="31"/>
       <c r="H241" s="31"/>
       <c r="I241" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J241" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K241" s="31"/>
       <c r="L241" s="31" t="s">
         <v>208</v>
       </c>
       <c r="M241" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N241" s="31" t="s">
         <v>85</v>
@@ -16504,7 +16505,7 @@
         <v>226</v>
       </c>
       <c r="R241" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S241" s="31"/>
       <c r="T241" s="31"/>
@@ -16527,10 +16528,10 @@
       <c r="G242" s="31"/>
       <c r="H242" s="31"/>
       <c r="I242" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J242" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K242" s="31"/>
       <c r="L242" s="31" t="s">
@@ -16575,10 +16576,10 @@
       <c r="G243" s="31"/>
       <c r="H243" s="31"/>
       <c r="I243" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J243" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K243" s="31"/>
       <c r="L243" s="31" t="s">
@@ -16621,17 +16622,17 @@
       <c r="G244" s="31"/>
       <c r="H244" s="31"/>
       <c r="I244" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J244" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K244" s="31"/>
       <c r="L244" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M244" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N244" s="31" t="s">
         <v>84</v>
@@ -16643,7 +16644,7 @@
         <v>94</v>
       </c>
       <c r="Q244" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R244" s="31"/>
       <c r="S244" s="31"/>
@@ -16667,17 +16668,17 @@
       <c r="G245" s="31"/>
       <c r="H245" s="31"/>
       <c r="I245" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J245" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K245" s="31"/>
       <c r="L245" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M245" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N245" s="31" t="s">
         <v>84</v>
@@ -16689,7 +16690,7 @@
         <v>94</v>
       </c>
       <c r="Q245" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R245" s="31"/>
       <c r="S245" s="31"/>
@@ -16713,17 +16714,17 @@
       <c r="G246" s="31"/>
       <c r="H246" s="31"/>
       <c r="I246" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J246" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K246" s="31"/>
       <c r="L246" s="31" t="s">
         <v>294</v>
       </c>
       <c r="M246" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N246" s="31" t="s">
         <v>84</v>
@@ -16735,7 +16736,7 @@
         <v>94</v>
       </c>
       <c r="Q246" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R246" s="31"/>
       <c r="S246" s="31"/>
@@ -16759,17 +16760,17 @@
       <c r="G247" s="31"/>
       <c r="H247" s="31"/>
       <c r="I247" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J247" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K247" s="31"/>
       <c r="L247" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M247" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N247" s="31" t="s">
         <v>85</v>
@@ -16781,10 +16782,10 @@
         <v>94</v>
       </c>
       <c r="Q247" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="R247" s="33" t="s">
         <v>604</v>
-      </c>
-      <c r="R247" s="33" t="s">
-        <v>605</v>
       </c>
       <c r="S247" s="31"/>
       <c r="T247" s="31"/>
@@ -16807,17 +16808,17 @@
       <c r="G248" s="31"/>
       <c r="H248" s="31"/>
       <c r="I248" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J248" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K248" s="31"/>
       <c r="L248" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M248" s="33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N248" s="31" t="s">
         <v>85</v>
@@ -16832,7 +16833,7 @@
         <v>268</v>
       </c>
       <c r="R248" s="33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S248" s="31"/>
       <c r="T248" s="31"/>
@@ -16855,10 +16856,10 @@
       <c r="G249" s="31"/>
       <c r="H249" s="31"/>
       <c r="I249" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J249" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K249" s="31"/>
       <c r="L249" s="31" t="s">
@@ -16901,17 +16902,17 @@
       <c r="G250" s="31"/>
       <c r="H250" s="31"/>
       <c r="I250" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J250" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K250" s="31"/>
       <c r="L250" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M250" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N250" s="31" t="s">
         <v>85</v>
@@ -16926,7 +16927,7 @@
         <v>268</v>
       </c>
       <c r="R250" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S250" s="31"/>
       <c r="T250" s="31"/>
@@ -16949,10 +16950,10 @@
       <c r="G251" s="31"/>
       <c r="H251" s="31"/>
       <c r="I251" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J251" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K251" s="31"/>
       <c r="L251" s="31" t="s">
@@ -16995,17 +16996,17 @@
       <c r="G252" s="31"/>
       <c r="H252" s="31"/>
       <c r="I252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K252" s="31"/>
       <c r="L252" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N252" s="31" t="s">
         <v>85</v>
@@ -17020,7 +17021,7 @@
         <v>268</v>
       </c>
       <c r="R252" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S252" s="31"/>
       <c r="T252" s="31"/>
@@ -17043,17 +17044,17 @@
       <c r="G253" s="31"/>
       <c r="H253" s="31"/>
       <c r="I253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K253" s="31"/>
       <c r="L253" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N253" s="31" t="s">
         <v>84</v>
@@ -17065,7 +17066,7 @@
         <v>94</v>
       </c>
       <c r="Q253" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R253" s="31"/>
       <c r="S253" s="31"/>
@@ -17089,17 +17090,17 @@
       <c r="G254" s="31"/>
       <c r="H254" s="31"/>
       <c r="I254" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J254" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K254" s="31"/>
       <c r="L254" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M254" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N254" s="31" t="s">
         <v>84</v>
@@ -17111,7 +17112,7 @@
         <v>94</v>
       </c>
       <c r="Q254" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R254" s="31"/>
       <c r="S254" s="31"/>
@@ -17135,17 +17136,17 @@
       <c r="G255" s="31"/>
       <c r="H255" s="31"/>
       <c r="I255" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J255" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K255" s="31"/>
       <c r="L255" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M255" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N255" s="31" t="s">
         <v>84</v>
@@ -17157,7 +17158,7 @@
         <v>94</v>
       </c>
       <c r="Q255" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R255" s="31"/>
       <c r="S255" s="31"/>
@@ -17181,10 +17182,10 @@
       <c r="G256" s="31"/>
       <c r="H256" s="31"/>
       <c r="I256" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J256" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K256" s="31"/>
       <c r="L256" s="31" t="s">
@@ -17227,10 +17228,10 @@
       <c r="G257" s="31"/>
       <c r="H257" s="31"/>
       <c r="I257" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J257" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K257" s="31"/>
       <c r="L257" s="31" t="s">
@@ -17275,17 +17276,17 @@
       <c r="G258" s="31"/>
       <c r="H258" s="31"/>
       <c r="I258" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J258" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K258" s="31"/>
       <c r="L258" s="31" t="s">
         <v>209</v>
       </c>
       <c r="M258" s="33" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N258" s="31" t="s">
         <v>85</v>
@@ -17300,7 +17301,7 @@
         <v>247</v>
       </c>
       <c r="R258" s="33" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S258" s="31"/>
       <c r="T258" s="31"/>
@@ -17323,10 +17324,10 @@
       <c r="G259" s="31"/>
       <c r="H259" s="31"/>
       <c r="I259" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J259" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K259" s="31"/>
       <c r="L259" s="31" t="s">
@@ -17369,10 +17370,10 @@
       <c r="G260" s="31"/>
       <c r="H260" s="31"/>
       <c r="I260" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J260" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K260" s="31"/>
       <c r="L260" s="31" t="s">
@@ -17417,10 +17418,10 @@
       <c r="G261" s="31"/>
       <c r="H261" s="31"/>
       <c r="I261" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J261" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K261" s="31"/>
       <c r="L261" s="31" t="s">
@@ -17461,10 +17462,10 @@
       <c r="G262" s="31"/>
       <c r="H262" s="31"/>
       <c r="I262" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J262" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K262" s="31"/>
       <c r="L262" s="31" t="s">
@@ -17507,17 +17508,17 @@
       <c r="G263" s="31"/>
       <c r="H263" s="31"/>
       <c r="I263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K263" s="31"/>
       <c r="L263" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N263" s="31" t="s">
         <v>86</v>
@@ -17532,10 +17533,10 @@
         <v>223</v>
       </c>
       <c r="R263" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S263" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T263" s="31"/>
       <c r="U263" s="31">
@@ -17559,17 +17560,17 @@
       <c r="G264" s="31"/>
       <c r="H264" s="31"/>
       <c r="I264" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J264" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K264" s="31"/>
       <c r="L264" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M264" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N264" s="31" t="s">
         <v>86</v>
@@ -17584,10 +17585,10 @@
         <v>223</v>
       </c>
       <c r="R264" s="33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S264" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T264" s="31"/>
       <c r="U264" s="31">
@@ -17611,17 +17612,17 @@
       <c r="G265" s="31"/>
       <c r="H265" s="31"/>
       <c r="I265" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J265" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K265" s="31"/>
       <c r="L265" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M265" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N265" s="31" t="s">
         <v>86</v>
@@ -17636,10 +17637,10 @@
         <v>223</v>
       </c>
       <c r="R265" s="33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S265" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T265" s="31"/>
       <c r="U265" s="31"/>
@@ -17661,17 +17662,17 @@
       <c r="G266" s="31"/>
       <c r="H266" s="31"/>
       <c r="I266" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J266" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K266" s="31"/>
       <c r="L266" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M266" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N266" s="31" t="s">
         <v>85</v>
@@ -17680,13 +17681,13 @@
         <v>93</v>
       </c>
       <c r="P266" s="33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q266" s="33" t="s">
         <v>223</v>
       </c>
       <c r="R266" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S266" s="31"/>
       <c r="T266" s="31"/>
@@ -17711,10 +17712,10 @@
       <c r="G267" s="31"/>
       <c r="H267" s="31"/>
       <c r="I267" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J267" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K267" s="31"/>
       <c r="L267" s="31" t="s">
@@ -17757,17 +17758,17 @@
       <c r="G268" s="31"/>
       <c r="H268" s="31"/>
       <c r="I268" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J268" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K268" s="31"/>
       <c r="L268" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M268" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N268" s="31" t="s">
         <v>87</v>
@@ -17782,13 +17783,13 @@
         <v>144</v>
       </c>
       <c r="R268" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="S268" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="T268" s="33" t="s">
         <v>634</v>
-      </c>
-      <c r="S268" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="T268" s="33" t="s">
-        <v>635</v>
       </c>
       <c r="U268" s="31"/>
       <c r="V268" s="31"/>
@@ -17809,10 +17810,10 @@
       <c r="G269" s="31"/>
       <c r="H269" s="31"/>
       <c r="I269" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J269" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K269" s="31"/>
       <c r="L269" s="31" t="s">
@@ -17855,17 +17856,17 @@
       <c r="G270" s="31"/>
       <c r="H270" s="31"/>
       <c r="I270" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J270" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K270" s="31"/>
       <c r="L270" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M270" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N270" s="31" t="s">
         <v>86</v>
@@ -17880,10 +17881,10 @@
         <v>144</v>
       </c>
       <c r="R270" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="S270" s="33" t="s">
         <v>639</v>
-      </c>
-      <c r="S270" s="33" t="s">
-        <v>640</v>
       </c>
       <c r="T270" s="31"/>
       <c r="U270" s="31"/>
@@ -17905,17 +17906,17 @@
       <c r="G271" s="31"/>
       <c r="H271" s="31"/>
       <c r="I271" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J271" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K271" s="31"/>
       <c r="L271" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M271" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N271" s="31" t="s">
         <v>86</v>
@@ -17930,10 +17931,10 @@
         <v>144</v>
       </c>
       <c r="R271" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S271" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T271" s="31"/>
       <c r="U271" s="31"/>
@@ -17955,10 +17956,10 @@
       <c r="G272" s="31"/>
       <c r="H272" s="31"/>
       <c r="I272" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J272" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K272" s="31"/>
       <c r="L272" s="31" t="s">
@@ -18001,17 +18002,17 @@
       <c r="G273" s="31"/>
       <c r="H273" s="31"/>
       <c r="I273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K273" s="31"/>
       <c r="L273" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N273" s="31" t="s">
         <v>86</v>
@@ -18026,10 +18027,10 @@
         <v>144</v>
       </c>
       <c r="R273" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S273" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T273" s="31"/>
       <c r="U273" s="31"/>
@@ -18051,17 +18052,17 @@
       <c r="G274" s="31"/>
       <c r="H274" s="31"/>
       <c r="I274" s="33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J274" s="33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K274" s="31"/>
       <c r="L274" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M274" s="31" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N274" s="31" t="s">
         <v>87</v>
@@ -18076,13 +18077,13 @@
         <v>144</v>
       </c>
       <c r="R274" s="33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S274" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="T274" s="33" t="s">
         <v>646</v>
-      </c>
-      <c r="T274" s="33" t="s">
-        <v>647</v>
       </c>
       <c r="U274" s="31"/>
       <c r="V274" s="31"/>
@@ -18103,17 +18104,17 @@
       <c r="G275" s="31"/>
       <c r="H275" s="31"/>
       <c r="I275" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J275" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K275" s="31"/>
       <c r="L275" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M275" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N275" s="31" t="s">
         <v>86</v>
@@ -18128,10 +18129,10 @@
         <v>144</v>
       </c>
       <c r="R275" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S275" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T275" s="31"/>
       <c r="U275" s="31"/>
@@ -18153,17 +18154,17 @@
       <c r="G276" s="31"/>
       <c r="H276" s="31"/>
       <c r="I276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K276" s="31"/>
       <c r="L276" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N276" s="31" t="s">
         <v>86</v>
@@ -18178,10 +18179,10 @@
         <v>144</v>
       </c>
       <c r="R276" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S276" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T276" s="31"/>
       <c r="U276" s="31"/>
@@ -18203,17 +18204,17 @@
       <c r="G277" s="31"/>
       <c r="H277" s="31"/>
       <c r="I277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K277" s="31"/>
       <c r="L277" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N277" s="31" t="s">
         <v>85</v>
@@ -18228,7 +18229,7 @@
         <v>229</v>
       </c>
       <c r="R277" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S277" s="31"/>
       <c r="T277" s="31"/>
@@ -18251,17 +18252,17 @@
       <c r="G278" s="31"/>
       <c r="H278" s="31"/>
       <c r="I278" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J278" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K278" s="31"/>
       <c r="L278" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M278" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N278" s="31" t="s">
         <v>87</v>
@@ -18276,13 +18277,13 @@
         <v>229</v>
       </c>
       <c r="R278" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="S278" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="T278" s="33" t="s">
         <v>653</v>
-      </c>
-      <c r="S278" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="T278" s="33" t="s">
-        <v>654</v>
       </c>
       <c r="U278" s="31"/>
       <c r="V278" s="31"/>
@@ -18303,17 +18304,17 @@
       <c r="G279" s="31"/>
       <c r="H279" s="31"/>
       <c r="I279" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J279" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K279" s="31"/>
       <c r="L279" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M279" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N279" s="31" t="s">
         <v>86</v>
@@ -18328,10 +18329,10 @@
         <v>229</v>
       </c>
       <c r="R279" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S279" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="T279" s="31"/>
       <c r="U279" s="31"/>
@@ -18353,17 +18354,17 @@
       <c r="G280" s="31"/>
       <c r="H280" s="31"/>
       <c r="I280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K280" s="31"/>
       <c r="L280" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N280" s="31" t="s">
         <v>85</v>
@@ -18378,7 +18379,7 @@
         <v>229</v>
       </c>
       <c r="R280" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S280" s="31"/>
       <c r="T280" s="31"/>
@@ -18401,10 +18402,10 @@
       <c r="G281" s="31"/>
       <c r="H281" s="31"/>
       <c r="I281" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J281" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K281" s="31"/>
       <c r="L281" s="31" t="s">
@@ -18447,10 +18448,10 @@
       <c r="G282" s="31"/>
       <c r="H282" s="31"/>
       <c r="I282" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J282" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K282" s="31"/>
       <c r="L282" s="31" t="s">
@@ -18489,17 +18490,17 @@
       <c r="C283" s="31"/>
       <c r="H283" s="31"/>
       <c r="I283" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J283" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K283" s="31"/>
       <c r="L283" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M283" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N283" s="31" t="s">
         <v>87</v>
@@ -18517,10 +18518,10 @@
         <v>220</v>
       </c>
       <c r="S283" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T283" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U283" s="31">
         <v>1993</v>
@@ -18537,29 +18538,29 @@
       <c r="A284" s="34"/>
       <c r="B284" s="34"/>
       <c r="C284" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D284" s="31"/>
       <c r="E284" s="31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F284" s="31"/>
       <c r="G284" s="31" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H284" s="31"/>
       <c r="I284" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J284" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K284" s="31"/>
       <c r="L284" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M284" s="31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N284" s="31" t="s">
         <v>87</v>
@@ -18580,7 +18581,7 @@
         <v>221</v>
       </c>
       <c r="T284" s="31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U284" s="31">
         <v>1997</v>
@@ -18599,29 +18600,29 @@
       <c r="A285" s="34"/>
       <c r="B285" s="34"/>
       <c r="C285" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F285" s="31"/>
       <c r="G285" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H285" s="31"/>
       <c r="I285" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J285" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K285" s="31"/>
       <c r="L285" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M285" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N285" s="31" t="s">
         <v>87</v>
@@ -18639,10 +18640,10 @@
         <v>220</v>
       </c>
       <c r="S285" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="T285" s="31" t="s">
         <v>669</v>
-      </c>
-      <c r="T285" s="31" t="s">
-        <v>670</v>
       </c>
       <c r="U285" s="31"/>
       <c r="V285" s="31">
@@ -18659,29 +18660,29 @@
       <c r="A286" s="34"/>
       <c r="B286" s="34"/>
       <c r="C286" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D286" s="31"/>
       <c r="E286" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F286" s="31"/>
       <c r="G286" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H286" s="31"/>
       <c r="I286" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J286" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K286" s="31"/>
       <c r="L286" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M286" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N286" s="31" t="s">
         <v>87</v>
@@ -18699,10 +18700,10 @@
         <v>220</v>
       </c>
       <c r="S286" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="T286" s="31" t="s">
         <v>673</v>
-      </c>
-      <c r="T286" s="31" t="s">
-        <v>674</v>
       </c>
       <c r="U286" s="31">
         <v>1977</v>
@@ -18721,22 +18722,22 @@
       <c r="A287" s="34"/>
       <c r="B287" s="34"/>
       <c r="C287" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D287" s="31"/>
       <c r="E287" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F287" s="31"/>
       <c r="G287" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H287" s="31"/>
       <c r="I287" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J287" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K287" s="31"/>
       <c r="L287" s="31" t="s">
@@ -18779,10 +18780,10 @@
       <c r="G288" s="31"/>
       <c r="H288" s="31"/>
       <c r="I288" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K288" s="31"/>
       <c r="L288" s="31" t="s">
@@ -18819,29 +18820,29 @@
       <c r="A289" s="34"/>
       <c r="B289" s="34"/>
       <c r="C289" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D289" s="31"/>
       <c r="E289" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F289" s="31"/>
       <c r="G289" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H289" s="31"/>
       <c r="I289" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K289" s="31"/>
       <c r="L289" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M289" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N289" s="31" t="s">
         <v>87</v>
@@ -18859,10 +18860,10 @@
         <v>220</v>
       </c>
       <c r="S289" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T289" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U289" s="31">
         <v>1993</v>
@@ -18887,10 +18888,10 @@
       <c r="G290" s="31"/>
       <c r="H290" s="31"/>
       <c r="I290" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K290" s="31"/>
       <c r="L290" s="31" t="s">
@@ -18931,38 +18932,38 @@
       <c r="G291" s="31"/>
       <c r="H291" s="31"/>
       <c r="I291" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J291" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K291" s="31"/>
       <c r="L291" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M291" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N291" s="31" t="s">
         <v>87</v>
       </c>
       <c r="O291" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="P291" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="P291" s="33" t="s">
+      <c r="Q291" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="Q291" s="33" t="s">
+      <c r="R291" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="R291" s="33" t="s">
+      <c r="S291" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="S291" s="33" t="s">
-        <v>683</v>
-      </c>
       <c r="T291" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="U291" s="31"/>
       <c r="V291" s="31"/>
@@ -18983,10 +18984,10 @@
       <c r="G292" s="31"/>
       <c r="H292" s="31"/>
       <c r="I292" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J292" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K292" s="31"/>
       <c r="L292" s="31" t="s">
@@ -19025,17 +19026,17 @@
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
       <c r="I293" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J293" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K293" s="31"/>
       <c r="L293" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M293" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N293" s="31" t="s">
         <v>86</v>
@@ -19047,13 +19048,13 @@
         <v>263</v>
       </c>
       <c r="Q293" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R293" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="S293" s="33" t="s">
         <v>688</v>
-      </c>
-      <c r="S293" s="33" t="s">
-        <v>689</v>
       </c>
       <c r="T293" s="31"/>
       <c r="U293" s="31"/>
@@ -19075,10 +19076,10 @@
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J294" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K294" s="31"/>
       <c r="L294" s="31" t="s">
@@ -19117,17 +19118,17 @@
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
       <c r="I295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K295" s="31"/>
       <c r="L295" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N295" s="31" t="s">
         <v>86</v>
@@ -19139,13 +19140,13 @@
         <v>263</v>
       </c>
       <c r="Q295" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R295" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S295" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T295" s="31"/>
       <c r="U295" s="31"/>
@@ -19167,17 +19168,17 @@
       <c r="G296" s="31"/>
       <c r="H296" s="31"/>
       <c r="I296" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J296" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K296" s="31"/>
       <c r="L296" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M296" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N296" s="31" t="s">
         <v>86</v>
@@ -19186,16 +19187,16 @@
         <v>262</v>
       </c>
       <c r="P296" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q296" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="Q296" s="33" t="s">
-        <v>699</v>
-      </c>
       <c r="R296" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="S296" s="33" t="s">
         <v>696</v>
-      </c>
-      <c r="S296" s="33" t="s">
-        <v>697</v>
       </c>
       <c r="T296" s="31"/>
       <c r="U296" s="31"/>
@@ -19217,17 +19218,17 @@
       <c r="G297" s="31"/>
       <c r="H297" s="31"/>
       <c r="I297" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J297" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K297" s="31"/>
       <c r="L297" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M297" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N297" s="31" t="s">
         <v>87</v>
@@ -19239,16 +19240,16 @@
         <v>302</v>
       </c>
       <c r="Q297" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="R297" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="R297" s="33" t="s">
+      <c r="S297" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="T297" s="33" t="s">
         <v>702</v>
-      </c>
-      <c r="S297" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="T297" s="33" t="s">
-        <v>703</v>
       </c>
       <c r="U297" s="31"/>
       <c r="V297" s="31"/>
@@ -19269,10 +19270,10 @@
       <c r="G298" s="31"/>
       <c r="H298" s="31"/>
       <c r="I298" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J298" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K298" s="31"/>
       <c r="L298" s="31" t="s">
@@ -19313,17 +19314,17 @@
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J299" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K299" s="31"/>
       <c r="L299" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M299" s="33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N299" s="31" t="s">
         <v>87</v>
@@ -19335,16 +19336,16 @@
         <v>302</v>
       </c>
       <c r="Q299" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="R299" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="R299" s="33" t="s">
+      <c r="S299" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="T299" s="33" t="s">
         <v>708</v>
-      </c>
-      <c r="S299" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="T299" s="33" t="s">
-        <v>709</v>
       </c>
       <c r="U299" s="31"/>
       <c r="V299" s="31"/>
@@ -19365,10 +19366,10 @@
       <c r="G300" s="31"/>
       <c r="H300" s="31"/>
       <c r="I300" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J300" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K300" s="31"/>
       <c r="L300" s="31" t="s">
@@ -19409,10 +19410,10 @@
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="33" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J301" s="33" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K301" s="31"/>
       <c r="L301" s="31" t="s">
@@ -19453,17 +19454,17 @@
       <c r="G302" s="31"/>
       <c r="H302" s="31"/>
       <c r="I302" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J302" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K302" s="31"/>
       <c r="L302" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M302" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N302" s="31" t="s">
         <v>86</v>
@@ -19472,16 +19473,16 @@
         <v>241</v>
       </c>
       <c r="P302" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q302" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="R302" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="Q302" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="R302" s="33" t="s">
-        <v>714</v>
-      </c>
       <c r="S302" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T302" s="31"/>
       <c r="U302" s="31"/>
@@ -19503,17 +19504,17 @@
       <c r="G303" s="31"/>
       <c r="H303" s="31"/>
       <c r="I303" s="33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J303" s="33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K303" s="31"/>
       <c r="L303" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M303" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N303" s="31" t="s">
         <v>86</v>
@@ -19525,13 +19526,13 @@
         <v>242</v>
       </c>
       <c r="Q303" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="R303" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="R303" s="33" t="s">
-        <v>718</v>
-      </c>
       <c r="S303" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T303" s="31"/>
       <c r="U303" s="31"/>
@@ -19553,17 +19554,17 @@
       <c r="G304" s="31"/>
       <c r="H304" s="31"/>
       <c r="I304" s="33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J304" s="33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K304" s="31"/>
       <c r="L304" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M304" s="33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N304" s="31" t="s">
         <v>86</v>
@@ -19575,13 +19576,13 @@
         <v>242</v>
       </c>
       <c r="Q304" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="R304" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="R304" s="33" t="s">
+      <c r="S304" s="33" t="s">
         <v>718</v>
-      </c>
-      <c r="S304" s="33" t="s">
-        <v>719</v>
       </c>
       <c r="T304" s="31"/>
       <c r="U304" s="31"/>
@@ -19603,17 +19604,17 @@
       <c r="G305" s="31"/>
       <c r="H305" s="31"/>
       <c r="I305" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J305" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K305" s="31"/>
       <c r="L305" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M305" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N305" s="31" t="s">
         <v>85</v>
@@ -19625,10 +19626,10 @@
         <v>242</v>
       </c>
       <c r="Q305" s="33" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R305" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S305" s="31"/>
       <c r="T305" s="31"/>
@@ -19651,17 +19652,17 @@
       <c r="G306" s="31"/>
       <c r="H306" s="31"/>
       <c r="I306" s="33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J306" s="33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K306" s="31"/>
       <c r="L306" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M306" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N306" s="31" t="s">
         <v>84</v>
@@ -19673,7 +19674,7 @@
         <v>242</v>
       </c>
       <c r="Q306" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R306" s="31"/>
       <c r="S306" s="31"/>
@@ -19697,17 +19698,17 @@
       <c r="G307" s="31"/>
       <c r="H307" s="31"/>
       <c r="I307" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J307" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K307" s="31"/>
       <c r="L307" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M307" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N307" s="31" t="s">
         <v>87</v>
@@ -19719,16 +19720,16 @@
         <v>242</v>
       </c>
       <c r="Q307" s="33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R307" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="S307" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="S307" s="33" t="s">
+      <c r="T307" s="33" t="s">
         <v>725</v>
-      </c>
-      <c r="T307" s="33" t="s">
-        <v>726</v>
       </c>
       <c r="U307" s="31"/>
       <c r="V307" s="31"/>
@@ -19749,10 +19750,10 @@
       <c r="G308" s="31"/>
       <c r="H308" s="31"/>
       <c r="I308" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J308" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K308" s="31"/>
       <c r="L308" s="31" t="s">
@@ -19793,17 +19794,17 @@
       <c r="G309" s="31"/>
       <c r="H309" s="31"/>
       <c r="I309" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J309" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K309" s="31"/>
       <c r="L309" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M309" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N309" s="31" t="s">
         <v>86</v>
@@ -19815,13 +19816,13 @@
         <v>242</v>
       </c>
       <c r="Q309" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R309" s="33" t="s">
         <v>292</v>
       </c>
       <c r="S309" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T309" s="31"/>
       <c r="U309" s="31"/>
@@ -19843,10 +19844,10 @@
       <c r="G310" s="31"/>
       <c r="H310" s="31"/>
       <c r="I310" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J310" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K310" s="31"/>
       <c r="L310" s="31" t="s">
@@ -19865,7 +19866,7 @@
         <v>242</v>
       </c>
       <c r="Q310" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R310" s="33" t="s">
         <v>292</v>
@@ -19891,10 +19892,10 @@
       <c r="G311" s="31"/>
       <c r="H311" s="31"/>
       <c r="I311" s="33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J311" s="33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K311" s="31"/>
       <c r="L311" s="31" t="s">
@@ -19935,35 +19936,35 @@
       <c r="G312" s="31"/>
       <c r="H312" s="31"/>
       <c r="I312" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J312" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K312" s="31"/>
       <c r="L312" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M312" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N312" s="31" t="s">
         <v>86</v>
       </c>
       <c r="O312" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="P312" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="P312" s="33" t="s">
+      <c r="Q312" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="Q312" s="33" t="s">
+      <c r="R312" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="R312" s="33" t="s">
-        <v>737</v>
-      </c>
       <c r="S312" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T312" s="31"/>
       <c r="U312" s="31"/>
@@ -19985,23 +19986,23 @@
       <c r="G313" s="31"/>
       <c r="H313" s="31"/>
       <c r="I313" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J313" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K313" s="31"/>
       <c r="L313" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M313" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N313" s="31" t="s">
         <v>82</v>
       </c>
       <c r="O313" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P313" s="31"/>
       <c r="Q313" s="31"/>
@@ -20027,17 +20028,17 @@
       <c r="G314" s="31"/>
       <c r="H314" s="31"/>
       <c r="I314" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J314" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K314" s="31"/>
       <c r="L314" s="31" t="s">
-        <v>489</v>
+        <v>787</v>
       </c>
       <c r="M314" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N314" s="31"/>
       <c r="O314" s="31"/>
@@ -20057,44 +20058,44 @@
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I315" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="J315" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="L315" s="37" t="s">
         <v>781</v>
       </c>
-      <c r="J315" s="37" t="s">
+      <c r="M315" s="37" t="s">
         <v>781</v>
-      </c>
-      <c r="L315" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="M315" s="37" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I316" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="J316" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="L316" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="M316" s="37" t="s">
         <v>783</v>
-      </c>
-      <c r="J316" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="L316" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="M316" s="37" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I317" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J317" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L317" s="31" t="s">
         <v>207</v>
       </c>
       <c r="M317" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N317" s="31" t="s">
         <v>85</v>
@@ -20109,18 +20110,18 @@
         <v>274</v>
       </c>
       <c r="R317" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I318" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J318" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L318" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M318" s="37" t="s">
         <v>317</v>
@@ -20134,9 +20135,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R20" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
-    <hyperlink ref="R21" r:id="rId2" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
-    <hyperlink ref="R47" r:id="rId3" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
+    <hyperlink ref="R20" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R21" r:id="rId2" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="R47" r:id="rId3" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
